--- a/data_management/management/2. harmonization/ENCOVI harmonization/Encovi_comparability across years 2014-2019_ALL.xlsx
+++ b/data_management/management/2. harmonization/ENCOVI harmonization/Encovi_comparability across years 2014-2019_ALL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb550905\OneDrive - WBG\Venezuela\ENCOVI\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1468" documentId="8_{2CD9BE97-225E-471B-BF35-2F477344B0A3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{6015D8C9-D0D5-46BF-835B-BA9047AA2662}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="6_{5F3C5B1F-F4B7-4BEA-A455-BB5FD9E0729B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{5FEF2C19-F7EB-46D8-BBCB-A73D90AF3398}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="805" firstSheet="12" activeTab="12" xr2:uid="{C17073D6-622F-4055-BD8D-7FC11D1960F9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="805" firstSheet="6" activeTab="13" xr2:uid="{C17073D6-622F-4055-BD8D-7FC11D1960F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Control_entrevista" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,6 @@
     <sheet name="Eventos que afectan a hogares" sheetId="8" r:id="rId12"/>
     <sheet name="Seguridad Alimentaria" sheetId="15" r:id="rId13"/>
     <sheet name="Antropometría" sheetId="17" r:id="rId14"/>
-    <sheet name="Income" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="1030">
   <si>
     <t>Questions</t>
   </si>
@@ -3949,9 +3948,6 @@
     <t xml:space="preserve">POR AHORA DEJAMOS SOLO LAS VARIABLES AGREGADAS QUE SALÍAN DE CEDLAS </t>
   </si>
   <si>
-    <t>VAMOS A TENER QUE AGREGAR AÚN MÁS</t>
-  </si>
-  <si>
     <t>ingsuf_comida</t>
   </si>
   <si>
@@ -4188,12 +4184,141 @@
   <si>
     <t>ap81a y ap81b: igual que 2016.</t>
   </si>
+  <si>
+    <t>VAMOS A TENER QUE AGREGAR MÁS</t>
+  </si>
+  <si>
+    <t>medido</t>
+  </si>
+  <si>
+    <t>razon_nomedido</t>
+  </si>
+  <si>
+    <t>confirma_edad</t>
+  </si>
+  <si>
+    <t>solo_medicion</t>
+  </si>
+  <si>
+    <t>peso</t>
+  </si>
+  <si>
+    <t>altura</t>
+  </si>
+  <si>
+    <t>problema_pesar</t>
+  </si>
+  <si>
+    <t>problema_medir</t>
+  </si>
+  <si>
+    <t>problema_medir2</t>
+  </si>
+  <si>
+    <t>hfa</t>
+  </si>
+  <si>
+    <t>wfa</t>
+  </si>
+  <si>
+    <t>wfh</t>
+  </si>
+  <si>
+    <t>s14q1</t>
+  </si>
+  <si>
+    <t>s14q2</t>
+  </si>
+  <si>
+    <t>person_confirm</t>
+  </si>
+  <si>
+    <t>s14q14</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>posicion</t>
+  </si>
+  <si>
+    <t>weight_comments</t>
+  </si>
+  <si>
+    <t>height_comments</t>
+  </si>
+  <si>
+    <t>height_comments2</t>
+  </si>
+  <si>
+    <t>Índice de altura para la edad</t>
+  </si>
+  <si>
+    <t>Índice de peso para la edad</t>
+  </si>
+  <si>
+    <t>Índice de peso para la altura</t>
+  </si>
+  <si>
+    <t>Fue medido?</t>
+  </si>
+  <si>
+    <t>Por qué no fue medido?</t>
+  </si>
+  <si>
+    <t>1=No estaba en casa al momento de hacer la entrevista
+			2=Estaba enfermo
+			3=No está disponible
+			4=Otra razón</t>
+  </si>
+  <si>
+    <t>1=Si
+			2=No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	1=Si, es correcto
+			2=No, no es correcto</t>
+  </si>
+  <si>
+    <t>Confirmar la edad (en meses) reportada del niño</t>
+  </si>
+  <si>
+    <t>Fue capaz de permanecer solo en el instrumento de medición?</t>
+  </si>
+  <si>
+    <t>Peso en kilogramos calculado por la encuesta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Altura en centímetros calculada por la encuesta </t>
+  </si>
+  <si>
+    <t>Entrevistador: El menor fue medido de pie o acostado?</t>
+  </si>
+  <si>
+    <t>1=De pie
+			2=Acostado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al pesar, existía algo por lo que pudiera pesar más (por ejemplo ropa pesada que no se le quitó) ?			</t>
+  </si>
+  <si>
+    <t>Al medir, había algo por lo que pudiera medir más (por ejemplo zapatos gruesos o accesorios) ?</t>
+  </si>
+  <si>
+    <t>Al medir, había irregularidad en la superficie del piso donde se colocó el tallímetro ?</t>
+  </si>
+  <si>
+    <t>CHECK</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4254,7 +4379,22 @@
     </font>
     <font>
       <b/>
-      <sz val="20"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -4378,7 +4518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4557,20 +4697,11 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -4609,9 +4740,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4626,15 +4754,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4651,7 +4770,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -4661,22 +4822,19 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5008,570 +5166,570 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="8" customFormat="1">
-      <c r="A1" s="61">
+      <c r="A1" s="94">
         <v>2019</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="62">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="60">
         <v>2018</v>
       </c>
-      <c r="F1" s="62">
+      <c r="F1" s="60">
         <v>2017</v>
       </c>
-      <c r="G1" s="62">
+      <c r="G1" s="60">
         <v>2016</v>
       </c>
-      <c r="H1" s="62">
+      <c r="H1" s="60">
         <v>2015</v>
       </c>
-      <c r="I1" s="62">
+      <c r="I1" s="60">
         <v>2014</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="7" customFormat="1">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="67" t="s">
         <v>390</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:9" ht="230.4">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="70" t="s">
         <v>156</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="71" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="71" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="71" t="s">
         <v>157</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="71" t="s">
         <v>157</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="71" t="s">
         <v>158</v>
       </c>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="71" t="s">
         <v>151</v>
       </c>
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="71" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="71" t="s">
         <v>154</v>
       </c>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="71" t="s">
         <v>155</v>
       </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="71" t="s">
         <v>162</v>
       </c>
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="C12" s="74" t="s">
+      <c r="C12" s="71" t="s">
         <v>163</v>
       </c>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="71" t="s">
         <v>165</v>
       </c>
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="71" t="s">
         <v>166</v>
       </c>
-      <c r="C13" s="74" t="s">
+      <c r="C13" s="71" t="s">
         <v>167</v>
       </c>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
     </row>
     <row r="14" spans="1:9" ht="43.2">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="69" t="s">
         <v>159</v>
       </c>
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="C14" s="72" t="s">
+      <c r="C14" s="69" t="s">
         <v>161</v>
       </c>
-      <c r="D14" s="75" t="s">
+      <c r="D14" s="72" t="s">
         <v>180</v>
       </c>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="74" t="s">
+      <c r="A15" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="C15" s="74" t="s">
+      <c r="C15" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
     </row>
     <row r="16" spans="1:9" ht="28.8">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="69" t="s">
         <v>170</v>
       </c>
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="69" t="s">
         <v>170</v>
       </c>
-      <c r="C16" s="72" t="s">
+      <c r="C16" s="69" t="s">
         <v>178</v>
       </c>
-      <c r="D16" s="75" t="s">
+      <c r="D16" s="72" t="s">
         <v>179</v>
       </c>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="74" t="s">
+      <c r="A17" s="71" t="s">
         <v>171</v>
       </c>
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="71" t="s">
         <v>172</v>
       </c>
-      <c r="C17" s="74" t="s">
+      <c r="C17" s="71" t="s">
         <v>173</v>
       </c>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="74" t="s">
+      <c r="A18" s="71" t="s">
         <v>174</v>
       </c>
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="71" t="s">
         <v>174</v>
       </c>
-      <c r="C18" s="74" t="s">
+      <c r="C18" s="71" t="s">
         <v>176</v>
       </c>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="74" t="s">
+      <c r="A19" s="71" t="s">
         <v>175</v>
       </c>
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="71" t="s">
         <v>175</v>
       </c>
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="71" t="s">
         <v>177</v>
       </c>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="74" t="s">
+      <c r="A20" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="B20" s="74"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="74" t="s">
+      <c r="A21" s="71" t="s">
         <v>182</v>
       </c>
-      <c r="B21" s="74"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="74"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="74" t="s">
+      <c r="A22" s="71" t="s">
         <v>183</v>
       </c>
-      <c r="B22" s="74"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="74"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="74" t="s">
+      <c r="A23" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="B23" s="74"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="74"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="74" t="s">
+      <c r="A24" s="71" t="s">
         <v>185</v>
       </c>
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="74" t="s">
+      <c r="A25" s="71" t="s">
         <v>186</v>
       </c>
-      <c r="B25" s="74"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="74"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="74" t="s">
+      <c r="A26" s="71" t="s">
         <v>187</v>
       </c>
-      <c r="B26" s="74"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="74" t="s">
+      <c r="A27" s="71" t="s">
         <v>188</v>
       </c>
-      <c r="B27" s="74"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
     </row>
     <row r="28" spans="1:9" ht="28.8">
-      <c r="A28" s="72" t="s">
+      <c r="A28" s="69" t="s">
         <v>189</v>
       </c>
-      <c r="B28" s="72"/>
-      <c r="C28" s="72" t="s">
+      <c r="B28" s="69"/>
+      <c r="C28" s="69" t="s">
         <v>190</v>
       </c>
-      <c r="D28" s="67" t="s">
+      <c r="D28" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
     </row>
     <row r="29" spans="1:9" ht="28.8">
-      <c r="A29" s="72" t="s">
+      <c r="A29" s="69" t="s">
         <v>191</v>
       </c>
-      <c r="B29" s="72"/>
-      <c r="C29" s="72" t="s">
+      <c r="B29" s="69"/>
+      <c r="C29" s="69" t="s">
         <v>192</v>
       </c>
-      <c r="D29" s="67" t="s">
+      <c r="D29" s="64" t="s">
         <v>193</v>
       </c>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="74"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="74" t="s">
+      <c r="A30" s="71" t="s">
         <v>194</v>
       </c>
-      <c r="B30" s="74"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="71"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="74" t="s">
+      <c r="A31" s="71" t="s">
         <v>195</v>
       </c>
-      <c r="B31" s="74"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="74"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="74" t="s">
+      <c r="A32" s="71" t="s">
         <v>196</v>
       </c>
-      <c r="B32" s="74"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="74"/>
-      <c r="I32" s="74"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="71"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="74" t="s">
+      <c r="A33" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="B33" s="74"/>
-      <c r="C33" s="74"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="71"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="74" t="s">
+      <c r="A34" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="B34" s="74"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="74"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="74" t="s">
+      <c r="A35" s="71" t="s">
         <v>199</v>
       </c>
-      <c r="B35" s="74"/>
-      <c r="C35" s="74"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="71"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="74" t="s">
+      <c r="A36" s="71" t="s">
         <v>200</v>
       </c>
-      <c r="B36" s="74"/>
-      <c r="C36" s="74"/>
-      <c r="D36" s="74"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="74"/>
-      <c r="G36" s="74"/>
-      <c r="H36" s="74"/>
-      <c r="I36" s="74"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5584,213 +5742,213 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8210A5A2-BF82-48DF-82F0-74E3A1B9E934}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="A3:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="11" width="13.77734375" style="89" customWidth="1"/>
+    <col min="1" max="11" width="13.77734375" style="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" ht="25.8">
-      <c r="A3" s="94" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" s="93" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="25.8">
-      <c r="A4" s="94" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="91" customFormat="1">
-      <c r="A9" s="90"/>
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-    </row>
-    <row r="10" spans="1:11" s="91" customFormat="1">
-      <c r="A10" s="90"/>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="90"/>
-    </row>
-    <row r="11" spans="1:11" s="91" customFormat="1">
-      <c r="A11" s="90"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="92">
+    <row r="4" spans="1:11">
+      <c r="A4" s="93" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="84" customFormat="1">
+      <c r="A9" s="83"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+    </row>
+    <row r="10" spans="1:11" s="84" customFormat="1">
+      <c r="A10" s="83"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="83"/>
+    </row>
+    <row r="11" spans="1:11" s="84" customFormat="1">
+      <c r="A11" s="83"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="85">
         <v>2018</v>
       </c>
-      <c r="F11" s="90">
+      <c r="F11" s="83">
         <v>2017</v>
       </c>
-      <c r="G11" s="90">
+      <c r="G11" s="83">
         <v>2016</v>
       </c>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="90"/>
-    </row>
-    <row r="12" spans="1:11" s="91" customFormat="1">
-      <c r="A12" s="90"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90" t="s">
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+    </row>
+    <row r="12" spans="1:11" s="84" customFormat="1">
+      <c r="A12" s="83"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83" t="s">
         <v>914</v>
       </c>
-      <c r="F12" s="90" t="s">
+      <c r="F12" s="83" t="s">
         <v>915</v>
       </c>
-      <c r="G12" s="90" t="s">
+      <c r="G12" s="83" t="s">
         <v>916</v>
       </c>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-    </row>
-    <row r="13" spans="1:11" s="91" customFormat="1">
-      <c r="A13" s="90"/>
-      <c r="B13" s="90"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-    </row>
-    <row r="14" spans="1:11" s="91" customFormat="1">
-      <c r="A14" s="90"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90" t="s">
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="83"/>
+    </row>
+    <row r="13" spans="1:11" s="84" customFormat="1">
+      <c r="A13" s="83"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+    </row>
+    <row r="14" spans="1:11" s="84" customFormat="1">
+      <c r="A14" s="83"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83" t="s">
         <v>917</v>
       </c>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-    </row>
-    <row r="15" spans="1:11" s="91" customFormat="1">
-      <c r="A15" s="90"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="93" t="s">
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+    </row>
+    <row r="15" spans="1:11" s="84" customFormat="1">
+      <c r="A15" s="83"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="86" t="s">
         <v>918</v>
       </c>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-    </row>
-    <row r="16" spans="1:11" s="91" customFormat="1">
-      <c r="A16" s="90"/>
-      <c r="B16" s="90"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90"/>
-    </row>
-    <row r="17" spans="1:11" s="91" customFormat="1">
-      <c r="A17" s="90"/>
-      <c r="B17" s="90"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
-    </row>
-    <row r="18" spans="1:11" s="91" customFormat="1">
-      <c r="A18" s="90"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="90"/>
-    </row>
-    <row r="19" spans="1:11" s="91" customFormat="1">
-      <c r="A19" s="90"/>
-      <c r="B19" s="90"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90"/>
-    </row>
-    <row r="20" spans="1:11" s="91" customFormat="1">
-      <c r="A20" s="90"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="90"/>
-    </row>
-    <row r="21" spans="1:11" s="91" customFormat="1">
-      <c r="A21" s="90"/>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="83"/>
+    </row>
+    <row r="16" spans="1:11" s="84" customFormat="1">
+      <c r="A16" s="83"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="83"/>
+    </row>
+    <row r="17" spans="1:11" s="84" customFormat="1">
+      <c r="A17" s="83"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="83"/>
+    </row>
+    <row r="18" spans="1:11" s="84" customFormat="1">
+      <c r="A18" s="83"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="83"/>
+    </row>
+    <row r="19" spans="1:11" s="84" customFormat="1">
+      <c r="A19" s="83"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
+    </row>
+    <row r="20" spans="1:11" s="84" customFormat="1">
+      <c r="A20" s="83"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="83"/>
+    </row>
+    <row r="21" spans="1:11" s="84" customFormat="1">
+      <c r="A21" s="83"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="83"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5809,7 +5967,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="A1:I30"/>
+      <selection pane="bottomRight" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5820,146 +5978,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="11" customFormat="1">
-      <c r="A1" s="61">
+      <c r="A1" s="94">
         <v>2019</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="62">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="60">
         <v>2018</v>
       </c>
-      <c r="F1" s="62">
+      <c r="F1" s="60">
         <v>2017</v>
       </c>
-      <c r="G1" s="62">
+      <c r="G1" s="60">
         <v>2016</v>
       </c>
-      <c r="H1" s="62">
+      <c r="H1" s="60">
         <v>2015</v>
       </c>
-      <c r="I1" s="62">
+      <c r="I1" s="60">
         <v>2014</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="7" customFormat="1">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="67" t="s">
         <v>756</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="69" t="s">
         <v>757</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72" t="s">
+      <c r="B3" s="69"/>
+      <c r="C3" s="69" t="s">
         <v>758</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
     </row>
     <row r="4" spans="1:9" ht="28.8">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="69" t="s">
         <v>759</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72" t="s">
+      <c r="B4" s="69"/>
+      <c r="C4" s="69" t="s">
         <v>760</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="64" t="s">
         <v>761</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="69" t="s">
         <v>763</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72" t="s">
+      <c r="B5" s="69"/>
+      <c r="C5" s="69" t="s">
         <v>764</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="74" t="s">
+      <c r="D5" s="69"/>
+      <c r="E5" s="71" t="s">
         <v>762</v>
       </c>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
     </row>
     <row r="6" spans="1:9" ht="87" customHeight="1">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="69" t="s">
         <v>765</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="67" t="s">
+      <c r="B6" s="69"/>
+      <c r="C6" s="64" t="s">
         <v>766</v>
       </c>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72" t="s">
+      <c r="D6" s="69"/>
+      <c r="E6" s="69" t="s">
         <v>762</v>
       </c>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
     </row>
     <row r="7" spans="1:9" ht="28.8">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="69" t="s">
         <v>767</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="67" t="s">
+      <c r="B7" s="69"/>
+      <c r="C7" s="64" t="s">
         <v>768</v>
       </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
     </row>
     <row r="8" spans="1:9" ht="28.8">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="69" t="s">
         <v>769</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72" t="s">
+      <c r="B8" s="69"/>
+      <c r="C8" s="69" t="s">
         <v>770</v>
       </c>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="64" t="s">
         <v>771</v>
       </c>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" ht="180" customHeight="1">
       <c r="A9" s="12" t="s">
@@ -5979,343 +6137,343 @@
       <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="71" t="s">
         <v>775</v>
       </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74" t="s">
+      <c r="B10" s="71"/>
+      <c r="C10" s="71" t="s">
         <v>776</v>
       </c>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
     </row>
     <row r="11" spans="1:9" ht="172.8">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="69" t="s">
         <v>777</v>
       </c>
-      <c r="B11" s="72"/>
-      <c r="C11" s="67" t="s">
+      <c r="B11" s="69"/>
+      <c r="C11" s="64" t="s">
         <v>778</v>
       </c>
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="64" t="s">
         <v>779</v>
       </c>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
     </row>
     <row r="12" spans="1:9" ht="201.6">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="69" t="s">
         <v>780</v>
       </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="67" t="s">
+      <c r="B12" s="69"/>
+      <c r="C12" s="64" t="s">
         <v>781</v>
       </c>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="64" t="s">
         <v>782</v>
       </c>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
     </row>
     <row r="13" spans="1:9" ht="43.2">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="69" t="s">
         <v>783</v>
       </c>
-      <c r="B13" s="74"/>
-      <c r="C13" s="75" t="s">
+      <c r="B13" s="71"/>
+      <c r="C13" s="72" t="s">
         <v>784</v>
       </c>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
     </row>
     <row r="14" spans="1:9" ht="43.2">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="69" t="s">
         <v>785</v>
       </c>
-      <c r="B14" s="74"/>
-      <c r="C14" s="75" t="s">
+      <c r="B14" s="71"/>
+      <c r="C14" s="72" t="s">
         <v>786</v>
       </c>
-      <c r="D14" s="75" t="s">
+      <c r="D14" s="72" t="s">
         <v>787</v>
       </c>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
     </row>
     <row r="15" spans="1:9" ht="43.2">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="69" t="s">
         <v>788</v>
       </c>
-      <c r="B15" s="74"/>
-      <c r="C15" s="75" t="s">
+      <c r="B15" s="71"/>
+      <c r="C15" s="72" t="s">
         <v>789</v>
       </c>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
     </row>
     <row r="16" spans="1:9" ht="43.2">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="69" t="s">
         <v>790</v>
       </c>
-      <c r="B16" s="74"/>
-      <c r="C16" s="75" t="s">
+      <c r="B16" s="71"/>
+      <c r="C16" s="72" t="s">
         <v>791</v>
       </c>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
     </row>
     <row r="17" spans="1:9" ht="43.2">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="69" t="s">
         <v>792</v>
       </c>
-      <c r="B17" s="74"/>
-      <c r="C17" s="75" t="s">
+      <c r="B17" s="71"/>
+      <c r="C17" s="72" t="s">
         <v>793</v>
       </c>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
     </row>
     <row r="18" spans="1:9" ht="230.4">
-      <c r="A18" s="72" t="s">
+      <c r="A18" s="69" t="s">
         <v>794</v>
       </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="67" t="s">
+      <c r="B18" s="69"/>
+      <c r="C18" s="64" t="s">
         <v>795</v>
       </c>
-      <c r="D18" s="67" t="s">
+      <c r="D18" s="64" t="s">
         <v>796</v>
       </c>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="74" t="s">
+      <c r="A19" s="71" t="s">
         <v>797</v>
       </c>
-      <c r="B19" s="74"/>
-      <c r="C19" s="74" t="s">
+      <c r="B19" s="71"/>
+      <c r="C19" s="71" t="s">
         <v>798</v>
       </c>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="74" t="s">
+      <c r="A20" s="71" t="s">
         <v>799</v>
       </c>
-      <c r="B20" s="74"/>
-      <c r="C20" s="75" t="s">
+      <c r="B20" s="71"/>
+      <c r="C20" s="72" t="s">
         <v>800</v>
       </c>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
     </row>
     <row r="21" spans="1:9" s="6" customFormat="1" ht="28.8">
-      <c r="A21" s="72" t="s">
+      <c r="A21" s="69" t="s">
         <v>801</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72" t="s">
+      <c r="B21" s="69"/>
+      <c r="C21" s="69" t="s">
         <v>802</v>
       </c>
-      <c r="D21" s="67" t="s">
+      <c r="D21" s="64" t="s">
         <v>761</v>
       </c>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
     </row>
     <row r="22" spans="1:9" ht="86.4">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="69" t="s">
         <v>803</v>
       </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="67" t="s">
+      <c r="B22" s="69"/>
+      <c r="C22" s="64" t="s">
         <v>804</v>
       </c>
-      <c r="D22" s="67" t="s">
+      <c r="D22" s="64" t="s">
         <v>805</v>
       </c>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="74"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
     </row>
     <row r="23" spans="1:9" ht="144">
-      <c r="A23" s="72" t="s">
+      <c r="A23" s="69" t="s">
         <v>806</v>
       </c>
-      <c r="B23" s="72"/>
-      <c r="C23" s="67" t="s">
+      <c r="B23" s="69"/>
+      <c r="C23" s="64" t="s">
         <v>807</v>
       </c>
-      <c r="D23" s="67" t="s">
+      <c r="D23" s="64" t="s">
         <v>808</v>
       </c>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="74"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="74" t="s">
+      <c r="A24" s="71" t="s">
         <v>809</v>
       </c>
-      <c r="B24" s="74"/>
-      <c r="C24" s="74" t="s">
+      <c r="B24" s="71"/>
+      <c r="C24" s="71" t="s">
         <v>810</v>
       </c>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
     </row>
     <row r="25" spans="1:9" s="6" customFormat="1" ht="374.55" customHeight="1">
-      <c r="A25" s="72" t="s">
+      <c r="A25" s="69" t="s">
         <v>811</v>
       </c>
-      <c r="B25" s="72"/>
-      <c r="C25" s="67" t="s">
+      <c r="B25" s="69"/>
+      <c r="C25" s="64" t="s">
         <v>812</v>
       </c>
-      <c r="D25" s="67" t="s">
+      <c r="D25" s="64" t="s">
         <v>813</v>
       </c>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
     </row>
     <row r="26" spans="1:9" ht="379.05" customHeight="1">
-      <c r="A26" s="67" t="s">
+      <c r="A26" s="64" t="s">
         <v>814</v>
       </c>
-      <c r="B26" s="67"/>
-      <c r="C26" s="67" t="s">
+      <c r="B26" s="64"/>
+      <c r="C26" s="64" t="s">
         <v>815</v>
       </c>
-      <c r="D26" s="67" t="s">
+      <c r="D26" s="64" t="s">
         <v>813</v>
       </c>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
     </row>
     <row r="27" spans="1:9" ht="43.2">
-      <c r="A27" s="67" t="s">
+      <c r="A27" s="64" t="s">
         <v>816</v>
       </c>
-      <c r="B27" s="74"/>
-      <c r="C27" s="75" t="s">
+      <c r="B27" s="71"/>
+      <c r="C27" s="72" t="s">
         <v>817</v>
       </c>
-      <c r="D27" s="67" t="s">
+      <c r="D27" s="64" t="s">
         <v>761</v>
       </c>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
     </row>
     <row r="28" spans="1:9" ht="28.8">
-      <c r="A28" s="67" t="s">
+      <c r="A28" s="64" t="s">
         <v>818</v>
       </c>
-      <c r="B28" s="74"/>
-      <c r="C28" s="67" t="s">
+      <c r="B28" s="71"/>
+      <c r="C28" s="64" t="s">
         <v>819</v>
       </c>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
     </row>
     <row r="29" spans="1:9" ht="172.8">
-      <c r="A29" s="67" t="s">
+      <c r="A29" s="64" t="s">
         <v>820</v>
       </c>
-      <c r="B29" s="74"/>
-      <c r="C29" s="67" t="s">
+      <c r="B29" s="71"/>
+      <c r="C29" s="64" t="s">
         <v>821</v>
       </c>
-      <c r="D29" s="75" t="s">
+      <c r="D29" s="72" t="s">
         <v>779</v>
       </c>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="74"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
     </row>
     <row r="30" spans="1:9" ht="43.2">
-      <c r="A30" s="67" t="s">
+      <c r="A30" s="64" t="s">
         <v>822</v>
       </c>
-      <c r="B30" s="74"/>
-      <c r="C30" s="75" t="s">
+      <c r="B30" s="71"/>
+      <c r="C30" s="72" t="s">
         <v>823</v>
       </c>
-      <c r="D30" s="67" t="s">
+      <c r="D30" s="64" t="s">
         <v>761</v>
       </c>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6343,94 +6501,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="9" customFormat="1">
-      <c r="A1" s="62">
+      <c r="A1" s="60">
         <v>2019</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60">
         <v>2018</v>
       </c>
-      <c r="F1" s="62">
+      <c r="F1" s="60">
         <v>2017</v>
       </c>
-      <c r="G1" s="62">
+      <c r="G1" s="60">
         <v>2016</v>
       </c>
-      <c r="H1" s="62">
+      <c r="H1" s="60">
         <v>2015</v>
       </c>
-      <c r="I1" s="87">
+      <c r="I1" s="80">
         <v>2014</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="7" customFormat="1">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="67" t="s">
         <v>390</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="88"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="81"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="71" t="s">
         <v>438</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="71" t="s">
         <v>440</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="71" t="s">
         <v>439</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
     </row>
     <row r="4" spans="1:9" ht="409.6">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="69" t="s">
         <v>441</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="69" t="s">
         <v>445</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="64" t="s">
         <v>442</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="72" t="s">
         <v>443</v>
       </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
     </row>
     <row r="5" spans="1:9" ht="409.6">
-      <c r="A5" s="74"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="67" t="s">
+      <c r="A5" s="71"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="64" t="s">
         <v>444</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="72" t="s">
         <v>443</v>
       </c>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6441,11 +6599,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7A8F8F-EDBA-406E-9266-2F06CF70D6A9}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6460,463 +6618,463 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="37" customFormat="1">
-      <c r="A1" s="96">
+      <c r="A1" s="103">
         <v>2019</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="62">
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="60">
         <v>2018</v>
       </c>
-      <c r="G1" s="99">
+      <c r="G1" s="88">
         <v>2017</v>
       </c>
-      <c r="H1" s="62">
+      <c r="H1" s="60">
         <v>2016</v>
       </c>
-      <c r="I1" s="62">
+      <c r="I1" s="60">
         <v>2015</v>
       </c>
-      <c r="J1" s="62">
+      <c r="J1" s="60">
         <v>2014</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="50" customFormat="1" ht="43.2">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="102" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="63" t="s">
+      <c r="B2" s="102"/>
+      <c r="C2" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="61" t="s">
+        <v>964</v>
+      </c>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="51"/>
+    </row>
+    <row r="3" spans="1:11" ht="72">
+      <c r="A3" s="101" t="s">
+        <v>920</v>
+      </c>
+      <c r="B3" s="101"/>
+      <c r="C3" s="71" t="s">
+        <v>934</v>
+      </c>
+      <c r="D3" s="72" t="s">
+        <v>947</v>
+      </c>
+      <c r="E3" s="72" t="s">
+        <v>962</v>
+      </c>
+      <c r="F3" s="72" t="s">
+        <v>963</v>
+      </c>
+      <c r="G3" s="72" t="s">
+        <v>978</v>
+      </c>
+      <c r="H3" s="72" t="s">
+        <v>986</v>
+      </c>
+      <c r="I3" s="91" t="s">
+        <v>987</v>
+      </c>
+      <c r="J3" s="91" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28.8">
+      <c r="A4" s="101" t="s">
+        <v>950</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>921</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>935</v>
+      </c>
+      <c r="D4" s="70" t="s">
+        <v>948</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>962</v>
+      </c>
+      <c r="F4" s="70" t="s">
+        <v>966</v>
+      </c>
+      <c r="G4" s="70" t="s">
+        <v>452</v>
+      </c>
+      <c r="H4" s="70" t="s">
+        <v>452</v>
+      </c>
+      <c r="I4" s="70" t="s">
+        <v>452</v>
+      </c>
+      <c r="J4" s="70" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="115.2">
+      <c r="A5" s="101"/>
+      <c r="B5" s="70" t="s">
+        <v>922</v>
+      </c>
+      <c r="C5" s="70" t="s">
+        <v>936</v>
+      </c>
+      <c r="D5" s="70" t="s">
+        <v>949</v>
+      </c>
+      <c r="E5" s="70" t="s">
+        <v>962</v>
+      </c>
+      <c r="F5" s="70" t="s">
+        <v>967</v>
+      </c>
+      <c r="G5" s="70" t="s">
+        <v>979</v>
+      </c>
+      <c r="H5" s="70" t="s">
+        <v>452</v>
+      </c>
+      <c r="I5" s="70" t="s">
+        <v>452</v>
+      </c>
+      <c r="J5" s="70" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="144">
+      <c r="A6" s="101"/>
+      <c r="B6" s="70" t="s">
+        <v>923</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>937</v>
+      </c>
+      <c r="D6" s="70" t="s">
+        <v>951</v>
+      </c>
+      <c r="E6" s="70" t="s">
+        <v>962</v>
+      </c>
+      <c r="F6" s="70" t="s">
+        <v>968</v>
+      </c>
+      <c r="G6" s="70" t="s">
+        <v>980</v>
+      </c>
+      <c r="H6" s="89" t="s">
+        <v>452</v>
+      </c>
+      <c r="I6" s="89" t="s">
+        <v>452</v>
+      </c>
+      <c r="J6" s="89" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="144">
+      <c r="A7" s="101"/>
+      <c r="B7" s="70" t="s">
+        <v>924</v>
+      </c>
+      <c r="C7" s="70" t="s">
+        <v>938</v>
+      </c>
+      <c r="D7" s="70" t="s">
+        <v>952</v>
+      </c>
+      <c r="E7" s="70" t="s">
+        <v>962</v>
+      </c>
+      <c r="F7" s="70" t="s">
+        <v>969</v>
+      </c>
+      <c r="G7" s="70" t="s">
+        <v>980</v>
+      </c>
+      <c r="H7" s="89" t="s">
+        <v>452</v>
+      </c>
+      <c r="I7" s="89" t="s">
+        <v>452</v>
+      </c>
+      <c r="J7" s="89" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="187.2">
+      <c r="A8" s="101"/>
+      <c r="B8" s="70" t="s">
+        <v>925</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>939</v>
+      </c>
+      <c r="D8" s="70" t="s">
+        <v>953</v>
+      </c>
+      <c r="E8" s="70" t="s">
+        <v>962</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>970</v>
+      </c>
+      <c r="G8" s="70" t="s">
+        <v>983</v>
+      </c>
+      <c r="H8" s="89" t="s">
+        <v>452</v>
+      </c>
+      <c r="I8" s="89" t="s">
+        <v>452</v>
+      </c>
+      <c r="J8" s="89" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="302.39999999999998">
+      <c r="A9" s="101"/>
+      <c r="B9" s="70" t="s">
+        <v>926</v>
+      </c>
+      <c r="C9" s="70" t="s">
+        <v>940</v>
+      </c>
+      <c r="D9" s="70" t="s">
+        <v>954</v>
+      </c>
+      <c r="E9" s="70" t="s">
+        <v>962</v>
+      </c>
+      <c r="F9" s="70" t="s">
+        <v>971</v>
+      </c>
+      <c r="G9" s="70" t="s">
+        <v>981</v>
+      </c>
+      <c r="H9" s="89" t="s">
+        <v>985</v>
+      </c>
+      <c r="I9" s="89" t="s">
+        <v>988</v>
+      </c>
+      <c r="J9" s="89" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="82" customFormat="1" ht="259.2">
+      <c r="A10" s="101"/>
+      <c r="B10" s="90" t="s">
+        <v>927</v>
+      </c>
+      <c r="C10" s="90" t="s">
+        <v>941</v>
+      </c>
+      <c r="D10" s="70" t="s">
+        <v>955</v>
+      </c>
+      <c r="E10" s="90" t="s">
+        <v>962</v>
+      </c>
+      <c r="F10" s="90" t="s">
+        <v>972</v>
+      </c>
+      <c r="G10" s="90" t="s">
+        <v>982</v>
+      </c>
+      <c r="H10" s="89" t="s">
+        <v>985</v>
+      </c>
+      <c r="I10" s="89" t="s">
+        <v>988</v>
+      </c>
+      <c r="J10" s="89" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="187.2">
+      <c r="A11" s="101"/>
+      <c r="B11" s="70" t="s">
+        <v>928</v>
+      </c>
+      <c r="C11" s="70" t="s">
+        <v>942</v>
+      </c>
+      <c r="D11" s="70" t="s">
+        <v>956</v>
+      </c>
+      <c r="E11" s="70" t="s">
+        <v>962</v>
+      </c>
+      <c r="F11" s="70" t="s">
+        <v>973</v>
+      </c>
+      <c r="G11" s="70" t="s">
+        <v>983</v>
+      </c>
+      <c r="H11" s="89" t="s">
+        <v>452</v>
+      </c>
+      <c r="I11" s="89" t="s">
+        <v>452</v>
+      </c>
+      <c r="J11" s="89" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="144">
+      <c r="A12" s="101"/>
+      <c r="B12" s="70" t="s">
+        <v>929</v>
+      </c>
+      <c r="C12" s="70" t="s">
+        <v>943</v>
+      </c>
+      <c r="D12" s="70" t="s">
+        <v>957</v>
+      </c>
+      <c r="E12" s="70" t="s">
+        <v>962</v>
+      </c>
+      <c r="F12" s="70" t="s">
+        <v>974</v>
+      </c>
+      <c r="G12" s="70" t="s">
+        <v>980</v>
+      </c>
+      <c r="H12" s="89" t="s">
+        <v>452</v>
+      </c>
+      <c r="I12" s="89" t="s">
+        <v>452</v>
+      </c>
+      <c r="J12" s="89" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="144">
+      <c r="A13" s="101"/>
+      <c r="B13" s="70" t="s">
+        <v>930</v>
+      </c>
+      <c r="C13" s="70" t="s">
+        <v>944</v>
+      </c>
+      <c r="D13" s="70" t="s">
+        <v>958</v>
+      </c>
+      <c r="E13" s="70" t="s">
+        <v>962</v>
+      </c>
+      <c r="F13" s="70" t="s">
+        <v>975</v>
+      </c>
+      <c r="G13" s="70" t="s">
+        <v>984</v>
+      </c>
+      <c r="H13" s="89" t="s">
+        <v>452</v>
+      </c>
+      <c r="I13" s="89" t="s">
+        <v>452</v>
+      </c>
+      <c r="J13" s="89" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="28.8">
+      <c r="A14" s="101"/>
+      <c r="B14" s="70" t="s">
+        <v>931</v>
+      </c>
+      <c r="C14" s="70" t="s">
+        <v>945</v>
+      </c>
+      <c r="D14" s="70" t="s">
+        <v>959</v>
+      </c>
+      <c r="E14" s="70" t="s">
+        <v>962</v>
+      </c>
+      <c r="F14" s="70" t="s">
+        <v>976</v>
+      </c>
+      <c r="G14" s="70"/>
+      <c r="H14" s="89" t="s">
+        <v>452</v>
+      </c>
+      <c r="I14" s="89" t="s">
+        <v>452</v>
+      </c>
+      <c r="J14" s="89" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="28.8">
+      <c r="A15" s="101"/>
+      <c r="B15" s="70" t="s">
+        <v>932</v>
+      </c>
+      <c r="C15" s="70" t="s">
+        <v>946</v>
+      </c>
+      <c r="D15" s="70" t="s">
+        <v>960</v>
+      </c>
+      <c r="E15" s="70" t="s">
+        <v>962</v>
+      </c>
+      <c r="F15" s="70" t="s">
+        <v>977</v>
+      </c>
+      <c r="G15" s="70"/>
+      <c r="H15" s="89" t="s">
+        <v>452</v>
+      </c>
+      <c r="I15" s="89" t="s">
+        <v>452</v>
+      </c>
+      <c r="J15" s="89" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="43.2">
+      <c r="A16" s="101" t="s">
+        <v>933</v>
+      </c>
+      <c r="B16" s="101"/>
+      <c r="C16" s="70" t="s">
         <v>965</v>
       </c>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="51"/>
-    </row>
-    <row r="3" spans="1:11" ht="72">
-      <c r="A3" s="100" t="s">
-        <v>921</v>
-      </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="74" t="s">
-        <v>935</v>
-      </c>
-      <c r="D3" s="75" t="s">
-        <v>948</v>
-      </c>
-      <c r="E3" s="75" t="s">
-        <v>963</v>
-      </c>
-      <c r="F3" s="75" t="s">
-        <v>964</v>
-      </c>
-      <c r="G3" s="75" t="s">
-        <v>979</v>
-      </c>
-      <c r="H3" s="75" t="s">
-        <v>987</v>
-      </c>
-      <c r="I3" s="103" t="s">
-        <v>988</v>
-      </c>
-      <c r="J3" s="103" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="28.8">
-      <c r="A4" s="100" t="s">
-        <v>951</v>
-      </c>
-      <c r="B4" s="73" t="s">
-        <v>922</v>
-      </c>
-      <c r="C4" s="73" t="s">
-        <v>936</v>
-      </c>
-      <c r="D4" s="73" t="s">
-        <v>949</v>
-      </c>
-      <c r="E4" s="73" t="s">
-        <v>963</v>
-      </c>
-      <c r="F4" s="73" t="s">
-        <v>967</v>
-      </c>
-      <c r="G4" s="73" t="s">
-        <v>452</v>
-      </c>
-      <c r="H4" s="73" t="s">
-        <v>452</v>
-      </c>
-      <c r="I4" s="73" t="s">
-        <v>452</v>
-      </c>
-      <c r="J4" s="73" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="115.2">
-      <c r="A5" s="100"/>
-      <c r="B5" s="73" t="s">
-        <v>923</v>
-      </c>
-      <c r="C5" s="73" t="s">
-        <v>937</v>
-      </c>
-      <c r="D5" s="73" t="s">
-        <v>950</v>
-      </c>
-      <c r="E5" s="73" t="s">
-        <v>963</v>
-      </c>
-      <c r="F5" s="73" t="s">
-        <v>968</v>
-      </c>
-      <c r="G5" s="73" t="s">
-        <v>980</v>
-      </c>
-      <c r="H5" s="73" t="s">
-        <v>452</v>
-      </c>
-      <c r="I5" s="73" t="s">
-        <v>452</v>
-      </c>
-      <c r="J5" s="73" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="144">
-      <c r="A6" s="100"/>
-      <c r="B6" s="73" t="s">
-        <v>924</v>
-      </c>
-      <c r="C6" s="73" t="s">
-        <v>938</v>
-      </c>
-      <c r="D6" s="73" t="s">
-        <v>952</v>
-      </c>
-      <c r="E6" s="73" t="s">
-        <v>963</v>
-      </c>
-      <c r="F6" s="73" t="s">
-        <v>969</v>
-      </c>
-      <c r="G6" s="73" t="s">
-        <v>981</v>
-      </c>
-      <c r="H6" s="101" t="s">
-        <v>452</v>
-      </c>
-      <c r="I6" s="101" t="s">
-        <v>452</v>
-      </c>
-      <c r="J6" s="101" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="144">
-      <c r="A7" s="100"/>
-      <c r="B7" s="73" t="s">
-        <v>925</v>
-      </c>
-      <c r="C7" s="73" t="s">
-        <v>939</v>
-      </c>
-      <c r="D7" s="73" t="s">
-        <v>953</v>
-      </c>
-      <c r="E7" s="73" t="s">
-        <v>963</v>
-      </c>
-      <c r="F7" s="73" t="s">
-        <v>970</v>
-      </c>
-      <c r="G7" s="73" t="s">
-        <v>981</v>
-      </c>
-      <c r="H7" s="101" t="s">
-        <v>452</v>
-      </c>
-      <c r="I7" s="101" t="s">
-        <v>452</v>
-      </c>
-      <c r="J7" s="101" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="187.2">
-      <c r="A8" s="100"/>
-      <c r="B8" s="73" t="s">
-        <v>926</v>
-      </c>
-      <c r="C8" s="73" t="s">
-        <v>940</v>
-      </c>
-      <c r="D8" s="73" t="s">
-        <v>954</v>
-      </c>
-      <c r="E8" s="73" t="s">
-        <v>963</v>
-      </c>
-      <c r="F8" s="73" t="s">
-        <v>971</v>
-      </c>
-      <c r="G8" s="73" t="s">
-        <v>984</v>
-      </c>
-      <c r="H8" s="101" t="s">
-        <v>452</v>
-      </c>
-      <c r="I8" s="101" t="s">
-        <v>452</v>
-      </c>
-      <c r="J8" s="101" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="302.39999999999998">
-      <c r="A9" s="100"/>
-      <c r="B9" s="73" t="s">
-        <v>927</v>
-      </c>
-      <c r="C9" s="73" t="s">
-        <v>941</v>
-      </c>
-      <c r="D9" s="73" t="s">
-        <v>955</v>
-      </c>
-      <c r="E9" s="73" t="s">
-        <v>963</v>
-      </c>
-      <c r="F9" s="73" t="s">
-        <v>972</v>
-      </c>
-      <c r="G9" s="73" t="s">
-        <v>982</v>
-      </c>
-      <c r="H9" s="101" t="s">
-        <v>986</v>
-      </c>
-      <c r="I9" s="101" t="s">
-        <v>989</v>
-      </c>
-      <c r="J9" s="101" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="89" customFormat="1" ht="259.2">
-      <c r="A10" s="100"/>
-      <c r="B10" s="102" t="s">
-        <v>928</v>
-      </c>
-      <c r="C10" s="102" t="s">
-        <v>942</v>
-      </c>
-      <c r="D10" s="73" t="s">
-        <v>956</v>
-      </c>
-      <c r="E10" s="102" t="s">
-        <v>963</v>
-      </c>
-      <c r="F10" s="102" t="s">
-        <v>973</v>
-      </c>
-      <c r="G10" s="102" t="s">
-        <v>983</v>
-      </c>
-      <c r="H10" s="101" t="s">
-        <v>986</v>
-      </c>
-      <c r="I10" s="101" t="s">
-        <v>989</v>
-      </c>
-      <c r="J10" s="101" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="187.2">
-      <c r="A11" s="100"/>
-      <c r="B11" s="73" t="s">
-        <v>929</v>
-      </c>
-      <c r="C11" s="73" t="s">
-        <v>943</v>
-      </c>
-      <c r="D11" s="73" t="s">
-        <v>957</v>
-      </c>
-      <c r="E11" s="73" t="s">
-        <v>963</v>
-      </c>
-      <c r="F11" s="73" t="s">
-        <v>974</v>
-      </c>
-      <c r="G11" s="73" t="s">
-        <v>984</v>
-      </c>
-      <c r="H11" s="101" t="s">
-        <v>452</v>
-      </c>
-      <c r="I11" s="101" t="s">
-        <v>452</v>
-      </c>
-      <c r="J11" s="101" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="144">
-      <c r="A12" s="100"/>
-      <c r="B12" s="73" t="s">
-        <v>930</v>
-      </c>
-      <c r="C12" s="73" t="s">
-        <v>944</v>
-      </c>
-      <c r="D12" s="73" t="s">
-        <v>958</v>
-      </c>
-      <c r="E12" s="73" t="s">
-        <v>963</v>
-      </c>
-      <c r="F12" s="73" t="s">
-        <v>975</v>
-      </c>
-      <c r="G12" s="73" t="s">
-        <v>981</v>
-      </c>
-      <c r="H12" s="101" t="s">
-        <v>452</v>
-      </c>
-      <c r="I12" s="101" t="s">
-        <v>452</v>
-      </c>
-      <c r="J12" s="101" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="144">
-      <c r="A13" s="100"/>
-      <c r="B13" s="73" t="s">
-        <v>931</v>
-      </c>
-      <c r="C13" s="73" t="s">
-        <v>945</v>
-      </c>
-      <c r="D13" s="73" t="s">
-        <v>959</v>
-      </c>
-      <c r="E13" s="73" t="s">
-        <v>963</v>
-      </c>
-      <c r="F13" s="73" t="s">
-        <v>976</v>
-      </c>
-      <c r="G13" s="73" t="s">
-        <v>985</v>
-      </c>
-      <c r="H13" s="101" t="s">
-        <v>452</v>
-      </c>
-      <c r="I13" s="101" t="s">
-        <v>452</v>
-      </c>
-      <c r="J13" s="101" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="28.8">
-      <c r="A14" s="100"/>
-      <c r="B14" s="73" t="s">
-        <v>932</v>
-      </c>
-      <c r="C14" s="73" t="s">
-        <v>946</v>
-      </c>
-      <c r="D14" s="73" t="s">
-        <v>960</v>
-      </c>
-      <c r="E14" s="73" t="s">
-        <v>963</v>
-      </c>
-      <c r="F14" s="73" t="s">
-        <v>977</v>
-      </c>
-      <c r="G14" s="73"/>
-      <c r="H14" s="101" t="s">
-        <v>452</v>
-      </c>
-      <c r="I14" s="101" t="s">
-        <v>452</v>
-      </c>
-      <c r="J14" s="101" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="28.8">
-      <c r="A15" s="100"/>
-      <c r="B15" s="73" t="s">
-        <v>933</v>
-      </c>
-      <c r="C15" s="73" t="s">
-        <v>947</v>
-      </c>
-      <c r="D15" s="73" t="s">
+      <c r="D16" s="70" t="s">
         <v>961</v>
       </c>
-      <c r="E15" s="73" t="s">
-        <v>963</v>
-      </c>
-      <c r="F15" s="73" t="s">
-        <v>978</v>
-      </c>
-      <c r="G15" s="73"/>
-      <c r="H15" s="101" t="s">
-        <v>452</v>
-      </c>
-      <c r="I15" s="101" t="s">
-        <v>452</v>
-      </c>
-      <c r="J15" s="101" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="43.2">
-      <c r="A16" s="100" t="s">
-        <v>934</v>
-      </c>
-      <c r="B16" s="100"/>
-      <c r="C16" s="73" t="s">
-        <v>966</v>
-      </c>
-      <c r="D16" s="73" t="s">
+      <c r="E16" s="70" t="s">
         <v>962</v>
       </c>
-      <c r="E16" s="73" t="s">
-        <v>963</v>
-      </c>
-      <c r="F16" s="73" t="s">
-        <v>452</v>
-      </c>
-      <c r="G16" s="73"/>
-      <c r="H16" s="101" t="s">
-        <v>452</v>
-      </c>
-      <c r="I16" s="101" t="s">
-        <v>452</v>
-      </c>
-      <c r="J16" s="101" t="s">
+      <c r="F16" s="70" t="s">
+        <v>452</v>
+      </c>
+      <c r="G16" s="70"/>
+      <c r="H16" s="89" t="s">
+        <v>452</v>
+      </c>
+      <c r="I16" s="89" t="s">
+        <v>452</v>
+      </c>
+      <c r="J16" s="89" t="s">
         <v>452</v>
       </c>
     </row>
@@ -6936,37 +7094,311 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D70E27-D00E-4C1D-B33C-DE2098504621}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F707ECF3-F0E2-4A73-8138-FF997C127031}">
-  <sheetPr>
-    <tabColor rgb="FFC00000"/>
-  </sheetPr>
-  <dimension ref="E1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="5" max="7" width="36" style="10" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="25" style="10" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="10"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10" s="105" customFormat="1">
+      <c r="A1" s="106">
+        <v>2019</v>
+      </c>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="88">
+        <v>2018</v>
+      </c>
+      <c r="F1" s="88">
+        <v>2017</v>
+      </c>
+      <c r="G1" s="88">
+        <v>2016</v>
+      </c>
+      <c r="H1" s="88">
+        <v>2015</v>
+      </c>
+      <c r="I1" s="88">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="50" customFormat="1" ht="28.8">
+      <c r="A2" s="92" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="61" t="s">
+        <v>964</v>
+      </c>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="51"/>
+    </row>
+    <row r="3" spans="1:10" ht="28.8">
+      <c r="A3" s="72" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B3" s="72" t="s">
+        <v>990</v>
+      </c>
+      <c r="C3" s="72" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D3" s="72" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+    </row>
+    <row r="4" spans="1:10" ht="87">
+      <c r="A4" s="72" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B4" s="72" t="s">
+        <v>991</v>
+      </c>
+      <c r="C4" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D4" s="72" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E4" s="107"/>
+      <c r="F4" s="109" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+    </row>
+    <row r="5" spans="1:10" ht="28.8">
+      <c r="A5" s="72" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B5" s="72" t="s">
+        <v>992</v>
+      </c>
+      <c r="C5" s="72" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D5" s="72" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E5" s="107"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+    </row>
+    <row r="6" spans="1:10" ht="43.2">
+      <c r="A6" s="72" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B6" s="72" t="s">
+        <v>993</v>
+      </c>
+      <c r="C6" s="72" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D6" s="72" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+    </row>
+    <row r="7" spans="1:10" ht="28.8">
+      <c r="A7" s="72" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B7" s="72" t="s">
+        <v>994</v>
+      </c>
+      <c r="C7" s="72" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D7" s="72"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+    </row>
+    <row r="8" spans="1:10" ht="28.8">
+      <c r="A8" s="72" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B8" s="72" t="s">
+        <v>995</v>
+      </c>
+      <c r="C8" s="72" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D8" s="72"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+    </row>
+    <row r="9" spans="1:10" ht="28.8">
+      <c r="A9" s="72" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B9" s="72" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C9" s="72" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D9" s="72" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+    </row>
+    <row r="10" spans="1:10" ht="57.6">
+      <c r="A10" s="72" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B10" s="72" t="s">
+        <v>996</v>
+      </c>
+      <c r="C10" s="72" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D10" s="72" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+    </row>
+    <row r="11" spans="1:10" ht="57.6">
+      <c r="A11" s="72" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B11" s="72" t="s">
+        <v>997</v>
+      </c>
+      <c r="C11" s="72" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D11" s="72" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+    </row>
+    <row r="12" spans="1:10" ht="57.6">
+      <c r="A12" s="72" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B12" s="72" t="s">
+        <v>998</v>
+      </c>
+      <c r="C12" s="72" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D12" s="72" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="72" t="s">
+        <v>999</v>
+      </c>
+      <c r="B13" s="72" t="s">
+        <v>999</v>
+      </c>
+      <c r="C13" s="72" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D13" s="72"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="72" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B14" s="72" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C14" s="72" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D14" s="72"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="72" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B15" s="72" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C15" s="72" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D15" s="72"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6984,106 +7416,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="8" customFormat="1">
-      <c r="A1" s="61">
+      <c r="A1" s="94">
         <v>2019</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="62">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="60">
         <v>2018</v>
       </c>
-      <c r="F1" s="62">
+      <c r="F1" s="60">
         <v>2017</v>
       </c>
-      <c r="G1" s="62">
+      <c r="G1" s="60">
         <v>2016</v>
       </c>
-      <c r="H1" s="62">
+      <c r="H1" s="60">
         <v>2015</v>
       </c>
-      <c r="I1" s="62">
+      <c r="I1" s="60">
         <v>2014</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="7" customFormat="1">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="67" t="s">
         <v>390</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="71" t="s">
         <v>201</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="71" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="71" t="s">
         <v>212</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="71" t="s">
         <v>216</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="71" t="s">
         <v>213</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="71" t="s">
         <v>217</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="71" t="s">
         <v>214</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="71" t="s">
         <v>218</v>
       </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7114,826 +7546,826 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1">
-      <c r="A1" s="61">
+      <c r="A1" s="94">
         <v>2019</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="62">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="60">
         <v>2018</v>
       </c>
-      <c r="F1" s="62">
+      <c r="F1" s="60">
         <v>2017</v>
       </c>
-      <c r="G1" s="62">
+      <c r="G1" s="60">
         <v>2016</v>
       </c>
-      <c r="H1" s="62">
+      <c r="H1" s="60">
         <v>2015</v>
       </c>
-      <c r="I1" s="62">
+      <c r="I1" s="60">
         <v>2014</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="7" customFormat="1">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="67" t="s">
         <v>390</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:9" ht="86.4">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="69" t="s">
         <v>202</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="72" t="s">
+      <c r="G3" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="H3" s="72" t="s">
+      <c r="H3" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="I3" s="72" t="s">
+      <c r="I3" s="69" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="158.4">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="69" t="s">
         <v>203</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="G4" s="72" t="s">
+      <c r="G4" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="H4" s="72" t="s">
+      <c r="H4" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="I4" s="72" t="s">
+      <c r="I4" s="69" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="100.8">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="69" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="G5" s="72" t="s">
+      <c r="G5" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="H5" s="72" t="s">
+      <c r="H5" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="I5" s="72" t="s">
+      <c r="I5" s="69" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="115.2">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="69" t="s">
         <v>204</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="E6" s="72" t="s">
+      <c r="E6" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="72" t="s">
+      <c r="F6" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="G6" s="72" t="s">
+      <c r="G6" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="H6" s="72" t="s">
+      <c r="H6" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="I6" s="72" t="s">
+      <c r="I6" s="69" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="129.6">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="69" t="s">
         <v>210</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="67" t="s">
+      <c r="E7" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="F7" s="72" t="s">
+      <c r="F7" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="G7" s="72" t="s">
+      <c r="G7" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="H7" s="67" t="s">
+      <c r="H7" s="64" t="s">
         <v>209</v>
       </c>
-      <c r="I7" s="67" t="s">
+      <c r="I7" s="64" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="144">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="69" t="s">
         <v>205</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="E8" s="67" t="s">
+      <c r="E8" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="F8" s="72" t="s">
+      <c r="F8" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="G8" s="72" t="s">
+      <c r="G8" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="H8" s="72" t="s">
+      <c r="H8" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="I8" s="72" t="s">
+      <c r="I8" s="69" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="72">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="64" t="s">
         <v>206</v>
       </c>
-      <c r="E9" s="76" t="s">
+      <c r="E9" s="73" t="s">
         <v>207</v>
       </c>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
     </row>
     <row r="10" spans="1:9" ht="129.6">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="69" t="s">
         <v>219</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="67" t="s">
+      <c r="D10" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="E10" s="67" t="s">
+      <c r="E10" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="F10" s="72" t="s">
+      <c r="F10" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="G10" s="72" t="s">
+      <c r="G10" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="H10" s="67" t="s">
+      <c r="H10" s="64" t="s">
         <v>211</v>
       </c>
-      <c r="I10" s="67" t="s">
+      <c r="I10" s="64" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="100.8">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="64" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="E11" s="72" t="s">
+      <c r="E11" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="72" t="s">
+      <c r="F11" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="G11" s="72" t="s">
+      <c r="G11" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="H11" s="67" t="s">
+      <c r="H11" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="I11" s="67" t="s">
+      <c r="I11" s="64" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="43.2">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="69" t="s">
         <v>220</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72" t="s">
+      <c r="D12" s="69"/>
+      <c r="E12" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="72" t="s">
+      <c r="F12" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="G12" s="72" t="s">
+      <c r="G12" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="H12" s="72" t="s">
+      <c r="H12" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="I12" s="72" t="s">
+      <c r="I12" s="69" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="43.2">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="69" t="s">
         <v>221</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72" t="s">
+      <c r="D13" s="69"/>
+      <c r="E13" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="F13" s="72" t="s">
+      <c r="F13" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="G13" s="72" t="s">
+      <c r="G13" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="H13" s="72" t="s">
+      <c r="H13" s="69" t="s">
         <v>228</v>
       </c>
-      <c r="I13" s="72" t="s">
+      <c r="I13" s="69" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="69" t="s">
         <v>222</v>
       </c>
-      <c r="C14" s="72" t="s">
+      <c r="C14" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72" t="s">
+      <c r="D14" s="69"/>
+      <c r="E14" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="F14" s="72" t="s">
+      <c r="F14" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="G14" s="72" t="s">
+      <c r="G14" s="69" t="s">
         <v>228</v>
       </c>
-      <c r="H14" s="72" t="s">
+      <c r="H14" s="69" t="s">
         <v>228</v>
       </c>
-      <c r="I14" s="72" t="s">
+      <c r="I14" s="69" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="43.2">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="69" t="s">
         <v>223</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72" t="s">
+      <c r="D15" s="69"/>
+      <c r="E15" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="72" t="s">
+      <c r="F15" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="G15" s="72" t="s">
+      <c r="G15" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="H15" s="72" t="s">
+      <c r="H15" s="69" t="s">
         <v>228</v>
       </c>
-      <c r="I15" s="72" t="s">
+      <c r="I15" s="69" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="43.2">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="69" t="s">
         <v>224</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72" t="s">
+      <c r="D16" s="69"/>
+      <c r="E16" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="F16" s="72" t="s">
+      <c r="F16" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="72" t="s">
+      <c r="G16" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="H16" s="72" t="s">
+      <c r="H16" s="69" t="s">
         <v>228</v>
       </c>
-      <c r="I16" s="72" t="s">
+      <c r="I16" s="69" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="57.6">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="69" t="s">
         <v>229</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
     </row>
     <row r="18" spans="1:9" ht="172.8">
-      <c r="A18" s="72" t="s">
+      <c r="A18" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="64" t="s">
         <v>225</v>
       </c>
-      <c r="C18" s="67" t="s">
+      <c r="C18" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="D18" s="67" t="s">
+      <c r="D18" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="E18" s="72" t="s">
+      <c r="E18" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="72" t="s">
+      <c r="F18" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="G18" s="72" t="s">
+      <c r="G18" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="H18" s="72" t="s">
+      <c r="H18" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="I18" s="72" t="s">
+      <c r="I18" s="69" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="201.6">
-      <c r="A19" s="72" t="s">
+      <c r="A19" s="69" t="s">
         <v>230</v>
       </c>
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="64" t="s">
         <v>236</v>
       </c>
-      <c r="C19" s="72" t="s">
+      <c r="C19" s="69" t="s">
         <v>231</v>
       </c>
-      <c r="D19" s="67" t="s">
+      <c r="D19" s="64" t="s">
         <v>232</v>
       </c>
-      <c r="E19" s="67" t="s">
+      <c r="E19" s="64" t="s">
         <v>233</v>
       </c>
-      <c r="F19" s="67" t="s">
+      <c r="F19" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="G19" s="72" t="s">
+      <c r="G19" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="H19" s="67" t="s">
+      <c r="H19" s="64" t="s">
         <v>234</v>
       </c>
-      <c r="I19" s="67" t="s">
+      <c r="I19" s="64" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="43.2">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="69" t="s">
         <v>239</v>
       </c>
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="69" t="s">
         <v>237</v>
       </c>
-      <c r="C20" s="67" t="s">
+      <c r="C20" s="64" t="s">
         <v>238</v>
       </c>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
     </row>
     <row r="21" spans="1:9" ht="57.6">
-      <c r="A21" s="72" t="s">
+      <c r="A21" s="69" t="s">
         <v>240</v>
       </c>
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="69" t="s">
         <v>283</v>
       </c>
-      <c r="C21" s="72" t="s">
+      <c r="C21" s="69" t="s">
         <v>242</v>
       </c>
-      <c r="D21" s="67" t="s">
+      <c r="D21" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
     </row>
     <row r="22" spans="1:9" ht="172.8">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="69" t="s">
         <v>241</v>
       </c>
-      <c r="B22" s="72" t="s">
+      <c r="B22" s="69" t="s">
         <v>284</v>
       </c>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="69" t="s">
         <v>243</v>
       </c>
-      <c r="D22" s="67" t="s">
+      <c r="D22" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
     </row>
     <row r="23" spans="1:9" ht="28.8">
-      <c r="A23" s="72" t="s">
+      <c r="A23" s="69" t="s">
         <v>244</v>
       </c>
-      <c r="B23" s="72" t="s">
+      <c r="B23" s="69" t="s">
         <v>245</v>
       </c>
-      <c r="C23" s="67" t="s">
+      <c r="C23" s="64" t="s">
         <v>246</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
     </row>
     <row r="24" spans="1:9" ht="100.8">
-      <c r="A24" s="72" t="s">
+      <c r="A24" s="69" t="s">
         <v>247</v>
       </c>
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="69" t="s">
         <v>248</v>
       </c>
-      <c r="C24" s="67" t="s">
+      <c r="C24" s="64" t="s">
         <v>249</v>
       </c>
-      <c r="D24" s="67" t="s">
+      <c r="D24" s="64" t="s">
         <v>250</v>
       </c>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
     </row>
     <row r="25" spans="1:9" ht="43.2">
-      <c r="A25" s="72" t="s">
+      <c r="A25" s="69" t="s">
         <v>251</v>
       </c>
-      <c r="B25" s="72" t="s">
+      <c r="B25" s="69" t="s">
         <v>254</v>
       </c>
-      <c r="C25" s="67" t="s">
+      <c r="C25" s="64" t="s">
         <v>252</v>
       </c>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
     </row>
     <row r="26" spans="1:9" ht="57.6">
-      <c r="A26" s="72" t="s">
+      <c r="A26" s="69" t="s">
         <v>253</v>
       </c>
-      <c r="B26" s="72" t="s">
+      <c r="B26" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="C26" s="72" t="s">
+      <c r="C26" s="69" t="s">
         <v>255</v>
       </c>
-      <c r="D26" s="67" t="s">
+      <c r="D26" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
     </row>
     <row r="27" spans="1:9" ht="86.4">
-      <c r="A27" s="72" t="s">
+      <c r="A27" s="69" t="s">
         <v>256</v>
       </c>
-      <c r="B27" s="72" t="s">
+      <c r="B27" s="69" t="s">
         <v>257</v>
       </c>
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="64" t="s">
         <v>258</v>
       </c>
-      <c r="D27" s="67" t="s">
+      <c r="D27" s="64" t="s">
         <v>259</v>
       </c>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
     </row>
     <row r="28" spans="1:9" ht="129.6">
-      <c r="A28" s="72" t="s">
+      <c r="A28" s="69" t="s">
         <v>260</v>
       </c>
-      <c r="B28" s="67" t="s">
+      <c r="B28" s="64" t="s">
         <v>369</v>
       </c>
-      <c r="C28" s="67" t="s">
+      <c r="C28" s="64" t="s">
         <v>368</v>
       </c>
-      <c r="D28" s="67" t="s">
+      <c r="D28" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="72"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
     </row>
     <row r="29" spans="1:9" ht="43.2">
-      <c r="A29" s="72" t="s">
+      <c r="A29" s="69" t="s">
         <v>261</v>
       </c>
-      <c r="B29" s="72" t="s">
+      <c r="B29" s="69" t="s">
         <v>266</v>
       </c>
-      <c r="C29" s="67" t="s">
+      <c r="C29" s="64" t="s">
         <v>267</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
     </row>
     <row r="30" spans="1:9" ht="86.4">
-      <c r="A30" s="72" t="s">
+      <c r="A30" s="69" t="s">
         <v>262</v>
       </c>
-      <c r="B30" s="72" t="s">
+      <c r="B30" s="69" t="s">
         <v>271</v>
       </c>
-      <c r="C30" s="67" t="s">
+      <c r="C30" s="64" t="s">
         <v>272</v>
       </c>
-      <c r="D30" s="67" t="s">
+      <c r="D30" s="64" t="s">
         <v>273</v>
       </c>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="72"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
     </row>
     <row r="31" spans="1:9" ht="86.4">
-      <c r="A31" s="72" t="s">
+      <c r="A31" s="69" t="s">
         <v>263</v>
       </c>
-      <c r="B31" s="72" t="s">
+      <c r="B31" s="69" t="s">
         <v>274</v>
       </c>
-      <c r="C31" s="67" t="s">
+      <c r="C31" s="64" t="s">
         <v>275</v>
       </c>
-      <c r="D31" s="67" t="s">
+      <c r="D31" s="64" t="s">
         <v>276</v>
       </c>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
     </row>
     <row r="32" spans="1:9" ht="115.2">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="69" t="s">
         <v>264</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="C32" s="67" t="s">
+      <c r="C32" s="64" t="s">
         <v>278</v>
       </c>
-      <c r="D32" s="67" t="s">
+      <c r="D32" s="64" t="s">
         <v>277</v>
       </c>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="72"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
     </row>
     <row r="33" spans="1:9" ht="43.2">
-      <c r="A33" s="72" t="s">
+      <c r="A33" s="69" t="s">
         <v>268</v>
       </c>
       <c r="B33" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="C33" s="67" t="s">
+      <c r="C33" s="64" t="s">
         <v>279</v>
       </c>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="72"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="69"/>
     </row>
     <row r="34" spans="1:9" ht="57.6">
-      <c r="A34" s="72" t="s">
+      <c r="A34" s="69" t="s">
         <v>269</v>
       </c>
       <c r="B34" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="C34" s="72" t="s">
+      <c r="C34" s="69" t="s">
         <v>242</v>
       </c>
-      <c r="D34" s="67" t="s">
+      <c r="D34" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="69"/>
     </row>
     <row r="35" spans="1:9" ht="172.8">
-      <c r="A35" s="72" t="s">
+      <c r="A35" s="69" t="s">
         <v>270</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="C35" s="72" t="s">
+      <c r="C35" s="69" t="s">
         <v>243</v>
       </c>
-      <c r="D35" s="67" t="s">
+      <c r="D35" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="69"/>
     </row>
     <row r="36" spans="1:9" ht="57.6">
-      <c r="A36" s="72" t="s">
+      <c r="A36" s="69" t="s">
         <v>280</v>
       </c>
-      <c r="B36" s="72" t="s">
+      <c r="B36" s="69" t="s">
         <v>282</v>
       </c>
-      <c r="C36" s="67" t="s">
+      <c r="C36" s="64" t="s">
         <v>281</v>
       </c>
       <c r="D36" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7964,498 +8396,498 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="9" customFormat="1">
-      <c r="A1" s="61">
+      <c r="A1" s="94">
         <v>2019</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="62">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="60">
         <v>2018</v>
       </c>
-      <c r="F1" s="62">
+      <c r="F1" s="60">
         <v>2017</v>
       </c>
-      <c r="G1" s="62">
+      <c r="G1" s="60">
         <v>2016</v>
       </c>
-      <c r="H1" s="62">
+      <c r="H1" s="60">
         <v>2015</v>
       </c>
-      <c r="I1" s="62">
+      <c r="I1" s="60">
         <v>2014</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="7" customFormat="1">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="67" t="s">
         <v>390</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="71" t="s">
         <v>288</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
     </row>
     <row r="4" spans="1:9" ht="187.2">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="69" t="s">
         <v>289</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="69" t="s">
         <v>290</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="64" t="s">
         <v>291</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="64" t="s">
         <v>296</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="69" t="s">
         <v>293</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="G4" s="67" t="s">
+      <c r="G4" s="64" t="s">
         <v>292</v>
       </c>
-      <c r="H4" s="67" t="s">
+      <c r="H4" s="64" t="s">
         <v>294</v>
       </c>
-      <c r="I4" s="67" t="s">
+      <c r="I4" s="64" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="6" customFormat="1" ht="28.8">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="69" t="s">
         <v>297</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="69" t="s">
         <v>299</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="69" t="s">
         <v>298</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="64" t="s">
         <v>300</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="69" t="s">
         <v>293</v>
       </c>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="69" t="s">
         <v>293</v>
       </c>
-      <c r="G5" s="72" t="s">
+      <c r="G5" s="69" t="s">
         <v>293</v>
       </c>
-      <c r="H5" s="72" t="s">
+      <c r="H5" s="69" t="s">
         <v>293</v>
       </c>
-      <c r="I5" s="72" t="s">
+      <c r="I5" s="69" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="6" customFormat="1">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="69" t="s">
         <v>303</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="69" t="s">
         <v>301</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="69" t="s">
         <v>302</v>
       </c>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72" t="s">
+      <c r="D6" s="69"/>
+      <c r="E6" s="69" t="s">
         <v>293</v>
       </c>
-      <c r="F6" s="72" t="s">
+      <c r="F6" s="69" t="s">
         <v>293</v>
       </c>
-      <c r="G6" s="72" t="s">
+      <c r="G6" s="69" t="s">
         <v>293</v>
       </c>
-      <c r="H6" s="72" t="s">
+      <c r="H6" s="69" t="s">
         <v>293</v>
       </c>
-      <c r="I6" s="72" t="s">
+      <c r="I6" s="69" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="6" customFormat="1">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="69" t="s">
         <v>304</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="69" t="s">
         <v>305</v>
       </c>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="69" t="s">
         <v>306</v>
       </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
     </row>
     <row r="8" spans="1:9" s="6" customFormat="1" ht="172.8">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="69" t="s">
         <v>307</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="69" t="s">
         <v>308</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="69" t="s">
         <v>309</v>
       </c>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
     </row>
     <row r="9" spans="1:9" s="6" customFormat="1" ht="216">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="69" t="s">
         <v>310</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="69" t="s">
         <v>311</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="69" t="s">
         <v>312</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="64" t="s">
         <v>361</v>
       </c>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
     </row>
     <row r="10" spans="1:9" s="6" customFormat="1" ht="57.6">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="69" t="s">
         <v>313</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="69" t="s">
         <v>314</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="69" t="s">
         <v>315</v>
       </c>
-      <c r="D10" s="67" t="s">
+      <c r="D10" s="64" t="s">
         <v>316</v>
       </c>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
     </row>
     <row r="11" spans="1:9" s="6" customFormat="1" ht="230.4">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="69" t="s">
         <v>317</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="69" t="s">
         <v>319</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="64" t="s">
         <v>320</v>
       </c>
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="64" t="s">
         <v>362</v>
       </c>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
     </row>
     <row r="12" spans="1:9" s="6" customFormat="1" ht="230.4">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="69" t="s">
         <v>318</v>
       </c>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="69" t="s">
         <v>321</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="64" t="s">
         <v>322</v>
       </c>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="64" t="s">
         <v>323</v>
       </c>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" ht="201.6">
-      <c r="A13" s="67" t="s">
+      <c r="A13" s="64" t="s">
         <v>324</v>
       </c>
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="64" t="s">
         <v>325</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="64" t="s">
         <v>326</v>
       </c>
-      <c r="D13" s="67" t="s">
+      <c r="D13" s="64" t="s">
         <v>327</v>
       </c>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" ht="57.6">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="64" t="s">
         <v>328</v>
       </c>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="64" t="s">
         <v>329</v>
       </c>
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="64" t="s">
         <v>330</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" ht="201.6">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="64" t="s">
         <v>331</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="64" t="s">
         <v>332</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="64" t="s">
         <v>333</v>
       </c>
-      <c r="D15" s="67" t="s">
+      <c r="D15" s="64" t="s">
         <v>363</v>
       </c>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" ht="28.8">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="64" t="s">
         <v>334</v>
       </c>
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="64" t="s">
         <v>336</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="64" t="s">
         <v>335</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
     </row>
     <row r="17" spans="1:9" s="1" customFormat="1" ht="28.8">
-      <c r="A17" s="67" t="s">
+      <c r="A17" s="64" t="s">
         <v>337</v>
       </c>
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="64" t="s">
         <v>339</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="64" t="s">
         <v>338</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
     </row>
     <row r="18" spans="1:9" s="1" customFormat="1" ht="100.8">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="64" t="s">
         <v>340</v>
       </c>
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="64" t="s">
         <v>341</v>
       </c>
-      <c r="C18" s="67" t="s">
+      <c r="C18" s="64" t="s">
         <v>342</v>
       </c>
-      <c r="D18" s="67" t="s">
+      <c r="D18" s="64" t="s">
         <v>357</v>
       </c>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
     </row>
     <row r="19" spans="1:9" s="1" customFormat="1" ht="115.2">
-      <c r="A19" s="67" t="s">
+      <c r="A19" s="64" t="s">
         <v>343</v>
       </c>
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="64" t="s">
         <v>345</v>
       </c>
-      <c r="C19" s="67" t="s">
+      <c r="C19" s="64" t="s">
         <v>346</v>
       </c>
-      <c r="D19" s="67" t="s">
+      <c r="D19" s="64" t="s">
         <v>356</v>
       </c>
-      <c r="E19" s="67" t="s">
+      <c r="E19" s="64" t="s">
         <v>293</v>
       </c>
-      <c r="F19" s="67" t="s">
+      <c r="F19" s="64" t="s">
         <v>293</v>
       </c>
-      <c r="G19" s="67" t="s">
+      <c r="G19" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="H19" s="67" t="s">
+      <c r="H19" s="64" t="s">
         <v>293</v>
       </c>
-      <c r="I19" s="67" t="s">
+      <c r="I19" s="64" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="1" customFormat="1" ht="28.8">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="64" t="s">
         <v>344</v>
       </c>
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="64" t="s">
         <v>358</v>
       </c>
-      <c r="C20" s="67" t="s">
+      <c r="C20" s="64" t="s">
         <v>347</v>
       </c>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67" t="s">
+      <c r="D20" s="64"/>
+      <c r="E20" s="64" t="s">
         <v>293</v>
       </c>
-      <c r="F20" s="67" t="s">
+      <c r="F20" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="G20" s="67" t="s">
+      <c r="G20" s="64" t="s">
         <v>293</v>
       </c>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
     </row>
     <row r="21" spans="1:9" s="1" customFormat="1" ht="43.2">
-      <c r="A21" s="67" t="s">
+      <c r="A21" s="64" t="s">
         <v>352</v>
       </c>
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="64" t="s">
         <v>359</v>
       </c>
-      <c r="C21" s="67" t="s">
+      <c r="C21" s="64" t="s">
         <v>348</v>
       </c>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67" t="s">
+      <c r="D21" s="64"/>
+      <c r="E21" s="64" t="s">
         <v>293</v>
       </c>
-      <c r="F21" s="67" t="s">
+      <c r="F21" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="G21" s="67" t="s">
+      <c r="G21" s="64" t="s">
         <v>293</v>
       </c>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
     </row>
     <row r="22" spans="1:9" s="1" customFormat="1">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="64" t="s">
         <v>353</v>
       </c>
-      <c r="B22" s="67" t="s">
+      <c r="B22" s="64" t="s">
         <v>360</v>
       </c>
-      <c r="C22" s="67" t="s">
+      <c r="C22" s="64" t="s">
         <v>349</v>
       </c>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
     </row>
     <row r="23" spans="1:9" s="1" customFormat="1" ht="172.8">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="64" t="s">
         <v>354</v>
       </c>
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="64" t="s">
         <v>395</v>
       </c>
-      <c r="C23" s="67" t="s">
+      <c r="C23" s="64" t="s">
         <v>350</v>
       </c>
-      <c r="D23" s="67" t="s">
+      <c r="D23" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
     </row>
     <row r="24" spans="1:9" s="1" customFormat="1">
-      <c r="A24" s="67" t="s">
+      <c r="A24" s="64" t="s">
         <v>355</v>
       </c>
-      <c r="B24" s="67" t="s">
+      <c r="B24" s="64" t="s">
         <v>396</v>
       </c>
-      <c r="C24" s="67" t="s">
+      <c r="C24" s="64" t="s">
         <v>351</v>
       </c>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
     </row>
     <row r="25" spans="1:9" s="1" customFormat="1"/>
     <row r="26" spans="1:9" s="1" customFormat="1"/>
@@ -8588,46 +9020,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1">
-      <c r="A1" s="77">
+      <c r="A1" s="95">
         <v>2019</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="62">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="60">
         <v>2018</v>
       </c>
-      <c r="F1" s="62">
+      <c r="F1" s="60">
         <v>2017</v>
       </c>
-      <c r="G1" s="62">
+      <c r="G1" s="60">
         <v>2016</v>
       </c>
-      <c r="H1" s="62">
+      <c r="H1" s="60">
         <v>2015</v>
       </c>
-      <c r="I1" s="78">
+      <c r="I1" s="74">
         <v>2014</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="67" t="s">
         <v>390</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
     </row>
     <row r="3" spans="1:9" ht="28.8">
       <c r="A3" s="12" t="s">
@@ -8646,7 +9078,7 @@
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="74"/>
+      <c r="I3" s="71"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="12" t="s">
@@ -8661,7 +9093,7 @@
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
-      <c r="I4" s="74"/>
+      <c r="I4" s="71"/>
     </row>
     <row r="5" spans="1:9" ht="28.8">
       <c r="A5" s="12" t="s">
@@ -8680,7 +9112,7 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="74"/>
+      <c r="I5" s="71"/>
     </row>
     <row r="6" spans="1:9" ht="230.4">
       <c r="A6" s="12" t="s">
@@ -8699,7 +9131,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
-      <c r="I6" s="74"/>
+      <c r="I6" s="71"/>
     </row>
     <row r="7" spans="1:9" ht="100.8">
       <c r="A7" s="12" t="s">
@@ -8726,7 +9158,7 @@
       <c r="H7" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="I7" s="74"/>
+      <c r="I7" s="71"/>
     </row>
     <row r="8" spans="1:9" ht="100.8">
       <c r="A8" s="12" t="s">
@@ -8745,7 +9177,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="74"/>
+      <c r="I8" s="71"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="12" t="s">
@@ -8754,7 +9186,7 @@
       <c r="B9" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="76" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="12"/>
@@ -8762,7 +9194,7 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="74"/>
+      <c r="I9" s="71"/>
     </row>
     <row r="10" spans="1:9" ht="43.2">
       <c r="A10" s="12" t="s">
@@ -8771,7 +9203,7 @@
       <c r="B10" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="76" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="13" t="s">
@@ -8781,7 +9213,7 @@
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
-      <c r="I10" s="74"/>
+      <c r="I10" s="71"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="12" t="s">
@@ -8790,7 +9222,7 @@
       <c r="B11" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="C11" s="80" t="s">
+      <c r="C11" s="76" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="12"/>
@@ -8798,7 +9230,7 @@
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
-      <c r="I11" s="74"/>
+      <c r="I11" s="71"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="12" t="s">
@@ -8807,7 +9239,7 @@
       <c r="B12" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="C12" s="80" t="s">
+      <c r="C12" s="76" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="12"/>
@@ -8815,7 +9247,7 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="74"/>
+      <c r="I12" s="71"/>
     </row>
     <row r="13" spans="1:9" ht="55.2">
       <c r="A13" s="12" t="s">
@@ -8824,7 +9256,7 @@
       <c r="B13" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="C13" s="81" t="s">
+      <c r="C13" s="77" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="12"/>
@@ -8832,16 +9264,16 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="74"/>
-    </row>
-    <row r="14" spans="1:9" ht="115.2">
+      <c r="I13" s="71"/>
+    </row>
+    <row r="14" spans="1:9" ht="57.6">
       <c r="A14" s="12" t="s">
         <v>55</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="C14" s="80" t="s">
+      <c r="C14" s="76" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="13" t="s">
@@ -8870,7 +9302,7 @@
       <c r="B15" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="C15" s="81" t="s">
+      <c r="C15" s="77" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="13" t="s">
@@ -8886,7 +9318,7 @@
         <v>391</v>
       </c>
       <c r="H15" s="12"/>
-      <c r="I15" s="74"/>
+      <c r="I15" s="71"/>
     </row>
     <row r="16" spans="1:9" ht="72">
       <c r="A16" s="12" t="s">
@@ -8903,11 +9335,11 @@
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
-      <c r="G16" s="74"/>
+      <c r="G16" s="71"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="74"/>
-    </row>
-    <row r="17" spans="1:9" ht="345.6">
+      <c r="I16" s="71"/>
+    </row>
+    <row r="17" spans="1:9" ht="172.8">
       <c r="A17" s="12" t="s">
         <v>58</v>
       </c>
@@ -8926,7 +9358,7 @@
         <v>392</v>
       </c>
       <c r="H17" s="12"/>
-      <c r="I17" s="74"/>
+      <c r="I17" s="71"/>
     </row>
     <row r="18" spans="1:9" ht="72">
       <c r="A18" s="12" t="s">
@@ -8945,7 +9377,7 @@
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
-      <c r="I18" s="74"/>
+      <c r="I18" s="71"/>
     </row>
     <row r="19" spans="1:9" ht="115.2">
       <c r="A19" s="12" t="s">
@@ -8964,7 +9396,7 @@
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
-      <c r="I19" s="74"/>
+      <c r="I19" s="71"/>
     </row>
     <row r="20" spans="1:9" ht="86.4">
       <c r="A20" s="12" t="s">
@@ -8983,7 +9415,7 @@
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="74"/>
+      <c r="I20" s="71"/>
     </row>
     <row r="21" spans="1:9" ht="86.4">
       <c r="A21" s="12" t="s">
@@ -9002,7 +9434,7 @@
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
-      <c r="I21" s="74"/>
+      <c r="I21" s="71"/>
     </row>
     <row r="22" spans="1:9" ht="172.8">
       <c r="A22" s="12" t="s">
@@ -9021,7 +9453,7 @@
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
-      <c r="I22" s="74"/>
+      <c r="I22" s="71"/>
     </row>
     <row r="23" spans="1:9" ht="174.45" customHeight="1">
       <c r="A23" s="12" t="s">
@@ -9036,19 +9468,19 @@
       <c r="D23" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="67" t="s">
+      <c r="E23" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="F23" s="67" t="s">
+      <c r="F23" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="G23" s="67" t="s">
+      <c r="G23" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="H23" s="67" t="s">
+      <c r="H23" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="I23" s="67" t="s">
+      <c r="I23" s="64" t="s">
         <v>83</v>
       </c>
     </row>
@@ -9063,11 +9495,11 @@
         <v>22</v>
       </c>
       <c r="D24" s="12"/>
-      <c r="E24" s="67"/>
+      <c r="E24" s="64"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
-      <c r="I24" s="74"/>
+      <c r="I24" s="71"/>
     </row>
     <row r="25" spans="1:9" ht="43.2">
       <c r="A25" s="12" t="s">
@@ -9086,7 +9518,7 @@
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
-      <c r="I25" s="74"/>
+      <c r="I25" s="71"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="12" t="s">
@@ -9103,7 +9535,7 @@
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
-      <c r="I26" s="74"/>
+      <c r="I26" s="71"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="12" t="s">
@@ -9120,7 +9552,7 @@
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
-      <c r="I27" s="74"/>
+      <c r="I27" s="71"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="12" t="s">
@@ -9137,7 +9569,7 @@
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
-      <c r="I28" s="74"/>
+      <c r="I28" s="71"/>
     </row>
     <row r="29" spans="1:9" ht="28.8">
       <c r="A29" s="12" t="s">
@@ -9156,7 +9588,7 @@
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
-      <c r="I29" s="74"/>
+      <c r="I29" s="71"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="12" t="s">
@@ -9243,933 +9675,933 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="37" customFormat="1">
-      <c r="A1" s="61">
+      <c r="A1" s="94">
         <v>2019</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="62">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="60">
         <v>2018</v>
       </c>
-      <c r="F1" s="62">
+      <c r="F1" s="60">
         <v>2017</v>
       </c>
-      <c r="G1" s="62">
+      <c r="G1" s="60">
         <v>2016</v>
       </c>
-      <c r="H1" s="62">
+      <c r="H1" s="60">
         <v>2015</v>
       </c>
-      <c r="I1" s="62">
+      <c r="I1" s="60">
         <v>2014</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="7" customFormat="1">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="67" t="s">
         <v>447</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:9" ht="72">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="69" t="s">
         <v>448</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="69" t="s">
         <v>449</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="64" t="s">
         <v>450</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="64" t="s">
         <v>451</v>
       </c>
-      <c r="E3" s="72" t="s">
-        <v>452</v>
-      </c>
-      <c r="F3" s="72" t="s">
-        <v>452</v>
-      </c>
-      <c r="G3" s="72" t="s">
-        <v>452</v>
-      </c>
-      <c r="H3" s="72" t="s">
-        <v>452</v>
-      </c>
-      <c r="I3" s="72" t="s">
+      <c r="E3" s="69" t="s">
+        <v>452</v>
+      </c>
+      <c r="F3" s="69" t="s">
+        <v>452</v>
+      </c>
+      <c r="G3" s="69" t="s">
+        <v>452</v>
+      </c>
+      <c r="H3" s="69" t="s">
+        <v>452</v>
+      </c>
+      <c r="I3" s="69" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="201.6">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="69" t="s">
         <v>453</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="69" t="s">
         <v>454</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="64" t="s">
         <v>455</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="64" t="s">
         <v>456</v>
       </c>
-      <c r="E4" s="72" t="s">
-        <v>452</v>
-      </c>
-      <c r="F4" s="72" t="s">
-        <v>452</v>
-      </c>
-      <c r="G4" s="72" t="s">
-        <v>452</v>
-      </c>
-      <c r="H4" s="72" t="s">
-        <v>452</v>
-      </c>
-      <c r="I4" s="72" t="s">
+      <c r="E4" s="69" t="s">
+        <v>452</v>
+      </c>
+      <c r="F4" s="69" t="s">
+        <v>452</v>
+      </c>
+      <c r="G4" s="69" t="s">
+        <v>452</v>
+      </c>
+      <c r="H4" s="69" t="s">
+        <v>452</v>
+      </c>
+      <c r="I4" s="69" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="129.6">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="69" t="s">
         <v>457</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="69" t="s">
         <v>458</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="64" t="s">
         <v>459</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="64" t="s">
         <v>451</v>
       </c>
-      <c r="E5" s="72" t="s">
-        <v>452</v>
-      </c>
-      <c r="F5" s="72" t="s">
-        <v>452</v>
-      </c>
-      <c r="G5" s="72" t="s">
-        <v>452</v>
-      </c>
-      <c r="H5" s="72" t="s">
-        <v>452</v>
-      </c>
-      <c r="I5" s="72" t="s">
+      <c r="E5" s="69" t="s">
+        <v>452</v>
+      </c>
+      <c r="F5" s="69" t="s">
+        <v>452</v>
+      </c>
+      <c r="G5" s="69" t="s">
+        <v>452</v>
+      </c>
+      <c r="H5" s="69" t="s">
+        <v>452</v>
+      </c>
+      <c r="I5" s="69" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="187.2">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="69" t="s">
         <v>460</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="69" t="s">
         <v>461</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="64" t="s">
         <v>462</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="64" t="s">
         <v>463</v>
       </c>
-      <c r="E6" s="72" t="s">
-        <v>452</v>
-      </c>
-      <c r="F6" s="72" t="s">
-        <v>452</v>
-      </c>
-      <c r="G6" s="72" t="s">
-        <v>452</v>
-      </c>
-      <c r="H6" s="72" t="s">
-        <v>452</v>
-      </c>
-      <c r="I6" s="72" t="s">
+      <c r="E6" s="69" t="s">
+        <v>452</v>
+      </c>
+      <c r="F6" s="69" t="s">
+        <v>452</v>
+      </c>
+      <c r="G6" s="69" t="s">
+        <v>452</v>
+      </c>
+      <c r="H6" s="69" t="s">
+        <v>452</v>
+      </c>
+      <c r="I6" s="69" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="100.8">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="69" t="s">
         <v>464</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="69" t="s">
         <v>465</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="64" t="s">
         <v>466</v>
       </c>
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="64" t="s">
         <v>467</v>
       </c>
-      <c r="E7" s="72" t="s">
-        <v>452</v>
-      </c>
-      <c r="F7" s="72" t="s">
-        <v>452</v>
-      </c>
-      <c r="G7" s="72" t="s">
-        <v>452</v>
-      </c>
-      <c r="H7" s="72" t="s">
-        <v>452</v>
-      </c>
-      <c r="I7" s="72" t="s">
+      <c r="E7" s="69" t="s">
+        <v>452</v>
+      </c>
+      <c r="F7" s="69" t="s">
+        <v>452</v>
+      </c>
+      <c r="G7" s="69" t="s">
+        <v>452</v>
+      </c>
+      <c r="H7" s="69" t="s">
+        <v>452</v>
+      </c>
+      <c r="I7" s="69" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="64" t="s">
         <v>468</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="69" t="s">
         <v>469</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="64" t="s">
         <v>470</v>
       </c>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="64" t="s">
         <v>471</v>
       </c>
-      <c r="E8" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="F8" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="G8" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="H8" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="I8" s="67" t="s">
+      <c r="E8" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="F8" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="G8" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="H8" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="I8" s="64" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" ht="43.8" customHeight="1">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="64" t="s">
         <v>472</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="64" t="s">
         <v>474</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="64" t="s">
         <v>451</v>
       </c>
-      <c r="E9" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="F9" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="G9" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="H9" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="I9" s="67" t="s">
+      <c r="E9" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="F9" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="G9" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="H9" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="I9" s="64" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" ht="28.8">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="64" t="s">
         <v>475</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="64" t="s">
         <v>476</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="64" t="s">
         <v>477</v>
       </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="F10" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="G10" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="H10" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="I10" s="67" t="s">
+      <c r="D10" s="64"/>
+      <c r="E10" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="F10" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="G10" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="H10" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="I10" s="64" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="64" t="s">
         <v>478</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="64" t="s">
         <v>479</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="64" t="s">
         <v>480</v>
       </c>
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="64" t="s">
         <v>481</v>
       </c>
-      <c r="E11" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="F11" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="G11" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="H11" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="I11" s="67" t="s">
+      <c r="E11" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="F11" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="G11" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="H11" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="I11" s="64" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" ht="72">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="64" t="s">
         <v>482</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="64" t="s">
         <v>483</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="64" t="s">
         <v>484</v>
       </c>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="64" t="s">
         <v>485</v>
       </c>
-      <c r="E12" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="F12" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="G12" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="H12" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="I12" s="67" t="s">
+      <c r="E12" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="F12" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="G12" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="H12" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="I12" s="64" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="57.6">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="69" t="s">
         <v>486</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="69" t="s">
         <v>487</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="64" t="s">
         <v>488</v>
       </c>
-      <c r="D13" s="67" t="s">
+      <c r="D13" s="64" t="s">
         <v>451</v>
       </c>
-      <c r="E13" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="F13" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="G13" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="H13" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="I13" s="67" t="s">
+      <c r="E13" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="F13" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="G13" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="H13" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="I13" s="64" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="115.2">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="69" t="s">
         <v>489</v>
       </c>
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="69" t="s">
         <v>490</v>
       </c>
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="64" t="s">
         <v>491</v>
       </c>
-      <c r="D14" s="67" t="s">
+      <c r="D14" s="64" t="s">
         <v>492</v>
       </c>
-      <c r="E14" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="F14" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="G14" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="H14" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="I14" s="67" t="s">
+      <c r="E14" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="F14" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="G14" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="H14" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="I14" s="64" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="100.8">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="69" t="s">
         <v>493</v>
       </c>
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="69" t="s">
         <v>494</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="64" t="s">
         <v>495</v>
       </c>
-      <c r="D15" s="67" t="s">
+      <c r="D15" s="64" t="s">
         <v>496</v>
       </c>
-      <c r="E15" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="F15" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="G15" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="H15" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="I15" s="67" t="s">
+      <c r="E15" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="F15" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="G15" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="H15" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="I15" s="64" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="69" t="s">
         <v>497</v>
       </c>
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="69" t="s">
         <v>498</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="64" t="s">
         <v>477</v>
       </c>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="F16" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="G16" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="H16" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="I16" s="67" t="s">
+      <c r="D16" s="64"/>
+      <c r="E16" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="F16" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="G16" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="H16" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="I16" s="64" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="28.8">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="69" t="s">
         <v>499</v>
       </c>
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="69" t="s">
         <v>500</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="64" t="s">
         <v>480</v>
       </c>
-      <c r="D17" s="67" t="s">
+      <c r="D17" s="64" t="s">
         <v>481</v>
       </c>
-      <c r="E17" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="F17" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="G17" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="H17" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="I17" s="67" t="s">
+      <c r="E17" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="F17" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="G17" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="H17" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="I17" s="64" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="72">
-      <c r="A18" s="72" t="s">
+      <c r="A18" s="69" t="s">
         <v>501</v>
       </c>
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="64" t="s">
         <v>502</v>
       </c>
-      <c r="C18" s="67" t="s">
+      <c r="C18" s="64" t="s">
         <v>484</v>
       </c>
-      <c r="D18" s="67" t="s">
+      <c r="D18" s="64" t="s">
         <v>485</v>
       </c>
-      <c r="E18" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="F18" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="G18" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="H18" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="I18" s="67" t="s">
+      <c r="E18" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="F18" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="G18" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="H18" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="I18" s="64" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="28.8">
-      <c r="A19" s="72" t="s">
+      <c r="A19" s="69" t="s">
         <v>503</v>
       </c>
-      <c r="B19" s="72" t="s">
+      <c r="B19" s="69" t="s">
         <v>504</v>
       </c>
-      <c r="C19" s="72" t="s">
+      <c r="C19" s="69" t="s">
         <v>505</v>
       </c>
-      <c r="D19" s="67" t="s">
+      <c r="D19" s="64" t="s">
         <v>451</v>
       </c>
-      <c r="E19" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="F19" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="G19" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="H19" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="I19" s="67" t="s">
+      <c r="E19" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="F19" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="G19" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="H19" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="I19" s="64" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="69" t="s">
         <v>506</v>
       </c>
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="69" t="s">
         <v>507</v>
       </c>
-      <c r="C20" s="72" t="s">
+      <c r="C20" s="69" t="s">
         <v>508</v>
       </c>
-      <c r="D20" s="72"/>
-      <c r="E20" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="F20" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="G20" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="H20" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="I20" s="67" t="s">
+      <c r="D20" s="69"/>
+      <c r="E20" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="F20" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="G20" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="H20" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="I20" s="64" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="28.8">
-      <c r="A21" s="72" t="s">
+      <c r="A21" s="69" t="s">
         <v>509</v>
       </c>
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="69" t="s">
         <v>510</v>
       </c>
-      <c r="C21" s="72" t="s">
+      <c r="C21" s="69" t="s">
         <v>480</v>
       </c>
-      <c r="D21" s="67" t="s">
+      <c r="D21" s="64" t="s">
         <v>481</v>
       </c>
-      <c r="E21" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="F21" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="G21" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="H21" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="I21" s="67" t="s">
+      <c r="E21" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="F21" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="G21" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="H21" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="I21" s="64" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="72">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="69" t="s">
         <v>511</v>
       </c>
-      <c r="B22" s="72" t="s">
+      <c r="B22" s="69" t="s">
         <v>512</v>
       </c>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="69" t="s">
         <v>484</v>
       </c>
-      <c r="D22" s="67" t="s">
+      <c r="D22" s="64" t="s">
         <v>485</v>
       </c>
-      <c r="E22" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="F22" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="G22" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="H22" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="I22" s="67" t="s">
+      <c r="E22" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="F22" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="G22" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="H22" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="I22" s="64" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="28.8">
-      <c r="A23" s="72" t="s">
+      <c r="A23" s="69" t="s">
         <v>513</v>
       </c>
-      <c r="B23" s="72" t="s">
+      <c r="B23" s="69" t="s">
         <v>514</v>
       </c>
-      <c r="C23" s="72" t="s">
+      <c r="C23" s="69" t="s">
         <v>515</v>
       </c>
-      <c r="D23" s="67" t="s">
+      <c r="D23" s="64" t="s">
         <v>451</v>
       </c>
-      <c r="E23" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="F23" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="G23" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="H23" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="I23" s="67" t="s">
+      <c r="E23" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="F23" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="G23" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="H23" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="I23" s="64" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="72" t="s">
+      <c r="A24" s="69" t="s">
         <v>516</v>
       </c>
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="69" t="s">
         <v>517</v>
       </c>
-      <c r="C24" s="67" t="s">
+      <c r="C24" s="64" t="s">
         <v>477</v>
       </c>
-      <c r="D24" s="72"/>
-      <c r="E24" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="F24" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="G24" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="H24" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="I24" s="67" t="s">
+      <c r="D24" s="69"/>
+      <c r="E24" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="F24" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="G24" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="H24" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="I24" s="64" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="28.8">
-      <c r="A25" s="72" t="s">
+      <c r="A25" s="69" t="s">
         <v>518</v>
       </c>
-      <c r="B25" s="72" t="s">
+      <c r="B25" s="69" t="s">
         <v>519</v>
       </c>
-      <c r="C25" s="67" t="s">
+      <c r="C25" s="64" t="s">
         <v>480</v>
       </c>
-      <c r="D25" s="67" t="s">
+      <c r="D25" s="64" t="s">
         <v>481</v>
       </c>
-      <c r="E25" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="F25" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="G25" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="H25" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="I25" s="67" t="s">
+      <c r="E25" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="F25" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="G25" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="H25" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="I25" s="64" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="72">
-      <c r="A26" s="72" t="s">
+      <c r="A26" s="69" t="s">
         <v>520</v>
       </c>
-      <c r="B26" s="72" t="s">
+      <c r="B26" s="69" t="s">
         <v>521</v>
       </c>
-      <c r="C26" s="67" t="s">
+      <c r="C26" s="64" t="s">
         <v>484</v>
       </c>
-      <c r="D26" s="67" t="s">
+      <c r="D26" s="64" t="s">
         <v>485</v>
       </c>
-      <c r="E26" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="F26" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="G26" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="H26" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="I26" s="67" t="s">
+      <c r="E26" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="F26" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="G26" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="H26" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="I26" s="64" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="72">
-      <c r="A27" s="72" t="s">
+      <c r="A27" s="69" t="s">
         <v>522</v>
       </c>
-      <c r="B27" s="72" t="s">
+      <c r="B27" s="69" t="s">
         <v>523</v>
       </c>
-      <c r="C27" s="72" t="s">
+      <c r="C27" s="69" t="s">
         <v>524</v>
       </c>
-      <c r="D27" s="67" t="s">
+      <c r="D27" s="64" t="s">
         <v>451</v>
       </c>
-      <c r="E27" s="67" t="s">
+      <c r="E27" s="64" t="s">
         <v>525</v>
       </c>
-      <c r="F27" s="67" t="s">
+      <c r="F27" s="64" t="s">
         <v>525</v>
       </c>
-      <c r="G27" s="67" t="s">
+      <c r="G27" s="64" t="s">
         <v>526</v>
       </c>
-      <c r="H27" s="67" t="s">
+      <c r="H27" s="64" t="s">
         <v>527</v>
       </c>
-      <c r="I27" s="67" t="s">
+      <c r="I27" s="64" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="144">
-      <c r="A28" s="72" t="s">
+      <c r="A28" s="69" t="s">
         <v>529</v>
       </c>
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="69" t="s">
         <v>530</v>
       </c>
-      <c r="C28" s="72" t="s">
+      <c r="C28" s="69" t="s">
         <v>531</v>
       </c>
-      <c r="D28" s="67" t="s">
+      <c r="D28" s="64" t="s">
         <v>532</v>
       </c>
-      <c r="E28" s="67" t="s">
+      <c r="E28" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="F28" s="67" t="s">
+      <c r="F28" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="G28" s="67" t="s">
+      <c r="G28" s="64" t="s">
         <v>534</v>
       </c>
-      <c r="H28" s="67" t="s">
+      <c r="H28" s="64" t="s">
         <v>535</v>
       </c>
-      <c r="I28" s="67" t="s">
+      <c r="I28" s="64" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="28.8">
-      <c r="A29" s="72" t="s">
+      <c r="A29" s="69" t="s">
         <v>537</v>
       </c>
-      <c r="B29" s="72" t="s">
+      <c r="B29" s="69" t="s">
         <v>538</v>
       </c>
-      <c r="C29" s="72" t="s">
+      <c r="C29" s="69" t="s">
         <v>539</v>
       </c>
-      <c r="D29" s="67" t="s">
+      <c r="D29" s="64" t="s">
         <v>451</v>
       </c>
-      <c r="E29" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="F29" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="G29" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="H29" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="I29" s="67" t="s">
+      <c r="E29" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="F29" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="G29" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="H29" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="I29" s="64" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="57.6">
-      <c r="A30" s="72" t="s">
+      <c r="A30" s="69" t="s">
         <v>540</v>
       </c>
-      <c r="B30" s="72" t="s">
+      <c r="B30" s="69" t="s">
         <v>541</v>
       </c>
-      <c r="C30" s="72" t="s">
+      <c r="C30" s="69" t="s">
         <v>542</v>
       </c>
-      <c r="D30" s="67" t="s">
+      <c r="D30" s="64" t="s">
         <v>543</v>
       </c>
-      <c r="E30" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="F30" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="G30" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="H30" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="I30" s="67" t="s">
+      <c r="E30" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="F30" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="G30" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="H30" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="I30" s="64" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="72" t="s">
+      <c r="A31" s="69" t="s">
         <v>544</v>
       </c>
-      <c r="B31" s="72" t="s">
+      <c r="B31" s="69" t="s">
         <v>545</v>
       </c>
-      <c r="C31" s="72" t="s">
+      <c r="C31" s="69" t="s">
         <v>546</v>
       </c>
-      <c r="D31" s="72"/>
-      <c r="E31" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="F31" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="G31" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="H31" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="I31" s="67" t="s">
+      <c r="D31" s="69"/>
+      <c r="E31" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="F31" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="G31" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="H31" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="I31" s="64" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="28.8">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="69" t="s">
         <v>547</v>
       </c>
-      <c r="B32" s="72" t="s">
+      <c r="B32" s="69" t="s">
         <v>548</v>
       </c>
-      <c r="C32" s="72" t="s">
+      <c r="C32" s="69" t="s">
         <v>480</v>
       </c>
-      <c r="D32" s="67" t="s">
+      <c r="D32" s="64" t="s">
         <v>481</v>
       </c>
-      <c r="E32" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="F32" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="G32" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="H32" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="I32" s="67" t="s">
+      <c r="E32" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="F32" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="G32" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="H32" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="I32" s="64" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="72">
-      <c r="A33" s="72" t="s">
+      <c r="A33" s="69" t="s">
         <v>549</v>
       </c>
-      <c r="B33" s="72" t="s">
+      <c r="B33" s="69" t="s">
         <v>550</v>
       </c>
-      <c r="C33" s="72" t="s">
+      <c r="C33" s="69" t="s">
         <v>484</v>
       </c>
-      <c r="D33" s="67" t="s">
+      <c r="D33" s="64" t="s">
         <v>485</v>
       </c>
-      <c r="E33" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="F33" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="G33" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="H33" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="I33" s="67" t="s">
+      <c r="E33" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="F33" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="G33" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="H33" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="I33" s="64" t="s">
         <v>452</v>
       </c>
     </row>
@@ -10223,48 +10655,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="37" customFormat="1">
-      <c r="A1" s="59">
+      <c r="A1" s="96">
         <v>2019</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="60">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="59">
         <v>2018</v>
       </c>
-      <c r="F1" s="60">
+      <c r="F1" s="59">
         <v>2017</v>
       </c>
-      <c r="G1" s="60">
+      <c r="G1" s="59">
         <v>2016</v>
       </c>
-      <c r="H1" s="60">
+      <c r="H1" s="59">
         <v>2015</v>
       </c>
-      <c r="I1" s="60">
+      <c r="I1" s="59">
         <v>2014</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="7" customFormat="1">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="83" t="s">
+      <c r="D2" s="79" t="s">
         <v>390</v>
       </c>
-      <c r="E2" s="84" t="s">
+      <c r="E2" s="97" t="s">
         <v>551</v>
       </c>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="86"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="99"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="106.2" customHeight="1">
@@ -10876,7 +11308,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="234.6">
+    <row r="24" spans="1:9" ht="244.8">
       <c r="A24" s="22" t="s">
         <v>646</v>
       </c>
@@ -10961,7 +11393,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="234.6">
+    <row r="27" spans="1:9" ht="244.8">
       <c r="A27" s="22" t="s">
         <v>655</v>
       </c>
@@ -11837,46 +12269,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="9" customFormat="1">
-      <c r="A1" s="61">
+      <c r="A1" s="94">
         <v>2019</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="62">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="60">
         <v>2018</v>
       </c>
-      <c r="F1" s="62">
+      <c r="F1" s="60">
         <v>2017</v>
       </c>
-      <c r="G1" s="62">
+      <c r="G1" s="60">
         <v>2016</v>
       </c>
-      <c r="H1" s="62">
+      <c r="H1" s="60">
         <v>2015</v>
       </c>
-      <c r="I1" s="62">
+      <c r="I1" s="60">
         <v>2014</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="7" customFormat="1">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="67" t="s">
         <v>390</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:9" s="6" customFormat="1" ht="28.8">
       <c r="A3" s="12" t="s">
@@ -11891,161 +12323,161 @@
       <c r="D3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
     </row>
     <row r="4" spans="1:9" s="6" customFormat="1">
       <c r="A4" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="69" t="s">
         <v>414</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="69" t="s">
         <v>412</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
     </row>
     <row r="5" spans="1:9" s="6" customFormat="1" ht="72">
       <c r="A5" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="64" t="s">
         <v>431</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="69" t="s">
         <v>415</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="64" t="s">
         <v>416</v>
       </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
     </row>
     <row r="6" spans="1:9" s="6" customFormat="1" ht="57.6">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="69" t="s">
         <v>417</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="69" t="s">
         <v>432</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="64" t="s">
         <v>420</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="64" t="s">
         <v>423</v>
       </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
     </row>
     <row r="7" spans="1:9" s="6" customFormat="1" ht="57.6">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="69" t="s">
         <v>418</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="69" t="s">
         <v>433</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="64" t="s">
         <v>419</v>
       </c>
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="64" t="s">
         <v>423</v>
       </c>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
     </row>
     <row r="8" spans="1:9" s="6" customFormat="1" ht="57.6">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="69" t="s">
         <v>427</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="69" t="s">
         <v>434</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="64" t="s">
         <v>421</v>
       </c>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="64" t="s">
         <v>423</v>
       </c>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
     </row>
     <row r="9" spans="1:9" s="6" customFormat="1" ht="57.6">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="69" t="s">
         <v>428</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="69" t="s">
         <v>435</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="64" t="s">
         <v>422</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="64" t="s">
         <v>423</v>
       </c>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
     </row>
     <row r="10" spans="1:9" s="6" customFormat="1" ht="57.6">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="69" t="s">
         <v>429</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="69" t="s">
         <v>436</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="64" t="s">
         <v>424</v>
       </c>
-      <c r="D10" s="67" t="s">
+      <c r="D10" s="64" t="s">
         <v>423</v>
       </c>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
     </row>
     <row r="11" spans="1:9" s="6" customFormat="1" ht="144">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="69" t="s">
         <v>430</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="69" t="s">
         <v>437</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="64" t="s">
         <v>426</v>
       </c>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
     </row>
     <row r="12" spans="1:9" s="6" customFormat="1"/>
     <row r="13" spans="1:9" s="6" customFormat="1"/>
@@ -12072,7 +12504,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -12087,333 +12519,333 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="37" customFormat="1">
-      <c r="A1" s="61">
+      <c r="A1" s="94">
         <v>2019</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="62">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="60">
         <v>2018</v>
       </c>
-      <c r="F1" s="62">
+      <c r="F1" s="60">
         <v>2017</v>
       </c>
-      <c r="G1" s="62">
+      <c r="G1" s="60">
         <v>2016</v>
       </c>
-      <c r="H1" s="62">
+      <c r="H1" s="60">
         <v>2015</v>
       </c>
-      <c r="I1" s="62">
+      <c r="I1" s="60">
         <v>2014</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="50" customFormat="1">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="61" t="s">
         <v>390</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="100" t="s">
         <v>873</v>
       </c>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
       <c r="J2" s="51"/>
     </row>
     <row r="3" spans="1:10" s="52" customFormat="1" ht="28.8">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="62" t="s">
         <v>874</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="62" t="s">
         <v>875</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="63" t="s">
         <v>876</v>
       </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="68" t="s">
-        <v>452</v>
-      </c>
-      <c r="F3" s="68" t="s">
-        <v>452</v>
-      </c>
-      <c r="G3" s="68" t="s">
-        <v>452</v>
-      </c>
-      <c r="H3" s="68" t="s">
-        <v>452</v>
-      </c>
-      <c r="I3" s="68" t="s">
+      <c r="D3" s="64"/>
+      <c r="E3" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="F3" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="G3" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="H3" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="I3" s="65" t="s">
         <v>452</v>
       </c>
       <c r="J3" s="54"/>
     </row>
     <row r="4" spans="1:10" s="52" customFormat="1" ht="28.8">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="62" t="s">
         <v>877</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="62" t="s">
         <v>878</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="63" t="s">
         <v>879</v>
       </c>
-      <c r="D4" s="67"/>
-      <c r="E4" s="68" t="s">
-        <v>452</v>
-      </c>
-      <c r="F4" s="68" t="s">
-        <v>452</v>
-      </c>
-      <c r="G4" s="68" t="s">
-        <v>452</v>
-      </c>
-      <c r="H4" s="68" t="s">
-        <v>452</v>
-      </c>
-      <c r="I4" s="68" t="s">
+      <c r="D4" s="64"/>
+      <c r="E4" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="F4" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="G4" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="H4" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="I4" s="65" t="s">
         <v>452</v>
       </c>
       <c r="J4" s="54"/>
     </row>
     <row r="5" spans="1:10" s="52" customFormat="1" ht="40.799999999999997">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="62" t="s">
         <v>880</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="62" t="s">
         <v>881</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="63" t="s">
         <v>882</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="64" t="s">
         <v>883</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="66" t="s">
         <v>884</v>
       </c>
-      <c r="F5" s="68" t="s">
+      <c r="F5" s="65" t="s">
         <v>885</v>
       </c>
-      <c r="G5" s="68" t="s">
-        <v>452</v>
-      </c>
-      <c r="H5" s="68" t="s">
-        <v>452</v>
-      </c>
-      <c r="I5" s="68" t="s">
+      <c r="G5" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="H5" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="I5" s="65" t="s">
         <v>452</v>
       </c>
       <c r="J5" s="54"/>
     </row>
     <row r="6" spans="1:10" s="52" customFormat="1" ht="81.599999999999994">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="62" t="s">
         <v>886</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="62" t="s">
         <v>887</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="63" t="s">
         <v>888</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="64" t="s">
         <v>889</v>
       </c>
-      <c r="E6" s="69" t="s">
+      <c r="E6" s="66" t="s">
         <v>890</v>
       </c>
-      <c r="F6" s="68" t="s">
+      <c r="F6" s="65" t="s">
         <v>891</v>
       </c>
-      <c r="G6" s="68" t="s">
-        <v>452</v>
-      </c>
-      <c r="H6" s="68" t="s">
-        <v>452</v>
-      </c>
-      <c r="I6" s="68" t="s">
+      <c r="G6" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="H6" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="I6" s="65" t="s">
         <v>452</v>
       </c>
       <c r="J6" s="54"/>
     </row>
     <row r="7" spans="1:10" s="52" customFormat="1">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="62" t="s">
         <v>892</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="62" t="s">
         <v>893</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="63" t="s">
         <v>894</v>
       </c>
-      <c r="D7" s="67"/>
-      <c r="E7" s="68" t="s">
-        <v>452</v>
-      </c>
-      <c r="F7" s="68" t="s">
-        <v>452</v>
-      </c>
-      <c r="G7" s="68" t="s">
-        <v>452</v>
-      </c>
-      <c r="H7" s="68" t="s">
-        <v>452</v>
-      </c>
-      <c r="I7" s="68" t="s">
+      <c r="D7" s="64"/>
+      <c r="E7" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="F7" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="G7" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="H7" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="I7" s="65" t="s">
         <v>452</v>
       </c>
       <c r="J7" s="54"/>
     </row>
     <row r="8" spans="1:10" s="52" customFormat="1" ht="28.8">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="62" t="s">
         <v>895</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="62" t="s">
         <v>896</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="63" t="s">
         <v>897</v>
       </c>
-      <c r="D8" s="67"/>
-      <c r="E8" s="68" t="s">
-        <v>452</v>
-      </c>
-      <c r="F8" s="68" t="s">
-        <v>452</v>
-      </c>
-      <c r="G8" s="68" t="s">
-        <v>452</v>
-      </c>
-      <c r="H8" s="68" t="s">
-        <v>452</v>
-      </c>
-      <c r="I8" s="68" t="s">
+      <c r="D8" s="64"/>
+      <c r="E8" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="F8" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="G8" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="H8" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="I8" s="65" t="s">
         <v>452</v>
       </c>
       <c r="J8" s="54"/>
     </row>
     <row r="9" spans="1:10" s="52" customFormat="1" ht="57.6">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="62" t="s">
         <v>898</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="62" t="s">
         <v>899</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="63" t="s">
         <v>900</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="64" t="s">
         <v>485</v>
       </c>
-      <c r="E9" s="68" t="s">
-        <v>452</v>
-      </c>
-      <c r="F9" s="68" t="s">
-        <v>452</v>
-      </c>
-      <c r="G9" s="68" t="s">
-        <v>452</v>
-      </c>
-      <c r="H9" s="68" t="s">
-        <v>452</v>
-      </c>
-      <c r="I9" s="68" t="s">
+      <c r="E9" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="F9" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="G9" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="H9" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="I9" s="65" t="s">
         <v>452</v>
       </c>
       <c r="J9" s="54"/>
     </row>
     <row r="10" spans="1:10" s="52" customFormat="1" ht="30.6">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="62" t="s">
         <v>901</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="62" t="s">
         <v>902</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="63" t="s">
         <v>903</v>
       </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="69" t="s">
+      <c r="D10" s="64"/>
+      <c r="E10" s="66" t="s">
         <v>904</v>
       </c>
-      <c r="F10" s="68" t="s">
+      <c r="F10" s="65" t="s">
         <v>905</v>
       </c>
-      <c r="G10" s="68" t="s">
-        <v>452</v>
-      </c>
-      <c r="H10" s="68" t="s">
-        <v>452</v>
-      </c>
-      <c r="I10" s="68" t="s">
+      <c r="G10" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="H10" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="I10" s="65" t="s">
         <v>452</v>
       </c>
       <c r="J10" s="54"/>
     </row>
     <row r="11" spans="1:10" s="52" customFormat="1" ht="57.6">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="62" t="s">
         <v>906</v>
       </c>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="62" t="s">
         <v>907</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="63" t="s">
         <v>908</v>
       </c>
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="64" t="s">
         <v>485</v>
       </c>
-      <c r="E11" s="69" t="s">
+      <c r="E11" s="66" t="s">
         <v>904</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="65" t="s">
         <v>905</v>
       </c>
-      <c r="G11" s="68" t="s">
-        <v>452</v>
-      </c>
-      <c r="H11" s="68" t="s">
-        <v>452</v>
-      </c>
-      <c r="I11" s="68" t="s">
+      <c r="G11" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="H11" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="I11" s="65" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="52" customFormat="1" ht="40.799999999999997">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="62" t="s">
         <v>909</v>
       </c>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="62" t="s">
         <v>910</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="63" t="s">
         <v>911</v>
       </c>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69" t="s">
+      <c r="D12" s="66"/>
+      <c r="E12" s="66" t="s">
         <v>912</v>
       </c>
-      <c r="F12" s="68" t="s">
+      <c r="F12" s="65" t="s">
         <v>913</v>
       </c>
-      <c r="G12" s="68" t="s">
-        <v>452</v>
-      </c>
-      <c r="H12" s="68" t="s">
-        <v>452</v>
-      </c>
-      <c r="I12" s="68" t="s">
+      <c r="G12" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="H12" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="I12" s="65" t="s">
         <v>452</v>
       </c>
     </row>
@@ -12847,6 +13279,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D97C45C73161C540AAAEC0BB7C04B14C" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="eaac3f66d04ba47d8e7bacccdec8bc8e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="69ca14ff-5d6d-4eb8-91d9-74d4bb4de445" xmlns:ns4="72d74521-8c27-4702-99f8-167624e069b6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e42dd572579043e93d80e2ef1a203961" ns3:_="" ns4:_="">
     <xsd:import namespace="69ca14ff-5d6d-4eb8-91d9-74d4bb4de445"/>
@@ -13069,22 +13510,21 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D82FA49E-E684-481F-999C-85E775CBBA65}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BD029C1-9A00-4A77-A4BC-41F5C7C058C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13103,7 +13543,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4E4CF47-E673-4F26-A959-0B7774EBA194}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -13118,12 +13558,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D82FA49E-E684-481F-999C-85E775CBBA65}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data_management/management/2. harmonization/ENCOVI harmonization/Encovi_comparability across years 2014-2019_ALL.xlsx
+++ b/data_management/management/2. harmonization/ENCOVI harmonization/Encovi_comparability across years 2014-2019_ALL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb550905\OneDrive - WBG\Venezuela\ENCOVI\2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb563583\GitHub\VEN\data_management\management\2. harmonization\ENCOVI harmonization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="6_{5F3C5B1F-F4B7-4BEA-A455-BB5FD9E0729B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{5FEF2C19-F7EB-46D8-BBCB-A73D90AF3398}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51684273-CD15-4AFE-B5BA-607367CCB467}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="805" firstSheet="6" activeTab="13" xr2:uid="{C17073D6-622F-4055-BD8D-7FC11D1960F9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="805" firstSheet="6" activeTab="11" xr2:uid="{C17073D6-622F-4055-BD8D-7FC11D1960F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Control_entrevista" sheetId="4" r:id="rId1"/>
@@ -24,9 +24,10 @@
     <sheet name="Mortalidad" sheetId="14" r:id="rId9"/>
     <sheet name="Otros ing y pensiones + Income" sheetId="18" r:id="rId10"/>
     <sheet name="Emigracion" sheetId="11" r:id="rId11"/>
-    <sheet name="Eventos que afectan a hogares" sheetId="8" r:id="rId12"/>
-    <sheet name="Seguridad Alimentaria" sheetId="15" r:id="rId13"/>
-    <sheet name="Antropometría" sheetId="17" r:id="rId14"/>
+    <sheet name="Sheet1" sheetId="19" r:id="rId12"/>
+    <sheet name="Eventos que afectan a hogares" sheetId="8" r:id="rId13"/>
+    <sheet name="Seguridad Alimentaria" sheetId="15" r:id="rId14"/>
+    <sheet name="Antropometría" sheetId="17" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="1030">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="1031">
   <si>
     <t>Questions</t>
   </si>
@@ -4312,6 +4313,18 @@
   </si>
   <si>
     <t>CHECK</t>
+  </si>
+  <si>
+    <t>1. Fue a buscar/consiguió trabajo
+2. Cambió su lugar de trabajo
+3. Por razones de estudio
+4. Reagrupación familiar
+5. Se casó o unió
+6. Por motivos de salud
+7. Por violencia e inseguridad
+8. Por razones políticas
+9. Otro. Especifique
+99. NS/NR</t>
   </si>
 </sst>
 </file>
@@ -4789,6 +4802,18 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -4822,20 +4847,8 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5160,18 +5173,18 @@
       <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="4" width="27.21875" customWidth="1"/>
+    <col min="1" max="4" width="27.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="8" customFormat="1">
-      <c r="A1" s="94">
+      <c r="A1" s="98">
         <v>2019</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -5207,7 +5220,7 @@
       <c r="H2" s="68"/>
       <c r="I2" s="68"/>
     </row>
-    <row r="3" spans="1:9" ht="230.4">
+    <row r="3" spans="1:9" ht="232">
       <c r="A3" s="69" t="s">
         <v>139</v>
       </c>
@@ -5396,7 +5409,7 @@
       <c r="H13" s="71"/>
       <c r="I13" s="71"/>
     </row>
-    <row r="14" spans="1:9" ht="43.2">
+    <row r="14" spans="1:9" ht="43.5">
       <c r="A14" s="69" t="s">
         <v>159</v>
       </c>
@@ -5432,7 +5445,7 @@
       <c r="H15" s="71"/>
       <c r="I15" s="71"/>
     </row>
-    <row r="16" spans="1:9" ht="28.8">
+    <row r="16" spans="1:9" ht="29">
       <c r="A16" s="69" t="s">
         <v>170</v>
       </c>
@@ -5606,7 +5619,7 @@
       <c r="H27" s="71"/>
       <c r="I27" s="71"/>
     </row>
-    <row r="28" spans="1:9" ht="28.8">
+    <row r="28" spans="1:9" ht="29">
       <c r="A28" s="69" t="s">
         <v>189</v>
       </c>
@@ -5623,7 +5636,7 @@
       <c r="H28" s="71"/>
       <c r="I28" s="71"/>
     </row>
-    <row r="29" spans="1:9" ht="28.8">
+    <row r="29" spans="1:9" ht="29">
       <c r="A29" s="69" t="s">
         <v>191</v>
       </c>
@@ -5750,9 +5763,9 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="11" width="13.77734375" style="82" customWidth="1"/>
+    <col min="1" max="11" width="13.81640625" style="82" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:11">
@@ -5964,26 +5977,27 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I27" sqref="I27"/>
+      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.77734375" customWidth="1"/>
-    <col min="4" max="4" width="25.88671875" customWidth="1"/>
+    <col min="2" max="2" width="33.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.81640625" customWidth="1"/>
+    <col min="4" max="4" width="25.90625" customWidth="1"/>
+    <col min="5" max="5" width="24.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="11" customFormat="1">
-      <c r="A1" s="94">
+      <c r="A1" s="98">
         <v>2019</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -6034,7 +6048,7 @@
       <c r="H3" s="71"/>
       <c r="I3" s="71"/>
     </row>
-    <row r="4" spans="1:9" ht="28.8">
+    <row r="4" spans="1:9" ht="29">
       <c r="A4" s="69" t="s">
         <v>759</v>
       </c>
@@ -6087,7 +6101,7 @@
       <c r="H6" s="71"/>
       <c r="I6" s="71"/>
     </row>
-    <row r="7" spans="1:9" ht="28.8">
+    <row r="7" spans="1:9" ht="29">
       <c r="A7" s="69" t="s">
         <v>767</v>
       </c>
@@ -6102,7 +6116,7 @@
       <c r="H7" s="71"/>
       <c r="I7" s="71"/>
     </row>
-    <row r="8" spans="1:9" ht="28.8">
+    <row r="8" spans="1:9" ht="29">
       <c r="A8" s="69" t="s">
         <v>769</v>
       </c>
@@ -6151,7 +6165,7 @@
       <c r="H10" s="71"/>
       <c r="I10" s="71"/>
     </row>
-    <row r="11" spans="1:9" ht="172.8">
+    <row r="11" spans="1:9" ht="174">
       <c r="A11" s="69" t="s">
         <v>777</v>
       </c>
@@ -6168,7 +6182,7 @@
       <c r="H11" s="71"/>
       <c r="I11" s="71"/>
     </row>
-    <row r="12" spans="1:9" ht="201.6">
+    <row r="12" spans="1:9" ht="203">
       <c r="A12" s="69" t="s">
         <v>780</v>
       </c>
@@ -6185,7 +6199,7 @@
       <c r="H12" s="71"/>
       <c r="I12" s="71"/>
     </row>
-    <row r="13" spans="1:9" ht="43.2">
+    <row r="13" spans="1:9" ht="43.5">
       <c r="A13" s="69" t="s">
         <v>783</v>
       </c>
@@ -6200,7 +6214,7 @@
       <c r="H13" s="71"/>
       <c r="I13" s="71"/>
     </row>
-    <row r="14" spans="1:9" ht="43.2">
+    <row r="14" spans="1:9" ht="43.5">
       <c r="A14" s="69" t="s">
         <v>785</v>
       </c>
@@ -6217,7 +6231,7 @@
       <c r="H14" s="71"/>
       <c r="I14" s="71"/>
     </row>
-    <row r="15" spans="1:9" ht="43.2">
+    <row r="15" spans="1:9" ht="43.5">
       <c r="A15" s="69" t="s">
         <v>788</v>
       </c>
@@ -6232,7 +6246,7 @@
       <c r="H15" s="71"/>
       <c r="I15" s="71"/>
     </row>
-    <row r="16" spans="1:9" ht="43.2">
+    <row r="16" spans="1:9" ht="43.5">
       <c r="A16" s="69" t="s">
         <v>790</v>
       </c>
@@ -6247,7 +6261,7 @@
       <c r="H16" s="71"/>
       <c r="I16" s="71"/>
     </row>
-    <row r="17" spans="1:9" ht="43.2">
+    <row r="17" spans="1:9" ht="43.5">
       <c r="A17" s="69" t="s">
         <v>792</v>
       </c>
@@ -6262,7 +6276,7 @@
       <c r="H17" s="71"/>
       <c r="I17" s="71"/>
     </row>
-    <row r="18" spans="1:9" ht="230.4">
+    <row r="18" spans="1:9" ht="232">
       <c r="A18" s="69" t="s">
         <v>794</v>
       </c>
@@ -6309,7 +6323,7 @@
       <c r="H20" s="71"/>
       <c r="I20" s="71"/>
     </row>
-    <row r="21" spans="1:9" s="6" customFormat="1" ht="28.8">
+    <row r="21" spans="1:9" s="6" customFormat="1" ht="29">
       <c r="A21" s="69" t="s">
         <v>801</v>
       </c>
@@ -6326,7 +6340,7 @@
       <c r="H21" s="69"/>
       <c r="I21" s="69"/>
     </row>
-    <row r="22" spans="1:9" ht="86.4">
+    <row r="22" spans="1:9" ht="87">
       <c r="A22" s="69" t="s">
         <v>803</v>
       </c>
@@ -6343,7 +6357,7 @@
       <c r="H22" s="71"/>
       <c r="I22" s="71"/>
     </row>
-    <row r="23" spans="1:9" ht="144">
+    <row r="23" spans="1:9" ht="188.5">
       <c r="A23" s="69" t="s">
         <v>806</v>
       </c>
@@ -6354,7 +6368,9 @@
       <c r="D23" s="64" t="s">
         <v>808</v>
       </c>
-      <c r="E23" s="71"/>
+      <c r="E23" s="64" t="s">
+        <v>1030</v>
+      </c>
       <c r="F23" s="71"/>
       <c r="G23" s="71"/>
       <c r="H23" s="71"/>
@@ -6375,7 +6391,7 @@
       <c r="H24" s="71"/>
       <c r="I24" s="71"/>
     </row>
-    <row r="25" spans="1:9" s="6" customFormat="1" ht="374.55" customHeight="1">
+    <row r="25" spans="1:9" s="6" customFormat="1" ht="374.5" customHeight="1">
       <c r="A25" s="69" t="s">
         <v>811</v>
       </c>
@@ -6392,7 +6408,7 @@
       <c r="H25" s="69"/>
       <c r="I25" s="69"/>
     </row>
-    <row r="26" spans="1:9" ht="379.05" customHeight="1">
+    <row r="26" spans="1:9" ht="379" customHeight="1">
       <c r="A26" s="64" t="s">
         <v>814</v>
       </c>
@@ -6409,7 +6425,7 @@
       <c r="H26" s="71"/>
       <c r="I26" s="71"/>
     </row>
-    <row r="27" spans="1:9" ht="43.2">
+    <row r="27" spans="1:9" ht="43.5">
       <c r="A27" s="64" t="s">
         <v>816</v>
       </c>
@@ -6426,7 +6442,7 @@
       <c r="H27" s="71"/>
       <c r="I27" s="71"/>
     </row>
-    <row r="28" spans="1:9" ht="28.8">
+    <row r="28" spans="1:9" ht="29">
       <c r="A28" s="64" t="s">
         <v>818</v>
       </c>
@@ -6441,7 +6457,7 @@
       <c r="H28" s="71"/>
       <c r="I28" s="71"/>
     </row>
-    <row r="29" spans="1:9" ht="172.8">
+    <row r="29" spans="1:9" ht="174">
       <c r="A29" s="64" t="s">
         <v>820</v>
       </c>
@@ -6458,7 +6474,7 @@
       <c r="H29" s="71"/>
       <c r="I29" s="71"/>
     </row>
-    <row r="30" spans="1:9" ht="43.2">
+    <row r="30" spans="1:9" ht="43.5">
       <c r="A30" s="64" t="s">
         <v>822</v>
       </c>
@@ -6484,6 +6500,21 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2A849C-041A-4532-BCD7-1275733A606C}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5EC024B-684B-44F9-B35B-116594E9E56E}">
   <sheetPr>
     <tabColor theme="5"/>
@@ -6494,10 +6525,10 @@
       <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="42.77734375" customWidth="1"/>
+    <col min="4" max="4" width="42.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="9" customFormat="1">
@@ -6558,7 +6589,7 @@
       <c r="G3" s="71"/>
       <c r="H3" s="71"/>
     </row>
-    <row r="4" spans="1:9" ht="409.6">
+    <row r="4" spans="1:9" ht="409.5">
       <c r="A4" s="69" t="s">
         <v>441</v>
       </c>
@@ -6576,7 +6607,7 @@
       <c r="G4" s="71"/>
       <c r="H4" s="71"/>
     </row>
-    <row r="5" spans="1:9" ht="409.6">
+    <row r="5" spans="1:9" ht="409.5">
       <c r="A5" s="71"/>
       <c r="B5" s="71"/>
       <c r="C5" s="64" t="s">
@@ -6595,7 +6626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7A8F8F-EDBA-406E-9266-2F06CF70D6A9}">
   <dimension ref="A1:K16"/>
   <sheetViews>
@@ -6606,25 +6637,25 @@
       <selection pane="bottomRight" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="22.88671875" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
-    <col min="4" max="4" width="48.88671875" style="10" customWidth="1"/>
-    <col min="5" max="6" width="17.5546875" customWidth="1"/>
-    <col min="7" max="7" width="27.88671875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="24.5546875" customWidth="1"/>
-    <col min="9" max="10" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.90625" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" customWidth="1"/>
+    <col min="4" max="4" width="48.90625" style="10" customWidth="1"/>
+    <col min="5" max="6" width="17.54296875" customWidth="1"/>
+    <col min="7" max="7" width="27.90625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="24.54296875" customWidth="1"/>
+    <col min="9" max="10" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="37" customFormat="1">
-      <c r="A1" s="103">
+      <c r="A1" s="107">
         <v>2019</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="104"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="108"/>
       <c r="F1" s="60">
         <v>2018</v>
       </c>
@@ -6641,11 +6672,11 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="50" customFormat="1" ht="43.2">
-      <c r="A2" s="102" t="s">
+    <row r="2" spans="1:11" s="50" customFormat="1" ht="43.5">
+      <c r="A2" s="106" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="102"/>
+      <c r="B2" s="106"/>
       <c r="C2" s="61" t="s">
         <v>128</v>
       </c>
@@ -6662,11 +6693,11 @@
       <c r="J2" s="87"/>
       <c r="K2" s="51"/>
     </row>
-    <row r="3" spans="1:11" ht="72">
-      <c r="A3" s="101" t="s">
+    <row r="3" spans="1:11" ht="72.5">
+      <c r="A3" s="105" t="s">
         <v>920</v>
       </c>
-      <c r="B3" s="101"/>
+      <c r="B3" s="105"/>
       <c r="C3" s="71" t="s">
         <v>934</v>
       </c>
@@ -6692,8 +6723,8 @@
         <v>987</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="28.8">
-      <c r="A4" s="101" t="s">
+    <row r="4" spans="1:11" ht="29">
+      <c r="A4" s="105" t="s">
         <v>950</v>
       </c>
       <c r="B4" s="70" t="s">
@@ -6724,8 +6755,8 @@
         <v>452</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="115.2">
-      <c r="A5" s="101"/>
+    <row r="5" spans="1:11" ht="116">
+      <c r="A5" s="105"/>
       <c r="B5" s="70" t="s">
         <v>922</v>
       </c>
@@ -6754,8 +6785,8 @@
         <v>452</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="144">
-      <c r="A6" s="101"/>
+    <row r="6" spans="1:11" ht="145">
+      <c r="A6" s="105"/>
       <c r="B6" s="70" t="s">
         <v>923</v>
       </c>
@@ -6784,8 +6815,8 @@
         <v>452</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="144">
-      <c r="A7" s="101"/>
+    <row r="7" spans="1:11" ht="145">
+      <c r="A7" s="105"/>
       <c r="B7" s="70" t="s">
         <v>924</v>
       </c>
@@ -6814,8 +6845,8 @@
         <v>452</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="187.2">
-      <c r="A8" s="101"/>
+    <row r="8" spans="1:11" ht="188.5">
+      <c r="A8" s="105"/>
       <c r="B8" s="70" t="s">
         <v>925</v>
       </c>
@@ -6844,8 +6875,8 @@
         <v>452</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="302.39999999999998">
-      <c r="A9" s="101"/>
+    <row r="9" spans="1:11" ht="304.5">
+      <c r="A9" s="105"/>
       <c r="B9" s="70" t="s">
         <v>926</v>
       </c>
@@ -6874,8 +6905,8 @@
         <v>988</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="82" customFormat="1" ht="259.2">
-      <c r="A10" s="101"/>
+    <row r="10" spans="1:11" s="82" customFormat="1" ht="261">
+      <c r="A10" s="105"/>
       <c r="B10" s="90" t="s">
         <v>927</v>
       </c>
@@ -6904,8 +6935,8 @@
         <v>988</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="187.2">
-      <c r="A11" s="101"/>
+    <row r="11" spans="1:11" ht="188.5">
+      <c r="A11" s="105"/>
       <c r="B11" s="70" t="s">
         <v>928</v>
       </c>
@@ -6934,8 +6965,8 @@
         <v>452</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="144">
-      <c r="A12" s="101"/>
+    <row r="12" spans="1:11" ht="145">
+      <c r="A12" s="105"/>
       <c r="B12" s="70" t="s">
         <v>929</v>
       </c>
@@ -6964,8 +6995,8 @@
         <v>452</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="144">
-      <c r="A13" s="101"/>
+    <row r="13" spans="1:11" ht="145">
+      <c r="A13" s="105"/>
       <c r="B13" s="70" t="s">
         <v>930</v>
       </c>
@@ -6994,8 +7025,8 @@
         <v>452</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="28.8">
-      <c r="A14" s="101"/>
+    <row r="14" spans="1:11" ht="29">
+      <c r="A14" s="105"/>
       <c r="B14" s="70" t="s">
         <v>931</v>
       </c>
@@ -7022,8 +7053,8 @@
         <v>452</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="28.8">
-      <c r="A15" s="101"/>
+    <row r="15" spans="1:11" ht="29">
+      <c r="A15" s="105"/>
       <c r="B15" s="70" t="s">
         <v>932</v>
       </c>
@@ -7050,11 +7081,11 @@
         <v>452</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="43.2">
-      <c r="A16" s="101" t="s">
+    <row r="16" spans="1:11" ht="43.5">
+      <c r="A16" s="105" t="s">
         <v>933</v>
       </c>
-      <c r="B16" s="101"/>
+      <c r="B16" s="105"/>
       <c r="C16" s="70" t="s">
         <v>965</v>
       </c>
@@ -7091,33 +7122,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D70E27-D00E-4C1D-B33C-DE2098504621}">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="24.36328125" style="10" customWidth="1"/>
     <col min="4" max="4" width="25" style="10" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="10"/>
+    <col min="5" max="16384" width="8.90625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="105" customFormat="1">
-      <c r="A1" s="106">
+    <row r="1" spans="1:10" s="94" customFormat="1">
+      <c r="A1" s="109">
         <v>2019</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
       <c r="E1" s="88">
         <v>2018</v>
       </c>
@@ -7134,7 +7165,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="50" customFormat="1" ht="28.8">
+    <row r="2" spans="1:10" s="50" customFormat="1" ht="29">
       <c r="A2" s="92" t="s">
         <v>129</v>
       </c>
@@ -7154,7 +7185,7 @@
       <c r="I2" s="87"/>
       <c r="J2" s="51"/>
     </row>
-    <row r="3" spans="1:10" ht="28.8">
+    <row r="3" spans="1:10" ht="29">
       <c r="A3" s="72" t="s">
         <v>1002</v>
       </c>
@@ -7167,13 +7198,13 @@
       <c r="D3" s="72" t="s">
         <v>1018</v>
       </c>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-    </row>
-    <row r="4" spans="1:10" ht="87">
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+    </row>
+    <row r="4" spans="1:10" ht="87.5">
       <c r="A4" s="72" t="s">
         <v>1003</v>
       </c>
@@ -7186,15 +7217,15 @@
       <c r="D4" s="72" t="s">
         <v>1017</v>
       </c>
-      <c r="E4" s="107"/>
-      <c r="F4" s="109" t="s">
+      <c r="E4" s="95"/>
+      <c r="F4" s="97" t="s">
         <v>1029</v>
       </c>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-    </row>
-    <row r="5" spans="1:10" ht="28.8">
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+    </row>
+    <row r="5" spans="1:10" ht="29">
       <c r="A5" s="72" t="s">
         <v>1004</v>
       </c>
@@ -7207,13 +7238,13 @@
       <c r="D5" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="E5" s="107"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-    </row>
-    <row r="6" spans="1:10" ht="43.2">
+      <c r="E5" s="95"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+    </row>
+    <row r="6" spans="1:10" ht="43.5">
       <c r="A6" s="72" t="s">
         <v>1005</v>
       </c>
@@ -7226,13 +7257,13 @@
       <c r="D6" s="72" t="s">
         <v>1018</v>
       </c>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-    </row>
-    <row r="7" spans="1:10" ht="28.8">
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+    </row>
+    <row r="7" spans="1:10" ht="29">
       <c r="A7" s="72" t="s">
         <v>1006</v>
       </c>
@@ -7243,13 +7274,13 @@
         <v>1022</v>
       </c>
       <c r="D7" s="72"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-    </row>
-    <row r="8" spans="1:10" ht="28.8">
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+    </row>
+    <row r="8" spans="1:10" ht="29">
       <c r="A8" s="72" t="s">
         <v>1007</v>
       </c>
@@ -7260,13 +7291,13 @@
         <v>1023</v>
       </c>
       <c r="D8" s="72"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-    </row>
-    <row r="9" spans="1:10" ht="28.8">
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+    </row>
+    <row r="9" spans="1:10" ht="29">
       <c r="A9" s="72" t="s">
         <v>1008</v>
       </c>
@@ -7279,13 +7310,13 @@
       <c r="D9" s="72" t="s">
         <v>1025</v>
       </c>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-    </row>
-    <row r="10" spans="1:10" ht="57.6">
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+    </row>
+    <row r="10" spans="1:10" ht="58">
       <c r="A10" s="72" t="s">
         <v>1009</v>
       </c>
@@ -7298,13 +7329,13 @@
       <c r="D10" s="72" t="s">
         <v>1018</v>
       </c>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-    </row>
-    <row r="11" spans="1:10" ht="57.6">
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+    </row>
+    <row r="11" spans="1:10" ht="58">
       <c r="A11" s="72" t="s">
         <v>1010</v>
       </c>
@@ -7317,13 +7348,13 @@
       <c r="D11" s="72" t="s">
         <v>1018</v>
       </c>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
-    </row>
-    <row r="12" spans="1:10" ht="57.6">
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+    </row>
+    <row r="12" spans="1:10" ht="58">
       <c r="A12" s="72" t="s">
         <v>1011</v>
       </c>
@@ -7336,13 +7367,13 @@
       <c r="D12" s="72" t="s">
         <v>1018</v>
       </c>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+    </row>
+    <row r="13" spans="1:10" ht="29">
       <c r="A13" s="72" t="s">
         <v>999</v>
       </c>
@@ -7353,11 +7384,11 @@
         <v>1012</v>
       </c>
       <c r="D13" s="72"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="72" t="s">
@@ -7370,13 +7401,13 @@
         <v>1013</v>
       </c>
       <c r="D14" s="72"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+    </row>
+    <row r="15" spans="1:10" ht="29">
       <c r="A15" s="72" t="s">
         <v>1001</v>
       </c>
@@ -7387,11 +7418,11 @@
         <v>1014</v>
       </c>
       <c r="D15" s="72"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7410,18 +7441,18 @@
       <selection sqref="A1:I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="4" width="27.21875" customWidth="1"/>
+    <col min="1" max="4" width="27.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="8" customFormat="1">
-      <c r="A1" s="94">
+      <c r="A1" s="98">
         <v>2019</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -7537,21 +7568,21 @@
       <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="6" customWidth="1"/>
-    <col min="2" max="4" width="31.77734375" style="6" customWidth="1"/>
-    <col min="5" max="9" width="29.109375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.77734375" style="6"/>
+    <col min="1" max="1" width="12.36328125" style="6" customWidth="1"/>
+    <col min="2" max="4" width="31.81640625" style="6" customWidth="1"/>
+    <col min="5" max="9" width="29.08984375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.81640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1">
-      <c r="A1" s="94">
+      <c r="A1" s="98">
         <v>2019</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -7587,7 +7618,7 @@
       <c r="H2" s="68"/>
       <c r="I2" s="68"/>
     </row>
-    <row r="3" spans="1:9" ht="86.4">
+    <row r="3" spans="1:9" ht="87">
       <c r="A3" s="69" t="s">
         <v>90</v>
       </c>
@@ -7616,7 +7647,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="158.4">
+    <row r="4" spans="1:9" ht="159.5">
       <c r="A4" s="69" t="s">
         <v>92</v>
       </c>
@@ -7645,7 +7676,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="100.8">
+    <row r="5" spans="1:9" ht="101.5">
       <c r="A5" s="69" t="s">
         <v>95</v>
       </c>
@@ -7674,7 +7705,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="115.2">
+    <row r="6" spans="1:9" ht="116">
       <c r="A6" s="69" t="s">
         <v>98</v>
       </c>
@@ -7703,7 +7734,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="129.6">
+    <row r="7" spans="1:9" ht="130.5">
       <c r="A7" s="69" t="s">
         <v>101</v>
       </c>
@@ -7732,7 +7763,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="144">
+    <row r="8" spans="1:9" ht="145">
       <c r="A8" s="69" t="s">
         <v>103</v>
       </c>
@@ -7761,7 +7792,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="72">
+    <row r="9" spans="1:9" ht="72.5">
       <c r="A9" s="69" t="s">
         <v>105</v>
       </c>
@@ -7782,7 +7813,7 @@
       <c r="H9" s="69"/>
       <c r="I9" s="69"/>
     </row>
-    <row r="10" spans="1:9" ht="129.6">
+    <row r="10" spans="1:9" ht="130.5">
       <c r="A10" s="69" t="s">
         <v>107</v>
       </c>
@@ -7811,7 +7842,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="100.8">
+    <row r="11" spans="1:9" ht="101.5">
       <c r="A11" s="69" t="s">
         <v>108</v>
       </c>
@@ -7840,7 +7871,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="43.2">
+    <row r="12" spans="1:9" ht="43.5">
       <c r="A12" s="69" t="s">
         <v>130</v>
       </c>
@@ -7867,7 +7898,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="43.2">
+    <row r="13" spans="1:9" ht="43.5">
       <c r="A13" s="69" t="s">
         <v>131</v>
       </c>
@@ -7921,7 +7952,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="43.2">
+    <row r="15" spans="1:9" ht="43.5">
       <c r="A15" s="69" t="s">
         <v>133</v>
       </c>
@@ -7948,7 +7979,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="43.2">
+    <row r="16" spans="1:9" ht="43.5">
       <c r="A16" s="69" t="s">
         <v>135</v>
       </c>
@@ -7975,7 +8006,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="57.6">
+    <row r="17" spans="1:9" ht="58">
       <c r="A17" s="69" t="s">
         <v>134</v>
       </c>
@@ -7992,7 +8023,7 @@
       <c r="H17" s="69"/>
       <c r="I17" s="69"/>
     </row>
-    <row r="18" spans="1:9" ht="172.8">
+    <row r="18" spans="1:9" ht="174">
       <c r="A18" s="69" t="s">
         <v>136</v>
       </c>
@@ -8021,7 +8052,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="201.6">
+    <row r="19" spans="1:9" ht="203">
       <c r="A19" s="69" t="s">
         <v>230</v>
       </c>
@@ -8050,7 +8081,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="43.2">
+    <row r="20" spans="1:9" ht="43.5">
       <c r="A20" s="69" t="s">
         <v>239</v>
       </c>
@@ -8067,7 +8098,7 @@
       <c r="H20" s="69"/>
       <c r="I20" s="69"/>
     </row>
-    <row r="21" spans="1:9" ht="57.6">
+    <row r="21" spans="1:9" ht="58">
       <c r="A21" s="69" t="s">
         <v>240</v>
       </c>
@@ -8086,7 +8117,7 @@
       <c r="H21" s="69"/>
       <c r="I21" s="69"/>
     </row>
-    <row r="22" spans="1:9" ht="172.8">
+    <row r="22" spans="1:9" ht="174">
       <c r="A22" s="69" t="s">
         <v>241</v>
       </c>
@@ -8105,7 +8136,7 @@
       <c r="H22" s="69"/>
       <c r="I22" s="69"/>
     </row>
-    <row r="23" spans="1:9" ht="28.8">
+    <row r="23" spans="1:9" ht="29">
       <c r="A23" s="69" t="s">
         <v>244</v>
       </c>
@@ -8124,7 +8155,7 @@
       <c r="H23" s="69"/>
       <c r="I23" s="69"/>
     </row>
-    <row r="24" spans="1:9" ht="100.8">
+    <row r="24" spans="1:9" ht="101.5">
       <c r="A24" s="69" t="s">
         <v>247</v>
       </c>
@@ -8143,7 +8174,7 @@
       <c r="H24" s="69"/>
       <c r="I24" s="69"/>
     </row>
-    <row r="25" spans="1:9" ht="43.2">
+    <row r="25" spans="1:9" ht="43.5">
       <c r="A25" s="69" t="s">
         <v>251</v>
       </c>
@@ -8160,7 +8191,7 @@
       <c r="H25" s="69"/>
       <c r="I25" s="69"/>
     </row>
-    <row r="26" spans="1:9" ht="57.6">
+    <row r="26" spans="1:9" ht="58">
       <c r="A26" s="69" t="s">
         <v>253</v>
       </c>
@@ -8179,7 +8210,7 @@
       <c r="H26" s="69"/>
       <c r="I26" s="69"/>
     </row>
-    <row r="27" spans="1:9" ht="86.4">
+    <row r="27" spans="1:9" ht="87">
       <c r="A27" s="69" t="s">
         <v>256</v>
       </c>
@@ -8198,7 +8229,7 @@
       <c r="H27" s="69"/>
       <c r="I27" s="69"/>
     </row>
-    <row r="28" spans="1:9" ht="129.6">
+    <row r="28" spans="1:9" ht="130.5">
       <c r="A28" s="69" t="s">
         <v>260</v>
       </c>
@@ -8217,7 +8248,7 @@
       <c r="H28" s="69"/>
       <c r="I28" s="69"/>
     </row>
-    <row r="29" spans="1:9" ht="43.2">
+    <row r="29" spans="1:9" ht="43.5">
       <c r="A29" s="69" t="s">
         <v>261</v>
       </c>
@@ -8236,7 +8267,7 @@
       <c r="H29" s="69"/>
       <c r="I29" s="69"/>
     </row>
-    <row r="30" spans="1:9" ht="86.4">
+    <row r="30" spans="1:9" ht="87">
       <c r="A30" s="69" t="s">
         <v>262</v>
       </c>
@@ -8255,7 +8286,7 @@
       <c r="H30" s="69"/>
       <c r="I30" s="69"/>
     </row>
-    <row r="31" spans="1:9" ht="86.4">
+    <row r="31" spans="1:9" ht="87">
       <c r="A31" s="69" t="s">
         <v>263</v>
       </c>
@@ -8274,7 +8305,7 @@
       <c r="H31" s="69"/>
       <c r="I31" s="69"/>
     </row>
-    <row r="32" spans="1:9" ht="115.2">
+    <row r="32" spans="1:9" ht="116">
       <c r="A32" s="69" t="s">
         <v>264</v>
       </c>
@@ -8293,7 +8324,7 @@
       <c r="H32" s="69"/>
       <c r="I32" s="69"/>
     </row>
-    <row r="33" spans="1:9" ht="43.2">
+    <row r="33" spans="1:9" ht="43.5">
       <c r="A33" s="69" t="s">
         <v>268</v>
       </c>
@@ -8310,7 +8341,7 @@
       <c r="H33" s="69"/>
       <c r="I33" s="69"/>
     </row>
-    <row r="34" spans="1:9" ht="57.6">
+    <row r="34" spans="1:9" ht="58">
       <c r="A34" s="69" t="s">
         <v>269</v>
       </c>
@@ -8329,7 +8360,7 @@
       <c r="H34" s="69"/>
       <c r="I34" s="69"/>
     </row>
-    <row r="35" spans="1:9" ht="172.8">
+    <row r="35" spans="1:9" ht="174">
       <c r="A35" s="69" t="s">
         <v>270</v>
       </c>
@@ -8348,7 +8379,7 @@
       <c r="H35" s="69"/>
       <c r="I35" s="69"/>
     </row>
-    <row r="36" spans="1:9" ht="57.6">
+    <row r="36" spans="1:9" ht="58">
       <c r="A36" s="69" t="s">
         <v>280</v>
       </c>
@@ -8388,20 +8419,20 @@
       <selection pane="bottomRight" sqref="A1:I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="2" max="4" width="31.77734375" customWidth="1"/>
-    <col min="5" max="9" width="29.21875" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" customWidth="1"/>
+    <col min="2" max="4" width="31.81640625" customWidth="1"/>
+    <col min="5" max="9" width="29.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="9" customFormat="1">
-      <c r="A1" s="94">
+      <c r="A1" s="98">
         <v>2019</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -8450,7 +8481,7 @@
       <c r="H3" s="71"/>
       <c r="I3" s="71"/>
     </row>
-    <row r="4" spans="1:9" ht="187.2">
+    <row r="4" spans="1:9" ht="188.5">
       <c r="A4" s="69" t="s">
         <v>289</v>
       </c>
@@ -8479,7 +8510,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="6" customFormat="1" ht="28.8">
+    <row r="5" spans="1:9" s="6" customFormat="1" ht="29">
       <c r="A5" s="69" t="s">
         <v>297</v>
       </c>
@@ -8552,7 +8583,7 @@
       <c r="H7" s="69"/>
       <c r="I7" s="69"/>
     </row>
-    <row r="8" spans="1:9" s="6" customFormat="1" ht="172.8">
+    <row r="8" spans="1:9" s="6" customFormat="1" ht="174">
       <c r="A8" s="69" t="s">
         <v>307</v>
       </c>
@@ -8571,7 +8602,7 @@
       <c r="H8" s="69"/>
       <c r="I8" s="69"/>
     </row>
-    <row r="9" spans="1:9" s="6" customFormat="1" ht="216">
+    <row r="9" spans="1:9" s="6" customFormat="1" ht="217.5">
       <c r="A9" s="69" t="s">
         <v>310</v>
       </c>
@@ -8590,7 +8621,7 @@
       <c r="H9" s="69"/>
       <c r="I9" s="69"/>
     </row>
-    <row r="10" spans="1:9" s="6" customFormat="1" ht="57.6">
+    <row r="10" spans="1:9" s="6" customFormat="1" ht="58">
       <c r="A10" s="69" t="s">
         <v>313</v>
       </c>
@@ -8609,7 +8640,7 @@
       <c r="H10" s="69"/>
       <c r="I10" s="69"/>
     </row>
-    <row r="11" spans="1:9" s="6" customFormat="1" ht="230.4">
+    <row r="11" spans="1:9" s="6" customFormat="1" ht="232">
       <c r="A11" s="69" t="s">
         <v>317</v>
       </c>
@@ -8628,7 +8659,7 @@
       <c r="H11" s="69"/>
       <c r="I11" s="69"/>
     </row>
-    <row r="12" spans="1:9" s="6" customFormat="1" ht="230.4">
+    <row r="12" spans="1:9" s="6" customFormat="1" ht="232">
       <c r="A12" s="69" t="s">
         <v>318</v>
       </c>
@@ -8647,7 +8678,7 @@
       <c r="H12" s="69"/>
       <c r="I12" s="69"/>
     </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" ht="201.6">
+    <row r="13" spans="1:9" s="1" customFormat="1" ht="203">
       <c r="A13" s="64" t="s">
         <v>324</v>
       </c>
@@ -8666,7 +8697,7 @@
       <c r="H13" s="64"/>
       <c r="I13" s="64"/>
     </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" ht="57.6">
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="58">
       <c r="A14" s="64" t="s">
         <v>328</v>
       </c>
@@ -8685,7 +8716,7 @@
       <c r="H14" s="64"/>
       <c r="I14" s="64"/>
     </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" ht="201.6">
+    <row r="15" spans="1:9" s="1" customFormat="1" ht="203">
       <c r="A15" s="64" t="s">
         <v>331</v>
       </c>
@@ -8704,7 +8735,7 @@
       <c r="H15" s="64"/>
       <c r="I15" s="64"/>
     </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" ht="28.8">
+    <row r="16" spans="1:9" s="1" customFormat="1" ht="29">
       <c r="A16" s="64" t="s">
         <v>334</v>
       </c>
@@ -8723,7 +8754,7 @@
       <c r="H16" s="64"/>
       <c r="I16" s="64"/>
     </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" ht="28.8">
+    <row r="17" spans="1:9" s="1" customFormat="1" ht="29">
       <c r="A17" s="64" t="s">
         <v>337</v>
       </c>
@@ -8742,7 +8773,7 @@
       <c r="H17" s="64"/>
       <c r="I17" s="64"/>
     </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" ht="100.8">
+    <row r="18" spans="1:9" s="1" customFormat="1" ht="101.5">
       <c r="A18" s="64" t="s">
         <v>340</v>
       </c>
@@ -8761,7 +8792,7 @@
       <c r="H18" s="64"/>
       <c r="I18" s="64"/>
     </row>
-    <row r="19" spans="1:9" s="1" customFormat="1" ht="115.2">
+    <row r="19" spans="1:9" s="1" customFormat="1" ht="116">
       <c r="A19" s="64" t="s">
         <v>343</v>
       </c>
@@ -8790,7 +8821,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="1" customFormat="1" ht="28.8">
+    <row r="20" spans="1:9" s="1" customFormat="1" ht="29">
       <c r="A20" s="64" t="s">
         <v>344</v>
       </c>
@@ -8813,7 +8844,7 @@
       <c r="H20" s="64"/>
       <c r="I20" s="64"/>
     </row>
-    <row r="21" spans="1:9" s="1" customFormat="1" ht="43.2">
+    <row r="21" spans="1:9" s="1" customFormat="1" ht="43.5">
       <c r="A21" s="64" t="s">
         <v>352</v>
       </c>
@@ -8853,7 +8884,7 @@
       <c r="H22" s="64"/>
       <c r="I22" s="64"/>
     </row>
-    <row r="23" spans="1:9" s="1" customFormat="1" ht="172.8">
+    <row r="23" spans="1:9" s="1" customFormat="1" ht="174">
       <c r="A23" s="64" t="s">
         <v>354</v>
       </c>
@@ -9011,21 +9042,21 @@
       <selection pane="bottomRight" sqref="A1:I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="31.77734375" style="2" customWidth="1"/>
-    <col min="3" max="4" width="31.77734375" customWidth="1"/>
-    <col min="5" max="9" width="29.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.81640625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="31.81640625" customWidth="1"/>
+    <col min="5" max="9" width="29.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1">
-      <c r="A1" s="95">
+      <c r="A1" s="99">
         <v>2019</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -9061,7 +9092,7 @@
       <c r="H2" s="75"/>
       <c r="I2" s="75"/>
     </row>
-    <row r="3" spans="1:9" ht="28.8">
+    <row r="3" spans="1:9" ht="29">
       <c r="A3" s="12" t="s">
         <v>44</v>
       </c>
@@ -9095,7 +9126,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="71"/>
     </row>
-    <row r="5" spans="1:9" ht="28.8">
+    <row r="5" spans="1:9" ht="29">
       <c r="A5" s="12" t="s">
         <v>46</v>
       </c>
@@ -9114,7 +9145,7 @@
       <c r="H5" s="12"/>
       <c r="I5" s="71"/>
     </row>
-    <row r="6" spans="1:9" ht="230.4">
+    <row r="6" spans="1:9" ht="232">
       <c r="A6" s="12" t="s">
         <v>47</v>
       </c>
@@ -9133,7 +9164,7 @@
       <c r="H6" s="12"/>
       <c r="I6" s="71"/>
     </row>
-    <row r="7" spans="1:9" ht="100.8">
+    <row r="7" spans="1:9" ht="101.5">
       <c r="A7" s="12" t="s">
         <v>48</v>
       </c>
@@ -9160,7 +9191,7 @@
       </c>
       <c r="I7" s="71"/>
     </row>
-    <row r="8" spans="1:9" ht="100.8">
+    <row r="8" spans="1:9" ht="101.5">
       <c r="A8" s="12" t="s">
         <v>49</v>
       </c>
@@ -9196,7 +9227,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="71"/>
     </row>
-    <row r="10" spans="1:9" ht="43.2">
+    <row r="10" spans="1:9" ht="43.5">
       <c r="A10" s="12" t="s">
         <v>51</v>
       </c>
@@ -9249,7 +9280,7 @@
       <c r="H12" s="12"/>
       <c r="I12" s="71"/>
     </row>
-    <row r="13" spans="1:9" ht="55.2">
+    <row r="13" spans="1:9" ht="56">
       <c r="A13" s="12" t="s">
         <v>54</v>
       </c>
@@ -9266,7 +9297,7 @@
       <c r="H13" s="12"/>
       <c r="I13" s="71"/>
     </row>
-    <row r="14" spans="1:9" ht="57.6">
+    <row r="14" spans="1:9" ht="58">
       <c r="A14" s="12" t="s">
         <v>55</v>
       </c>
@@ -9295,7 +9326,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="172.8">
+    <row r="15" spans="1:9" ht="174">
       <c r="A15" s="12" t="s">
         <v>56</v>
       </c>
@@ -9320,7 +9351,7 @@
       <c r="H15" s="12"/>
       <c r="I15" s="71"/>
     </row>
-    <row r="16" spans="1:9" ht="72">
+    <row r="16" spans="1:9" ht="72.5">
       <c r="A16" s="12" t="s">
         <v>57</v>
       </c>
@@ -9339,7 +9370,7 @@
       <c r="H16" s="12"/>
       <c r="I16" s="71"/>
     </row>
-    <row r="17" spans="1:9" ht="172.8">
+    <row r="17" spans="1:9" ht="174">
       <c r="A17" s="12" t="s">
         <v>58</v>
       </c>
@@ -9360,7 +9391,7 @@
       <c r="H17" s="12"/>
       <c r="I17" s="71"/>
     </row>
-    <row r="18" spans="1:9" ht="72">
+    <row r="18" spans="1:9" ht="72.5">
       <c r="A18" s="12" t="s">
         <v>59</v>
       </c>
@@ -9379,7 +9410,7 @@
       <c r="H18" s="12"/>
       <c r="I18" s="71"/>
     </row>
-    <row r="19" spans="1:9" ht="115.2">
+    <row r="19" spans="1:9" ht="116">
       <c r="A19" s="12" t="s">
         <v>61</v>
       </c>
@@ -9398,7 +9429,7 @@
       <c r="H19" s="12"/>
       <c r="I19" s="71"/>
     </row>
-    <row r="20" spans="1:9" ht="86.4">
+    <row r="20" spans="1:9" ht="87">
       <c r="A20" s="12" t="s">
         <v>60</v>
       </c>
@@ -9417,7 +9448,7 @@
       <c r="H20" s="12"/>
       <c r="I20" s="71"/>
     </row>
-    <row r="21" spans="1:9" ht="86.4">
+    <row r="21" spans="1:9" ht="87">
       <c r="A21" s="12" t="s">
         <v>62</v>
       </c>
@@ -9436,7 +9467,7 @@
       <c r="H21" s="12"/>
       <c r="I21" s="71"/>
     </row>
-    <row r="22" spans="1:9" ht="172.8">
+    <row r="22" spans="1:9" ht="174">
       <c r="A22" s="12" t="s">
         <v>63</v>
       </c>
@@ -9455,7 +9486,7 @@
       <c r="H22" s="12"/>
       <c r="I22" s="71"/>
     </row>
-    <row r="23" spans="1:9" ht="174.45" customHeight="1">
+    <row r="23" spans="1:9" ht="174.5" customHeight="1">
       <c r="A23" s="12" t="s">
         <v>64</v>
       </c>
@@ -9501,7 +9532,7 @@
       <c r="H24" s="12"/>
       <c r="I24" s="71"/>
     </row>
-    <row r="25" spans="1:9" ht="43.2">
+    <row r="25" spans="1:9" ht="43.5">
       <c r="A25" s="12" t="s">
         <v>66</v>
       </c>
@@ -9571,7 +9602,7 @@
       <c r="H28" s="12"/>
       <c r="I28" s="71"/>
     </row>
-    <row r="29" spans="1:9" ht="28.8">
+    <row r="29" spans="1:9" ht="29">
       <c r="A29" s="12" t="s">
         <v>70</v>
       </c>
@@ -9617,7 +9648,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="304.95" customHeight="1">
+    <row r="31" spans="1:9" ht="305" customHeight="1">
       <c r="A31" s="12" t="s">
         <v>72</v>
       </c>
@@ -9666,21 +9697,21 @@
       <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.21875" style="6" customWidth="1"/>
-    <col min="2" max="3" width="17.44140625" style="6" customWidth="1"/>
-    <col min="4" max="9" width="29.109375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.77734375" style="6"/>
+    <col min="1" max="1" width="14.1796875" style="6" customWidth="1"/>
+    <col min="2" max="3" width="17.453125" style="6" customWidth="1"/>
+    <col min="4" max="9" width="29.08984375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.81640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="37" customFormat="1">
-      <c r="A1" s="94">
+      <c r="A1" s="98">
         <v>2019</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -9716,7 +9747,7 @@
       <c r="H2" s="68"/>
       <c r="I2" s="68"/>
     </row>
-    <row r="3" spans="1:9" ht="72">
+    <row r="3" spans="1:9" ht="72.5">
       <c r="A3" s="69" t="s">
         <v>448</v>
       </c>
@@ -9745,7 +9776,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="201.6">
+    <row r="4" spans="1:9" ht="203">
       <c r="A4" s="69" t="s">
         <v>453</v>
       </c>
@@ -9774,7 +9805,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="129.6">
+    <row r="5" spans="1:9" ht="130.5">
       <c r="A5" s="69" t="s">
         <v>457</v>
       </c>
@@ -9803,7 +9834,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="187.2">
+    <row r="6" spans="1:9" ht="188.5">
       <c r="A6" s="69" t="s">
         <v>460</v>
       </c>
@@ -9832,7 +9863,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="100.8">
+    <row r="7" spans="1:9" ht="101.5">
       <c r="A7" s="69" t="s">
         <v>464</v>
       </c>
@@ -9890,7 +9921,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" ht="43.8" customHeight="1">
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="43.75" customHeight="1">
       <c r="A9" s="64" t="s">
         <v>472</v>
       </c>
@@ -9919,7 +9950,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" ht="28.8">
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="29">
       <c r="A10" s="64" t="s">
         <v>475</v>
       </c>
@@ -9975,7 +10006,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" ht="72">
+    <row r="12" spans="1:9" s="1" customFormat="1" ht="72.5">
       <c r="A12" s="64" t="s">
         <v>482</v>
       </c>
@@ -10004,7 +10035,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="57.6">
+    <row r="13" spans="1:9" ht="58">
       <c r="A13" s="69" t="s">
         <v>486</v>
       </c>
@@ -10033,7 +10064,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="115.2">
+    <row r="14" spans="1:9" ht="116">
       <c r="A14" s="69" t="s">
         <v>489</v>
       </c>
@@ -10062,7 +10093,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="100.8">
+    <row r="15" spans="1:9" ht="101.5">
       <c r="A15" s="69" t="s">
         <v>493</v>
       </c>
@@ -10118,7 +10149,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="28.8">
+    <row r="17" spans="1:9" ht="29">
       <c r="A17" s="69" t="s">
         <v>499</v>
       </c>
@@ -10147,7 +10178,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="72">
+    <row r="18" spans="1:9" ht="72.5">
       <c r="A18" s="69" t="s">
         <v>501</v>
       </c>
@@ -10176,7 +10207,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="28.8">
+    <row r="19" spans="1:9" ht="29">
       <c r="A19" s="69" t="s">
         <v>503</v>
       </c>
@@ -10232,7 +10263,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="28.8">
+    <row r="21" spans="1:9" ht="29">
       <c r="A21" s="69" t="s">
         <v>509</v>
       </c>
@@ -10261,7 +10292,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="72">
+    <row r="22" spans="1:9" ht="72.5">
       <c r="A22" s="69" t="s">
         <v>511</v>
       </c>
@@ -10290,7 +10321,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="28.8">
+    <row r="23" spans="1:9" ht="29">
       <c r="A23" s="69" t="s">
         <v>513</v>
       </c>
@@ -10346,7 +10377,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="28.8">
+    <row r="25" spans="1:9" ht="29">
       <c r="A25" s="69" t="s">
         <v>518</v>
       </c>
@@ -10375,7 +10406,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="72">
+    <row r="26" spans="1:9" ht="72.5">
       <c r="A26" s="69" t="s">
         <v>520</v>
       </c>
@@ -10404,7 +10435,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="72">
+    <row r="27" spans="1:9" ht="72.5">
       <c r="A27" s="69" t="s">
         <v>522</v>
       </c>
@@ -10433,7 +10464,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="144">
+    <row r="28" spans="1:9" ht="145">
       <c r="A28" s="69" t="s">
         <v>529</v>
       </c>
@@ -10462,7 +10493,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="28.8">
+    <row r="29" spans="1:9" ht="29">
       <c r="A29" s="69" t="s">
         <v>537</v>
       </c>
@@ -10491,7 +10522,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="57.6">
+    <row r="30" spans="1:9" ht="58">
       <c r="A30" s="69" t="s">
         <v>540</v>
       </c>
@@ -10547,7 +10578,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="28.8">
+    <row r="32" spans="1:9" ht="29">
       <c r="A32" s="69" t="s">
         <v>547</v>
       </c>
@@ -10576,7 +10607,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="72">
+    <row r="33" spans="1:9" ht="72.5">
       <c r="A33" s="69" t="s">
         <v>549</v>
       </c>
@@ -10639,28 +10670,28 @@
       <selection pane="bottomRight" activeCell="E2" sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="42.109375" style="36" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="11.08984375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="42.08984375" style="36" customWidth="1"/>
+    <col min="4" max="4" width="32.54296875" style="17" customWidth="1"/>
     <col min="5" max="5" width="24" style="6" customWidth="1"/>
     <col min="6" max="6" width="16" style="6" customWidth="1"/>
     <col min="7" max="7" width="24" style="49" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="49" customWidth="1"/>
+    <col min="8" max="8" width="15.36328125" style="49" customWidth="1"/>
     <col min="9" max="9" width="24" style="6" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.77734375" style="6"/>
+    <col min="10" max="10" width="17.36328125" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.81640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="37" customFormat="1">
-      <c r="A1" s="96">
+      <c r="A1" s="100">
         <v>2019</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
       <c r="E1" s="59">
         <v>2018</v>
       </c>
@@ -10690,16 +10721,16 @@
       <c r="D2" s="79" t="s">
         <v>390</v>
       </c>
-      <c r="E2" s="97" t="s">
+      <c r="E2" s="101" t="s">
         <v>551</v>
       </c>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="99"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="103"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="106.2" customHeight="1">
+    <row r="3" spans="1:10" ht="106.25" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>552</v>
       </c>
@@ -10729,7 +10760,7 @@
       </c>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" ht="153">
+    <row r="4" spans="1:10" ht="157.5">
       <c r="A4" s="14" t="s">
         <v>557</v>
       </c>
@@ -10759,7 +10790,7 @@
       </c>
       <c r="J4" s="18"/>
     </row>
-    <row r="5" spans="1:10" ht="153">
+    <row r="5" spans="1:10" ht="157.5">
       <c r="A5" s="14" t="s">
         <v>562</v>
       </c>
@@ -10789,7 +10820,7 @@
       </c>
       <c r="J5" s="18"/>
     </row>
-    <row r="6" spans="1:10" ht="255">
+    <row r="6" spans="1:10" ht="252">
       <c r="A6" s="14" t="s">
         <v>565</v>
       </c>
@@ -10849,7 +10880,7 @@
       </c>
       <c r="J7" s="18"/>
     </row>
-    <row r="8" spans="1:10" ht="31.2" customHeight="1">
+    <row r="8" spans="1:10" ht="31.25" customHeight="1">
       <c r="A8" s="14" t="s">
         <v>574</v>
       </c>
@@ -10879,7 +10910,7 @@
       </c>
       <c r="J8" s="18"/>
     </row>
-    <row r="9" spans="1:10" ht="31.2" customHeight="1">
+    <row r="9" spans="1:10" ht="31.25" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>578</v>
       </c>
@@ -10908,7 +10939,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="102">
+    <row r="10" spans="1:10" ht="105">
       <c r="A10" s="14" t="s">
         <v>581</v>
       </c>
@@ -10937,7 +10968,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="91.8">
+    <row r="11" spans="1:10" ht="94.5">
       <c r="A11" s="14" t="s">
         <v>587</v>
       </c>
@@ -10966,7 +10997,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="27.6">
+    <row r="12" spans="1:10" ht="21">
       <c r="A12" s="14" t="s">
         <v>591</v>
       </c>
@@ -10995,7 +11026,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="91.8">
+    <row r="13" spans="1:10" ht="94.5">
       <c r="A13" s="14" t="s">
         <v>594</v>
       </c>
@@ -11024,7 +11055,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="153">
+    <row r="14" spans="1:10" ht="147">
       <c r="A14" s="14" t="s">
         <v>599</v>
       </c>
@@ -11053,7 +11084,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="142.80000000000001">
+    <row r="15" spans="1:10" ht="147">
       <c r="A15" s="19" t="s">
         <v>604</v>
       </c>
@@ -11082,7 +11113,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="224.4">
+    <row r="16" spans="1:10" ht="220.5">
       <c r="A16" s="19" t="s">
         <v>610</v>
       </c>
@@ -11111,7 +11142,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="112.2">
+    <row r="17" spans="1:9" ht="115.5">
       <c r="A17" s="19" t="s">
         <v>616</v>
       </c>
@@ -11140,7 +11171,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="41.4">
+    <row r="18" spans="1:9" ht="39">
       <c r="A18" s="19" t="s">
         <v>622</v>
       </c>
@@ -11167,7 +11198,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="69">
+    <row r="19" spans="1:9" ht="52">
       <c r="A19" s="19" t="s">
         <v>625</v>
       </c>
@@ -11196,7 +11227,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="55.2">
+    <row r="20" spans="1:9" ht="52">
       <c r="A20" s="19" t="s">
         <v>628</v>
       </c>
@@ -11223,7 +11254,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="336.6">
+    <row r="21" spans="1:9" ht="346.5">
       <c r="A21" s="22" t="s">
         <v>633</v>
       </c>
@@ -11252,7 +11283,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="40.799999999999997">
+    <row r="22" spans="1:9" ht="42">
       <c r="A22" s="25" t="s">
         <v>638</v>
       </c>
@@ -11279,7 +11310,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="40.799999999999997">
+    <row r="23" spans="1:9" ht="42">
       <c r="A23" s="25" t="s">
         <v>642</v>
       </c>
@@ -11308,7 +11339,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="244.8">
+    <row r="24" spans="1:9" ht="252">
       <c r="A24" s="22" t="s">
         <v>646</v>
       </c>
@@ -11364,7 +11395,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="20.399999999999999">
+    <row r="26" spans="1:9" ht="21">
       <c r="A26" s="25" t="s">
         <v>653</v>
       </c>
@@ -11393,7 +11424,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="244.8">
+    <row r="27" spans="1:9" ht="252">
       <c r="A27" s="22" t="s">
         <v>655</v>
       </c>
@@ -11447,7 +11478,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="20.399999999999999">
+    <row r="29" spans="1:9" ht="21">
       <c r="A29" s="25" t="s">
         <v>662</v>
       </c>
@@ -11474,7 +11505,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="100.8">
+    <row r="30" spans="1:9" ht="101.5">
       <c r="A30" s="22" t="s">
         <v>664</v>
       </c>
@@ -11530,7 +11561,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="20.399999999999999">
+    <row r="32" spans="1:9" ht="21">
       <c r="A32" s="25" t="s">
         <v>671</v>
       </c>
@@ -11559,7 +11590,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="41.4">
+    <row r="33" spans="1:9" ht="39">
       <c r="A33" s="22" t="s">
         <v>673</v>
       </c>
@@ -11615,7 +11646,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="20.399999999999999">
+    <row r="35" spans="1:9" ht="21">
       <c r="A35" s="25" t="s">
         <v>678</v>
       </c>
@@ -11644,7 +11675,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="41.4">
+    <row r="36" spans="1:9" ht="39">
       <c r="A36" s="22" t="s">
         <v>680</v>
       </c>
@@ -11673,7 +11704,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="27.6">
+    <row r="37" spans="1:9" ht="26">
       <c r="A37" s="25" t="s">
         <v>683</v>
       </c>
@@ -11700,7 +11731,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="20.399999999999999">
+    <row r="38" spans="1:9" ht="21">
       <c r="A38" s="25" t="s">
         <v>686</v>
       </c>
@@ -11729,7 +11760,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="55.2">
+    <row r="39" spans="1:9" ht="52">
       <c r="A39" s="22" t="s">
         <v>689</v>
       </c>
@@ -11783,7 +11814,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="20.399999999999999">
+    <row r="41" spans="1:9" ht="21">
       <c r="A41" s="25" t="s">
         <v>694</v>
       </c>
@@ -11812,7 +11843,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="41.4">
+    <row r="42" spans="1:9" ht="39">
       <c r="A42" s="22" t="s">
         <v>696</v>
       </c>
@@ -11866,7 +11897,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="20.399999999999999">
+    <row r="44" spans="1:9" ht="21">
       <c r="A44" s="25" t="s">
         <v>701</v>
       </c>
@@ -11895,7 +11926,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="55.2">
+    <row r="45" spans="1:9" ht="52">
       <c r="A45" s="22" t="s">
         <v>703</v>
       </c>
@@ -11922,7 +11953,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="20.399999999999999">
+    <row r="46" spans="1:9" ht="21">
       <c r="A46" s="25" t="s">
         <v>706</v>
       </c>
@@ -11951,7 +11982,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="61.2">
+    <row r="47" spans="1:9" ht="63">
       <c r="A47" s="28" t="s">
         <v>708</v>
       </c>
@@ -11980,7 +12011,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="27.6">
+    <row r="48" spans="1:9" ht="26">
       <c r="A48" s="28" t="s">
         <v>714</v>
       </c>
@@ -12009,7 +12040,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="27.6">
+    <row r="49" spans="1:9" ht="26">
       <c r="A49" s="28" t="s">
         <v>719</v>
       </c>
@@ -12038,7 +12069,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="112.2">
+    <row r="50" spans="1:9" ht="115.5">
       <c r="A50" s="28" t="s">
         <v>724</v>
       </c>
@@ -12067,7 +12098,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="20.399999999999999">
+    <row r="51" spans="1:9" ht="21">
       <c r="A51" s="28" t="s">
         <v>730</v>
       </c>
@@ -12096,7 +12127,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="81.599999999999994">
+    <row r="52" spans="1:9" ht="84">
       <c r="A52" s="28" t="s">
         <v>735</v>
       </c>
@@ -12125,7 +12156,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="112.2">
+    <row r="53" spans="1:9" ht="115.5">
       <c r="A53" s="31" t="s">
         <v>740</v>
       </c>
@@ -12154,7 +12185,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="112.2">
+    <row r="54" spans="1:9" ht="115.5">
       <c r="A54" s="31" t="s">
         <v>745</v>
       </c>
@@ -12183,7 +12214,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="27.6">
+    <row r="55" spans="1:9" ht="26">
       <c r="A55" s="31" t="s">
         <v>750</v>
       </c>
@@ -12210,7 +12241,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="20.399999999999999">
+    <row r="56" spans="1:9" ht="21">
       <c r="A56" s="34" t="s">
         <v>753</v>
       </c>
@@ -12263,18 +12294,18 @@
       <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="4" width="31.77734375" customWidth="1"/>
+    <col min="1" max="4" width="31.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="9" customFormat="1">
-      <c r="A1" s="94">
+      <c r="A1" s="98">
         <v>2019</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -12310,7 +12341,7 @@
       <c r="H2" s="68"/>
       <c r="I2" s="68"/>
     </row>
-    <row r="3" spans="1:9" s="6" customFormat="1" ht="28.8">
+    <row r="3" spans="1:9" s="6" customFormat="1" ht="29">
       <c r="A3" s="12" t="s">
         <v>409</v>
       </c>
@@ -12346,7 +12377,7 @@
       <c r="H4" s="69"/>
       <c r="I4" s="69"/>
     </row>
-    <row r="5" spans="1:9" s="6" customFormat="1" ht="72">
+    <row r="5" spans="1:9" s="6" customFormat="1" ht="72.5">
       <c r="A5" s="12" t="s">
         <v>410</v>
       </c>
@@ -12365,7 +12396,7 @@
       <c r="H5" s="69"/>
       <c r="I5" s="69"/>
     </row>
-    <row r="6" spans="1:9" s="6" customFormat="1" ht="57.6">
+    <row r="6" spans="1:9" s="6" customFormat="1" ht="58">
       <c r="A6" s="69" t="s">
         <v>417</v>
       </c>
@@ -12384,7 +12415,7 @@
       <c r="H6" s="69"/>
       <c r="I6" s="69"/>
     </row>
-    <row r="7" spans="1:9" s="6" customFormat="1" ht="57.6">
+    <row r="7" spans="1:9" s="6" customFormat="1" ht="58">
       <c r="A7" s="69" t="s">
         <v>418</v>
       </c>
@@ -12403,7 +12434,7 @@
       <c r="H7" s="69"/>
       <c r="I7" s="69"/>
     </row>
-    <row r="8" spans="1:9" s="6" customFormat="1" ht="57.6">
+    <row r="8" spans="1:9" s="6" customFormat="1" ht="58">
       <c r="A8" s="69" t="s">
         <v>427</v>
       </c>
@@ -12422,7 +12453,7 @@
       <c r="H8" s="69"/>
       <c r="I8" s="69"/>
     </row>
-    <row r="9" spans="1:9" s="6" customFormat="1" ht="57.6">
+    <row r="9" spans="1:9" s="6" customFormat="1" ht="58">
       <c r="A9" s="69" t="s">
         <v>428</v>
       </c>
@@ -12441,7 +12472,7 @@
       <c r="H9" s="69"/>
       <c r="I9" s="69"/>
     </row>
-    <row r="10" spans="1:9" s="6" customFormat="1" ht="57.6">
+    <row r="10" spans="1:9" s="6" customFormat="1" ht="58">
       <c r="A10" s="69" t="s">
         <v>429</v>
       </c>
@@ -12460,7 +12491,7 @@
       <c r="H10" s="69"/>
       <c r="I10" s="69"/>
     </row>
-    <row r="11" spans="1:9" s="6" customFormat="1" ht="144">
+    <row r="11" spans="1:9" s="6" customFormat="1" ht="145">
       <c r="A11" s="69" t="s">
         <v>430</v>
       </c>
@@ -12507,24 +12538,24 @@
       <selection pane="bottomRight" activeCell="A2" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="14.90625" style="6" customWidth="1"/>
     <col min="2" max="2" width="24" style="6" customWidth="1"/>
-    <col min="3" max="3" width="42.109375" style="36" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="42.08984375" style="36" customWidth="1"/>
+    <col min="4" max="4" width="32.54296875" style="17" customWidth="1"/>
     <col min="5" max="9" width="24" style="6" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.77734375" style="6"/>
+    <col min="10" max="10" width="17.36328125" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.81640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="37" customFormat="1">
-      <c r="A1" s="94">
+      <c r="A1" s="98">
         <v>2019</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -12554,16 +12585,16 @@
       <c r="D2" s="61" t="s">
         <v>390</v>
       </c>
-      <c r="E2" s="100" t="s">
+      <c r="E2" s="104" t="s">
         <v>873</v>
       </c>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
       <c r="J2" s="51"/>
     </row>
-    <row r="3" spans="1:10" s="52" customFormat="1" ht="28.8">
+    <row r="3" spans="1:10" s="52" customFormat="1" ht="29">
       <c r="A3" s="62" t="s">
         <v>874</v>
       </c>
@@ -12591,7 +12622,7 @@
       </c>
       <c r="J3" s="54"/>
     </row>
-    <row r="4" spans="1:10" s="52" customFormat="1" ht="28.8">
+    <row r="4" spans="1:10" s="52" customFormat="1" ht="29">
       <c r="A4" s="62" t="s">
         <v>877</v>
       </c>
@@ -12619,7 +12650,7 @@
       </c>
       <c r="J4" s="54"/>
     </row>
-    <row r="5" spans="1:10" s="52" customFormat="1" ht="40.799999999999997">
+    <row r="5" spans="1:10" s="52" customFormat="1" ht="31.5">
       <c r="A5" s="62" t="s">
         <v>880</v>
       </c>
@@ -12649,7 +12680,7 @@
       </c>
       <c r="J5" s="54"/>
     </row>
-    <row r="6" spans="1:10" s="52" customFormat="1" ht="81.599999999999994">
+    <row r="6" spans="1:10" s="52" customFormat="1" ht="84">
       <c r="A6" s="62" t="s">
         <v>886</v>
       </c>
@@ -12707,7 +12738,7 @@
       </c>
       <c r="J7" s="54"/>
     </row>
-    <row r="8" spans="1:10" s="52" customFormat="1" ht="28.8">
+    <row r="8" spans="1:10" s="52" customFormat="1" ht="43.5">
       <c r="A8" s="62" t="s">
         <v>895</v>
       </c>
@@ -12735,7 +12766,7 @@
       </c>
       <c r="J8" s="54"/>
     </row>
-    <row r="9" spans="1:10" s="52" customFormat="1" ht="57.6">
+    <row r="9" spans="1:10" s="52" customFormat="1" ht="58">
       <c r="A9" s="62" t="s">
         <v>898</v>
       </c>
@@ -12765,7 +12796,7 @@
       </c>
       <c r="J9" s="54"/>
     </row>
-    <row r="10" spans="1:10" s="52" customFormat="1" ht="30.6">
+    <row r="10" spans="1:10" s="52" customFormat="1" ht="31.5">
       <c r="A10" s="62" t="s">
         <v>901</v>
       </c>
@@ -12793,7 +12824,7 @@
       </c>
       <c r="J10" s="54"/>
     </row>
-    <row r="11" spans="1:10" s="52" customFormat="1" ht="57.6">
+    <row r="11" spans="1:10" s="52" customFormat="1" ht="58">
       <c r="A11" s="62" t="s">
         <v>906</v>
       </c>
@@ -12822,7 +12853,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="52" customFormat="1" ht="40.799999999999997">
+    <row r="12" spans="1:10" s="52" customFormat="1" ht="42">
       <c r="A12" s="62" t="s">
         <v>909</v>
       </c>
@@ -13279,15 +13310,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D97C45C73161C540AAAEC0BB7C04B14C" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="eaac3f66d04ba47d8e7bacccdec8bc8e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="69ca14ff-5d6d-4eb8-91d9-74d4bb4de445" xmlns:ns4="72d74521-8c27-4702-99f8-167624e069b6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e42dd572579043e93d80e2ef1a203961" ns3:_="" ns4:_="">
     <xsd:import namespace="69ca14ff-5d6d-4eb8-91d9-74d4bb4de445"/>
@@ -13510,6 +13532,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -13517,14 +13548,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D82FA49E-E684-481F-999C-85E775CBBA65}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BD029C1-9A00-4A77-A4BC-41F5C7C058C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13539,6 +13562,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D82FA49E-E684-481F-999C-85E775CBBA65}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data_management/management/2. harmonization/ENCOVI harmonization/Encovi_comparability across years 2014-2019_ALL.xlsx
+++ b/data_management/management/2. harmonization/ENCOVI harmonization/Encovi_comparability across years 2014-2019_ALL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb563583\GitHub\VEN\data_management\management\2. harmonization\ENCOVI harmonization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51684273-CD15-4AFE-B5BA-607367CCB467}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCF9EDF-EDFD-4671-B480-A993F0274CF3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="805" firstSheet="6" activeTab="11" xr2:uid="{C17073D6-622F-4055-BD8D-7FC11D1960F9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="805" firstSheet="6" activeTab="12" xr2:uid="{C17073D6-622F-4055-BD8D-7FC11D1960F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Control_entrevista" sheetId="4" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="1031">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="1036">
   <si>
     <t>Questions</t>
   </si>
@@ -4325,6 +4325,21 @@
 8. Por razones políticas
 9. Otro. Especifique
 99. NS/NR</t>
+  </si>
+  <si>
+    <t>s15q1_os</t>
+  </si>
+  <si>
+    <t>evento_ot</t>
+  </si>
+  <si>
+    <t>s15q2</t>
+  </si>
+  <si>
+    <t>s15q2a</t>
+  </si>
+  <si>
+    <t>veces_evento_1-veces_evento_21</t>
   </si>
 </sst>
 </file>
@@ -4531,7 +4546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4813,6 +4828,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -5179,12 +5197,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="8" customFormat="1">
-      <c r="A1" s="98">
+      <c r="A1" s="99">
         <v>2019</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -5992,12 +6010,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="11" customFormat="1">
-      <c r="A1" s="98">
+      <c r="A1" s="99">
         <v>2019</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -6506,7 +6524,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
@@ -6519,25 +6537,25 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="42.81640625" customWidth="1"/>
+    <col min="1" max="3" width="32" style="6" customWidth="1"/>
+    <col min="4" max="4" width="42.81640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="9" customFormat="1">
-      <c r="A1" s="60">
+      <c r="A1" s="98">
         <v>2019</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -6574,16 +6592,16 @@
       <c r="I2" s="81"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="69" t="s">
         <v>438</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="69" t="s">
         <v>440</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="69" t="s">
         <v>439</v>
       </c>
-      <c r="D3" s="71"/>
+      <c r="D3" s="69"/>
       <c r="E3" s="71"/>
       <c r="F3" s="71"/>
       <c r="G3" s="71"/>
@@ -6599,7 +6617,7 @@
       <c r="C4" s="64" t="s">
         <v>442</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="64" t="s">
         <v>443</v>
       </c>
       <c r="E4" s="71"/>
@@ -6607,19 +6625,37 @@
       <c r="G4" s="71"/>
       <c r="H4" s="71"/>
     </row>
-    <row r="5" spans="1:9" ht="409.5">
-      <c r="A5" s="71"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="64" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" s="6" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="409.5">
+      <c r="A6" s="69" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B6" s="69"/>
+      <c r="C6" s="64" t="s">
         <v>444</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D6" s="64" t="s">
         <v>443</v>
       </c>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="6" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>1035</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6649,13 +6685,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="37" customFormat="1">
-      <c r="A1" s="107">
+      <c r="A1" s="108">
         <v>2019</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="108"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="109"/>
       <c r="F1" s="60">
         <v>2018</v>
       </c>
@@ -6673,10 +6709,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="50" customFormat="1" ht="43.5">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="107" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="106"/>
+      <c r="B2" s="107"/>
       <c r="C2" s="61" t="s">
         <v>128</v>
       </c>
@@ -6694,10 +6730,10 @@
       <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:11" ht="72.5">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="106" t="s">
         <v>920</v>
       </c>
-      <c r="B3" s="105"/>
+      <c r="B3" s="106"/>
       <c r="C3" s="71" t="s">
         <v>934</v>
       </c>
@@ -6724,7 +6760,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="29">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="106" t="s">
         <v>950</v>
       </c>
       <c r="B4" s="70" t="s">
@@ -6756,7 +6792,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="116">
-      <c r="A5" s="105"/>
+      <c r="A5" s="106"/>
       <c r="B5" s="70" t="s">
         <v>922</v>
       </c>
@@ -6786,7 +6822,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="145">
-      <c r="A6" s="105"/>
+      <c r="A6" s="106"/>
       <c r="B6" s="70" t="s">
         <v>923</v>
       </c>
@@ -6816,7 +6852,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="145">
-      <c r="A7" s="105"/>
+      <c r="A7" s="106"/>
       <c r="B7" s="70" t="s">
         <v>924</v>
       </c>
@@ -6846,7 +6882,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="188.5">
-      <c r="A8" s="105"/>
+      <c r="A8" s="106"/>
       <c r="B8" s="70" t="s">
         <v>925</v>
       </c>
@@ -6876,7 +6912,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="304.5">
-      <c r="A9" s="105"/>
+      <c r="A9" s="106"/>
       <c r="B9" s="70" t="s">
         <v>926</v>
       </c>
@@ -6906,7 +6942,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" s="82" customFormat="1" ht="261">
-      <c r="A10" s="105"/>
+      <c r="A10" s="106"/>
       <c r="B10" s="90" t="s">
         <v>927</v>
       </c>
@@ -6936,7 +6972,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="188.5">
-      <c r="A11" s="105"/>
+      <c r="A11" s="106"/>
       <c r="B11" s="70" t="s">
         <v>928</v>
       </c>
@@ -6966,7 +7002,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="145">
-      <c r="A12" s="105"/>
+      <c r="A12" s="106"/>
       <c r="B12" s="70" t="s">
         <v>929</v>
       </c>
@@ -6996,7 +7032,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="145">
-      <c r="A13" s="105"/>
+      <c r="A13" s="106"/>
       <c r="B13" s="70" t="s">
         <v>930</v>
       </c>
@@ -7026,7 +7062,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="29">
-      <c r="A14" s="105"/>
+      <c r="A14" s="106"/>
       <c r="B14" s="70" t="s">
         <v>931</v>
       </c>
@@ -7054,7 +7090,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="29">
-      <c r="A15" s="105"/>
+      <c r="A15" s="106"/>
       <c r="B15" s="70" t="s">
         <v>932</v>
       </c>
@@ -7082,10 +7118,10 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="43.5">
-      <c r="A16" s="105" t="s">
+      <c r="A16" s="106" t="s">
         <v>933</v>
       </c>
-      <c r="B16" s="105"/>
+      <c r="B16" s="106"/>
       <c r="C16" s="70" t="s">
         <v>965</v>
       </c>
@@ -7143,12 +7179,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="94" customFormat="1">
-      <c r="A1" s="109">
+      <c r="A1" s="110">
         <v>2019</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
       <c r="E1" s="88">
         <v>2018</v>
       </c>
@@ -7447,12 +7483,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="8" customFormat="1">
-      <c r="A1" s="98">
+      <c r="A1" s="99">
         <v>2019</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -7577,12 +7613,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1">
-      <c r="A1" s="98">
+      <c r="A1" s="99">
         <v>2019</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -8427,12 +8463,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="9" customFormat="1">
-      <c r="A1" s="98">
+      <c r="A1" s="99">
         <v>2019</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -9051,12 +9087,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1">
-      <c r="A1" s="99">
+      <c r="A1" s="100">
         <v>2019</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -9706,12 +9742,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="37" customFormat="1">
-      <c r="A1" s="98">
+      <c r="A1" s="99">
         <v>2019</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -10686,12 +10722,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="37" customFormat="1">
-      <c r="A1" s="100">
+      <c r="A1" s="101">
         <v>2019</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
       <c r="E1" s="59">
         <v>2018</v>
       </c>
@@ -10721,13 +10757,13 @@
       <c r="D2" s="79" t="s">
         <v>390</v>
       </c>
-      <c r="E2" s="101" t="s">
+      <c r="E2" s="102" t="s">
         <v>551</v>
       </c>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="104"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="106.25" customHeight="1">
@@ -12300,12 +12336,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="9" customFormat="1">
-      <c r="A1" s="98">
+      <c r="A1" s="99">
         <v>2019</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -12550,12 +12586,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="37" customFormat="1">
-      <c r="A1" s="98">
+      <c r="A1" s="99">
         <v>2019</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -12585,13 +12621,13 @@
       <c r="D2" s="61" t="s">
         <v>390</v>
       </c>
-      <c r="E2" s="104" t="s">
+      <c r="E2" s="105" t="s">
         <v>873</v>
       </c>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
       <c r="J2" s="51"/>
     </row>
     <row r="3" spans="1:10" s="52" customFormat="1" ht="29">
@@ -13533,18 +13569,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13567,14 +13603,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D82FA49E-E684-481F-999C-85E775CBBA65}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4E4CF47-E673-4F26-A959-0B7774EBA194}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -13589,4 +13617,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D82FA49E-E684-481F-999C-85E775CBBA65}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data_management/management/2. harmonization/ENCOVI harmonization/Encovi_comparability across years 2014-2019_ALL.xlsx
+++ b/data_management/management/2. harmonization/ENCOVI harmonization/Encovi_comparability across years 2014-2019_ALL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb563583\GitHub\VEN\data_management\management\2. harmonization\ENCOVI harmonization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb550905\Github\VEN\data_management\management\2. harmonization\ENCOVI harmonization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51684273-CD15-4AFE-B5BA-607367CCB467}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C13A64-C6CD-4C0B-8089-A9653D4B7F13}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="805" firstSheet="6" activeTab="11" xr2:uid="{C17073D6-622F-4055-BD8D-7FC11D1960F9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="805" activeTab="7" xr2:uid="{C17073D6-622F-4055-BD8D-7FC11D1960F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Control_entrevista" sheetId="4" r:id="rId1"/>
@@ -20,14 +20,15 @@
     <sheet name="Educacion" sheetId="1" r:id="rId5"/>
     <sheet name="Salud" sheetId="12" r:id="rId6"/>
     <sheet name="Empleo" sheetId="13" r:id="rId7"/>
-    <sheet name="Bancarizacion" sheetId="6" r:id="rId8"/>
-    <sheet name="Mortalidad" sheetId="14" r:id="rId9"/>
-    <sheet name="Otros ing y pensiones + Income" sheetId="18" r:id="rId10"/>
-    <sheet name="Emigracion" sheetId="11" r:id="rId11"/>
-    <sheet name="Sheet1" sheetId="19" r:id="rId12"/>
+    <sheet name="Ingresos en bol. feb2020" sheetId="18" r:id="rId8"/>
+    <sheet name="Pensiones" sheetId="20" r:id="rId9"/>
+    <sheet name="Bancarizacion" sheetId="6" r:id="rId10"/>
+    <sheet name="Mortalidad" sheetId="14" r:id="rId11"/>
+    <sheet name="Emigracion" sheetId="11" r:id="rId12"/>
     <sheet name="Eventos que afectan a hogares" sheetId="8" r:id="rId13"/>
-    <sheet name="Seguridad Alimentaria" sheetId="15" r:id="rId14"/>
-    <sheet name="Antropometría" sheetId="17" r:id="rId15"/>
+    <sheet name="Consumo de alimento" sheetId="21" r:id="rId14"/>
+    <sheet name="Seguridad Alimentaria" sheetId="15" r:id="rId15"/>
+    <sheet name="Antropometría" sheetId="17" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="1031">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="1151">
   <si>
     <t>Questions</t>
   </si>
@@ -2758,20 +2759,6 @@
     <t>tmhp48: igual que 2018.</t>
   </si>
   <si>
-    <t>s19q19__1
-s19q19__2
-s19q19__3
-s19q19__4
-s19q19__5
-s19q19__6
-s19q19__7
-s19q19__8
-s19q19__9
-s19q19__10
-s19q19__11
-s19q19__12</t>
-  </si>
-  <si>
     <t>im_sueldo 	
 im_hsextra 
 im_propina 
@@ -3077,37 +3064,22 @@
     <t>s9q26</t>
   </si>
   <si>
-    <t>inm_indep</t>
-  </si>
-  <si>
     <t>¿El mes pasado, recibió ingresos por su actividad para gastos propios o de su hogar? (para trabajadores independientes)</t>
   </si>
   <si>
     <t>s9q26a</t>
   </si>
   <si>
-    <t>inm_indep_cant</t>
-  </si>
-  <si>
     <t>s9q26b</t>
   </si>
   <si>
-    <t>inm_indep_mone</t>
-  </si>
-  <si>
     <t>s9q27</t>
   </si>
   <si>
-    <t>gm_indep_cant</t>
-  </si>
-  <si>
     <t>El mes pasado, ¿cuánto dinero gastó  para generar el ingreso (p.e. alquiler de oficina, gastos de transporte, productos de limpieza)? (para trabajadores independientes)</t>
   </si>
   <si>
     <t>s9q27b</t>
-  </si>
-  <si>
-    <t>gm_indep_mone</t>
   </si>
   <si>
     <t>s9q30</t>
@@ -3946,9 +3918,6 @@
     <t>Anote el ingreso mensual, y recuerde expresarlo en bolívares soberanos (Bs. S.)</t>
   </si>
   <si>
-    <t xml:space="preserve">POR AHORA DEJAMOS SOLO LAS VARIABLES AGREGADAS QUE SALÍAN DE CEDLAS </t>
-  </si>
-  <si>
     <t>ingsuf_comida</t>
   </si>
   <si>
@@ -4186,9 +4155,6 @@
     <t>ap81a y ap81b: igual que 2016.</t>
   </si>
   <si>
-    <t>VAMOS A TENER QUE AGREGAR MÁS</t>
-  </si>
-  <si>
     <t>medido</t>
   </si>
   <si>
@@ -4326,12 +4292,595 @@
 9. Otro. Especifique
 99. NS/NR</t>
   </si>
+  <si>
+    <t>s9q19a__*</t>
+  </si>
+  <si>
+    <t>1 = Sueldos y salarios
+			2 = Horas extras
+			3 = Propinas
+			4 = Comisiones
+			5 = Cesta ticket, tarjeta de alimentación
+			6 = Aporte por guardería
+			7 = Beca estudio
+			8 = Prima por hijos
+			9 = Antigüedad
+			10 = Bono de transporte
+			11 = Bono por rendimiento
+			12 = Otros bonos y compensaciones</t>
+  </si>
+  <si>
+    <t>ingresoslab_mon</t>
+  </si>
+  <si>
+    <t>s9q25a / 12</t>
+  </si>
+  <si>
+    <t>s9q28_petromonto</t>
+  </si>
+  <si>
+    <t>s9q19_petromonto</t>
+  </si>
+  <si>
+    <t>ID variable moneda</t>
+  </si>
+  <si>
+    <t>s9q19b__*</t>
+  </si>
+  <si>
+    <t>ingresoslab_bene</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Para empleadores:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ¿El mes pasado retiró productos del negocio o actividad para consumo propio o de su hogar? Monto recibido, o estimación de cuánto hubiesen pagado por el beneficio</t>
+    </r>
+  </si>
+  <si>
+    <t>1 = Alimentación
+2 = Productos de la empresa
+3 = Transporte
+4 = Vehículo para uso privado
+5 = Exoneración del pago de estacionamiento
+6 = Teléfono personal
+7 = Servicios básicos de vivienda
+8 = Guardería del trabajo
+9 = Otros beneficios</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Para trabajadores que no son independientes ni empleadores:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ¿Con respecto al mes pasado, recibió alguno de los siguientes beneficios en su trabajo u otros empleos? Monto</t>
+    </r>
+  </si>
+  <si>
+    <t>s9q28a_1</t>
+  </si>
+  <si>
+    <t>s9q28a_2</t>
+  </si>
+  <si>
+    <t>s9q28a_3</t>
+  </si>
+  <si>
+    <t>s9q28a_4</t>
+  </si>
+  <si>
+    <t>s9q28b_1</t>
+  </si>
+  <si>
+    <t>s9q28b_2</t>
+  </si>
+  <si>
+    <t>s9q28b_3</t>
+  </si>
+  <si>
+    <t>s9q28b_4</t>
+  </si>
+  <si>
+    <t>s9q29c_5</t>
+  </si>
+  <si>
+    <t>s9q29b_5 / 12</t>
+  </si>
+  <si>
+    <t>s9q29b_6 / 12</t>
+  </si>
+  <si>
+    <t>s9q29b_9 / 12</t>
+  </si>
+  <si>
+    <t>s9q29c_6</t>
+  </si>
+  <si>
+    <t>s9q29c_7</t>
+  </si>
+  <si>
+    <t>s9q29c_9</t>
+  </si>
+  <si>
+    <t>s9q29b_4 / 12</t>
+  </si>
+  <si>
+    <t>s9q29c_4</t>
+  </si>
+  <si>
+    <t>s9q28a_6</t>
+  </si>
+  <si>
+    <t>s9q28a_7</t>
+  </si>
+  <si>
+    <t>s9q28a_8</t>
+  </si>
+  <si>
+    <t>s9q28a_9</t>
+  </si>
+  <si>
+    <t>s9q28a_10</t>
+  </si>
+  <si>
+    <t>Recibió el mes pasado pensión de sobreviviente, orfandad, incapacidad: monto</t>
+  </si>
+  <si>
+    <t>Recibió el mes pasado jubilación por trabajo: monto</t>
+  </si>
+  <si>
+    <t>Recibió el mes pasado pensión por divorcio, separación, alimentacion: monto</t>
+  </si>
+  <si>
+    <t>Recibió el mes pasado pensión de vejez por el seguro social: monto</t>
+  </si>
+  <si>
+    <t>Recibió el mes pasado petro: monto</t>
+  </si>
+  <si>
+    <t>Con respecto a los últimos 12 meses recibió ingresos provenientes del exterior por pensión o jubilacion del exterior: monto</t>
+  </si>
+  <si>
+    <t>Recibió el mes pasado ingresos por beca o ayuda escolar privada</t>
+  </si>
+  <si>
+    <t>Recibió el mes pasado ingresos por ayuda de instituciones privadas</t>
+  </si>
+  <si>
+    <t>Recibió el mes pasado ingresos por ayudas familiares o contribuciones de otros hogares</t>
+  </si>
+  <si>
+    <t>Recibió el mes pasado ingresos por asignación familiar por menores a su cargo</t>
+  </si>
+  <si>
+    <t>itranp_o_m 
+(i.e. Ingreso monetario de otras transferencias privadas diferentes a remesas)</t>
+  </si>
+  <si>
+    <t>rem 
+(i.e. Ingreso monetario de remesas)</t>
+  </si>
+  <si>
+    <t>icap_m 
+(i.e. Ingreso monetario de capital, intereses, alquileres, rentas, beneficios y dividendos)</t>
+  </si>
+  <si>
+    <t>ijubi_m
+(i.e. Ingreso monetario por jubilaciones y pensiones)</t>
+  </si>
+  <si>
+    <t>s9q28b_6</t>
+  </si>
+  <si>
+    <t>s9q28b_8</t>
+  </si>
+  <si>
+    <t>s9q28b_9</t>
+  </si>
+  <si>
+    <t>s9q28b_10</t>
+  </si>
+  <si>
+    <t>itranp_ns
+(i.e. Ingreso monetario de transferencias privadas, cuando no se puede distinguir entre remesas y otras)</t>
+  </si>
+  <si>
+    <t>s9q29b_7 / 12</t>
+  </si>
+  <si>
+    <t>s9q28a_5</t>
+  </si>
+  <si>
+    <t>s9q28b_5</t>
+  </si>
+  <si>
+    <t>s9q28b_7</t>
+  </si>
+  <si>
+    <t>s9q28a_11</t>
+  </si>
+  <si>
+    <t>s9q28b_11</t>
+  </si>
+  <si>
+    <t>Recibió el mes pasado ingresos por beca o ayuda escolar pública</t>
+  </si>
+  <si>
+    <t>Recibió el mes pasado ingresos por ayuda de instituciones públicas</t>
+  </si>
+  <si>
+    <t>itrane_o_m (i.e. Ingreso monetario por transferencias estatales)</t>
+  </si>
+  <si>
+    <t>itrane_ns 
+(i.e. Ingreso monetario por otras transferencias - cuando no se puede distinguir)</t>
+  </si>
+  <si>
+    <t>Recibió el mes pasado ingresos por concepto "otro"</t>
+  </si>
+  <si>
+    <t>s9q29b_3 / 12</t>
+  </si>
+  <si>
+    <t>s9q29c_3</t>
+  </si>
+  <si>
+    <t>s9q29b_8 / 12</t>
+  </si>
+  <si>
+    <t>s9q29c_8</t>
+  </si>
+  <si>
+    <t>inla_otro 
+(i.e. Ingreso monetario extraordinario)</t>
+  </si>
+  <si>
+    <t>s9q29b_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> s9q29b_2</t>
+  </si>
+  <si>
+    <t>s9q29c_1</t>
+  </si>
+  <si>
+    <t>s9q29c_2</t>
+  </si>
+  <si>
+    <t>En los últimos 12 meses recibió ingresos provenientes del exterior por sueldos o salarios: monto</t>
+  </si>
+  <si>
+    <t>En los últimos 12 meses recibió ingresos provenientes del exterior por ingresos netos de los trabajadores independientes: monto</t>
+  </si>
+  <si>
+    <t>En los últimos 12 meses recibió ingresos provenientes del exterior por intereses y dividendos: monto</t>
+  </si>
+  <si>
+    <t>En los últimos 12 meses recibió ingresos provenientes del exterior por  alquileres (vehículos, tierros o terrenos, inmueble residenciales o no): monto</t>
+  </si>
+  <si>
+    <t>En los últimos 12 meses recibió ingresos provenientes del exterior por remesas o ayudas periódicas de otros hogares del exterior: monto</t>
+  </si>
+  <si>
+    <t>En los últimos 12 meses recibió ingresos provenientes del exterior por becas y/o ayudas escolares: monto</t>
+  </si>
+  <si>
+    <t>En los últimos 12 meses recibió ingresos provenientes del exterior por indemnizaciones por enfermedad o accidente: monto</t>
+  </si>
+  <si>
+    <t>En los últimos 12 meses recibió ingresos provenientes del exterior por transferencias extraordinarias (indemnizaciones por seguro, herencia, ayuda de otros hogares): monto</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Para trabajadores que no son independientes ni empleadores:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>¿Con respecto al mes pasado, recibió en todos sus trabajos o negocios ingresos por los siguientes conceptos? - Monto</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Para empleadores:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ¿El mes pasado recibió dinero por la venta de los productos, bienes o servicios de su negocio o actividad? - Monto</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Para trabajadores que no son independientes ni empleadores:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ¿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Recibió pagos a través de Petros? - Monto</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Para trabajadores independientes:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Durante los últimos doce (12) meses, recibió dinero por ganancias o utilidades netas derivadas del negocio o actividad - Monto</t>
+    </r>
+  </si>
+  <si>
+    <t>s9q19b__*_bolfeb</t>
+  </si>
+  <si>
+    <t>ijubi_mpe_bolfeb</t>
+  </si>
+  <si>
+    <t>ingresoslab_monpe_bolfeb</t>
+  </si>
+  <si>
+    <t>s9q23b_bolfeb</t>
+  </si>
+  <si>
+    <t>s9q25b_bolfeb</t>
+  </si>
+  <si>
+    <t>s9q29c_1_bolfeb</t>
+  </si>
+  <si>
+    <t>s9q29c_2_bolfeb</t>
+  </si>
+  <si>
+    <t>s9q21b_*_bolfeb</t>
+  </si>
+  <si>
+    <t>s9q24b_bolfeb</t>
+  </si>
+  <si>
+    <t>s9q28b_1_bolfeb</t>
+  </si>
+  <si>
+    <t>s9q28b_2_bolfeb</t>
+  </si>
+  <si>
+    <t>s9q28b_3_bolfeb</t>
+  </si>
+  <si>
+    <t>s9q28b_4_bolfeb</t>
+  </si>
+  <si>
+    <t>s9q29c_5_bolfeb</t>
+  </si>
+  <si>
+    <t>s9q29c_6_bolfeb</t>
+  </si>
+  <si>
+    <t>s9q29c_9_bolfeb</t>
+  </si>
+  <si>
+    <t>s9q29c_4_bolfeb</t>
+  </si>
+  <si>
+    <t>s9q28b_6_bolfeb</t>
+  </si>
+  <si>
+    <t>s9q28b_8_bolfeb</t>
+  </si>
+  <si>
+    <t>s9q28b_9_bolfeb</t>
+  </si>
+  <si>
+    <t>s9q28b_10_bolfeb</t>
+  </si>
+  <si>
+    <t>s9q29c_8_bolfeb</t>
+  </si>
+  <si>
+    <t>s9q28b_5_bolfeb</t>
+  </si>
+  <si>
+    <t>s9q28b_7_bolfeb</t>
+  </si>
+  <si>
+    <t>s9q28b_11_bolfeb</t>
+  </si>
+  <si>
+    <t>s9q29c_3_bolfeb</t>
+  </si>
+  <si>
+    <t>i_indep_mes</t>
+  </si>
+  <si>
+    <t>i_indep_mes_cant</t>
+  </si>
+  <si>
+    <t>i_indep_mes_mone</t>
+  </si>
+  <si>
+    <t>g_indep_mes_cant</t>
+  </si>
+  <si>
+    <t>g_indep_mes_mone</t>
+  </si>
+  <si>
+    <t>AGREGAR ESTO A LO DE INGRESOS EN BOL. FEB 2020?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s19q19__1 
+s19q19__2 
+s19q19__3 
+s19q19__4 
+s19q19__5 
+s19q19__6 
+s19q19__7 
+s19q19__8 
+s19q19__9 
+s19q19__10 
+s19q19__11 
+s19q19__12 </t>
+  </si>
+  <si>
+    <t>s12aq10</t>
+  </si>
+  <si>
+    <t>s12aq10_a</t>
+  </si>
+  <si>
+    <t>CLAP</t>
+  </si>
+  <si>
+    <t>CLAP_cuando</t>
+  </si>
+  <si>
+    <t>Este hogar es/ha sido beneficiario de la Bolsa-Caja del CLAP?</t>
+  </si>
+  <si>
+    <t>Cuándo fue la última vez que llegó la Bolsa-Caja del CLAP al hogar?</t>
+  </si>
+  <si>
+    <t>1=si, 0=no</t>
+  </si>
+  <si>
+    <t>1 = Últimos 7 días
+2 = Últimos 15 días
+3 = Más de 15 días</t>
+  </si>
+  <si>
+    <t>Var. name in database (in bolívares Feb. 2020)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Var. name (in bolívares Feb. 2020) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- not inccluded but available, database has the raw one (see sheet "Empleo")</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4413,8 +4962,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4457,8 +5023,62 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7C80"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCC00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -4527,11 +5147,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4775,14 +5432,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4814,6 +5463,153 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -4832,23 +5628,62 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4856,6 +5691,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00CC99"/>
+      <color rgb="FFCCCC00"/>
+      <color rgb="FFCC99FF"/>
+      <color rgb="FFFF7C80"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -5173,18 +6016,18 @@
       <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="4" width="27.1796875" customWidth="1"/>
+    <col min="1" max="4" width="27.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="8" customFormat="1">
-      <c r="A1" s="98">
+      <c r="A1" s="143">
         <v>2019</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -5220,7 +6063,7 @@
       <c r="H2" s="68"/>
       <c r="I2" s="68"/>
     </row>
-    <row r="3" spans="1:9" ht="232">
+    <row r="3" spans="1:9" ht="230.4">
       <c r="A3" s="69" t="s">
         <v>139</v>
       </c>
@@ -5409,7 +6252,7 @@
       <c r="H13" s="71"/>
       <c r="I13" s="71"/>
     </row>
-    <row r="14" spans="1:9" ht="43.5">
+    <row r="14" spans="1:9" ht="43.2">
       <c r="A14" s="69" t="s">
         <v>159</v>
       </c>
@@ -5445,7 +6288,7 @@
       <c r="H15" s="71"/>
       <c r="I15" s="71"/>
     </row>
-    <row r="16" spans="1:9" ht="29">
+    <row r="16" spans="1:9" ht="28.8">
       <c r="A16" s="69" t="s">
         <v>170</v>
       </c>
@@ -5619,7 +6462,7 @@
       <c r="H27" s="71"/>
       <c r="I27" s="71"/>
     </row>
-    <row r="28" spans="1:9" ht="29">
+    <row r="28" spans="1:9" ht="28.8">
       <c r="A28" s="69" t="s">
         <v>189</v>
       </c>
@@ -5636,7 +6479,7 @@
       <c r="H28" s="71"/>
       <c r="I28" s="71"/>
     </row>
-    <row r="29" spans="1:9" ht="29">
+    <row r="29" spans="1:9" ht="28.8">
       <c r="A29" s="69" t="s">
         <v>191</v>
       </c>
@@ -5753,223 +6596,1035 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8210A5A2-BF82-48DF-82F0-74E3A1B9E934}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64DEF18C-4262-483C-ADAF-3222C42E3838}">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A3:K21"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="11" width="13.81640625" style="82" customWidth="1"/>
+    <col min="1" max="4" width="31.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11">
-      <c r="A3" s="93" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="93" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="84" customFormat="1">
-      <c r="A9" s="83"/>
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-    </row>
-    <row r="10" spans="1:11" s="84" customFormat="1">
-      <c r="A10" s="83"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="83"/>
-    </row>
-    <row r="11" spans="1:11" s="84" customFormat="1">
-      <c r="A11" s="83"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="85">
+    <row r="1" spans="1:9" s="9" customFormat="1">
+      <c r="A1" s="143">
+        <v>2019</v>
+      </c>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="60">
         <v>2018</v>
       </c>
-      <c r="F11" s="83">
+      <c r="F1" s="60">
         <v>2017</v>
       </c>
-      <c r="G11" s="83">
+      <c r="G1" s="60">
         <v>2016</v>
       </c>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-    </row>
-    <row r="12" spans="1:11" s="84" customFormat="1">
-      <c r="A12" s="83"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83" t="s">
-        <v>914</v>
-      </c>
-      <c r="F12" s="83" t="s">
-        <v>915</v>
-      </c>
-      <c r="G12" s="83" t="s">
-        <v>916</v>
-      </c>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="83"/>
-      <c r="K12" s="83"/>
-    </row>
-    <row r="13" spans="1:11" s="84" customFormat="1">
-      <c r="A13" s="83"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="83"/>
-    </row>
-    <row r="14" spans="1:11" s="84" customFormat="1">
-      <c r="A14" s="83"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83" t="s">
-        <v>917</v>
-      </c>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="83"/>
-    </row>
-    <row r="15" spans="1:11" s="84" customFormat="1">
-      <c r="A15" s="83"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="86" t="s">
-        <v>918</v>
-      </c>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="83"/>
-      <c r="K15" s="83"/>
-    </row>
-    <row r="16" spans="1:11" s="84" customFormat="1">
-      <c r="A16" s="83"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="83"/>
-    </row>
-    <row r="17" spans="1:11" s="84" customFormat="1">
-      <c r="A17" s="83"/>
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="83"/>
-    </row>
-    <row r="18" spans="1:11" s="84" customFormat="1">
-      <c r="A18" s="83"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="83"/>
-    </row>
-    <row r="19" spans="1:11" s="84" customFormat="1">
-      <c r="A19" s="83"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="83"/>
-    </row>
-    <row r="20" spans="1:11" s="84" customFormat="1">
-      <c r="A20" s="83"/>
-      <c r="B20" s="83"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="83"/>
-    </row>
-    <row r="21" spans="1:11" s="84" customFormat="1">
-      <c r="A21" s="83"/>
-      <c r="B21" s="83"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="83"/>
-    </row>
+      <c r="H1" s="60">
+        <v>2015</v>
+      </c>
+      <c r="I1" s="60">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="7" customFormat="1">
+      <c r="A2" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>390</v>
+      </c>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+    </row>
+    <row r="3" spans="1:9" s="6" customFormat="1" ht="28.8">
+      <c r="A3" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+    </row>
+    <row r="4" spans="1:9" s="6" customFormat="1">
+      <c r="A4" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="B4" s="69" t="s">
+        <v>414</v>
+      </c>
+      <c r="C4" s="69" t="s">
+        <v>412</v>
+      </c>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+    </row>
+    <row r="5" spans="1:9" s="6" customFormat="1" ht="72">
+      <c r="A5" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="C5" s="69" t="s">
+        <v>415</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>416</v>
+      </c>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+    </row>
+    <row r="6" spans="1:9" s="6" customFormat="1" ht="57.6">
+      <c r="A6" s="69" t="s">
+        <v>417</v>
+      </c>
+      <c r="B6" s="69" t="s">
+        <v>432</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>420</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>423</v>
+      </c>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+    </row>
+    <row r="7" spans="1:9" s="6" customFormat="1" ht="57.6">
+      <c r="A7" s="69" t="s">
+        <v>418</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>433</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>419</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>423</v>
+      </c>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+    </row>
+    <row r="8" spans="1:9" s="6" customFormat="1" ht="57.6">
+      <c r="A8" s="69" t="s">
+        <v>427</v>
+      </c>
+      <c r="B8" s="69" t="s">
+        <v>434</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>421</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>423</v>
+      </c>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+    </row>
+    <row r="9" spans="1:9" s="6" customFormat="1" ht="57.6">
+      <c r="A9" s="69" t="s">
+        <v>428</v>
+      </c>
+      <c r="B9" s="69" t="s">
+        <v>435</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>422</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>423</v>
+      </c>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+    </row>
+    <row r="10" spans="1:9" s="6" customFormat="1" ht="57.6">
+      <c r="A10" s="69" t="s">
+        <v>429</v>
+      </c>
+      <c r="B10" s="69" t="s">
+        <v>436</v>
+      </c>
+      <c r="C10" s="64" t="s">
+        <v>424</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>423</v>
+      </c>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+    </row>
+    <row r="11" spans="1:9" s="6" customFormat="1" ht="144">
+      <c r="A11" s="69" t="s">
+        <v>430</v>
+      </c>
+      <c r="B11" s="69" t="s">
+        <v>437</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>425</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>426</v>
+      </c>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+    </row>
+    <row r="12" spans="1:9" s="6" customFormat="1"/>
+    <row r="13" spans="1:9" s="6" customFormat="1"/>
+    <row r="14" spans="1:9" s="6" customFormat="1"/>
+    <row r="15" spans="1:9" s="6" customFormat="1"/>
+    <row r="16" spans="1:9" s="6" customFormat="1"/>
+    <row r="17" s="6" customFormat="1"/>
+    <row r="18" s="6" customFormat="1"/>
+    <row r="19" s="6" customFormat="1"/>
+    <row r="20" s="6" customFormat="1"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53DCC3DA-5077-4F0A-8A40-EE2AAF922B49}">
+  <dimension ref="A1:J56"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="24" style="6" customWidth="1"/>
+    <col min="3" max="3" width="42.109375" style="36" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" style="17" customWidth="1"/>
+    <col min="5" max="9" width="24" style="6" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.77734375" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="37" customFormat="1">
+      <c r="A1" s="143">
+        <v>2019</v>
+      </c>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="60">
+        <v>2018</v>
+      </c>
+      <c r="F1" s="60">
+        <v>2017</v>
+      </c>
+      <c r="G1" s="60">
+        <v>2016</v>
+      </c>
+      <c r="H1" s="60">
+        <v>2015</v>
+      </c>
+      <c r="I1" s="60">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="50" customFormat="1">
+      <c r="A2" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="61" t="s">
+        <v>390</v>
+      </c>
+      <c r="E2" s="162" t="s">
+        <v>867</v>
+      </c>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="51"/>
+    </row>
+    <row r="3" spans="1:10" s="52" customFormat="1" ht="28.8">
+      <c r="A3" s="62" t="s">
+        <v>868</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>869</v>
+      </c>
+      <c r="C3" s="63" t="s">
+        <v>870</v>
+      </c>
+      <c r="D3" s="64"/>
+      <c r="E3" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="F3" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="G3" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="H3" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="I3" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="J3" s="54"/>
+    </row>
+    <row r="4" spans="1:10" s="52" customFormat="1" ht="28.8">
+      <c r="A4" s="62" t="s">
+        <v>871</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>872</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>873</v>
+      </c>
+      <c r="D4" s="64"/>
+      <c r="E4" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="F4" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="G4" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="H4" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="I4" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="J4" s="54"/>
+    </row>
+    <row r="5" spans="1:10" s="52" customFormat="1" ht="40.799999999999997">
+      <c r="A5" s="62" t="s">
+        <v>874</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>875</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>876</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>877</v>
+      </c>
+      <c r="E5" s="66" t="s">
+        <v>878</v>
+      </c>
+      <c r="F5" s="65" t="s">
+        <v>879</v>
+      </c>
+      <c r="G5" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="H5" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="I5" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="J5" s="54"/>
+    </row>
+    <row r="6" spans="1:10" s="52" customFormat="1" ht="81.599999999999994">
+      <c r="A6" s="62" t="s">
+        <v>880</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>881</v>
+      </c>
+      <c r="C6" s="63" t="s">
+        <v>882</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>883</v>
+      </c>
+      <c r="E6" s="66" t="s">
+        <v>884</v>
+      </c>
+      <c r="F6" s="65" t="s">
+        <v>885</v>
+      </c>
+      <c r="G6" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="H6" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="I6" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="J6" s="54"/>
+    </row>
+    <row r="7" spans="1:10" s="52" customFormat="1">
+      <c r="A7" s="62" t="s">
+        <v>886</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>887</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>888</v>
+      </c>
+      <c r="D7" s="64"/>
+      <c r="E7" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="F7" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="G7" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="H7" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="I7" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="J7" s="54"/>
+    </row>
+    <row r="8" spans="1:10" s="52" customFormat="1" ht="28.8">
+      <c r="A8" s="62" t="s">
+        <v>889</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>890</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>891</v>
+      </c>
+      <c r="D8" s="64"/>
+      <c r="E8" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="F8" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="G8" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="H8" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="I8" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="J8" s="54"/>
+    </row>
+    <row r="9" spans="1:10" s="52" customFormat="1" ht="72">
+      <c r="A9" s="62" t="s">
+        <v>892</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>893</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>894</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>485</v>
+      </c>
+      <c r="E9" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="F9" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="G9" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="H9" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="I9" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="J9" s="54"/>
+    </row>
+    <row r="10" spans="1:10" s="52" customFormat="1" ht="30.6">
+      <c r="A10" s="62" t="s">
+        <v>895</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>896</v>
+      </c>
+      <c r="C10" s="63" t="s">
+        <v>897</v>
+      </c>
+      <c r="D10" s="64"/>
+      <c r="E10" s="66" t="s">
+        <v>898</v>
+      </c>
+      <c r="F10" s="65" t="s">
+        <v>899</v>
+      </c>
+      <c r="G10" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="H10" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="I10" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="J10" s="54"/>
+    </row>
+    <row r="11" spans="1:10" s="52" customFormat="1" ht="72">
+      <c r="A11" s="62" t="s">
+        <v>900</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>901</v>
+      </c>
+      <c r="C11" s="63" t="s">
+        <v>902</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>485</v>
+      </c>
+      <c r="E11" s="66" t="s">
+        <v>898</v>
+      </c>
+      <c r="F11" s="65" t="s">
+        <v>899</v>
+      </c>
+      <c r="G11" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="H11" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="I11" s="65" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="52" customFormat="1" ht="40.799999999999997">
+      <c r="A12" s="62" t="s">
+        <v>903</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>904</v>
+      </c>
+      <c r="C12" s="63" t="s">
+        <v>905</v>
+      </c>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66" t="s">
+        <v>906</v>
+      </c>
+      <c r="F12" s="65" t="s">
+        <v>907</v>
+      </c>
+      <c r="G12" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="H12" s="65" t="s">
+        <v>452</v>
+      </c>
+      <c r="I12" s="65" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="52" customFormat="1">
+      <c r="C13" s="56"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+    </row>
+    <row r="14" spans="1:10" s="52" customFormat="1">
+      <c r="C14" s="56"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+    </row>
+    <row r="15" spans="1:10" s="52" customFormat="1">
+      <c r="C15" s="56"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+    </row>
+    <row r="16" spans="1:10" s="52" customFormat="1">
+      <c r="C16" s="56"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+    </row>
+    <row r="17" spans="1:9" s="52" customFormat="1">
+      <c r="C17" s="56"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+    </row>
+    <row r="18" spans="1:9" s="52" customFormat="1">
+      <c r="C18" s="56"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+    </row>
+    <row r="19" spans="1:9" s="52" customFormat="1">
+      <c r="C19" s="56"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+    </row>
+    <row r="20" spans="1:9" s="52" customFormat="1">
+      <c r="C20" s="56"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+    </row>
+    <row r="21" spans="1:9" s="52" customFormat="1">
+      <c r="C21" s="56"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+    </row>
+    <row r="22" spans="1:9" s="52" customFormat="1">
+      <c r="A22" s="54"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+    </row>
+    <row r="23" spans="1:9" s="52" customFormat="1">
+      <c r="A23" s="54"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+    </row>
+    <row r="24" spans="1:9" s="52" customFormat="1">
+      <c r="B24" s="57"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+    </row>
+    <row r="25" spans="1:9" s="52" customFormat="1">
+      <c r="A25" s="54"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+    </row>
+    <row r="26" spans="1:9" s="52" customFormat="1">
+      <c r="A26" s="54"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+    </row>
+    <row r="27" spans="1:9" s="52" customFormat="1">
+      <c r="B27" s="57"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+    </row>
+    <row r="28" spans="1:9" s="52" customFormat="1">
+      <c r="A28" s="54"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+    </row>
+    <row r="29" spans="1:9" s="52" customFormat="1">
+      <c r="A29" s="54"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+    </row>
+    <row r="30" spans="1:9" s="52" customFormat="1">
+      <c r="B30" s="57"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+    </row>
+    <row r="31" spans="1:9" s="52" customFormat="1">
+      <c r="A31" s="54"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+    </row>
+    <row r="32" spans="1:9" s="52" customFormat="1">
+      <c r="A32" s="54"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+    </row>
+    <row r="33" spans="1:9" s="52" customFormat="1">
+      <c r="C33" s="56"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+    </row>
+    <row r="34" spans="1:9" s="52" customFormat="1">
+      <c r="A34" s="54"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+    </row>
+    <row r="35" spans="1:9" s="52" customFormat="1">
+      <c r="A35" s="54"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
+    </row>
+    <row r="36" spans="1:9" s="52" customFormat="1">
+      <c r="C36" s="56"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+    </row>
+    <row r="37" spans="1:9" s="52" customFormat="1">
+      <c r="A37" s="54"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+    </row>
+    <row r="38" spans="1:9" s="52" customFormat="1">
+      <c r="A38" s="54"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+    </row>
+    <row r="39" spans="1:9" s="52" customFormat="1">
+      <c r="C39" s="56"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+    </row>
+    <row r="40" spans="1:9" s="52" customFormat="1">
+      <c r="A40" s="54"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+    </row>
+    <row r="41" spans="1:9" s="52" customFormat="1">
+      <c r="A41" s="54"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+    </row>
+    <row r="42" spans="1:9" s="52" customFormat="1">
+      <c r="C42" s="56"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
+    </row>
+    <row r="43" spans="1:9" s="52" customFormat="1">
+      <c r="A43" s="54"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="53"/>
+    </row>
+    <row r="44" spans="1:9" s="52" customFormat="1">
+      <c r="A44" s="54"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="53"/>
+    </row>
+    <row r="45" spans="1:9" s="52" customFormat="1">
+      <c r="C45" s="56"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="53"/>
+    </row>
+    <row r="46" spans="1:9" s="52" customFormat="1">
+      <c r="A46" s="54"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="53"/>
+      <c r="I46" s="53"/>
+    </row>
+    <row r="47" spans="1:9" s="52" customFormat="1">
+      <c r="C47" s="56"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="53"/>
+    </row>
+    <row r="48" spans="1:9" s="52" customFormat="1">
+      <c r="C48" s="56"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="53"/>
+    </row>
+    <row r="49" spans="1:9" s="52" customFormat="1">
+      <c r="C49" s="56"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="53"/>
+    </row>
+    <row r="50" spans="1:9" s="52" customFormat="1">
+      <c r="C50" s="56"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="53"/>
+      <c r="I50" s="53"/>
+    </row>
+    <row r="51" spans="1:9" s="52" customFormat="1">
+      <c r="C51" s="56"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="53"/>
+      <c r="G51" s="53"/>
+      <c r="H51" s="53"/>
+      <c r="I51" s="53"/>
+    </row>
+    <row r="52" spans="1:9" s="52" customFormat="1">
+      <c r="C52" s="56"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="53"/>
+      <c r="I52" s="53"/>
+    </row>
+    <row r="53" spans="1:9" s="52" customFormat="1">
+      <c r="C53" s="56"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="53"/>
+      <c r="H53" s="53"/>
+      <c r="I53" s="53"/>
+    </row>
+    <row r="54" spans="1:9" s="52" customFormat="1">
+      <c r="C54" s="56"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="53"/>
+    </row>
+    <row r="55" spans="1:9" s="52" customFormat="1">
+      <c r="C55" s="56"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="53"/>
+      <c r="G55" s="53"/>
+      <c r="H55" s="53"/>
+      <c r="I55" s="53"/>
+    </row>
+    <row r="56" spans="1:9" s="52" customFormat="1">
+      <c r="A56" s="54"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="53"/>
+      <c r="I56" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E2:I2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BAFAD24-2F6C-4B45-A691-FA1F0A16CECB}">
   <sheetPr>
     <tabColor theme="5"/>
@@ -5983,21 +7638,21 @@
       <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="33.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.81640625" customWidth="1"/>
-    <col min="4" max="4" width="25.90625" customWidth="1"/>
-    <col min="5" max="5" width="24.08984375" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="11" customFormat="1">
-      <c r="A1" s="98">
+      <c r="A1" s="143">
         <v>2019</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -6025,7 +7680,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="67" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="E2" s="68"/>
       <c r="F2" s="68"/>
@@ -6035,11 +7690,11 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="69" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="B3" s="69"/>
       <c r="C3" s="69" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="D3" s="69"/>
       <c r="E3" s="71"/>
@@ -6048,19 +7703,19 @@
       <c r="H3" s="71"/>
       <c r="I3" s="71"/>
     </row>
-    <row r="4" spans="1:9" ht="29">
+    <row r="4" spans="1:9" ht="28.8">
       <c r="A4" s="69" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B4" s="69"/>
       <c r="C4" s="69" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="D4" s="64" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="E4" s="69" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="F4" s="71"/>
       <c r="G4" s="71"/>
@@ -6069,15 +7724,15 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="69" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="B5" s="69"/>
       <c r="C5" s="69" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="D5" s="69"/>
       <c r="E5" s="71" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="F5" s="71"/>
       <c r="G5" s="71"/>
@@ -6086,28 +7741,28 @@
     </row>
     <row r="6" spans="1:9" ht="87" customHeight="1">
       <c r="A6" s="69" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="B6" s="69"/>
       <c r="C6" s="64" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="D6" s="69"/>
       <c r="E6" s="69" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="F6" s="71"/>
       <c r="G6" s="71"/>
       <c r="H6" s="71"/>
       <c r="I6" s="71"/>
     </row>
-    <row r="7" spans="1:9" ht="29">
+    <row r="7" spans="1:9" ht="28.8">
       <c r="A7" s="69" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="B7" s="69"/>
       <c r="C7" s="64" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="D7" s="69"/>
       <c r="E7" s="71"/>
@@ -6116,16 +7771,16 @@
       <c r="H7" s="71"/>
       <c r="I7" s="71"/>
     </row>
-    <row r="8" spans="1:9" ht="29">
+    <row r="8" spans="1:9" ht="28.8">
       <c r="A8" s="69" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="B8" s="69"/>
       <c r="C8" s="69" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="D8" s="64" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="E8" s="71"/>
       <c r="F8" s="71"/>
@@ -6135,14 +7790,14 @@
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" ht="180" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="13" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -6152,11 +7807,11 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="71" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="B10" s="71"/>
       <c r="C10" s="71" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="D10" s="71"/>
       <c r="E10" s="71"/>
@@ -6165,16 +7820,16 @@
       <c r="H10" s="71"/>
       <c r="I10" s="71"/>
     </row>
-    <row r="11" spans="1:9" ht="174">
+    <row r="11" spans="1:9" ht="172.8">
       <c r="A11" s="69" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="B11" s="69"/>
       <c r="C11" s="64" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="D11" s="64" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="E11" s="71"/>
       <c r="F11" s="71"/>
@@ -6182,16 +7837,16 @@
       <c r="H11" s="71"/>
       <c r="I11" s="71"/>
     </row>
-    <row r="12" spans="1:9" ht="203">
+    <row r="12" spans="1:9" ht="201.6">
       <c r="A12" s="69" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="B12" s="69"/>
       <c r="C12" s="64" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="E12" s="71"/>
       <c r="F12" s="71"/>
@@ -6199,13 +7854,13 @@
       <c r="H12" s="71"/>
       <c r="I12" s="71"/>
     </row>
-    <row r="13" spans="1:9" ht="43.5">
+    <row r="13" spans="1:9" ht="43.2">
       <c r="A13" s="69" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="B13" s="71"/>
       <c r="C13" s="72" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="D13" s="71"/>
       <c r="E13" s="71"/>
@@ -6214,16 +7869,16 @@
       <c r="H13" s="71"/>
       <c r="I13" s="71"/>
     </row>
-    <row r="14" spans="1:9" ht="43.5">
+    <row r="14" spans="1:9" ht="43.2">
       <c r="A14" s="69" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="B14" s="71"/>
       <c r="C14" s="72" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="D14" s="72" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="E14" s="71"/>
       <c r="F14" s="71"/>
@@ -6231,13 +7886,13 @@
       <c r="H14" s="71"/>
       <c r="I14" s="71"/>
     </row>
-    <row r="15" spans="1:9" ht="43.5">
+    <row r="15" spans="1:9" ht="43.2">
       <c r="A15" s="69" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="B15" s="71"/>
       <c r="C15" s="72" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="D15" s="71"/>
       <c r="E15" s="71"/>
@@ -6246,13 +7901,13 @@
       <c r="H15" s="71"/>
       <c r="I15" s="71"/>
     </row>
-    <row r="16" spans="1:9" ht="43.5">
+    <row r="16" spans="1:9" ht="43.2">
       <c r="A16" s="69" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="B16" s="71"/>
       <c r="C16" s="72" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="D16" s="71"/>
       <c r="E16" s="71"/>
@@ -6261,13 +7916,13 @@
       <c r="H16" s="71"/>
       <c r="I16" s="71"/>
     </row>
-    <row r="17" spans="1:9" ht="43.5">
+    <row r="17" spans="1:9" ht="43.2">
       <c r="A17" s="69" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="B17" s="71"/>
       <c r="C17" s="72" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="D17" s="71"/>
       <c r="E17" s="71"/>
@@ -6276,16 +7931,16 @@
       <c r="H17" s="71"/>
       <c r="I17" s="71"/>
     </row>
-    <row r="18" spans="1:9" ht="232">
+    <row r="18" spans="1:9" ht="230.4">
       <c r="A18" s="69" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="B18" s="69"/>
       <c r="C18" s="64" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="D18" s="64" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="E18" s="71"/>
       <c r="F18" s="71"/>
@@ -6295,11 +7950,11 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="71" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="B19" s="71"/>
       <c r="C19" s="71" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="D19" s="71"/>
       <c r="E19" s="71"/>
@@ -6310,11 +7965,11 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="71" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="B20" s="71"/>
       <c r="C20" s="72" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="D20" s="71"/>
       <c r="E20" s="71"/>
@@ -6323,16 +7978,16 @@
       <c r="H20" s="71"/>
       <c r="I20" s="71"/>
     </row>
-    <row r="21" spans="1:9" s="6" customFormat="1" ht="29">
+    <row r="21" spans="1:9" s="6" customFormat="1" ht="28.8">
       <c r="A21" s="69" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="B21" s="69"/>
       <c r="C21" s="69" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="D21" s="64" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="E21" s="69"/>
       <c r="F21" s="69"/>
@@ -6340,16 +7995,16 @@
       <c r="H21" s="69"/>
       <c r="I21" s="69"/>
     </row>
-    <row r="22" spans="1:9" ht="87">
+    <row r="22" spans="1:9" ht="86.4">
       <c r="A22" s="69" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="B22" s="69"/>
       <c r="C22" s="64" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="D22" s="64" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="E22" s="71"/>
       <c r="F22" s="71"/>
@@ -6357,19 +8012,19 @@
       <c r="H22" s="71"/>
       <c r="I22" s="71"/>
     </row>
-    <row r="23" spans="1:9" ht="188.5">
+    <row r="23" spans="1:9" ht="187.2">
       <c r="A23" s="69" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="B23" s="69"/>
       <c r="C23" s="64" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="D23" s="64" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="E23" s="64" t="s">
-        <v>1030</v>
+        <v>1022</v>
       </c>
       <c r="F23" s="71"/>
       <c r="G23" s="71"/>
@@ -6378,11 +8033,11 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="71" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="B24" s="71"/>
       <c r="C24" s="71" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="D24" s="71"/>
       <c r="E24" s="71"/>
@@ -6391,16 +8046,16 @@
       <c r="H24" s="71"/>
       <c r="I24" s="71"/>
     </row>
-    <row r="25" spans="1:9" s="6" customFormat="1" ht="374.5" customHeight="1">
+    <row r="25" spans="1:9" s="6" customFormat="1" ht="374.55" customHeight="1">
       <c r="A25" s="69" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="B25" s="69"/>
       <c r="C25" s="64" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="D25" s="64" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="E25" s="69"/>
       <c r="F25" s="69"/>
@@ -6408,16 +8063,16 @@
       <c r="H25" s="69"/>
       <c r="I25" s="69"/>
     </row>
-    <row r="26" spans="1:9" ht="379" customHeight="1">
+    <row r="26" spans="1:9" ht="379.05" customHeight="1">
       <c r="A26" s="64" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="B26" s="64"/>
       <c r="C26" s="64" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="D26" s="64" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="E26" s="71"/>
       <c r="F26" s="71"/>
@@ -6425,16 +8080,16 @@
       <c r="H26" s="71"/>
       <c r="I26" s="71"/>
     </row>
-    <row r="27" spans="1:9" ht="43.5">
+    <row r="27" spans="1:9" ht="43.2">
       <c r="A27" s="64" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="B27" s="71"/>
       <c r="C27" s="72" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="D27" s="64" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="E27" s="71"/>
       <c r="F27" s="71"/>
@@ -6442,13 +8097,13 @@
       <c r="H27" s="71"/>
       <c r="I27" s="71"/>
     </row>
-    <row r="28" spans="1:9" ht="29">
+    <row r="28" spans="1:9" ht="28.8">
       <c r="A28" s="64" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="B28" s="71"/>
       <c r="C28" s="64" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="D28" s="71"/>
       <c r="E28" s="71"/>
@@ -6457,16 +8112,16 @@
       <c r="H28" s="71"/>
       <c r="I28" s="71"/>
     </row>
-    <row r="29" spans="1:9" ht="174">
+    <row r="29" spans="1:9" ht="172.8">
       <c r="A29" s="64" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="B29" s="71"/>
       <c r="C29" s="64" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="D29" s="72" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="E29" s="71"/>
       <c r="F29" s="71"/>
@@ -6474,16 +8129,16 @@
       <c r="H29" s="71"/>
       <c r="I29" s="71"/>
     </row>
-    <row r="30" spans="1:9" ht="43.5">
+    <row r="30" spans="1:9" ht="43.2">
       <c r="A30" s="64" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="B30" s="71"/>
       <c r="C30" s="72" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="D30" s="64" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="E30" s="71"/>
       <c r="F30" s="71"/>
@@ -6495,21 +8150,6 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2A849C-041A-4532-BCD7-1275733A606C}">
-  <sheetPr>
-    <tabColor theme="5"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6525,10 +8165,10 @@
       <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="42.81640625" customWidth="1"/>
+    <col min="4" max="4" width="42.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="9" customFormat="1">
@@ -6589,7 +8229,7 @@
       <c r="G3" s="71"/>
       <c r="H3" s="71"/>
     </row>
-    <row r="4" spans="1:9" ht="409.5">
+    <row r="4" spans="1:9" ht="409.6">
       <c r="A4" s="69" t="s">
         <v>441</v>
       </c>
@@ -6607,7 +8247,7 @@
       <c r="G4" s="71"/>
       <c r="H4" s="71"/>
     </row>
-    <row r="5" spans="1:9" ht="409.5">
+    <row r="5" spans="1:9" ht="409.6">
       <c r="A5" s="71"/>
       <c r="B5" s="71"/>
       <c r="C5" s="64" t="s">
@@ -6627,6 +8267,79 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99EF758B-043F-4C6C-88EB-6DFAB884F359}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="4" width="18.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="37" customFormat="1">
+      <c r="A1" s="163">
+        <v>2019</v>
+      </c>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="164"/>
+    </row>
+    <row r="2" spans="1:5" s="50" customFormat="1" ht="43.2">
+      <c r="A2" s="94" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="61" t="s">
+        <v>957</v>
+      </c>
+      <c r="E2" s="51"/>
+    </row>
+    <row r="3" spans="1:5" ht="57.6">
+      <c r="A3" s="71" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B3" s="71" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C3" s="72" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D3" s="71" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="57.6">
+      <c r="A4" s="71" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B4" s="71" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C4" s="72" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D4" s="72" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7A8F8F-EDBA-406E-9266-2F06CF70D6A9}">
   <dimension ref="A1:K16"/>
   <sheetViews>
@@ -6637,29 +8350,29 @@
       <selection pane="bottomRight" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="22.90625" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" customWidth="1"/>
-    <col min="4" max="4" width="48.90625" style="10" customWidth="1"/>
-    <col min="5" max="6" width="17.54296875" customWidth="1"/>
-    <col min="7" max="7" width="27.90625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="24.54296875" customWidth="1"/>
-    <col min="9" max="10" width="17.54296875" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="48.88671875" style="10" customWidth="1"/>
+    <col min="5" max="6" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="27.88671875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="24.5546875" customWidth="1"/>
+    <col min="9" max="10" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="37" customFormat="1">
-      <c r="A1" s="107">
+      <c r="A1" s="163">
         <v>2019</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="108"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="164"/>
       <c r="F1" s="60">
         <v>2018</v>
       </c>
-      <c r="G1" s="88">
+      <c r="G1" s="84">
         <v>2017</v>
       </c>
       <c r="H1" s="60">
@@ -6672,11 +8385,11 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="50" customFormat="1" ht="43.5">
-      <c r="A2" s="106" t="s">
+    <row r="2" spans="1:11" s="50" customFormat="1" ht="43.2">
+      <c r="A2" s="166" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="106"/>
+      <c r="B2" s="166"/>
       <c r="C2" s="61" t="s">
         <v>128</v>
       </c>
@@ -6684,428 +8397,428 @@
         <v>0</v>
       </c>
       <c r="E2" s="61" t="s">
+        <v>957</v>
+      </c>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="51"/>
+    </row>
+    <row r="3" spans="1:11" ht="72">
+      <c r="A3" s="165" t="s">
+        <v>913</v>
+      </c>
+      <c r="B3" s="165"/>
+      <c r="C3" s="71" t="s">
+        <v>927</v>
+      </c>
+      <c r="D3" s="72" t="s">
+        <v>940</v>
+      </c>
+      <c r="E3" s="72" t="s">
+        <v>955</v>
+      </c>
+      <c r="F3" s="72" t="s">
+        <v>956</v>
+      </c>
+      <c r="G3" s="72" t="s">
+        <v>971</v>
+      </c>
+      <c r="H3" s="72" t="s">
+        <v>979</v>
+      </c>
+      <c r="I3" s="87" t="s">
+        <v>980</v>
+      </c>
+      <c r="J3" s="87" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28.8">
+      <c r="A4" s="165" t="s">
+        <v>943</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>914</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>928</v>
+      </c>
+      <c r="D4" s="70" t="s">
+        <v>941</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>955</v>
+      </c>
+      <c r="F4" s="70" t="s">
+        <v>959</v>
+      </c>
+      <c r="G4" s="70" t="s">
+        <v>452</v>
+      </c>
+      <c r="H4" s="70" t="s">
+        <v>452</v>
+      </c>
+      <c r="I4" s="70" t="s">
+        <v>452</v>
+      </c>
+      <c r="J4" s="70" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="115.2">
+      <c r="A5" s="165"/>
+      <c r="B5" s="70" t="s">
+        <v>915</v>
+      </c>
+      <c r="C5" s="70" t="s">
+        <v>929</v>
+      </c>
+      <c r="D5" s="70" t="s">
+        <v>942</v>
+      </c>
+      <c r="E5" s="70" t="s">
+        <v>955</v>
+      </c>
+      <c r="F5" s="70" t="s">
+        <v>960</v>
+      </c>
+      <c r="G5" s="70" t="s">
+        <v>972</v>
+      </c>
+      <c r="H5" s="70" t="s">
+        <v>452</v>
+      </c>
+      <c r="I5" s="70" t="s">
+        <v>452</v>
+      </c>
+      <c r="J5" s="70" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="144">
+      <c r="A6" s="165"/>
+      <c r="B6" s="70" t="s">
+        <v>916</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>930</v>
+      </c>
+      <c r="D6" s="70" t="s">
+        <v>944</v>
+      </c>
+      <c r="E6" s="70" t="s">
+        <v>955</v>
+      </c>
+      <c r="F6" s="70" t="s">
+        <v>961</v>
+      </c>
+      <c r="G6" s="70" t="s">
+        <v>973</v>
+      </c>
+      <c r="H6" s="85" t="s">
+        <v>452</v>
+      </c>
+      <c r="I6" s="85" t="s">
+        <v>452</v>
+      </c>
+      <c r="J6" s="85" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="144">
+      <c r="A7" s="165"/>
+      <c r="B7" s="70" t="s">
+        <v>917</v>
+      </c>
+      <c r="C7" s="70" t="s">
+        <v>931</v>
+      </c>
+      <c r="D7" s="70" t="s">
+        <v>945</v>
+      </c>
+      <c r="E7" s="70" t="s">
+        <v>955</v>
+      </c>
+      <c r="F7" s="70" t="s">
+        <v>962</v>
+      </c>
+      <c r="G7" s="70" t="s">
+        <v>973</v>
+      </c>
+      <c r="H7" s="85" t="s">
+        <v>452</v>
+      </c>
+      <c r="I7" s="85" t="s">
+        <v>452</v>
+      </c>
+      <c r="J7" s="85" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="187.2">
+      <c r="A8" s="165"/>
+      <c r="B8" s="70" t="s">
+        <v>918</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>932</v>
+      </c>
+      <c r="D8" s="70" t="s">
+        <v>946</v>
+      </c>
+      <c r="E8" s="70" t="s">
+        <v>955</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>963</v>
+      </c>
+      <c r="G8" s="70" t="s">
+        <v>976</v>
+      </c>
+      <c r="H8" s="85" t="s">
+        <v>452</v>
+      </c>
+      <c r="I8" s="85" t="s">
+        <v>452</v>
+      </c>
+      <c r="J8" s="85" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="302.39999999999998">
+      <c r="A9" s="165"/>
+      <c r="B9" s="70" t="s">
+        <v>919</v>
+      </c>
+      <c r="C9" s="70" t="s">
+        <v>933</v>
+      </c>
+      <c r="D9" s="70" t="s">
+        <v>947</v>
+      </c>
+      <c r="E9" s="70" t="s">
+        <v>955</v>
+      </c>
+      <c r="F9" s="70" t="s">
         <v>964</v>
       </c>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="51"/>
-    </row>
-    <row r="3" spans="1:11" ht="72.5">
-      <c r="A3" s="105" t="s">
+      <c r="G9" s="70" t="s">
+        <v>974</v>
+      </c>
+      <c r="H9" s="85" t="s">
+        <v>978</v>
+      </c>
+      <c r="I9" s="85" t="s">
+        <v>981</v>
+      </c>
+      <c r="J9" s="85" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="82" customFormat="1" ht="259.2">
+      <c r="A10" s="165"/>
+      <c r="B10" s="86" t="s">
         <v>920</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="71" t="s">
+      <c r="C10" s="86" t="s">
         <v>934</v>
       </c>
-      <c r="D3" s="72" t="s">
-        <v>947</v>
-      </c>
-      <c r="E3" s="72" t="s">
-        <v>962</v>
-      </c>
-      <c r="F3" s="72" t="s">
-        <v>963</v>
-      </c>
-      <c r="G3" s="72" t="s">
+      <c r="D10" s="70" t="s">
+        <v>948</v>
+      </c>
+      <c r="E10" s="86" t="s">
+        <v>955</v>
+      </c>
+      <c r="F10" s="86" t="s">
+        <v>965</v>
+      </c>
+      <c r="G10" s="86" t="s">
+        <v>975</v>
+      </c>
+      <c r="H10" s="85" t="s">
         <v>978</v>
       </c>
-      <c r="H3" s="72" t="s">
-        <v>986</v>
-      </c>
-      <c r="I3" s="91" t="s">
-        <v>987</v>
-      </c>
-      <c r="J3" s="91" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="29">
-      <c r="A4" s="105" t="s">
+      <c r="I10" s="85" t="s">
+        <v>981</v>
+      </c>
+      <c r="J10" s="85" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="187.2">
+      <c r="A11" s="165"/>
+      <c r="B11" s="70" t="s">
+        <v>921</v>
+      </c>
+      <c r="C11" s="70" t="s">
+        <v>935</v>
+      </c>
+      <c r="D11" s="70" t="s">
+        <v>949</v>
+      </c>
+      <c r="E11" s="70" t="s">
+        <v>955</v>
+      </c>
+      <c r="F11" s="70" t="s">
+        <v>966</v>
+      </c>
+      <c r="G11" s="70" t="s">
+        <v>976</v>
+      </c>
+      <c r="H11" s="85" t="s">
+        <v>452</v>
+      </c>
+      <c r="I11" s="85" t="s">
+        <v>452</v>
+      </c>
+      <c r="J11" s="85" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="144">
+      <c r="A12" s="165"/>
+      <c r="B12" s="70" t="s">
+        <v>922</v>
+      </c>
+      <c r="C12" s="70" t="s">
+        <v>936</v>
+      </c>
+      <c r="D12" s="70" t="s">
         <v>950</v>
       </c>
-      <c r="B4" s="70" t="s">
-        <v>921</v>
-      </c>
-      <c r="C4" s="70" t="s">
-        <v>935</v>
-      </c>
-      <c r="D4" s="70" t="s">
-        <v>948</v>
-      </c>
-      <c r="E4" s="70" t="s">
-        <v>962</v>
-      </c>
-      <c r="F4" s="70" t="s">
-        <v>966</v>
-      </c>
-      <c r="G4" s="70" t="s">
-        <v>452</v>
-      </c>
-      <c r="H4" s="70" t="s">
-        <v>452</v>
-      </c>
-      <c r="I4" s="70" t="s">
-        <v>452</v>
-      </c>
-      <c r="J4" s="70" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="116">
-      <c r="A5" s="105"/>
-      <c r="B5" s="70" t="s">
-        <v>922</v>
-      </c>
-      <c r="C5" s="70" t="s">
-        <v>936</v>
-      </c>
-      <c r="D5" s="70" t="s">
-        <v>949</v>
-      </c>
-      <c r="E5" s="70" t="s">
-        <v>962</v>
-      </c>
-      <c r="F5" s="70" t="s">
+      <c r="E12" s="70" t="s">
+        <v>955</v>
+      </c>
+      <c r="F12" s="70" t="s">
         <v>967</v>
       </c>
-      <c r="G5" s="70" t="s">
-        <v>979</v>
-      </c>
-      <c r="H5" s="70" t="s">
-        <v>452</v>
-      </c>
-      <c r="I5" s="70" t="s">
-        <v>452</v>
-      </c>
-      <c r="J5" s="70" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="145">
-      <c r="A6" s="105"/>
-      <c r="B6" s="70" t="s">
+      <c r="G12" s="70" t="s">
+        <v>973</v>
+      </c>
+      <c r="H12" s="85" t="s">
+        <v>452</v>
+      </c>
+      <c r="I12" s="85" t="s">
+        <v>452</v>
+      </c>
+      <c r="J12" s="85" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="144">
+      <c r="A13" s="165"/>
+      <c r="B13" s="70" t="s">
         <v>923</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C13" s="70" t="s">
         <v>937</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="D13" s="70" t="s">
         <v>951</v>
       </c>
-      <c r="E6" s="70" t="s">
-        <v>962</v>
-      </c>
-      <c r="F6" s="70" t="s">
+      <c r="E13" s="70" t="s">
+        <v>955</v>
+      </c>
+      <c r="F13" s="70" t="s">
         <v>968</v>
       </c>
-      <c r="G6" s="70" t="s">
-        <v>980</v>
-      </c>
-      <c r="H6" s="89" t="s">
-        <v>452</v>
-      </c>
-      <c r="I6" s="89" t="s">
-        <v>452</v>
-      </c>
-      <c r="J6" s="89" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="145">
-      <c r="A7" s="105"/>
-      <c r="B7" s="70" t="s">
+      <c r="G13" s="70" t="s">
+        <v>977</v>
+      </c>
+      <c r="H13" s="85" t="s">
+        <v>452</v>
+      </c>
+      <c r="I13" s="85" t="s">
+        <v>452</v>
+      </c>
+      <c r="J13" s="85" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="28.8">
+      <c r="A14" s="165"/>
+      <c r="B14" s="70" t="s">
         <v>924</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C14" s="70" t="s">
         <v>938</v>
       </c>
-      <c r="D7" s="70" t="s">
+      <c r="D14" s="70" t="s">
         <v>952</v>
       </c>
-      <c r="E7" s="70" t="s">
-        <v>962</v>
-      </c>
-      <c r="F7" s="70" t="s">
+      <c r="E14" s="70" t="s">
+        <v>955</v>
+      </c>
+      <c r="F14" s="70" t="s">
         <v>969</v>
       </c>
-      <c r="G7" s="70" t="s">
-        <v>980</v>
-      </c>
-      <c r="H7" s="89" t="s">
-        <v>452</v>
-      </c>
-      <c r="I7" s="89" t="s">
-        <v>452</v>
-      </c>
-      <c r="J7" s="89" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="188.5">
-      <c r="A8" s="105"/>
-      <c r="B8" s="70" t="s">
+      <c r="G14" s="70"/>
+      <c r="H14" s="85" t="s">
+        <v>452</v>
+      </c>
+      <c r="I14" s="85" t="s">
+        <v>452</v>
+      </c>
+      <c r="J14" s="85" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="28.8">
+      <c r="A15" s="165"/>
+      <c r="B15" s="70" t="s">
         <v>925</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C15" s="70" t="s">
         <v>939</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D15" s="70" t="s">
         <v>953</v>
       </c>
-      <c r="E8" s="70" t="s">
-        <v>962</v>
-      </c>
-      <c r="F8" s="70" t="s">
+      <c r="E15" s="70" t="s">
+        <v>955</v>
+      </c>
+      <c r="F15" s="70" t="s">
         <v>970</v>
       </c>
-      <c r="G8" s="70" t="s">
-        <v>983</v>
-      </c>
-      <c r="H8" s="89" t="s">
-        <v>452</v>
-      </c>
-      <c r="I8" s="89" t="s">
-        <v>452</v>
-      </c>
-      <c r="J8" s="89" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="304.5">
-      <c r="A9" s="105"/>
-      <c r="B9" s="70" t="s">
+      <c r="G15" s="70"/>
+      <c r="H15" s="85" t="s">
+        <v>452</v>
+      </c>
+      <c r="I15" s="85" t="s">
+        <v>452</v>
+      </c>
+      <c r="J15" s="85" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="43.2">
+      <c r="A16" s="165" t="s">
         <v>926</v>
       </c>
-      <c r="C9" s="70" t="s">
-        <v>940</v>
-      </c>
-      <c r="D9" s="70" t="s">
+      <c r="B16" s="165"/>
+      <c r="C16" s="70" t="s">
+        <v>958</v>
+      </c>
+      <c r="D16" s="70" t="s">
         <v>954</v>
       </c>
-      <c r="E9" s="70" t="s">
-        <v>962</v>
-      </c>
-      <c r="F9" s="70" t="s">
-        <v>971</v>
-      </c>
-      <c r="G9" s="70" t="s">
-        <v>981</v>
-      </c>
-      <c r="H9" s="89" t="s">
-        <v>985</v>
-      </c>
-      <c r="I9" s="89" t="s">
-        <v>988</v>
-      </c>
-      <c r="J9" s="89" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="82" customFormat="1" ht="261">
-      <c r="A10" s="105"/>
-      <c r="B10" s="90" t="s">
-        <v>927</v>
-      </c>
-      <c r="C10" s="90" t="s">
-        <v>941</v>
-      </c>
-      <c r="D10" s="70" t="s">
+      <c r="E16" s="70" t="s">
         <v>955</v>
       </c>
-      <c r="E10" s="90" t="s">
-        <v>962</v>
-      </c>
-      <c r="F10" s="90" t="s">
-        <v>972</v>
-      </c>
-      <c r="G10" s="90" t="s">
-        <v>982</v>
-      </c>
-      <c r="H10" s="89" t="s">
-        <v>985</v>
-      </c>
-      <c r="I10" s="89" t="s">
-        <v>988</v>
-      </c>
-      <c r="J10" s="89" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="188.5">
-      <c r="A11" s="105"/>
-      <c r="B11" s="70" t="s">
-        <v>928</v>
-      </c>
-      <c r="C11" s="70" t="s">
-        <v>942</v>
-      </c>
-      <c r="D11" s="70" t="s">
-        <v>956</v>
-      </c>
-      <c r="E11" s="70" t="s">
-        <v>962</v>
-      </c>
-      <c r="F11" s="70" t="s">
-        <v>973</v>
-      </c>
-      <c r="G11" s="70" t="s">
-        <v>983</v>
-      </c>
-      <c r="H11" s="89" t="s">
-        <v>452</v>
-      </c>
-      <c r="I11" s="89" t="s">
-        <v>452</v>
-      </c>
-      <c r="J11" s="89" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="145">
-      <c r="A12" s="105"/>
-      <c r="B12" s="70" t="s">
-        <v>929</v>
-      </c>
-      <c r="C12" s="70" t="s">
-        <v>943</v>
-      </c>
-      <c r="D12" s="70" t="s">
-        <v>957</v>
-      </c>
-      <c r="E12" s="70" t="s">
-        <v>962</v>
-      </c>
-      <c r="F12" s="70" t="s">
-        <v>974</v>
-      </c>
-      <c r="G12" s="70" t="s">
-        <v>980</v>
-      </c>
-      <c r="H12" s="89" t="s">
-        <v>452</v>
-      </c>
-      <c r="I12" s="89" t="s">
-        <v>452</v>
-      </c>
-      <c r="J12" s="89" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="145">
-      <c r="A13" s="105"/>
-      <c r="B13" s="70" t="s">
-        <v>930</v>
-      </c>
-      <c r="C13" s="70" t="s">
-        <v>944</v>
-      </c>
-      <c r="D13" s="70" t="s">
-        <v>958</v>
-      </c>
-      <c r="E13" s="70" t="s">
-        <v>962</v>
-      </c>
-      <c r="F13" s="70" t="s">
-        <v>975</v>
-      </c>
-      <c r="G13" s="70" t="s">
-        <v>984</v>
-      </c>
-      <c r="H13" s="89" t="s">
-        <v>452</v>
-      </c>
-      <c r="I13" s="89" t="s">
-        <v>452</v>
-      </c>
-      <c r="J13" s="89" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="29">
-      <c r="A14" s="105"/>
-      <c r="B14" s="70" t="s">
-        <v>931</v>
-      </c>
-      <c r="C14" s="70" t="s">
-        <v>945</v>
-      </c>
-      <c r="D14" s="70" t="s">
-        <v>959</v>
-      </c>
-      <c r="E14" s="70" t="s">
-        <v>962</v>
-      </c>
-      <c r="F14" s="70" t="s">
-        <v>976</v>
-      </c>
-      <c r="G14" s="70"/>
-      <c r="H14" s="89" t="s">
-        <v>452</v>
-      </c>
-      <c r="I14" s="89" t="s">
-        <v>452</v>
-      </c>
-      <c r="J14" s="89" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="29">
-      <c r="A15" s="105"/>
-      <c r="B15" s="70" t="s">
-        <v>932</v>
-      </c>
-      <c r="C15" s="70" t="s">
-        <v>946</v>
-      </c>
-      <c r="D15" s="70" t="s">
-        <v>960</v>
-      </c>
-      <c r="E15" s="70" t="s">
-        <v>962</v>
-      </c>
-      <c r="F15" s="70" t="s">
-        <v>977</v>
-      </c>
-      <c r="G15" s="70"/>
-      <c r="H15" s="89" t="s">
-        <v>452</v>
-      </c>
-      <c r="I15" s="89" t="s">
-        <v>452</v>
-      </c>
-      <c r="J15" s="89" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="43.5">
-      <c r="A16" s="105" t="s">
-        <v>933</v>
-      </c>
-      <c r="B16" s="105"/>
-      <c r="C16" s="70" t="s">
-        <v>965</v>
-      </c>
-      <c r="D16" s="70" t="s">
-        <v>961</v>
-      </c>
-      <c r="E16" s="70" t="s">
-        <v>962</v>
-      </c>
       <c r="F16" s="70" t="s">
         <v>452</v>
       </c>
       <c r="G16" s="70"/>
-      <c r="H16" s="89" t="s">
-        <v>452</v>
-      </c>
-      <c r="I16" s="89" t="s">
-        <v>452</v>
-      </c>
-      <c r="J16" s="89" t="s">
+      <c r="H16" s="85" t="s">
+        <v>452</v>
+      </c>
+      <c r="I16" s="85" t="s">
+        <v>452</v>
+      </c>
+      <c r="J16" s="85" t="s">
         <v>452</v>
       </c>
     </row>
@@ -7122,7 +8835,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D70E27-D00E-4C1D-B33C-DE2098504621}">
   <sheetPr>
     <tabColor theme="5"/>
@@ -7133,40 +8846,40 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.453125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="16.1796875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="24.36328125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="10" customWidth="1"/>
     <col min="4" max="4" width="25" style="10" customWidth="1"/>
-    <col min="5" max="16384" width="8.90625" style="10"/>
+    <col min="5" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="94" customFormat="1">
-      <c r="A1" s="109">
+    <row r="1" spans="1:10" s="90" customFormat="1">
+      <c r="A1" s="160">
         <v>2019</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="88">
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="84">
         <v>2018</v>
       </c>
-      <c r="F1" s="88">
+      <c r="F1" s="84">
         <v>2017</v>
       </c>
-      <c r="G1" s="88">
+      <c r="G1" s="84">
         <v>2016</v>
       </c>
-      <c r="H1" s="88">
+      <c r="H1" s="84">
         <v>2015</v>
       </c>
-      <c r="I1" s="88">
+      <c r="I1" s="84">
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="50" customFormat="1" ht="29">
-      <c r="A2" s="92" t="s">
+    <row r="2" spans="1:10" s="50" customFormat="1" ht="28.8">
+      <c r="A2" s="88" t="s">
         <v>129</v>
       </c>
       <c r="B2" s="61" t="s">
@@ -7176,253 +8889,253 @@
         <v>0</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>964</v>
-      </c>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
+        <v>957</v>
+      </c>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
       <c r="J2" s="51"/>
     </row>
-    <row r="3" spans="1:10" ht="29">
+    <row r="3" spans="1:10" ht="28.8">
       <c r="A3" s="72" t="s">
+        <v>994</v>
+      </c>
+      <c r="B3" s="72" t="s">
+        <v>982</v>
+      </c>
+      <c r="C3" s="72" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D3" s="72" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+    </row>
+    <row r="4" spans="1:10" ht="87">
+      <c r="A4" s="72" t="s">
+        <v>995</v>
+      </c>
+      <c r="B4" s="72" t="s">
+        <v>983</v>
+      </c>
+      <c r="C4" s="72" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D4" s="72" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E4" s="91"/>
+      <c r="F4" s="93" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+    </row>
+    <row r="5" spans="1:10" ht="28.8">
+      <c r="A5" s="72" t="s">
+        <v>996</v>
+      </c>
+      <c r="B5" s="72" t="s">
+        <v>984</v>
+      </c>
+      <c r="C5" s="72" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D5" s="72" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E5" s="91"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+    </row>
+    <row r="6" spans="1:10" ht="43.2">
+      <c r="A6" s="72" t="s">
+        <v>997</v>
+      </c>
+      <c r="B6" s="72" t="s">
+        <v>985</v>
+      </c>
+      <c r="C6" s="72" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D6" s="72" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+    </row>
+    <row r="7" spans="1:10" ht="28.8">
+      <c r="A7" s="72" t="s">
+        <v>998</v>
+      </c>
+      <c r="B7" s="72" t="s">
+        <v>986</v>
+      </c>
+      <c r="C7" s="72" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D7" s="72"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="91"/>
+    </row>
+    <row r="8" spans="1:10" ht="28.8">
+      <c r="A8" s="72" t="s">
+        <v>999</v>
+      </c>
+      <c r="B8" s="72" t="s">
+        <v>987</v>
+      </c>
+      <c r="C8" s="72" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D8" s="72"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="91"/>
+    </row>
+    <row r="9" spans="1:10" ht="28.8">
+      <c r="A9" s="72" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B9" s="72" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C9" s="72" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D9" s="72" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="91"/>
+    </row>
+    <row r="10" spans="1:10" ht="57.6">
+      <c r="A10" s="72" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B10" s="72" t="s">
+        <v>988</v>
+      </c>
+      <c r="C10" s="72" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D10" s="72" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
+    </row>
+    <row r="11" spans="1:10" ht="57.6">
+      <c r="A11" s="72" t="s">
         <v>1002</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B11" s="72" t="s">
+        <v>989</v>
+      </c>
+      <c r="C11" s="72" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D11" s="72" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
+    </row>
+    <row r="12" spans="1:10" ht="57.6">
+      <c r="A12" s="72" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B12" s="72" t="s">
         <v>990</v>
       </c>
-      <c r="C3" s="72" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D3" s="72" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-    </row>
-    <row r="4" spans="1:10" ht="87.5">
-      <c r="A4" s="72" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="C12" s="72" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D12" s="72" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="91"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="72" t="s">
         <v>991</v>
       </c>
-      <c r="C4" s="72" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D4" s="72" t="s">
-        <v>1017</v>
-      </c>
-      <c r="E4" s="95"/>
-      <c r="F4" s="97" t="s">
-        <v>1029</v>
-      </c>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-    </row>
-    <row r="5" spans="1:10" ht="29">
-      <c r="A5" s="72" t="s">
+      <c r="B13" s="72" t="s">
+        <v>991</v>
+      </c>
+      <c r="C13" s="72" t="s">
         <v>1004</v>
       </c>
-      <c r="B5" s="72" t="s">
-        <v>992</v>
-      </c>
-      <c r="C5" s="72" t="s">
-        <v>1020</v>
-      </c>
-      <c r="D5" s="72" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E5" s="95"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-    </row>
-    <row r="6" spans="1:10" ht="43.5">
-      <c r="A6" s="72" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B6" s="72" t="s">
-        <v>993</v>
-      </c>
-      <c r="C6" s="72" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D6" s="72" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-    </row>
-    <row r="7" spans="1:10" ht="29">
-      <c r="A7" s="72" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B7" s="72" t="s">
-        <v>994</v>
-      </c>
-      <c r="C7" s="72" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-    </row>
-    <row r="8" spans="1:10" ht="29">
-      <c r="A8" s="72" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B8" s="72" t="s">
-        <v>995</v>
-      </c>
-      <c r="C8" s="72" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D8" s="72"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-    </row>
-    <row r="9" spans="1:10" ht="29">
-      <c r="A9" s="72" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B9" s="72" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C9" s="72" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D9" s="72" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-    </row>
-    <row r="10" spans="1:10" ht="58">
-      <c r="A10" s="72" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B10" s="72" t="s">
-        <v>996</v>
-      </c>
-      <c r="C10" s="72" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D10" s="72" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-    </row>
-    <row r="11" spans="1:10" ht="58">
-      <c r="A11" s="72" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B11" s="72" t="s">
-        <v>997</v>
-      </c>
-      <c r="C11" s="72" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D11" s="72" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-    </row>
-    <row r="12" spans="1:10" ht="58">
-      <c r="A12" s="72" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B12" s="72" t="s">
-        <v>998</v>
-      </c>
-      <c r="C12" s="72" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D12" s="72" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-    </row>
-    <row r="13" spans="1:10" ht="29">
-      <c r="A13" s="72" t="s">
-        <v>999</v>
-      </c>
-      <c r="B13" s="72" t="s">
-        <v>999</v>
-      </c>
-      <c r="C13" s="72" t="s">
-        <v>1012</v>
-      </c>
       <c r="D13" s="72"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="72" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="B14" s="72" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="C14" s="72" t="s">
-        <v>1013</v>
+        <v>1005</v>
       </c>
       <c r="D14" s="72"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95"/>
-    </row>
-    <row r="15" spans="1:10" ht="29">
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="72" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="B15" s="72" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="C15" s="72" t="s">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="72"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="95"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7441,18 +9154,18 @@
       <selection sqref="A1:I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="4" width="27.1796875" customWidth="1"/>
+    <col min="1" max="4" width="27.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="8" customFormat="1">
-      <c r="A1" s="98">
+      <c r="A1" s="143">
         <v>2019</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -7568,21 +9281,21 @@
       <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" style="6" customWidth="1"/>
-    <col min="2" max="4" width="31.81640625" style="6" customWidth="1"/>
-    <col min="5" max="9" width="29.08984375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.81640625" style="6"/>
+    <col min="1" max="1" width="12.33203125" style="6" customWidth="1"/>
+    <col min="2" max="4" width="31.77734375" style="6" customWidth="1"/>
+    <col min="5" max="9" width="29.109375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.77734375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1">
-      <c r="A1" s="98">
+      <c r="A1" s="143">
         <v>2019</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -7618,7 +9331,7 @@
       <c r="H2" s="68"/>
       <c r="I2" s="68"/>
     </row>
-    <row r="3" spans="1:9" ht="87">
+    <row r="3" spans="1:9" ht="86.4">
       <c r="A3" s="69" t="s">
         <v>90</v>
       </c>
@@ -7647,7 +9360,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="159.5">
+    <row r="4" spans="1:9" ht="158.4">
       <c r="A4" s="69" t="s">
         <v>92</v>
       </c>
@@ -7676,7 +9389,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="101.5">
+    <row r="5" spans="1:9" ht="100.8">
       <c r="A5" s="69" t="s">
         <v>95</v>
       </c>
@@ -7705,7 +9418,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="116">
+    <row r="6" spans="1:9" ht="115.2">
       <c r="A6" s="69" t="s">
         <v>98</v>
       </c>
@@ -7734,7 +9447,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="130.5">
+    <row r="7" spans="1:9" ht="129.6">
       <c r="A7" s="69" t="s">
         <v>101</v>
       </c>
@@ -7763,7 +9476,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="145">
+    <row r="8" spans="1:9" ht="144">
       <c r="A8" s="69" t="s">
         <v>103</v>
       </c>
@@ -7792,7 +9505,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="72.5">
+    <row r="9" spans="1:9" ht="72">
       <c r="A9" s="69" t="s">
         <v>105</v>
       </c>
@@ -7813,7 +9526,7 @@
       <c r="H9" s="69"/>
       <c r="I9" s="69"/>
     </row>
-    <row r="10" spans="1:9" ht="130.5">
+    <row r="10" spans="1:9" ht="129.6">
       <c r="A10" s="69" t="s">
         <v>107</v>
       </c>
@@ -7842,7 +9555,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="101.5">
+    <row r="11" spans="1:9" ht="100.8">
       <c r="A11" s="69" t="s">
         <v>108</v>
       </c>
@@ -7871,7 +9584,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="43.5">
+    <row r="12" spans="1:9" ht="43.2">
       <c r="A12" s="69" t="s">
         <v>130</v>
       </c>
@@ -7898,7 +9611,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="43.5">
+    <row r="13" spans="1:9" ht="43.2">
       <c r="A13" s="69" t="s">
         <v>131</v>
       </c>
@@ -7952,7 +9665,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="43.5">
+    <row r="15" spans="1:9" ht="43.2">
       <c r="A15" s="69" t="s">
         <v>133</v>
       </c>
@@ -7979,7 +9692,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="43.5">
+    <row r="16" spans="1:9" ht="43.2">
       <c r="A16" s="69" t="s">
         <v>135</v>
       </c>
@@ -8006,7 +9719,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="58">
+    <row r="17" spans="1:9" ht="57.6">
       <c r="A17" s="69" t="s">
         <v>134</v>
       </c>
@@ -8023,7 +9736,7 @@
       <c r="H17" s="69"/>
       <c r="I17" s="69"/>
     </row>
-    <row r="18" spans="1:9" ht="174">
+    <row r="18" spans="1:9" ht="172.8">
       <c r="A18" s="69" t="s">
         <v>136</v>
       </c>
@@ -8052,7 +9765,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="203">
+    <row r="19" spans="1:9" ht="201.6">
       <c r="A19" s="69" t="s">
         <v>230</v>
       </c>
@@ -8081,7 +9794,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="43.5">
+    <row r="20" spans="1:9" ht="43.2">
       <c r="A20" s="69" t="s">
         <v>239</v>
       </c>
@@ -8098,7 +9811,7 @@
       <c r="H20" s="69"/>
       <c r="I20" s="69"/>
     </row>
-    <row r="21" spans="1:9" ht="58">
+    <row r="21" spans="1:9" ht="57.6">
       <c r="A21" s="69" t="s">
         <v>240</v>
       </c>
@@ -8117,7 +9830,7 @@
       <c r="H21" s="69"/>
       <c r="I21" s="69"/>
     </row>
-    <row r="22" spans="1:9" ht="174">
+    <row r="22" spans="1:9" ht="172.8">
       <c r="A22" s="69" t="s">
         <v>241</v>
       </c>
@@ -8136,7 +9849,7 @@
       <c r="H22" s="69"/>
       <c r="I22" s="69"/>
     </row>
-    <row r="23" spans="1:9" ht="29">
+    <row r="23" spans="1:9" ht="28.8">
       <c r="A23" s="69" t="s">
         <v>244</v>
       </c>
@@ -8155,7 +9868,7 @@
       <c r="H23" s="69"/>
       <c r="I23" s="69"/>
     </row>
-    <row r="24" spans="1:9" ht="101.5">
+    <row r="24" spans="1:9" ht="100.8">
       <c r="A24" s="69" t="s">
         <v>247</v>
       </c>
@@ -8174,7 +9887,7 @@
       <c r="H24" s="69"/>
       <c r="I24" s="69"/>
     </row>
-    <row r="25" spans="1:9" ht="43.5">
+    <row r="25" spans="1:9" ht="43.2">
       <c r="A25" s="69" t="s">
         <v>251</v>
       </c>
@@ -8191,7 +9904,7 @@
       <c r="H25" s="69"/>
       <c r="I25" s="69"/>
     </row>
-    <row r="26" spans="1:9" ht="58">
+    <row r="26" spans="1:9" ht="57.6">
       <c r="A26" s="69" t="s">
         <v>253</v>
       </c>
@@ -8210,7 +9923,7 @@
       <c r="H26" s="69"/>
       <c r="I26" s="69"/>
     </row>
-    <row r="27" spans="1:9" ht="87">
+    <row r="27" spans="1:9" ht="86.4">
       <c r="A27" s="69" t="s">
         <v>256</v>
       </c>
@@ -8229,7 +9942,7 @@
       <c r="H27" s="69"/>
       <c r="I27" s="69"/>
     </row>
-    <row r="28" spans="1:9" ht="130.5">
+    <row r="28" spans="1:9" ht="129.6">
       <c r="A28" s="69" t="s">
         <v>260</v>
       </c>
@@ -8248,7 +9961,7 @@
       <c r="H28" s="69"/>
       <c r="I28" s="69"/>
     </row>
-    <row r="29" spans="1:9" ht="43.5">
+    <row r="29" spans="1:9" ht="43.2">
       <c r="A29" s="69" t="s">
         <v>261</v>
       </c>
@@ -8267,7 +9980,7 @@
       <c r="H29" s="69"/>
       <c r="I29" s="69"/>
     </row>
-    <row r="30" spans="1:9" ht="87">
+    <row r="30" spans="1:9" ht="86.4">
       <c r="A30" s="69" t="s">
         <v>262</v>
       </c>
@@ -8286,7 +9999,7 @@
       <c r="H30" s="69"/>
       <c r="I30" s="69"/>
     </row>
-    <row r="31" spans="1:9" ht="87">
+    <row r="31" spans="1:9" ht="86.4">
       <c r="A31" s="69" t="s">
         <v>263</v>
       </c>
@@ -8305,7 +10018,7 @@
       <c r="H31" s="69"/>
       <c r="I31" s="69"/>
     </row>
-    <row r="32" spans="1:9" ht="116">
+    <row r="32" spans="1:9" ht="115.2">
       <c r="A32" s="69" t="s">
         <v>264</v>
       </c>
@@ -8324,7 +10037,7 @@
       <c r="H32" s="69"/>
       <c r="I32" s="69"/>
     </row>
-    <row r="33" spans="1:9" ht="43.5">
+    <row r="33" spans="1:9" ht="43.2">
       <c r="A33" s="69" t="s">
         <v>268</v>
       </c>
@@ -8341,7 +10054,7 @@
       <c r="H33" s="69"/>
       <c r="I33" s="69"/>
     </row>
-    <row r="34" spans="1:9" ht="58">
+    <row r="34" spans="1:9" ht="57.6">
       <c r="A34" s="69" t="s">
         <v>269</v>
       </c>
@@ -8360,7 +10073,7 @@
       <c r="H34" s="69"/>
       <c r="I34" s="69"/>
     </row>
-    <row r="35" spans="1:9" ht="174">
+    <row r="35" spans="1:9" ht="172.8">
       <c r="A35" s="69" t="s">
         <v>270</v>
       </c>
@@ -8379,7 +10092,7 @@
       <c r="H35" s="69"/>
       <c r="I35" s="69"/>
     </row>
-    <row r="36" spans="1:9" ht="58">
+    <row r="36" spans="1:9" ht="57.6">
       <c r="A36" s="69" t="s">
         <v>280</v>
       </c>
@@ -8419,20 +10132,20 @@
       <selection pane="bottomRight" sqref="A1:I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" customWidth="1"/>
-    <col min="2" max="4" width="31.81640625" customWidth="1"/>
-    <col min="5" max="9" width="29.1796875" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="4" width="31.77734375" customWidth="1"/>
+    <col min="5" max="9" width="29.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="9" customFormat="1">
-      <c r="A1" s="98">
+      <c r="A1" s="143">
         <v>2019</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -8481,7 +10194,7 @@
       <c r="H3" s="71"/>
       <c r="I3" s="71"/>
     </row>
-    <row r="4" spans="1:9" ht="188.5">
+    <row r="4" spans="1:9" ht="187.2">
       <c r="A4" s="69" t="s">
         <v>289</v>
       </c>
@@ -8510,7 +10223,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="6" customFormat="1" ht="29">
+    <row r="5" spans="1:9" s="6" customFormat="1" ht="28.8">
       <c r="A5" s="69" t="s">
         <v>297</v>
       </c>
@@ -8583,7 +10296,7 @@
       <c r="H7" s="69"/>
       <c r="I7" s="69"/>
     </row>
-    <row r="8" spans="1:9" s="6" customFormat="1" ht="174">
+    <row r="8" spans="1:9" s="6" customFormat="1" ht="172.8">
       <c r="A8" s="69" t="s">
         <v>307</v>
       </c>
@@ -8602,7 +10315,7 @@
       <c r="H8" s="69"/>
       <c r="I8" s="69"/>
     </row>
-    <row r="9" spans="1:9" s="6" customFormat="1" ht="217.5">
+    <row r="9" spans="1:9" s="6" customFormat="1" ht="216">
       <c r="A9" s="69" t="s">
         <v>310</v>
       </c>
@@ -8621,7 +10334,7 @@
       <c r="H9" s="69"/>
       <c r="I9" s="69"/>
     </row>
-    <row r="10" spans="1:9" s="6" customFormat="1" ht="58">
+    <row r="10" spans="1:9" s="6" customFormat="1" ht="57.6">
       <c r="A10" s="69" t="s">
         <v>313</v>
       </c>
@@ -8640,7 +10353,7 @@
       <c r="H10" s="69"/>
       <c r="I10" s="69"/>
     </row>
-    <row r="11" spans="1:9" s="6" customFormat="1" ht="232">
+    <row r="11" spans="1:9" s="6" customFormat="1" ht="230.4">
       <c r="A11" s="69" t="s">
         <v>317</v>
       </c>
@@ -8659,7 +10372,7 @@
       <c r="H11" s="69"/>
       <c r="I11" s="69"/>
     </row>
-    <row r="12" spans="1:9" s="6" customFormat="1" ht="232">
+    <row r="12" spans="1:9" s="6" customFormat="1" ht="230.4">
       <c r="A12" s="69" t="s">
         <v>318</v>
       </c>
@@ -8678,7 +10391,7 @@
       <c r="H12" s="69"/>
       <c r="I12" s="69"/>
     </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" ht="203">
+    <row r="13" spans="1:9" s="1" customFormat="1" ht="201.6">
       <c r="A13" s="64" t="s">
         <v>324</v>
       </c>
@@ -8697,7 +10410,7 @@
       <c r="H13" s="64"/>
       <c r="I13" s="64"/>
     </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" ht="58">
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="57.6">
       <c r="A14" s="64" t="s">
         <v>328</v>
       </c>
@@ -8716,7 +10429,7 @@
       <c r="H14" s="64"/>
       <c r="I14" s="64"/>
     </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" ht="203">
+    <row r="15" spans="1:9" s="1" customFormat="1" ht="201.6">
       <c r="A15" s="64" t="s">
         <v>331</v>
       </c>
@@ -8735,7 +10448,7 @@
       <c r="H15" s="64"/>
       <c r="I15" s="64"/>
     </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" ht="29">
+    <row r="16" spans="1:9" s="1" customFormat="1" ht="28.8">
       <c r="A16" s="64" t="s">
         <v>334</v>
       </c>
@@ -8754,7 +10467,7 @@
       <c r="H16" s="64"/>
       <c r="I16" s="64"/>
     </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" ht="29">
+    <row r="17" spans="1:9" s="1" customFormat="1" ht="28.8">
       <c r="A17" s="64" t="s">
         <v>337</v>
       </c>
@@ -8773,7 +10486,7 @@
       <c r="H17" s="64"/>
       <c r="I17" s="64"/>
     </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" ht="101.5">
+    <row r="18" spans="1:9" s="1" customFormat="1" ht="100.8">
       <c r="A18" s="64" t="s">
         <v>340</v>
       </c>
@@ -8792,7 +10505,7 @@
       <c r="H18" s="64"/>
       <c r="I18" s="64"/>
     </row>
-    <row r="19" spans="1:9" s="1" customFormat="1" ht="116">
+    <row r="19" spans="1:9" s="1" customFormat="1" ht="115.2">
       <c r="A19" s="64" t="s">
         <v>343</v>
       </c>
@@ -8821,7 +10534,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="1" customFormat="1" ht="29">
+    <row r="20" spans="1:9" s="1" customFormat="1" ht="28.8">
       <c r="A20" s="64" t="s">
         <v>344</v>
       </c>
@@ -8844,7 +10557,7 @@
       <c r="H20" s="64"/>
       <c r="I20" s="64"/>
     </row>
-    <row r="21" spans="1:9" s="1" customFormat="1" ht="43.5">
+    <row r="21" spans="1:9" s="1" customFormat="1" ht="43.2">
       <c r="A21" s="64" t="s">
         <v>352</v>
       </c>
@@ -8884,7 +10597,7 @@
       <c r="H22" s="64"/>
       <c r="I22" s="64"/>
     </row>
-    <row r="23" spans="1:9" s="1" customFormat="1" ht="174">
+    <row r="23" spans="1:9" s="1" customFormat="1" ht="172.8">
       <c r="A23" s="64" t="s">
         <v>354</v>
       </c>
@@ -9042,21 +10755,21 @@
       <selection pane="bottomRight" sqref="A1:I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="31.81640625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="31.81640625" customWidth="1"/>
-    <col min="5" max="9" width="29.08984375" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.77734375" style="2" customWidth="1"/>
+    <col min="3" max="4" width="31.77734375" customWidth="1"/>
+    <col min="5" max="9" width="29.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1">
-      <c r="A1" s="99">
+      <c r="A1" s="144">
         <v>2019</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -9092,7 +10805,7 @@
       <c r="H2" s="75"/>
       <c r="I2" s="75"/>
     </row>
-    <row r="3" spans="1:9" ht="29">
+    <row r="3" spans="1:9" ht="28.8">
       <c r="A3" s="12" t="s">
         <v>44</v>
       </c>
@@ -9126,7 +10839,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="71"/>
     </row>
-    <row r="5" spans="1:9" ht="29">
+    <row r="5" spans="1:9" ht="28.8">
       <c r="A5" s="12" t="s">
         <v>46</v>
       </c>
@@ -9145,7 +10858,7 @@
       <c r="H5" s="12"/>
       <c r="I5" s="71"/>
     </row>
-    <row r="6" spans="1:9" ht="232">
+    <row r="6" spans="1:9" ht="230.4">
       <c r="A6" s="12" t="s">
         <v>47</v>
       </c>
@@ -9164,7 +10877,7 @@
       <c r="H6" s="12"/>
       <c r="I6" s="71"/>
     </row>
-    <row r="7" spans="1:9" ht="101.5">
+    <row r="7" spans="1:9" ht="100.8">
       <c r="A7" s="12" t="s">
         <v>48</v>
       </c>
@@ -9191,7 +10904,7 @@
       </c>
       <c r="I7" s="71"/>
     </row>
-    <row r="8" spans="1:9" ht="101.5">
+    <row r="8" spans="1:9" ht="100.8">
       <c r="A8" s="12" t="s">
         <v>49</v>
       </c>
@@ -9227,7 +10940,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="71"/>
     </row>
-    <row r="10" spans="1:9" ht="43.5">
+    <row r="10" spans="1:9" ht="43.2">
       <c r="A10" s="12" t="s">
         <v>51</v>
       </c>
@@ -9280,7 +10993,7 @@
       <c r="H12" s="12"/>
       <c r="I12" s="71"/>
     </row>
-    <row r="13" spans="1:9" ht="56">
+    <row r="13" spans="1:9" ht="55.2">
       <c r="A13" s="12" t="s">
         <v>54</v>
       </c>
@@ -9297,7 +11010,7 @@
       <c r="H13" s="12"/>
       <c r="I13" s="71"/>
     </row>
-    <row r="14" spans="1:9" ht="58">
+    <row r="14" spans="1:9" ht="115.2">
       <c r="A14" s="12" t="s">
         <v>55</v>
       </c>
@@ -9326,7 +11039,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="174">
+    <row r="15" spans="1:9" ht="172.8">
       <c r="A15" s="12" t="s">
         <v>56</v>
       </c>
@@ -9351,7 +11064,7 @@
       <c r="H15" s="12"/>
       <c r="I15" s="71"/>
     </row>
-    <row r="16" spans="1:9" ht="72.5">
+    <row r="16" spans="1:9" ht="72">
       <c r="A16" s="12" t="s">
         <v>57</v>
       </c>
@@ -9370,7 +11083,7 @@
       <c r="H16" s="12"/>
       <c r="I16" s="71"/>
     </row>
-    <row r="17" spans="1:9" ht="174">
+    <row r="17" spans="1:9" ht="345.6">
       <c r="A17" s="12" t="s">
         <v>58</v>
       </c>
@@ -9391,7 +11104,7 @@
       <c r="H17" s="12"/>
       <c r="I17" s="71"/>
     </row>
-    <row r="18" spans="1:9" ht="72.5">
+    <row r="18" spans="1:9" ht="72">
       <c r="A18" s="12" t="s">
         <v>59</v>
       </c>
@@ -9410,7 +11123,7 @@
       <c r="H18" s="12"/>
       <c r="I18" s="71"/>
     </row>
-    <row r="19" spans="1:9" ht="116">
+    <row r="19" spans="1:9" ht="115.2">
       <c r="A19" s="12" t="s">
         <v>61</v>
       </c>
@@ -9429,7 +11142,7 @@
       <c r="H19" s="12"/>
       <c r="I19" s="71"/>
     </row>
-    <row r="20" spans="1:9" ht="87">
+    <row r="20" spans="1:9" ht="86.4">
       <c r="A20" s="12" t="s">
         <v>60</v>
       </c>
@@ -9448,7 +11161,7 @@
       <c r="H20" s="12"/>
       <c r="I20" s="71"/>
     </row>
-    <row r="21" spans="1:9" ht="87">
+    <row r="21" spans="1:9" ht="86.4">
       <c r="A21" s="12" t="s">
         <v>62</v>
       </c>
@@ -9467,7 +11180,7 @@
       <c r="H21" s="12"/>
       <c r="I21" s="71"/>
     </row>
-    <row r="22" spans="1:9" ht="174">
+    <row r="22" spans="1:9" ht="172.8">
       <c r="A22" s="12" t="s">
         <v>63</v>
       </c>
@@ -9486,7 +11199,7 @@
       <c r="H22" s="12"/>
       <c r="I22" s="71"/>
     </row>
-    <row r="23" spans="1:9" ht="174.5" customHeight="1">
+    <row r="23" spans="1:9" ht="174.45" customHeight="1">
       <c r="A23" s="12" t="s">
         <v>64</v>
       </c>
@@ -9532,7 +11245,7 @@
       <c r="H24" s="12"/>
       <c r="I24" s="71"/>
     </row>
-    <row r="25" spans="1:9" ht="43.5">
+    <row r="25" spans="1:9" ht="43.2">
       <c r="A25" s="12" t="s">
         <v>66</v>
       </c>
@@ -9602,7 +11315,7 @@
       <c r="H28" s="12"/>
       <c r="I28" s="71"/>
     </row>
-    <row r="29" spans="1:9" ht="29">
+    <row r="29" spans="1:9" ht="28.8">
       <c r="A29" s="12" t="s">
         <v>70</v>
       </c>
@@ -9648,7 +11361,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="305" customHeight="1">
+    <row r="31" spans="1:9" ht="304.95" customHeight="1">
       <c r="A31" s="12" t="s">
         <v>72</v>
       </c>
@@ -9697,21 +11410,21 @@
       <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" style="6" customWidth="1"/>
-    <col min="2" max="3" width="17.453125" style="6" customWidth="1"/>
-    <col min="4" max="9" width="29.08984375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.81640625" style="6"/>
+    <col min="1" max="1" width="14.21875" style="6" customWidth="1"/>
+    <col min="2" max="3" width="17.44140625" style="6" customWidth="1"/>
+    <col min="4" max="9" width="29.109375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.77734375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="37" customFormat="1">
-      <c r="A1" s="98">
+      <c r="A1" s="143">
         <v>2019</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -9747,7 +11460,7 @@
       <c r="H2" s="68"/>
       <c r="I2" s="68"/>
     </row>
-    <row r="3" spans="1:9" ht="72.5">
+    <row r="3" spans="1:9" ht="72">
       <c r="A3" s="69" t="s">
         <v>448</v>
       </c>
@@ -9776,7 +11489,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="203">
+    <row r="4" spans="1:9" ht="201.6">
       <c r="A4" s="69" t="s">
         <v>453</v>
       </c>
@@ -9805,7 +11518,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="130.5">
+    <row r="5" spans="1:9" ht="129.6">
       <c r="A5" s="69" t="s">
         <v>457</v>
       </c>
@@ -9834,7 +11547,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="188.5">
+    <row r="6" spans="1:9" ht="187.2">
       <c r="A6" s="69" t="s">
         <v>460</v>
       </c>
@@ -9863,7 +11576,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="101.5">
+    <row r="7" spans="1:9" ht="100.8">
       <c r="A7" s="69" t="s">
         <v>464</v>
       </c>
@@ -9921,7 +11634,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" ht="43.75" customHeight="1">
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="43.8" customHeight="1">
       <c r="A9" s="64" t="s">
         <v>472</v>
       </c>
@@ -9950,7 +11663,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" ht="29">
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="28.8">
       <c r="A10" s="64" t="s">
         <v>475</v>
       </c>
@@ -10006,7 +11719,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" ht="72.5">
+    <row r="12" spans="1:9" s="1" customFormat="1" ht="72">
       <c r="A12" s="64" t="s">
         <v>482</v>
       </c>
@@ -10035,7 +11748,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="58">
+    <row r="13" spans="1:9" ht="57.6">
       <c r="A13" s="69" t="s">
         <v>486</v>
       </c>
@@ -10064,7 +11777,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="116">
+    <row r="14" spans="1:9" ht="115.2">
       <c r="A14" s="69" t="s">
         <v>489</v>
       </c>
@@ -10093,7 +11806,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="101.5">
+    <row r="15" spans="1:9" ht="100.8">
       <c r="A15" s="69" t="s">
         <v>493</v>
       </c>
@@ -10149,7 +11862,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="29">
+    <row r="17" spans="1:9" ht="28.8">
       <c r="A17" s="69" t="s">
         <v>499</v>
       </c>
@@ -10178,7 +11891,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="72.5">
+    <row r="18" spans="1:9" ht="72">
       <c r="A18" s="69" t="s">
         <v>501</v>
       </c>
@@ -10207,7 +11920,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="29">
+    <row r="19" spans="1:9" ht="28.8">
       <c r="A19" s="69" t="s">
         <v>503</v>
       </c>
@@ -10263,7 +11976,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="29">
+    <row r="21" spans="1:9" ht="28.8">
       <c r="A21" s="69" t="s">
         <v>509</v>
       </c>
@@ -10292,7 +12005,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="72.5">
+    <row r="22" spans="1:9" ht="72">
       <c r="A22" s="69" t="s">
         <v>511</v>
       </c>
@@ -10321,7 +12034,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="29">
+    <row r="23" spans="1:9" ht="28.8">
       <c r="A23" s="69" t="s">
         <v>513</v>
       </c>
@@ -10377,7 +12090,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="29">
+    <row r="25" spans="1:9" ht="28.8">
       <c r="A25" s="69" t="s">
         <v>518</v>
       </c>
@@ -10406,7 +12119,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="72.5">
+    <row r="26" spans="1:9" ht="72">
       <c r="A26" s="69" t="s">
         <v>520</v>
       </c>
@@ -10435,7 +12148,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="72.5">
+    <row r="27" spans="1:9" ht="72">
       <c r="A27" s="69" t="s">
         <v>522</v>
       </c>
@@ -10464,7 +12177,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="145">
+    <row r="28" spans="1:9" ht="144">
       <c r="A28" s="69" t="s">
         <v>529</v>
       </c>
@@ -10493,7 +12206,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="29">
+    <row r="29" spans="1:9" ht="28.8">
       <c r="A29" s="69" t="s">
         <v>537</v>
       </c>
@@ -10522,7 +12235,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="58">
+    <row r="30" spans="1:9" ht="57.6">
       <c r="A30" s="69" t="s">
         <v>540</v>
       </c>
@@ -10578,7 +12291,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="29">
+    <row r="32" spans="1:9" ht="28.8">
       <c r="A32" s="69" t="s">
         <v>547</v>
       </c>
@@ -10607,7 +12320,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="72.5">
+    <row r="33" spans="1:9" ht="72">
       <c r="A33" s="69" t="s">
         <v>549</v>
       </c>
@@ -10661,37 +12374,37 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DF78F7-F282-409F-A3BB-6F7024B1FD58}">
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="A1:I2"/>
+      <selection pane="bottomRight" activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.08984375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="42.08984375" style="36" customWidth="1"/>
-    <col min="4" max="4" width="32.54296875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="42.109375" style="36" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" style="17" customWidth="1"/>
     <col min="5" max="5" width="24" style="6" customWidth="1"/>
     <col min="6" max="6" width="16" style="6" customWidth="1"/>
     <col min="7" max="7" width="24" style="49" customWidth="1"/>
-    <col min="8" max="8" width="15.36328125" style="49" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="49" customWidth="1"/>
     <col min="9" max="9" width="24" style="6" customWidth="1"/>
-    <col min="10" max="10" width="17.36328125" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.81640625" style="6"/>
+    <col min="10" max="10" width="17.33203125" style="6" customWidth="1"/>
+    <col min="14" max="16384" width="8.77734375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="37" customFormat="1">
-      <c r="A1" s="100">
+      <c r="A1" s="145">
         <v>2019</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
       <c r="E1" s="59">
         <v>2018</v>
       </c>
@@ -10721,16 +12434,16 @@
       <c r="D2" s="79" t="s">
         <v>390</v>
       </c>
-      <c r="E2" s="101" t="s">
+      <c r="E2" s="146" t="s">
         <v>551</v>
       </c>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="103"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="148"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="106.25" customHeight="1">
+    <row r="3" spans="1:10" ht="106.2" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>552</v>
       </c>
@@ -10750,17 +12463,17 @@
         <v>556</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="I3" s="39" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" ht="157.5">
+    <row r="4" spans="1:10" ht="153">
       <c r="A4" s="14" t="s">
         <v>557</v>
       </c>
@@ -10780,17 +12493,17 @@
         <v>556</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="I4" s="39" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="J4" s="18"/>
     </row>
-    <row r="5" spans="1:10" ht="157.5">
+    <row r="5" spans="1:10" ht="153">
       <c r="A5" s="14" t="s">
         <v>562</v>
       </c>
@@ -10810,17 +12523,17 @@
         <v>556</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="J5" s="18"/>
     </row>
-    <row r="6" spans="1:10" ht="252">
+    <row r="6" spans="1:10" ht="255">
       <c r="A6" s="14" t="s">
         <v>565</v>
       </c>
@@ -10837,16 +12550,16 @@
         <v>569</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="H6" s="40" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="I6" s="39" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="J6" s="18"/>
     </row>
@@ -10867,20 +12580,20 @@
         <v>573</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="J7" s="18"/>
     </row>
-    <row r="8" spans="1:10" ht="31.25" customHeight="1">
+    <row r="8" spans="1:10" ht="31.2" customHeight="1">
       <c r="A8" s="14" t="s">
         <v>574</v>
       </c>
@@ -10900,17 +12613,17 @@
         <v>556</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="J8" s="18"/>
     </row>
-    <row r="9" spans="1:10" ht="31.25" customHeight="1">
+    <row r="9" spans="1:10" ht="31.2" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>578</v>
       </c>
@@ -10930,16 +12643,16 @@
         <v>556</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="105">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="102">
       <c r="A10" s="14" t="s">
         <v>581</v>
       </c>
@@ -10959,7 +12672,7 @@
         <v>586</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="H10" s="39" t="s">
         <v>452</v>
@@ -10968,7 +12681,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="94.5">
+    <row r="11" spans="1:10" ht="91.8">
       <c r="A11" s="14" t="s">
         <v>587</v>
       </c>
@@ -10997,7 +12710,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="21">
+    <row r="12" spans="1:10" ht="27.6">
       <c r="A12" s="14" t="s">
         <v>591</v>
       </c>
@@ -11026,7 +12739,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="94.5">
+    <row r="13" spans="1:10" ht="91.8">
       <c r="A13" s="14" t="s">
         <v>594</v>
       </c>
@@ -11043,10 +12756,10 @@
         <v>598</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="H13" s="16" t="s">
         <v>452</v>
@@ -11055,7 +12768,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="147">
+    <row r="14" spans="1:10" ht="153">
       <c r="A14" s="14" t="s">
         <v>599</v>
       </c>
@@ -11075,16 +12788,16 @@
         <v>556</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="147">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="142.80000000000001">
       <c r="A15" s="19" t="s">
         <v>604</v>
       </c>
@@ -11104,16 +12817,16 @@
         <v>609</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="I15" s="42" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="220.5">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="224.4">
       <c r="A16" s="19" t="s">
         <v>610</v>
       </c>
@@ -11133,16 +12846,16 @@
         <v>615</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="H16" s="42" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="I16" s="42" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="115.5">
+    <row r="17" spans="1:10" ht="112.2">
       <c r="A17" s="19" t="s">
         <v>616</v>
       </c>
@@ -11162,16 +12875,16 @@
         <v>621</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="H17" s="42" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="I17" s="42" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="39">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="41.4">
       <c r="A18" s="19" t="s">
         <v>622</v>
       </c>
@@ -11198,7 +12911,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="52">
+    <row r="19" spans="1:10" ht="69">
       <c r="A19" s="19" t="s">
         <v>625</v>
       </c>
@@ -11227,7 +12940,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="52">
+    <row r="20" spans="1:10" ht="55.2">
       <c r="A20" s="19" t="s">
         <v>628</v>
       </c>
@@ -11245,138 +12958,141 @@
         <v>632</v>
       </c>
       <c r="G20" s="42" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="H20" s="42" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="I20" s="42" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="346.5">
-      <c r="A21" s="22" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="336.6">
+      <c r="A21" s="142" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B21" s="22" t="s">
         <v>633</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="C21" s="23" t="s">
         <v>634</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="D21" s="43" t="s">
         <v>635</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="E21" s="24" t="s">
         <v>636</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="F21" s="24" t="s">
+        <v>840</v>
+      </c>
+      <c r="G21" s="44" t="s">
+        <v>841</v>
+      </c>
+      <c r="H21" s="44" t="s">
+        <v>842</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="40.799999999999997">
+      <c r="A22" s="25" t="s">
         <v>637</v>
       </c>
-      <c r="F21" s="24" t="s">
-        <v>846</v>
-      </c>
-      <c r="G21" s="44" t="s">
-        <v>847</v>
-      </c>
-      <c r="H21" s="44" t="s">
-        <v>848</v>
-      </c>
-      <c r="I21" s="24" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="42">
-      <c r="A22" s="25" t="s">
+      <c r="B22" s="22" t="s">
         <v>638</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="C22" s="23" t="s">
         <v>639</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>640</v>
       </c>
       <c r="D22" s="43"/>
       <c r="E22" s="24" t="s">
+        <v>640</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>844</v>
+      </c>
+      <c r="G22" s="44" t="s">
+        <v>845</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>846</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="40.799999999999997">
+      <c r="A23" s="25" t="s">
         <v>641</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="B23" s="22" t="s">
+        <v>642</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>643</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>644</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>640</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>848</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>848</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>848</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="244.8">
+      <c r="A24" s="22" t="s">
+        <v>645</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>646</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>647</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>648</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>649</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>849</v>
+      </c>
+      <c r="G24" s="24" t="s">
         <v>850</v>
       </c>
-      <c r="G22" s="44" t="s">
+      <c r="H24" s="24" t="s">
         <v>851</v>
       </c>
-      <c r="H22" s="24" t="s">
-        <v>852</v>
-      </c>
-      <c r="I22" s="24" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="42">
-      <c r="A23" s="25" t="s">
-        <v>642</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>643</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>644</v>
-      </c>
-      <c r="D23" s="43" t="s">
-        <v>645</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>641</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>854</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>854</v>
-      </c>
-      <c r="H23" s="24" t="s">
-        <v>854</v>
-      </c>
-      <c r="I23" s="24" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="252">
-      <c r="A24" s="22" t="s">
-        <v>646</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>647</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>648</v>
-      </c>
-      <c r="D24" s="43" t="s">
-        <v>649</v>
-      </c>
-      <c r="E24" s="24" t="s">
+      <c r="I24" s="24" t="s">
+        <v>851</v>
+      </c>
+      <c r="J24" s="89" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="25" t="s">
         <v>650</v>
       </c>
-      <c r="F24" s="24" t="s">
-        <v>855</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>856</v>
-      </c>
-      <c r="H24" s="24" t="s">
-        <v>857</v>
-      </c>
-      <c r="I24" s="24" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="25" t="s">
+      <c r="B25" s="22" t="s">
         <v>651</v>
       </c>
-      <c r="B25" s="22" t="s">
-        <v>652</v>
-      </c>
       <c r="C25" s="23" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D25" s="43"/>
       <c r="E25" s="44" t="s">
@@ -11395,70 +13111,70 @@
         <v>452</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="21">
+    <row r="26" spans="1:10" ht="20.399999999999999">
       <c r="A26" s="25" t="s">
+        <v>652</v>
+      </c>
+      <c r="B26" s="22" t="s">
         <v>653</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="C26" s="23" t="s">
+        <v>643</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>644</v>
+      </c>
+      <c r="E26" s="44" t="s">
+        <v>452</v>
+      </c>
+      <c r="F26" s="44" t="s">
+        <v>452</v>
+      </c>
+      <c r="G26" s="44" t="s">
+        <v>452</v>
+      </c>
+      <c r="H26" s="44" t="s">
+        <v>452</v>
+      </c>
+      <c r="I26" s="44" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="244.8">
+      <c r="A27" s="22" t="s">
         <v>654</v>
       </c>
-      <c r="C26" s="23" t="s">
-        <v>644</v>
-      </c>
-      <c r="D26" s="43" t="s">
-        <v>645</v>
-      </c>
-      <c r="E26" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="F26" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="G26" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="H26" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="I26" s="44" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="252">
-      <c r="A27" s="22" t="s">
+      <c r="B27" s="26" t="s">
         <v>655</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="C27" s="23" t="s">
         <v>656</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="D27" s="43" t="s">
         <v>657</v>
       </c>
-      <c r="D27" s="43" t="s">
+      <c r="E27" s="24" t="s">
         <v>658</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="F27" s="24" t="s">
+        <v>849</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>852</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>851</v>
+      </c>
+      <c r="I27" s="24" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="25" t="s">
         <v>659</v>
       </c>
-      <c r="F27" s="24" t="s">
-        <v>855</v>
-      </c>
-      <c r="G27" s="24" t="s">
-        <v>858</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>857</v>
-      </c>
-      <c r="I27" s="24" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="25" t="s">
+      <c r="B28" s="22" t="s">
         <v>660</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>661</v>
       </c>
       <c r="C28" s="23"/>
       <c r="D28" s="43"/>
@@ -11478,16 +13194,16 @@
         <v>452</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="21">
+    <row r="29" spans="1:10" ht="20.399999999999999">
       <c r="A29" s="25" t="s">
+        <v>661</v>
+      </c>
+      <c r="B29" s="22" t="s">
         <v>662</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>663</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="43" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E29" s="44" t="s">
         <v>452</v>
@@ -11505,44 +13221,47 @@
         <v>452</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="101.5">
+    <row r="30" spans="1:10" ht="100.8">
       <c r="A30" s="22" t="s">
+        <v>663</v>
+      </c>
+      <c r="B30" s="26" t="s">
         <v>664</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="C30" s="23" t="s">
         <v>665</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="D30" s="43" t="s">
         <v>666</v>
       </c>
-      <c r="D30" s="43" t="s">
+      <c r="E30" s="44" t="s">
+        <v>452</v>
+      </c>
+      <c r="F30" s="44" t="s">
+        <v>452</v>
+      </c>
+      <c r="G30" s="44" t="s">
+        <v>452</v>
+      </c>
+      <c r="H30" s="44" t="s">
+        <v>452</v>
+      </c>
+      <c r="I30" s="44" t="s">
+        <v>452</v>
+      </c>
+      <c r="J30" s="89" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="25" t="s">
         <v>667</v>
       </c>
-      <c r="E30" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="F30" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="G30" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="H30" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="I30" s="44" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="25" t="s">
+      <c r="B31" s="27" t="s">
         <v>668</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="C31" s="23" t="s">
         <v>669</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>670</v>
       </c>
       <c r="D31" s="43"/>
       <c r="E31" s="44" t="s">
@@ -11561,44 +13280,44 @@
         <v>452</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="21">
+    <row r="32" spans="1:10" ht="20.399999999999999">
       <c r="A32" s="25" t="s">
+        <v>670</v>
+      </c>
+      <c r="B32" s="27" t="s">
         <v>671</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="C32" s="23" t="s">
+        <v>643</v>
+      </c>
+      <c r="D32" s="43" t="s">
+        <v>644</v>
+      </c>
+      <c r="E32" s="44" t="s">
+        <v>452</v>
+      </c>
+      <c r="F32" s="44" t="s">
+        <v>452</v>
+      </c>
+      <c r="G32" s="44" t="s">
+        <v>452</v>
+      </c>
+      <c r="H32" s="44" t="s">
+        <v>452</v>
+      </c>
+      <c r="I32" s="44" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="41.4">
+      <c r="A33" s="22" t="s">
         <v>672</v>
       </c>
-      <c r="C32" s="23" t="s">
-        <v>644</v>
-      </c>
-      <c r="D32" s="43" t="s">
-        <v>645</v>
-      </c>
-      <c r="E32" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="F32" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="G32" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="H32" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="I32" s="44" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="39">
-      <c r="A33" s="22" t="s">
+      <c r="B33" s="22" t="s">
         <v>673</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="C33" s="23" t="s">
         <v>674</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>675</v>
       </c>
       <c r="D33" s="43" t="s">
         <v>451</v>
@@ -11621,13 +13340,13 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="25" t="s">
+        <v>675</v>
+      </c>
+      <c r="B34" s="22" t="s">
         <v>676</v>
       </c>
-      <c r="B34" s="22" t="s">
-        <v>677</v>
-      </c>
       <c r="C34" s="23" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D34" s="43"/>
       <c r="E34" s="44" t="s">
@@ -11646,44 +13365,44 @@
         <v>452</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="21">
+    <row r="35" spans="1:9" ht="20.399999999999999">
       <c r="A35" s="25" t="s">
+        <v>677</v>
+      </c>
+      <c r="B35" s="22" t="s">
         <v>678</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="C35" s="23" t="s">
+        <v>643</v>
+      </c>
+      <c r="D35" s="43" t="s">
+        <v>644</v>
+      </c>
+      <c r="E35" s="44" t="s">
+        <v>452</v>
+      </c>
+      <c r="F35" s="44" t="s">
+        <v>452</v>
+      </c>
+      <c r="G35" s="44" t="s">
+        <v>452</v>
+      </c>
+      <c r="H35" s="44" t="s">
+        <v>452</v>
+      </c>
+      <c r="I35" s="44" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="41.4">
+      <c r="A36" s="22" t="s">
         <v>679</v>
       </c>
-      <c r="C35" s="23" t="s">
-        <v>644</v>
-      </c>
-      <c r="D35" s="43" t="s">
-        <v>645</v>
-      </c>
-      <c r="E35" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="F35" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="G35" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="H35" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="I35" s="44" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="39">
-      <c r="A36" s="22" t="s">
+      <c r="B36" s="22" t="s">
         <v>680</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="C36" s="23" t="s">
         <v>681</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>682</v>
       </c>
       <c r="D36" s="43" t="s">
         <v>451</v>
@@ -11704,15 +13423,15 @@
         <v>452</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="26">
+    <row r="37" spans="1:9" ht="27.6">
       <c r="A37" s="25" t="s">
+        <v>682</v>
+      </c>
+      <c r="B37" s="22" t="s">
         <v>683</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="C37" s="23" t="s">
         <v>684</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>685</v>
       </c>
       <c r="D37" s="43"/>
       <c r="E37" s="44" t="s">
@@ -11731,44 +13450,44 @@
         <v>452</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="21">
+    <row r="38" spans="1:9" ht="20.399999999999999">
       <c r="A38" s="25" t="s">
+        <v>685</v>
+      </c>
+      <c r="B38" s="22" t="s">
         <v>686</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="C38" s="23" t="s">
         <v>687</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="D38" s="43" t="s">
+        <v>644</v>
+      </c>
+      <c r="E38" s="44" t="s">
+        <v>452</v>
+      </c>
+      <c r="F38" s="44" t="s">
+        <v>452</v>
+      </c>
+      <c r="G38" s="44" t="s">
+        <v>452</v>
+      </c>
+      <c r="H38" s="44" t="s">
+        <v>452</v>
+      </c>
+      <c r="I38" s="44" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="55.2">
+      <c r="A39" s="22" t="s">
         <v>688</v>
       </c>
-      <c r="D38" s="43" t="s">
-        <v>645</v>
-      </c>
-      <c r="E38" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="F38" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="G38" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="H38" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="I38" s="44" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="52">
-      <c r="A39" s="22" t="s">
+      <c r="B39" s="22" t="s">
         <v>689</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="C39" s="23" t="s">
         <v>690</v>
-      </c>
-      <c r="C39" s="23" t="s">
-        <v>691</v>
       </c>
       <c r="D39" s="43"/>
       <c r="E39" s="44" t="s">
@@ -11789,13 +13508,13 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="25" t="s">
+        <v>691</v>
+      </c>
+      <c r="B40" s="22" t="s">
         <v>692</v>
       </c>
-      <c r="B40" s="22" t="s">
-        <v>693</v>
-      </c>
       <c r="C40" s="23" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D40" s="43"/>
       <c r="E40" s="44" t="s">
@@ -11814,44 +13533,44 @@
         <v>452</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="21">
+    <row r="41" spans="1:9" ht="20.399999999999999">
       <c r="A41" s="25" t="s">
+        <v>693</v>
+      </c>
+      <c r="B41" s="22" t="s">
         <v>694</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="C41" s="23" t="s">
+        <v>643</v>
+      </c>
+      <c r="D41" s="43" t="s">
+        <v>644</v>
+      </c>
+      <c r="E41" s="44" t="s">
+        <v>452</v>
+      </c>
+      <c r="F41" s="44" t="s">
+        <v>452</v>
+      </c>
+      <c r="G41" s="44" t="s">
+        <v>452</v>
+      </c>
+      <c r="H41" s="44" t="s">
+        <v>452</v>
+      </c>
+      <c r="I41" s="44" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="41.4">
+      <c r="A42" s="22" t="s">
         <v>695</v>
       </c>
-      <c r="C41" s="23" t="s">
-        <v>644</v>
-      </c>
-      <c r="D41" s="43" t="s">
-        <v>645</v>
-      </c>
-      <c r="E41" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="F41" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="G41" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="H41" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="I41" s="44" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="39">
-      <c r="A42" s="22" t="s">
+      <c r="B42" s="22" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C42" s="23" t="s">
         <v>696</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>697</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>698</v>
       </c>
       <c r="D42" s="43"/>
       <c r="E42" s="44" t="s">
@@ -11872,13 +13591,13 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="25" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>700</v>
+        <v>1135</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D43" s="43"/>
       <c r="E43" s="44" t="s">
@@ -11897,19 +13616,19 @@
         <v>452</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="21">
+    <row r="44" spans="1:9" ht="20.399999999999999">
       <c r="A44" s="25" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>702</v>
+        <v>1136</v>
       </c>
       <c r="C44" s="23" t="s">
+        <v>643</v>
+      </c>
+      <c r="D44" s="43" t="s">
         <v>644</v>
       </c>
-      <c r="D44" s="43" t="s">
-        <v>645</v>
-      </c>
       <c r="E44" s="44" t="s">
         <v>452</v>
       </c>
@@ -11926,15 +13645,15 @@
         <v>452</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="52">
+    <row r="45" spans="1:9" ht="55.2">
       <c r="A45" s="22" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>704</v>
+        <v>1137</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="D45" s="43"/>
       <c r="E45" s="44" t="s">
@@ -11953,276 +13672,276 @@
         <v>452</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="21">
+    <row r="46" spans="1:9" ht="20.399999999999999">
       <c r="A46" s="25" t="s">
+        <v>701</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>643</v>
+      </c>
+      <c r="D46" s="43" t="s">
+        <v>644</v>
+      </c>
+      <c r="E46" s="44" t="s">
+        <v>452</v>
+      </c>
+      <c r="F46" s="44" t="s">
+        <v>452</v>
+      </c>
+      <c r="G46" s="44" t="s">
+        <v>452</v>
+      </c>
+      <c r="H46" s="44" t="s">
+        <v>452</v>
+      </c>
+      <c r="I46" s="44" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="61.2">
+      <c r="A47" s="28" t="s">
+        <v>702</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>703</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>704</v>
+      </c>
+      <c r="D47" s="45" t="s">
+        <v>705</v>
+      </c>
+      <c r="E47" s="30" t="s">
         <v>706</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="F47" s="46" t="s">
         <v>707</v>
       </c>
-      <c r="C46" s="23" t="s">
-        <v>644</v>
-      </c>
-      <c r="D46" s="43" t="s">
-        <v>645</v>
-      </c>
-      <c r="E46" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="F46" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="G46" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="H46" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="I46" s="44" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="63">
-      <c r="A47" s="28" t="s">
+      <c r="G47" s="30" t="s">
+        <v>853</v>
+      </c>
+      <c r="H47" s="46" t="s">
+        <v>854</v>
+      </c>
+      <c r="I47" s="46" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="27.6">
+      <c r="A48" s="28" t="s">
         <v>708</v>
       </c>
-      <c r="B47" s="28" t="s">
+      <c r="B48" s="28" t="s">
         <v>709</v>
       </c>
-      <c r="C47" s="29" t="s">
+      <c r="C48" s="29" t="s">
         <v>710</v>
-      </c>
-      <c r="D47" s="45" t="s">
-        <v>711</v>
-      </c>
-      <c r="E47" s="30" t="s">
-        <v>712</v>
-      </c>
-      <c r="F47" s="46" t="s">
-        <v>713</v>
-      </c>
-      <c r="G47" s="30" t="s">
-        <v>859</v>
-      </c>
-      <c r="H47" s="46" t="s">
-        <v>860</v>
-      </c>
-      <c r="I47" s="46" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="26">
-      <c r="A48" s="28" t="s">
-        <v>714</v>
-      </c>
-      <c r="B48" s="28" t="s">
-        <v>715</v>
-      </c>
-      <c r="C48" s="29" t="s">
-        <v>716</v>
       </c>
       <c r="D48" s="45" t="s">
         <v>451</v>
       </c>
       <c r="E48" s="46" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="F48" s="46" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G48" s="30" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="H48" s="46" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="I48" s="46" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="26">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="27.6">
       <c r="A49" s="28" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="D49" s="45" t="s">
         <v>451</v>
       </c>
       <c r="E49" s="46" t="s">
+        <v>716</v>
+      </c>
+      <c r="F49" s="46" t="s">
+        <v>717</v>
+      </c>
+      <c r="G49" s="30" t="s">
+        <v>855</v>
+      </c>
+      <c r="H49" s="46" t="s">
+        <v>857</v>
+      </c>
+      <c r="I49" s="46" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="112.2">
+      <c r="A50" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>719</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>720</v>
+      </c>
+      <c r="D50" s="45" t="s">
+        <v>721</v>
+      </c>
+      <c r="E50" s="46" t="s">
         <v>722</v>
       </c>
-      <c r="F49" s="46" t="s">
+      <c r="F50" s="46" t="s">
         <v>723</v>
       </c>
-      <c r="G49" s="30" t="s">
-        <v>861</v>
-      </c>
-      <c r="H49" s="46" t="s">
-        <v>863</v>
-      </c>
-      <c r="I49" s="46" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="115.5">
-      <c r="A50" s="28" t="s">
+      <c r="G50" s="30" t="s">
+        <v>858</v>
+      </c>
+      <c r="H50" s="46" t="s">
+        <v>859</v>
+      </c>
+      <c r="I50" s="46" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="20.399999999999999">
+      <c r="A51" s="28" t="s">
         <v>724</v>
       </c>
-      <c r="B50" s="28" t="s">
+      <c r="B51" s="28" t="s">
         <v>725</v>
       </c>
-      <c r="C50" s="29" t="s">
+      <c r="C51" s="29" t="s">
         <v>726</v>
-      </c>
-      <c r="D50" s="45" t="s">
-        <v>727</v>
-      </c>
-      <c r="E50" s="46" t="s">
-        <v>728</v>
-      </c>
-      <c r="F50" s="46" t="s">
-        <v>729</v>
-      </c>
-      <c r="G50" s="30" t="s">
-        <v>864</v>
-      </c>
-      <c r="H50" s="46" t="s">
-        <v>865</v>
-      </c>
-      <c r="I50" s="46" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="21">
-      <c r="A51" s="28" t="s">
-        <v>730</v>
-      </c>
-      <c r="B51" s="28" t="s">
-        <v>731</v>
-      </c>
-      <c r="C51" s="29" t="s">
-        <v>732</v>
       </c>
       <c r="D51" s="45" t="s">
         <v>451</v>
       </c>
       <c r="E51" s="46" t="s">
+        <v>727</v>
+      </c>
+      <c r="F51" s="46" t="s">
+        <v>728</v>
+      </c>
+      <c r="G51" s="46" t="s">
+        <v>860</v>
+      </c>
+      <c r="H51" s="30" t="s">
+        <v>861</v>
+      </c>
+      <c r="I51" s="46" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="81.599999999999994">
+      <c r="A52" s="28" t="s">
+        <v>729</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>730</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>731</v>
+      </c>
+      <c r="D52" s="45" t="s">
+        <v>862</v>
+      </c>
+      <c r="E52" s="46" t="s">
+        <v>732</v>
+      </c>
+      <c r="F52" s="46" t="s">
         <v>733</v>
       </c>
-      <c r="F51" s="46" t="s">
+      <c r="G52" s="46" t="s">
+        <v>863</v>
+      </c>
+      <c r="H52" s="30" t="s">
+        <v>864</v>
+      </c>
+      <c r="I52" s="46" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="112.2">
+      <c r="A53" s="31" t="s">
         <v>734</v>
       </c>
-      <c r="G51" s="46" t="s">
-        <v>866</v>
-      </c>
-      <c r="H51" s="30" t="s">
-        <v>867</v>
-      </c>
-      <c r="I51" s="46" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="84">
-      <c r="A52" s="28" t="s">
+      <c r="B53" s="31" t="s">
         <v>735</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="C53" s="32" t="s">
         <v>736</v>
-      </c>
-      <c r="C52" s="29" t="s">
-        <v>737</v>
-      </c>
-      <c r="D52" s="45" t="s">
-        <v>868</v>
-      </c>
-      <c r="E52" s="46" t="s">
-        <v>738</v>
-      </c>
-      <c r="F52" s="46" t="s">
-        <v>739</v>
-      </c>
-      <c r="G52" s="46" t="s">
-        <v>869</v>
-      </c>
-      <c r="H52" s="30" t="s">
-        <v>870</v>
-      </c>
-      <c r="I52" s="46" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="115.5">
-      <c r="A53" s="31" t="s">
-        <v>740</v>
-      </c>
-      <c r="B53" s="31" t="s">
-        <v>741</v>
-      </c>
-      <c r="C53" s="32" t="s">
-        <v>742</v>
       </c>
       <c r="D53" s="47" t="s">
         <v>451</v>
       </c>
       <c r="E53" s="33" t="s">
+        <v>737</v>
+      </c>
+      <c r="F53" s="48" t="s">
+        <v>738</v>
+      </c>
+      <c r="G53" s="33" t="s">
+        <v>865</v>
+      </c>
+      <c r="H53" s="33" t="s">
+        <v>866</v>
+      </c>
+      <c r="I53" s="33" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="112.2">
+      <c r="A54" s="31" t="s">
+        <v>739</v>
+      </c>
+      <c r="B54" s="31" t="s">
+        <v>740</v>
+      </c>
+      <c r="C54" s="32" t="s">
+        <v>741</v>
+      </c>
+      <c r="D54" s="47" t="s">
+        <v>742</v>
+      </c>
+      <c r="E54" s="33" t="s">
         <v>743</v>
       </c>
-      <c r="F53" s="48" t="s">
+      <c r="F54" s="48" t="s">
+        <v>738</v>
+      </c>
+      <c r="G54" s="48" t="s">
+        <v>452</v>
+      </c>
+      <c r="H54" s="48" t="s">
+        <v>452</v>
+      </c>
+      <c r="I54" s="48" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="27.6">
+      <c r="A55" s="31" t="s">
         <v>744</v>
       </c>
-      <c r="G53" s="33" t="s">
-        <v>871</v>
-      </c>
-      <c r="H53" s="33" t="s">
-        <v>872</v>
-      </c>
-      <c r="I53" s="33" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="115.5">
-      <c r="A54" s="31" t="s">
+      <c r="B55" s="31" t="s">
         <v>745</v>
       </c>
-      <c r="B54" s="31" t="s">
+      <c r="C55" s="32" t="s">
         <v>746</v>
-      </c>
-      <c r="C54" s="32" t="s">
-        <v>747</v>
-      </c>
-      <c r="D54" s="47" t="s">
-        <v>748</v>
-      </c>
-      <c r="E54" s="33" t="s">
-        <v>749</v>
-      </c>
-      <c r="F54" s="48" t="s">
-        <v>744</v>
-      </c>
-      <c r="G54" s="48" t="s">
-        <v>452</v>
-      </c>
-      <c r="H54" s="48" t="s">
-        <v>452</v>
-      </c>
-      <c r="I54" s="48" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="26">
-      <c r="A55" s="31" t="s">
-        <v>750</v>
-      </c>
-      <c r="B55" s="31" t="s">
-        <v>751</v>
-      </c>
-      <c r="C55" s="32" t="s">
-        <v>752</v>
       </c>
       <c r="D55" s="47"/>
       <c r="E55" s="48" t="s">
@@ -12241,18 +13960,18 @@
         <v>452</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="21">
+    <row r="56" spans="1:9" ht="20.399999999999999">
       <c r="A56" s="34" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E56" s="48" t="s">
         <v>452</v>
@@ -12281,1035 +14000,675 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64DEF18C-4262-483C-ADAF-3222C42E3838}">
-  <sheetPr>
-    <tabColor theme="5"/>
-  </sheetPr>
-  <dimension ref="A1:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8210A5A2-BF82-48DF-82F0-74E3A1B9E934}">
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="4" width="31.81640625" customWidth="1"/>
+    <col min="1" max="2" width="13.77734375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" style="123" customWidth="1"/>
+    <col min="5" max="5" width="48" style="121" customWidth="1"/>
+    <col min="6" max="6" width="35" style="138" customWidth="1"/>
+    <col min="7" max="12" width="13.77734375" style="10" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="9" customFormat="1">
-      <c r="A1" s="98">
+    <row r="1" spans="1:6">
+      <c r="A1" s="160">
         <v>2019</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="60">
-        <v>2018</v>
-      </c>
-      <c r="F1" s="60">
-        <v>2017</v>
-      </c>
-      <c r="G1" s="60">
-        <v>2016</v>
-      </c>
-      <c r="H1" s="60">
-        <v>2015</v>
-      </c>
-      <c r="I1" s="60">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="7" customFormat="1">
-      <c r="A2" s="67" t="s">
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+    </row>
+    <row r="2" spans="1:6" ht="72.599999999999994" customHeight="1">
+      <c r="A2" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="67" t="s">
+      <c r="B2" s="95" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C2" s="167" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D2" s="167" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="F2" s="111" t="s">
         <v>390</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-    </row>
-    <row r="3" spans="1:9" s="6" customFormat="1" ht="29">
-      <c r="A3" s="12" t="s">
-        <v>409</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>413</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-    </row>
-    <row r="4" spans="1:9" s="6" customFormat="1">
-      <c r="A4" s="12" t="s">
-        <v>411</v>
-      </c>
-      <c r="B4" s="69" t="s">
-        <v>414</v>
-      </c>
-      <c r="C4" s="69" t="s">
-        <v>412</v>
-      </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-    </row>
-    <row r="5" spans="1:9" s="6" customFormat="1" ht="72.5">
-      <c r="A5" s="12" t="s">
-        <v>410</v>
-      </c>
-      <c r="B5" s="64" t="s">
-        <v>431</v>
-      </c>
-      <c r="C5" s="69" t="s">
-        <v>415</v>
-      </c>
-      <c r="D5" s="64" t="s">
-        <v>416</v>
-      </c>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-    </row>
-    <row r="6" spans="1:9" s="6" customFormat="1" ht="58">
-      <c r="A6" s="69" t="s">
-        <v>417</v>
-      </c>
-      <c r="B6" s="69" t="s">
-        <v>432</v>
-      </c>
-      <c r="C6" s="64" t="s">
-        <v>420</v>
-      </c>
-      <c r="D6" s="64" t="s">
-        <v>423</v>
-      </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-    </row>
-    <row r="7" spans="1:9" s="6" customFormat="1" ht="58">
-      <c r="A7" s="69" t="s">
-        <v>418</v>
-      </c>
-      <c r="B7" s="69" t="s">
-        <v>433</v>
-      </c>
-      <c r="C7" s="64" t="s">
-        <v>419</v>
-      </c>
-      <c r="D7" s="64" t="s">
-        <v>423</v>
-      </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-    </row>
-    <row r="8" spans="1:9" s="6" customFormat="1" ht="58">
-      <c r="A8" s="69" t="s">
-        <v>427</v>
-      </c>
-      <c r="B8" s="69" t="s">
-        <v>434</v>
-      </c>
-      <c r="C8" s="64" t="s">
-        <v>421</v>
-      </c>
-      <c r="D8" s="64" t="s">
-        <v>423</v>
-      </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-    </row>
-    <row r="9" spans="1:9" s="6" customFormat="1" ht="58">
-      <c r="A9" s="69" t="s">
-        <v>428</v>
-      </c>
-      <c r="B9" s="69" t="s">
-        <v>435</v>
-      </c>
-      <c r="C9" s="64" t="s">
-        <v>422</v>
-      </c>
-      <c r="D9" s="64" t="s">
-        <v>423</v>
-      </c>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-    </row>
-    <row r="10" spans="1:9" s="6" customFormat="1" ht="58">
-      <c r="A10" s="69" t="s">
-        <v>429</v>
-      </c>
-      <c r="B10" s="69" t="s">
-        <v>436</v>
-      </c>
-      <c r="C10" s="64" t="s">
-        <v>424</v>
-      </c>
-      <c r="D10" s="64" t="s">
-        <v>423</v>
-      </c>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-    </row>
-    <row r="11" spans="1:9" s="6" customFormat="1" ht="145">
-      <c r="A11" s="69" t="s">
-        <v>430</v>
-      </c>
-      <c r="B11" s="69" t="s">
-        <v>437</v>
-      </c>
-      <c r="C11" s="64" t="s">
-        <v>425</v>
-      </c>
-      <c r="D11" s="64" t="s">
-        <v>426</v>
-      </c>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-    </row>
-    <row r="12" spans="1:9" s="6" customFormat="1"/>
-    <row r="13" spans="1:9" s="6" customFormat="1"/>
-    <row r="14" spans="1:9" s="6" customFormat="1"/>
-    <row r="15" spans="1:9" s="6" customFormat="1"/>
-    <row r="16" spans="1:9" s="6" customFormat="1"/>
-    <row r="17" s="6" customFormat="1"/>
-    <row r="18" s="6" customFormat="1"/>
-    <row r="19" s="6" customFormat="1"/>
-    <row r="20" s="6" customFormat="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="137.4" customHeight="1">
+      <c r="A3" s="139" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B3" s="99" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C3" s="99" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D3" s="149" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E3" s="112" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F3" s="127" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="43.2">
+      <c r="A4" s="99" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B4" s="98" t="s">
+        <v>452</v>
+      </c>
+      <c r="C4" s="98" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D4" s="150"/>
+      <c r="E4" s="112" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F4" s="127"/>
+    </row>
+    <row r="5" spans="1:6" ht="43.2">
+      <c r="A5" s="99" t="s">
+        <v>675</v>
+      </c>
+      <c r="B5" s="99" t="s">
+        <v>677</v>
+      </c>
+      <c r="C5" s="99" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D5" s="150"/>
+      <c r="E5" s="112" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F5" s="128"/>
+    </row>
+    <row r="6" spans="1:6" ht="57.6">
+      <c r="A6" s="98" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B6" s="99" t="s">
+        <v>693</v>
+      </c>
+      <c r="C6" s="99" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D6" s="150"/>
+      <c r="E6" s="112" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F6" s="128"/>
+    </row>
+    <row r="7" spans="1:6" ht="28.8">
+      <c r="A7" s="100" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B7" s="98" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C7" s="98" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D7" s="150"/>
+      <c r="E7" s="112" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F7" s="128"/>
+    </row>
+    <row r="8" spans="1:6" ht="43.2">
+      <c r="A8" s="100" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B8" s="98" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C8" s="98" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D8" s="151"/>
+      <c r="E8" s="112" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F8" s="128"/>
+    </row>
+    <row r="9" spans="1:6" ht="93">
+      <c r="A9" s="97" t="s">
+        <v>659</v>
+      </c>
+      <c r="B9" s="97" t="s">
+        <v>661</v>
+      </c>
+      <c r="C9" s="97" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D9" s="161" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E9" s="113" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F9" s="129" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="57.6">
+      <c r="A10" s="97" t="s">
+        <v>682</v>
+      </c>
+      <c r="B10" s="97" t="s">
+        <v>685</v>
+      </c>
+      <c r="C10" s="97" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D10" s="161"/>
+      <c r="E10" s="113" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F10" s="129"/>
+    </row>
+    <row r="11" spans="1:6" ht="28.8">
+      <c r="A11" s="101" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B11" s="101" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C11" s="101" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D11" s="152" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E11" s="114" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F11" s="130"/>
+    </row>
+    <row r="12" spans="1:6" ht="28.8">
+      <c r="A12" s="101" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B12" s="101" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C12" s="101" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D12" s="152"/>
+      <c r="E12" s="114" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F12" s="130"/>
+    </row>
+    <row r="13" spans="1:6" ht="28.8">
+      <c r="A13" s="101" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B13" s="101" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C13" s="101" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D13" s="152"/>
+      <c r="E13" s="114" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F13" s="130"/>
+    </row>
+    <row r="14" spans="1:6" ht="28.8">
+      <c r="A14" s="101" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B14" s="101" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C14" s="101" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D14" s="152"/>
+      <c r="E14" s="114" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F14" s="130"/>
+    </row>
+    <row r="15" spans="1:6" ht="28.8">
+      <c r="A15" s="101" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B15" s="101" t="s">
+        <v>452</v>
+      </c>
+      <c r="C15" s="101" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D15" s="152"/>
+      <c r="E15" s="114" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F15" s="130"/>
+    </row>
+    <row r="16" spans="1:6" ht="43.2">
+      <c r="A16" s="101" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B16" s="101" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C16" s="101" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D16" s="152"/>
+      <c r="E16" s="114" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F16" s="130"/>
+    </row>
+    <row r="17" spans="1:6" s="96" customFormat="1" ht="28.8">
+      <c r="A17" s="108" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B17" s="108" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C17" s="108" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D17" s="153" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E17" s="115" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F17" s="131"/>
+    </row>
+    <row r="18" spans="1:6" s="96" customFormat="1" ht="43.2">
+      <c r="A18" s="108" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B18" s="108" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C18" s="108" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D18" s="153"/>
+      <c r="E18" s="115" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F18" s="131"/>
+    </row>
+    <row r="19" spans="1:6" s="96" customFormat="1" ht="57.6">
+      <c r="A19" s="140" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B19" s="141" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C19" s="141" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D19" s="103" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E19" s="102" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F19" s="132"/>
+    </row>
+    <row r="20" spans="1:6" s="96" customFormat="1" ht="28.8">
+      <c r="A20" s="109" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B20" s="109" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C20" s="109" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D20" s="154" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E20" s="116" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F20" s="133"/>
+    </row>
+    <row r="21" spans="1:6" s="96" customFormat="1" ht="28.8">
+      <c r="A21" s="109" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B21" s="109" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C21" s="109" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D21" s="155"/>
+      <c r="E21" s="116" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F21" s="133"/>
+    </row>
+    <row r="22" spans="1:6" s="96" customFormat="1" ht="28.8">
+      <c r="A22" s="109" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B22" s="109" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C22" s="109" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D22" s="155"/>
+      <c r="E22" s="116" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F22" s="133"/>
+    </row>
+    <row r="23" spans="1:6" s="96" customFormat="1" ht="28.8">
+      <c r="A23" s="109" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B23" s="109" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C23" s="109" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D23" s="156"/>
+      <c r="E23" s="116" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F23" s="133"/>
+    </row>
+    <row r="24" spans="1:6" s="96" customFormat="1" ht="115.2">
+      <c r="A24" s="105" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B24" s="105" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C24" s="105" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D24" s="106" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E24" s="117" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F24" s="134"/>
+    </row>
+    <row r="25" spans="1:6" s="96" customFormat="1" ht="28.8">
+      <c r="A25" s="110" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B25" s="110" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C25" s="110" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D25" s="157" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E25" s="118" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F25" s="135"/>
+    </row>
+    <row r="26" spans="1:6" s="96" customFormat="1" ht="28.8">
+      <c r="A26" s="110" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B26" s="110" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C26" s="110" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D26" s="157"/>
+      <c r="E26" s="118" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F26" s="135"/>
+    </row>
+    <row r="27" spans="1:6" s="96" customFormat="1" ht="86.4">
+      <c r="A27" s="107" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B27" s="107" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C27" s="107" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D27" s="104" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E27" s="119" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F27" s="136"/>
+    </row>
+    <row r="28" spans="1:6" s="96" customFormat="1" ht="43.2">
+      <c r="A28" s="124" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B28" s="124" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C28" s="124" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D28" s="158" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E28" s="124" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F28" s="137"/>
+    </row>
+    <row r="29" spans="1:6" s="96" customFormat="1" ht="57.6">
+      <c r="A29" s="124" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B29" s="124" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C29" s="124" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D29" s="159"/>
+      <c r="E29" s="124" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F29" s="137"/>
+    </row>
+    <row r="30" spans="1:6" s="96" customFormat="1">
+      <c r="D30" s="122"/>
+      <c r="E30" s="120"/>
+      <c r="F30" s="138"/>
+    </row>
+    <row r="31" spans="1:6" s="96" customFormat="1">
+      <c r="D31" s="122"/>
+      <c r="E31" s="120"/>
+      <c r="F31" s="138"/>
+    </row>
+    <row r="32" spans="1:6" s="96" customFormat="1">
+      <c r="D32" s="122"/>
+      <c r="E32" s="120"/>
+      <c r="F32" s="138"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+  <mergeCells count="8">
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D20:D23"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53DCC3DA-5077-4F0A-8A40-EE2AAF922B49}">
-  <dimension ref="A1:J56"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A1:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="14.90625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="24" style="6" customWidth="1"/>
-    <col min="3" max="3" width="42.08984375" style="36" customWidth="1"/>
-    <col min="4" max="4" width="32.54296875" style="17" customWidth="1"/>
-    <col min="5" max="9" width="24" style="6" customWidth="1"/>
-    <col min="10" max="10" width="17.36328125" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.81640625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="37" customFormat="1">
-      <c r="A1" s="98">
-        <v>2019</v>
-      </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="60">
-        <v>2018</v>
-      </c>
-      <c r="F1" s="60">
-        <v>2017</v>
-      </c>
-      <c r="G1" s="60">
-        <v>2016</v>
-      </c>
-      <c r="H1" s="60">
-        <v>2015</v>
-      </c>
-      <c r="I1" s="60">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="50" customFormat="1">
-      <c r="A2" s="61" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="61" t="s">
-        <v>390</v>
-      </c>
-      <c r="E2" s="104" t="s">
-        <v>873</v>
-      </c>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="51"/>
-    </row>
-    <row r="3" spans="1:10" s="52" customFormat="1" ht="29">
-      <c r="A3" s="62" t="s">
-        <v>874</v>
-      </c>
-      <c r="B3" s="62" t="s">
-        <v>875</v>
-      </c>
-      <c r="C3" s="63" t="s">
-        <v>876</v>
-      </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="F3" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="G3" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="H3" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="I3" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="J3" s="54"/>
-    </row>
-    <row r="4" spans="1:10" s="52" customFormat="1" ht="29">
-      <c r="A4" s="62" t="s">
-        <v>877</v>
-      </c>
-      <c r="B4" s="62" t="s">
-        <v>878</v>
-      </c>
-      <c r="C4" s="63" t="s">
-        <v>879</v>
-      </c>
-      <c r="D4" s="64"/>
-      <c r="E4" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="F4" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="G4" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="H4" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="I4" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="J4" s="54"/>
-    </row>
-    <row r="5" spans="1:10" s="52" customFormat="1" ht="31.5">
-      <c r="A5" s="62" t="s">
-        <v>880</v>
-      </c>
-      <c r="B5" s="62" t="s">
-        <v>881</v>
-      </c>
-      <c r="C5" s="63" t="s">
-        <v>882</v>
-      </c>
-      <c r="D5" s="64" t="s">
-        <v>883</v>
-      </c>
-      <c r="E5" s="66" t="s">
-        <v>884</v>
-      </c>
-      <c r="F5" s="65" t="s">
-        <v>885</v>
-      </c>
-      <c r="G5" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="H5" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="I5" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="J5" s="54"/>
-    </row>
-    <row r="6" spans="1:10" s="52" customFormat="1" ht="84">
-      <c r="A6" s="62" t="s">
-        <v>886</v>
-      </c>
-      <c r="B6" s="62" t="s">
-        <v>887</v>
-      </c>
-      <c r="C6" s="63" t="s">
-        <v>888</v>
-      </c>
-      <c r="D6" s="64" t="s">
-        <v>889</v>
-      </c>
-      <c r="E6" s="66" t="s">
-        <v>890</v>
-      </c>
-      <c r="F6" s="65" t="s">
-        <v>891</v>
-      </c>
-      <c r="G6" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="H6" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="I6" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="J6" s="54"/>
-    </row>
-    <row r="7" spans="1:10" s="52" customFormat="1">
-      <c r="A7" s="62" t="s">
-        <v>892</v>
-      </c>
-      <c r="B7" s="62" t="s">
-        <v>893</v>
-      </c>
-      <c r="C7" s="63" t="s">
-        <v>894</v>
-      </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="F7" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="G7" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="H7" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="I7" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="J7" s="54"/>
-    </row>
-    <row r="8" spans="1:10" s="52" customFormat="1" ht="43.5">
-      <c r="A8" s="62" t="s">
-        <v>895</v>
-      </c>
-      <c r="B8" s="62" t="s">
-        <v>896</v>
-      </c>
-      <c r="C8" s="63" t="s">
-        <v>897</v>
-      </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="F8" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="G8" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="H8" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="I8" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="J8" s="54"/>
-    </row>
-    <row r="9" spans="1:10" s="52" customFormat="1" ht="58">
-      <c r="A9" s="62" t="s">
-        <v>898</v>
-      </c>
-      <c r="B9" s="62" t="s">
-        <v>899</v>
-      </c>
-      <c r="C9" s="63" t="s">
-        <v>900</v>
-      </c>
-      <c r="D9" s="64" t="s">
-        <v>485</v>
-      </c>
-      <c r="E9" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="F9" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="G9" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="H9" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="I9" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="J9" s="54"/>
-    </row>
-    <row r="10" spans="1:10" s="52" customFormat="1" ht="31.5">
-      <c r="A10" s="62" t="s">
-        <v>901</v>
-      </c>
-      <c r="B10" s="62" t="s">
-        <v>902</v>
-      </c>
-      <c r="C10" s="63" t="s">
-        <v>903</v>
-      </c>
-      <c r="D10" s="64"/>
-      <c r="E10" s="66" t="s">
-        <v>904</v>
-      </c>
-      <c r="F10" s="65" t="s">
-        <v>905</v>
-      </c>
-      <c r="G10" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="H10" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="I10" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="J10" s="54"/>
-    </row>
-    <row r="11" spans="1:10" s="52" customFormat="1" ht="58">
-      <c r="A11" s="62" t="s">
-        <v>906</v>
-      </c>
-      <c r="B11" s="62" t="s">
-        <v>907</v>
-      </c>
-      <c r="C11" s="63" t="s">
-        <v>908</v>
-      </c>
-      <c r="D11" s="64" t="s">
-        <v>485</v>
-      </c>
-      <c r="E11" s="66" t="s">
-        <v>904</v>
-      </c>
-      <c r="F11" s="65" t="s">
-        <v>905</v>
-      </c>
-      <c r="G11" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="H11" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="I11" s="65" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="52" customFormat="1" ht="42">
-      <c r="A12" s="62" t="s">
-        <v>909</v>
-      </c>
-      <c r="B12" s="62" t="s">
-        <v>910</v>
-      </c>
-      <c r="C12" s="63" t="s">
-        <v>911</v>
-      </c>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66" t="s">
-        <v>912</v>
-      </c>
-      <c r="F12" s="65" t="s">
-        <v>913</v>
-      </c>
-      <c r="G12" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="H12" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="I12" s="65" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="52" customFormat="1">
-      <c r="C13" s="56"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-    </row>
-    <row r="14" spans="1:10" s="52" customFormat="1">
-      <c r="C14" s="56"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-    </row>
-    <row r="15" spans="1:10" s="52" customFormat="1">
-      <c r="C15" s="56"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-    </row>
-    <row r="16" spans="1:10" s="52" customFormat="1">
-      <c r="C16" s="56"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-    </row>
-    <row r="17" spans="1:9" s="52" customFormat="1">
-      <c r="C17" s="56"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-    </row>
-    <row r="18" spans="1:9" s="52" customFormat="1">
-      <c r="C18" s="56"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-    </row>
-    <row r="19" spans="1:9" s="52" customFormat="1">
-      <c r="C19" s="56"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-    </row>
-    <row r="20" spans="1:9" s="52" customFormat="1">
-      <c r="C20" s="56"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-    </row>
-    <row r="21" spans="1:9" s="52" customFormat="1">
-      <c r="C21" s="56"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-    </row>
-    <row r="22" spans="1:9" s="52" customFormat="1">
-      <c r="A22" s="54"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-    </row>
-    <row r="23" spans="1:9" s="52" customFormat="1">
-      <c r="A23" s="54"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-    </row>
-    <row r="24" spans="1:9" s="52" customFormat="1">
-      <c r="B24" s="57"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-    </row>
-    <row r="25" spans="1:9" s="52" customFormat="1">
-      <c r="A25" s="54"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-    </row>
-    <row r="26" spans="1:9" s="52" customFormat="1">
-      <c r="A26" s="54"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-    </row>
-    <row r="27" spans="1:9" s="52" customFormat="1">
-      <c r="B27" s="57"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-    </row>
-    <row r="28" spans="1:9" s="52" customFormat="1">
-      <c r="A28" s="54"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-    </row>
-    <row r="29" spans="1:9" s="52" customFormat="1">
-      <c r="A29" s="54"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-    </row>
-    <row r="30" spans="1:9" s="52" customFormat="1">
-      <c r="B30" s="57"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-    </row>
-    <row r="31" spans="1:9" s="52" customFormat="1">
-      <c r="A31" s="54"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-    </row>
-    <row r="32" spans="1:9" s="52" customFormat="1">
-      <c r="A32" s="54"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-    </row>
-    <row r="33" spans="1:9" s="52" customFormat="1">
-      <c r="C33" s="56"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-    </row>
-    <row r="34" spans="1:9" s="52" customFormat="1">
-      <c r="A34" s="54"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-    </row>
-    <row r="35" spans="1:9" s="52" customFormat="1">
-      <c r="A35" s="54"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-    </row>
-    <row r="36" spans="1:9" s="52" customFormat="1">
-      <c r="C36" s="56"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-    </row>
-    <row r="37" spans="1:9" s="52" customFormat="1">
-      <c r="A37" s="54"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
-    </row>
-    <row r="38" spans="1:9" s="52" customFormat="1">
-      <c r="A38" s="54"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-    </row>
-    <row r="39" spans="1:9" s="52" customFormat="1">
-      <c r="C39" s="56"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
-    </row>
-    <row r="40" spans="1:9" s="52" customFormat="1">
-      <c r="A40" s="54"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-    </row>
-    <row r="41" spans="1:9" s="52" customFormat="1">
-      <c r="A41" s="54"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
-    </row>
-    <row r="42" spans="1:9" s="52" customFormat="1">
-      <c r="C42" s="56"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
-    </row>
-    <row r="43" spans="1:9" s="52" customFormat="1">
-      <c r="A43" s="54"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-    </row>
-    <row r="44" spans="1:9" s="52" customFormat="1">
-      <c r="A44" s="54"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="53"/>
-    </row>
-    <row r="45" spans="1:9" s="52" customFormat="1">
-      <c r="C45" s="56"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="53"/>
-    </row>
-    <row r="46" spans="1:9" s="52" customFormat="1">
-      <c r="A46" s="54"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="53"/>
-    </row>
-    <row r="47" spans="1:9" s="52" customFormat="1">
-      <c r="C47" s="56"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="53"/>
-    </row>
-    <row r="48" spans="1:9" s="52" customFormat="1">
-      <c r="C48" s="56"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="53"/>
-      <c r="I48" s="53"/>
-    </row>
-    <row r="49" spans="1:9" s="52" customFormat="1">
-      <c r="C49" s="56"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="53"/>
-      <c r="I49" s="53"/>
-    </row>
-    <row r="50" spans="1:9" s="52" customFormat="1">
-      <c r="C50" s="56"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="53"/>
-      <c r="I50" s="53"/>
-    </row>
-    <row r="51" spans="1:9" s="52" customFormat="1">
-      <c r="C51" s="56"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="53"/>
-      <c r="H51" s="53"/>
-      <c r="I51" s="53"/>
-    </row>
-    <row r="52" spans="1:9" s="52" customFormat="1">
-      <c r="C52" s="56"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="53"/>
-      <c r="I52" s="53"/>
-    </row>
-    <row r="53" spans="1:9" s="52" customFormat="1">
-      <c r="C53" s="56"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="53"/>
-      <c r="G53" s="53"/>
-      <c r="H53" s="53"/>
-      <c r="I53" s="53"/>
-    </row>
-    <row r="54" spans="1:9" s="52" customFormat="1">
-      <c r="C54" s="56"/>
-      <c r="D54" s="55"/>
-      <c r="E54" s="55"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="53"/>
-    </row>
-    <row r="55" spans="1:9" s="52" customFormat="1">
-      <c r="C55" s="56"/>
-      <c r="D55" s="55"/>
-      <c r="E55" s="53"/>
-      <c r="F55" s="53"/>
-      <c r="G55" s="53"/>
-      <c r="H55" s="53"/>
-      <c r="I55" s="53"/>
-    </row>
-    <row r="56" spans="1:9" s="52" customFormat="1">
-      <c r="A56" s="54"/>
-      <c r="C56" s="56"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="53"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E2:I2"/>
-  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87044700-4676-4D5D-8D3A-08914F1BE71D}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="D1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="4" max="6" width="19.44140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:6">
+      <c r="D1" s="126">
+        <v>2018</v>
+      </c>
+      <c r="E1" s="96">
+        <v>2017</v>
+      </c>
+      <c r="F1" s="96">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="2" spans="4:6" ht="409.6">
+      <c r="D2" s="96" t="s">
+        <v>908</v>
+      </c>
+      <c r="E2" s="96" t="s">
+        <v>909</v>
+      </c>
+      <c r="F2" s="96" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="3" spans="4:6" ht="259.2">
+      <c r="D3" s="96" t="s">
+        <v>911</v>
+      </c>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+    </row>
+    <row r="4" spans="4:6" ht="72">
+      <c r="D4" s="125" t="s">
+        <v>912</v>
+      </c>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+    </row>
+    <row r="5" spans="4:6">
+      <c r="D5" s="10"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+    </row>
+    <row r="6" spans="4:6">
+      <c r="D6" s="10"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+    </row>
+    <row r="7" spans="4:6">
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="4:6">
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="4:6">
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="4:6">
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="4:6">
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="4:6">
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="4:6">
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="4:6">
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="4:6">
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="4:6">
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D97C45C73161C540AAAEC0BB7C04B14C" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="eaac3f66d04ba47d8e7bacccdec8bc8e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="69ca14ff-5d6d-4eb8-91d9-74d4bb4de445" xmlns:ns4="72d74521-8c27-4702-99f8-167624e069b6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e42dd572579043e93d80e2ef1a203961" ns3:_="" ns4:_="">
     <xsd:import namespace="69ca14ff-5d6d-4eb8-91d9-74d4bb4de445"/>
@@ -13532,22 +14891,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D82FA49E-E684-481F-999C-85E775CBBA65}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4E4CF47-E673-4F26-A959-0B7774EBA194}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="69ca14ff-5d6d-4eb8-91d9-74d4bb4de445"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="72d74521-8c27-4702-99f8-167624e069b6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BD029C1-9A00-4A77-A4BC-41F5C7C058C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13564,29 +14933,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D82FA49E-E684-481F-999C-85E775CBBA65}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4E4CF47-E673-4F26-A959-0B7774EBA194}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="72d74521-8c27-4702-99f8-167624e069b6"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="69ca14ff-5d6d-4eb8-91d9-74d4bb4de445"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data_management/management/2. harmonization/ENCOVI harmonization/Encovi_comparability across years 2014-2019_ALL.xlsx
+++ b/data_management/management/2. harmonization/ENCOVI harmonization/Encovi_comparability across years 2014-2019_ALL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb550905\Github\VEN\data_management\management\2. harmonization\ENCOVI harmonization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb563583\GitHub\VEN\data_management\management\2. harmonization\ENCOVI harmonization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C13A64-C6CD-4C0B-8089-A9653D4B7F13}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A386574-9EBD-456B-92E8-5C28E2EB2767}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="805" activeTab="7" xr2:uid="{C17073D6-622F-4055-BD8D-7FC11D1960F9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="805" firstSheet="3" activeTab="11" xr2:uid="{C17073D6-622F-4055-BD8D-7FC11D1960F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Control_entrevista" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="1151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="1153">
   <si>
     <t>Questions</t>
   </si>
@@ -4874,6 +4874,12 @@
       </rPr>
       <t>- not inccluded but available, database has the raw one (see sheet "Empleo")</t>
     </r>
+  </si>
+  <si>
+    <t>No disponible</t>
+  </si>
+  <si>
+    <t>No disponible pero lo pregunta</t>
   </si>
 </sst>
 </file>
@@ -5188,7 +5194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -5610,6 +5616,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -5628,6 +5637,21 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5652,21 +5676,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -5682,8 +5691,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6016,18 +6026,18 @@
       <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="4" width="27.21875" customWidth="1"/>
+    <col min="1" max="4" width="27.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="8" customFormat="1">
-      <c r="A1" s="143">
+      <c r="A1" s="144">
         <v>2019</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -6063,7 +6073,7 @@
       <c r="H2" s="68"/>
       <c r="I2" s="68"/>
     </row>
-    <row r="3" spans="1:9" ht="230.4">
+    <row r="3" spans="1:9" ht="232">
       <c r="A3" s="69" t="s">
         <v>139</v>
       </c>
@@ -6252,7 +6262,7 @@
       <c r="H13" s="71"/>
       <c r="I13" s="71"/>
     </row>
-    <row r="14" spans="1:9" ht="43.2">
+    <row r="14" spans="1:9" ht="43.5">
       <c r="A14" s="69" t="s">
         <v>159</v>
       </c>
@@ -6288,7 +6298,7 @@
       <c r="H15" s="71"/>
       <c r="I15" s="71"/>
     </row>
-    <row r="16" spans="1:9" ht="28.8">
+    <row r="16" spans="1:9" ht="29">
       <c r="A16" s="69" t="s">
         <v>170</v>
       </c>
@@ -6462,7 +6472,7 @@
       <c r="H27" s="71"/>
       <c r="I27" s="71"/>
     </row>
-    <row r="28" spans="1:9" ht="28.8">
+    <row r="28" spans="1:9" ht="29">
       <c r="A28" s="69" t="s">
         <v>189</v>
       </c>
@@ -6479,7 +6489,7 @@
       <c r="H28" s="71"/>
       <c r="I28" s="71"/>
     </row>
-    <row r="29" spans="1:9" ht="28.8">
+    <row r="29" spans="1:9" ht="29">
       <c r="A29" s="69" t="s">
         <v>191</v>
       </c>
@@ -6609,18 +6619,18 @@
       <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="4" width="31.77734375" customWidth="1"/>
+    <col min="1" max="4" width="31.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="9" customFormat="1">
-      <c r="A1" s="143">
+      <c r="A1" s="144">
         <v>2019</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -6656,7 +6666,7 @@
       <c r="H2" s="68"/>
       <c r="I2" s="68"/>
     </row>
-    <row r="3" spans="1:9" s="6" customFormat="1" ht="28.8">
+    <row r="3" spans="1:9" s="6" customFormat="1" ht="29">
       <c r="A3" s="12" t="s">
         <v>409</v>
       </c>
@@ -6692,7 +6702,7 @@
       <c r="H4" s="69"/>
       <c r="I4" s="69"/>
     </row>
-    <row r="5" spans="1:9" s="6" customFormat="1" ht="72">
+    <row r="5" spans="1:9" s="6" customFormat="1" ht="72.5">
       <c r="A5" s="12" t="s">
         <v>410</v>
       </c>
@@ -6711,7 +6721,7 @@
       <c r="H5" s="69"/>
       <c r="I5" s="69"/>
     </row>
-    <row r="6" spans="1:9" s="6" customFormat="1" ht="57.6">
+    <row r="6" spans="1:9" s="6" customFormat="1" ht="58">
       <c r="A6" s="69" t="s">
         <v>417</v>
       </c>
@@ -6730,7 +6740,7 @@
       <c r="H6" s="69"/>
       <c r="I6" s="69"/>
     </row>
-    <row r="7" spans="1:9" s="6" customFormat="1" ht="57.6">
+    <row r="7" spans="1:9" s="6" customFormat="1" ht="58">
       <c r="A7" s="69" t="s">
         <v>418</v>
       </c>
@@ -6749,7 +6759,7 @@
       <c r="H7" s="69"/>
       <c r="I7" s="69"/>
     </row>
-    <row r="8" spans="1:9" s="6" customFormat="1" ht="57.6">
+    <row r="8" spans="1:9" s="6" customFormat="1" ht="58">
       <c r="A8" s="69" t="s">
         <v>427</v>
       </c>
@@ -6768,7 +6778,7 @@
       <c r="H8" s="69"/>
       <c r="I8" s="69"/>
     </row>
-    <row r="9" spans="1:9" s="6" customFormat="1" ht="57.6">
+    <row r="9" spans="1:9" s="6" customFormat="1" ht="58">
       <c r="A9" s="69" t="s">
         <v>428</v>
       </c>
@@ -6787,7 +6797,7 @@
       <c r="H9" s="69"/>
       <c r="I9" s="69"/>
     </row>
-    <row r="10" spans="1:9" s="6" customFormat="1" ht="57.6">
+    <row r="10" spans="1:9" s="6" customFormat="1" ht="58">
       <c r="A10" s="69" t="s">
         <v>429</v>
       </c>
@@ -6806,7 +6816,7 @@
       <c r="H10" s="69"/>
       <c r="I10" s="69"/>
     </row>
-    <row r="11" spans="1:9" s="6" customFormat="1" ht="144">
+    <row r="11" spans="1:9" s="6" customFormat="1" ht="145">
       <c r="A11" s="69" t="s">
         <v>430</v>
       </c>
@@ -6853,24 +6863,24 @@
       <selection pane="bottomRight" activeCell="A2" sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="14.90625" style="6" customWidth="1"/>
     <col min="2" max="2" width="24" style="6" customWidth="1"/>
-    <col min="3" max="3" width="42.109375" style="36" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="42.08984375" style="36" customWidth="1"/>
+    <col min="4" max="4" width="32.54296875" style="17" customWidth="1"/>
     <col min="5" max="9" width="24" style="6" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.77734375" style="6"/>
+    <col min="10" max="10" width="17.36328125" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.81640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="37" customFormat="1">
-      <c r="A1" s="143">
+      <c r="A1" s="144">
         <v>2019</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -6900,16 +6910,16 @@
       <c r="D2" s="61" t="s">
         <v>390</v>
       </c>
-      <c r="E2" s="162" t="s">
+      <c r="E2" s="163" t="s">
         <v>867</v>
       </c>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
       <c r="J2" s="51"/>
     </row>
-    <row r="3" spans="1:10" s="52" customFormat="1" ht="28.8">
+    <row r="3" spans="1:10" s="52" customFormat="1" ht="29">
       <c r="A3" s="62" t="s">
         <v>868</v>
       </c>
@@ -6937,7 +6947,7 @@
       </c>
       <c r="J3" s="54"/>
     </row>
-    <row r="4" spans="1:10" s="52" customFormat="1" ht="28.8">
+    <row r="4" spans="1:10" s="52" customFormat="1" ht="29">
       <c r="A4" s="62" t="s">
         <v>871</v>
       </c>
@@ -6965,7 +6975,7 @@
       </c>
       <c r="J4" s="54"/>
     </row>
-    <row r="5" spans="1:10" s="52" customFormat="1" ht="40.799999999999997">
+    <row r="5" spans="1:10" s="52" customFormat="1" ht="31.5">
       <c r="A5" s="62" t="s">
         <v>874</v>
       </c>
@@ -6995,7 +7005,7 @@
       </c>
       <c r="J5" s="54"/>
     </row>
-    <row r="6" spans="1:10" s="52" customFormat="1" ht="81.599999999999994">
+    <row r="6" spans="1:10" s="52" customFormat="1" ht="84">
       <c r="A6" s="62" t="s">
         <v>880</v>
       </c>
@@ -7053,7 +7063,7 @@
       </c>
       <c r="J7" s="54"/>
     </row>
-    <row r="8" spans="1:10" s="52" customFormat="1" ht="28.8">
+    <row r="8" spans="1:10" s="52" customFormat="1" ht="43.5">
       <c r="A8" s="62" t="s">
         <v>889</v>
       </c>
@@ -7081,7 +7091,7 @@
       </c>
       <c r="J8" s="54"/>
     </row>
-    <row r="9" spans="1:10" s="52" customFormat="1" ht="72">
+    <row r="9" spans="1:10" s="52" customFormat="1" ht="58">
       <c r="A9" s="62" t="s">
         <v>892</v>
       </c>
@@ -7111,7 +7121,7 @@
       </c>
       <c r="J9" s="54"/>
     </row>
-    <row r="10" spans="1:10" s="52" customFormat="1" ht="30.6">
+    <row r="10" spans="1:10" s="52" customFormat="1" ht="31.5">
       <c r="A10" s="62" t="s">
         <v>895</v>
       </c>
@@ -7139,7 +7149,7 @@
       </c>
       <c r="J10" s="54"/>
     </row>
-    <row r="11" spans="1:10" s="52" customFormat="1" ht="72">
+    <row r="11" spans="1:10" s="52" customFormat="1" ht="58">
       <c r="A11" s="62" t="s">
         <v>900</v>
       </c>
@@ -7168,7 +7178,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="52" customFormat="1" ht="40.799999999999997">
+    <row r="12" spans="1:10" s="52" customFormat="1" ht="42">
       <c r="A12" s="62" t="s">
         <v>903</v>
       </c>
@@ -7631,28 +7641,28 @@
   </sheetPr>
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D22" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.77734375" customWidth="1"/>
-    <col min="4" max="4" width="25.88671875" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" customWidth="1"/>
+    <col min="2" max="2" width="33.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.81640625" customWidth="1"/>
+    <col min="4" max="4" width="25.90625" customWidth="1"/>
+    <col min="5" max="5" width="24.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="11" customFormat="1">
-      <c r="A1" s="143">
+      <c r="A1" s="144">
         <v>2019</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -7697,13 +7707,15 @@
         <v>752</v>
       </c>
       <c r="D3" s="69"/>
-      <c r="E3" s="71"/>
+      <c r="E3" s="71" t="s">
+        <v>1151</v>
+      </c>
       <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-    </row>
-    <row r="4" spans="1:9" ht="28.8">
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+    </row>
+    <row r="4" spans="1:9" ht="29">
       <c r="A4" s="69" t="s">
         <v>753</v>
       </c>
@@ -7717,10 +7729,12 @@
       <c r="E4" s="69" t="s">
         <v>756</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
+      <c r="F4" s="71" t="s">
+        <v>756</v>
+      </c>
+      <c r="G4" s="168"/>
+      <c r="H4" s="168"/>
+      <c r="I4" s="168"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="69" t="s">
@@ -7734,10 +7748,12 @@
       <c r="E5" s="71" t="s">
         <v>756</v>
       </c>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
+      <c r="F5" s="71" t="s">
+        <v>756</v>
+      </c>
+      <c r="G5" s="168"/>
+      <c r="H5" s="168"/>
+      <c r="I5" s="168"/>
     </row>
     <row r="6" spans="1:9" ht="87" customHeight="1">
       <c r="A6" s="69" t="s">
@@ -7751,12 +7767,14 @@
       <c r="E6" s="69" t="s">
         <v>756</v>
       </c>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-    </row>
-    <row r="7" spans="1:9" ht="28.8">
+      <c r="F6" s="71" t="s">
+        <v>1152</v>
+      </c>
+      <c r="G6" s="168"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="168"/>
+    </row>
+    <row r="7" spans="1:9" ht="29">
       <c r="A7" s="69" t="s">
         <v>761</v>
       </c>
@@ -7765,13 +7783,15 @@
         <v>762</v>
       </c>
       <c r="D7" s="69"/>
-      <c r="E7" s="71"/>
+      <c r="E7" s="71" t="s">
+        <v>756</v>
+      </c>
       <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-    </row>
-    <row r="8" spans="1:9" ht="28.8">
+      <c r="G7" s="168"/>
+      <c r="H7" s="168"/>
+      <c r="I7" s="168"/>
+    </row>
+    <row r="8" spans="1:9" ht="29">
       <c r="A8" s="69" t="s">
         <v>763</v>
       </c>
@@ -7782,11 +7802,13 @@
       <c r="D8" s="64" t="s">
         <v>765</v>
       </c>
-      <c r="E8" s="71"/>
+      <c r="E8" s="71" t="s">
+        <v>756</v>
+      </c>
       <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
+      <c r="G8" s="168"/>
+      <c r="H8" s="168"/>
+      <c r="I8" s="168"/>
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" ht="180" customHeight="1">
       <c r="A9" s="12" t="s">
@@ -7801,9 +7823,9 @@
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="71" t="s">
@@ -7816,11 +7838,11 @@
       <c r="D10" s="71"/>
       <c r="E10" s="71"/>
       <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-    </row>
-    <row r="11" spans="1:9" ht="172.8">
+      <c r="G10" s="168"/>
+      <c r="H10" s="168"/>
+      <c r="I10" s="168"/>
+    </row>
+    <row r="11" spans="1:9" ht="174">
       <c r="A11" s="69" t="s">
         <v>771</v>
       </c>
@@ -7833,11 +7855,11 @@
       </c>
       <c r="E11" s="71"/>
       <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-    </row>
-    <row r="12" spans="1:9" ht="201.6">
+      <c r="G11" s="168"/>
+      <c r="H11" s="168"/>
+      <c r="I11" s="168"/>
+    </row>
+    <row r="12" spans="1:9" ht="203">
       <c r="A12" s="69" t="s">
         <v>774</v>
       </c>
@@ -7850,11 +7872,11 @@
       </c>
       <c r="E12" s="71"/>
       <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-    </row>
-    <row r="13" spans="1:9" ht="43.2">
+      <c r="G12" s="168"/>
+      <c r="H12" s="168"/>
+      <c r="I12" s="168"/>
+    </row>
+    <row r="13" spans="1:9" ht="43.5">
       <c r="A13" s="69" t="s">
         <v>777</v>
       </c>
@@ -7865,11 +7887,11 @@
       <c r="D13" s="71"/>
       <c r="E13" s="71"/>
       <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-    </row>
-    <row r="14" spans="1:9" ht="43.2">
+      <c r="G13" s="168"/>
+      <c r="H13" s="168"/>
+      <c r="I13" s="168"/>
+    </row>
+    <row r="14" spans="1:9" ht="43.5">
       <c r="A14" s="69" t="s">
         <v>779</v>
       </c>
@@ -7882,11 +7904,11 @@
       </c>
       <c r="E14" s="71"/>
       <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-    </row>
-    <row r="15" spans="1:9" ht="43.2">
+      <c r="G14" s="168"/>
+      <c r="H14" s="168"/>
+      <c r="I14" s="168"/>
+    </row>
+    <row r="15" spans="1:9" ht="43.5">
       <c r="A15" s="69" t="s">
         <v>782</v>
       </c>
@@ -7897,11 +7919,11 @@
       <c r="D15" s="71"/>
       <c r="E15" s="71"/>
       <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-    </row>
-    <row r="16" spans="1:9" ht="43.2">
+      <c r="G15" s="168"/>
+      <c r="H15" s="168"/>
+      <c r="I15" s="168"/>
+    </row>
+    <row r="16" spans="1:9" ht="43.5">
       <c r="A16" s="69" t="s">
         <v>784</v>
       </c>
@@ -7912,11 +7934,11 @@
       <c r="D16" s="71"/>
       <c r="E16" s="71"/>
       <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-    </row>
-    <row r="17" spans="1:9" ht="43.2">
+      <c r="G16" s="168"/>
+      <c r="H16" s="168"/>
+      <c r="I16" s="168"/>
+    </row>
+    <row r="17" spans="1:9" ht="43.5">
       <c r="A17" s="69" t="s">
         <v>786</v>
       </c>
@@ -7927,11 +7949,11 @@
       <c r="D17" s="71"/>
       <c r="E17" s="71"/>
       <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-    </row>
-    <row r="18" spans="1:9" ht="230.4">
+      <c r="G17" s="168"/>
+      <c r="H17" s="168"/>
+      <c r="I17" s="168"/>
+    </row>
+    <row r="18" spans="1:9" ht="232">
       <c r="A18" s="69" t="s">
         <v>788</v>
       </c>
@@ -7944,9 +7966,9 @@
       </c>
       <c r="E18" s="71"/>
       <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
+      <c r="G18" s="168"/>
+      <c r="H18" s="168"/>
+      <c r="I18" s="168"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="71" t="s">
@@ -7959,9 +7981,9 @@
       <c r="D19" s="71"/>
       <c r="E19" s="71"/>
       <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
+      <c r="G19" s="168"/>
+      <c r="H19" s="168"/>
+      <c r="I19" s="168"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="71" t="s">
@@ -7974,11 +7996,11 @@
       <c r="D20" s="71"/>
       <c r="E20" s="71"/>
       <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-    </row>
-    <row r="21" spans="1:9" s="6" customFormat="1" ht="28.8">
+      <c r="G20" s="168"/>
+      <c r="H20" s="168"/>
+      <c r="I20" s="168"/>
+    </row>
+    <row r="21" spans="1:9" s="6" customFormat="1" ht="29">
       <c r="A21" s="69" t="s">
         <v>795</v>
       </c>
@@ -7991,11 +8013,11 @@
       </c>
       <c r="E21" s="69"/>
       <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-    </row>
-    <row r="22" spans="1:9" ht="86.4">
+      <c r="G21" s="169"/>
+      <c r="H21" s="169"/>
+      <c r="I21" s="169"/>
+    </row>
+    <row r="22" spans="1:9" ht="87">
       <c r="A22" s="69" t="s">
         <v>797</v>
       </c>
@@ -8008,11 +8030,11 @@
       </c>
       <c r="E22" s="71"/>
       <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-    </row>
-    <row r="23" spans="1:9" ht="187.2">
+      <c r="G22" s="168"/>
+      <c r="H22" s="168"/>
+      <c r="I22" s="168"/>
+    </row>
+    <row r="23" spans="1:9" ht="188.5">
       <c r="A23" s="69" t="s">
         <v>800</v>
       </c>
@@ -8027,9 +8049,9 @@
         <v>1022</v>
       </c>
       <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
+      <c r="G23" s="168"/>
+      <c r="H23" s="168"/>
+      <c r="I23" s="168"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="71" t="s">
@@ -8042,11 +8064,11 @@
       <c r="D24" s="71"/>
       <c r="E24" s="71"/>
       <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-    </row>
-    <row r="25" spans="1:9" s="6" customFormat="1" ht="374.55" customHeight="1">
+      <c r="G24" s="168"/>
+      <c r="H24" s="168"/>
+      <c r="I24" s="168"/>
+    </row>
+    <row r="25" spans="1:9" s="6" customFormat="1" ht="374.5" customHeight="1">
       <c r="A25" s="69" t="s">
         <v>805</v>
       </c>
@@ -8059,11 +8081,11 @@
       </c>
       <c r="E25" s="69"/>
       <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-    </row>
-    <row r="26" spans="1:9" ht="379.05" customHeight="1">
+      <c r="G25" s="169"/>
+      <c r="H25" s="169"/>
+      <c r="I25" s="169"/>
+    </row>
+    <row r="26" spans="1:9" ht="379" customHeight="1">
       <c r="A26" s="64" t="s">
         <v>808</v>
       </c>
@@ -8076,11 +8098,11 @@
       </c>
       <c r="E26" s="71"/>
       <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-    </row>
-    <row r="27" spans="1:9" ht="43.2">
+      <c r="G26" s="168"/>
+      <c r="H26" s="168"/>
+      <c r="I26" s="168"/>
+    </row>
+    <row r="27" spans="1:9" ht="43.5">
       <c r="A27" s="64" t="s">
         <v>810</v>
       </c>
@@ -8093,11 +8115,11 @@
       </c>
       <c r="E27" s="71"/>
       <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-    </row>
-    <row r="28" spans="1:9" ht="28.8">
+      <c r="G27" s="168"/>
+      <c r="H27" s="168"/>
+      <c r="I27" s="168"/>
+    </row>
+    <row r="28" spans="1:9" ht="29">
       <c r="A28" s="64" t="s">
         <v>812</v>
       </c>
@@ -8108,11 +8130,11 @@
       <c r="D28" s="71"/>
       <c r="E28" s="71"/>
       <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="71"/>
-    </row>
-    <row r="29" spans="1:9" ht="172.8">
+      <c r="G28" s="168"/>
+      <c r="H28" s="168"/>
+      <c r="I28" s="168"/>
+    </row>
+    <row r="29" spans="1:9" ht="174">
       <c r="A29" s="64" t="s">
         <v>814</v>
       </c>
@@ -8125,11 +8147,11 @@
       </c>
       <c r="E29" s="71"/>
       <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-    </row>
-    <row r="30" spans="1:9" ht="43.2">
+      <c r="G29" s="168"/>
+      <c r="H29" s="168"/>
+      <c r="I29" s="168"/>
+    </row>
+    <row r="30" spans="1:9" ht="43.5">
       <c r="A30" s="64" t="s">
         <v>816</v>
       </c>
@@ -8142,9 +8164,9 @@
       </c>
       <c r="E30" s="71"/>
       <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
+      <c r="G30" s="168"/>
+      <c r="H30" s="168"/>
+      <c r="I30" s="168"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8162,13 +8184,13 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="42.77734375" customWidth="1"/>
+    <col min="4" max="4" width="42.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="9" customFormat="1">
@@ -8229,7 +8251,7 @@
       <c r="G3" s="71"/>
       <c r="H3" s="71"/>
     </row>
-    <row r="4" spans="1:9" ht="409.6">
+    <row r="4" spans="1:9" ht="409.5">
       <c r="A4" s="69" t="s">
         <v>441</v>
       </c>
@@ -8247,7 +8269,7 @@
       <c r="G4" s="71"/>
       <c r="H4" s="71"/>
     </row>
-    <row r="5" spans="1:9" ht="409.6">
+    <row r="5" spans="1:9" ht="409.5">
       <c r="A5" s="71"/>
       <c r="B5" s="71"/>
       <c r="C5" s="64" t="s">
@@ -8274,21 +8296,21 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="4" width="18.21875" customWidth="1"/>
+    <col min="1" max="2" width="15.08984375" customWidth="1"/>
+    <col min="3" max="4" width="18.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="37" customFormat="1">
-      <c r="A1" s="163">
+      <c r="A1" s="164">
         <v>2019</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="164"/>
-    </row>
-    <row r="2" spans="1:5" s="50" customFormat="1" ht="43.2">
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="165"/>
+    </row>
+    <row r="2" spans="1:5" s="50" customFormat="1" ht="43.5">
       <c r="A2" s="94" t="s">
         <v>129</v>
       </c>
@@ -8303,7 +8325,7 @@
       </c>
       <c r="E2" s="51"/>
     </row>
-    <row r="3" spans="1:5" ht="57.6">
+    <row r="3" spans="1:5" ht="58">
       <c r="A3" s="71" t="s">
         <v>1141</v>
       </c>
@@ -8317,7 +8339,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="57.6">
+    <row r="4" spans="1:5" ht="58">
       <c r="A4" s="71" t="s">
         <v>1142</v>
       </c>
@@ -8350,25 +8372,25 @@
       <selection pane="bottomRight" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="22.88671875" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
-    <col min="4" max="4" width="48.88671875" style="10" customWidth="1"/>
-    <col min="5" max="6" width="17.5546875" customWidth="1"/>
-    <col min="7" max="7" width="27.88671875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="24.5546875" customWidth="1"/>
-    <col min="9" max="10" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.90625" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" customWidth="1"/>
+    <col min="4" max="4" width="48.90625" style="10" customWidth="1"/>
+    <col min="5" max="6" width="17.54296875" customWidth="1"/>
+    <col min="7" max="7" width="27.90625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="24.54296875" customWidth="1"/>
+    <col min="9" max="10" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="37" customFormat="1">
-      <c r="A1" s="163">
+      <c r="A1" s="164">
         <v>2019</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="164"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="165"/>
       <c r="F1" s="60">
         <v>2018</v>
       </c>
@@ -8385,11 +8407,11 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="50" customFormat="1" ht="43.2">
-      <c r="A2" s="166" t="s">
+    <row r="2" spans="1:11" s="50" customFormat="1" ht="43.5">
+      <c r="A2" s="167" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="166"/>
+      <c r="B2" s="167"/>
       <c r="C2" s="61" t="s">
         <v>128</v>
       </c>
@@ -8406,11 +8428,11 @@
       <c r="J2" s="83"/>
       <c r="K2" s="51"/>
     </row>
-    <row r="3" spans="1:11" ht="72">
-      <c r="A3" s="165" t="s">
+    <row r="3" spans="1:11" ht="72.5">
+      <c r="A3" s="166" t="s">
         <v>913</v>
       </c>
-      <c r="B3" s="165"/>
+      <c r="B3" s="166"/>
       <c r="C3" s="71" t="s">
         <v>927</v>
       </c>
@@ -8436,8 +8458,8 @@
         <v>980</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="28.8">
-      <c r="A4" s="165" t="s">
+    <row r="4" spans="1:11" ht="29">
+      <c r="A4" s="166" t="s">
         <v>943</v>
       </c>
       <c r="B4" s="70" t="s">
@@ -8468,8 +8490,8 @@
         <v>452</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="115.2">
-      <c r="A5" s="165"/>
+    <row r="5" spans="1:11" ht="116">
+      <c r="A5" s="166"/>
       <c r="B5" s="70" t="s">
         <v>915</v>
       </c>
@@ -8498,8 +8520,8 @@
         <v>452</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="144">
-      <c r="A6" s="165"/>
+    <row r="6" spans="1:11" ht="145">
+      <c r="A6" s="166"/>
       <c r="B6" s="70" t="s">
         <v>916</v>
       </c>
@@ -8528,8 +8550,8 @@
         <v>452</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="144">
-      <c r="A7" s="165"/>
+    <row r="7" spans="1:11" ht="145">
+      <c r="A7" s="166"/>
       <c r="B7" s="70" t="s">
         <v>917</v>
       </c>
@@ -8558,8 +8580,8 @@
         <v>452</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="187.2">
-      <c r="A8" s="165"/>
+    <row r="8" spans="1:11" ht="188.5">
+      <c r="A8" s="166"/>
       <c r="B8" s="70" t="s">
         <v>918</v>
       </c>
@@ -8588,8 +8610,8 @@
         <v>452</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="302.39999999999998">
-      <c r="A9" s="165"/>
+    <row r="9" spans="1:11" ht="304.5">
+      <c r="A9" s="166"/>
       <c r="B9" s="70" t="s">
         <v>919</v>
       </c>
@@ -8618,8 +8640,8 @@
         <v>981</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="82" customFormat="1" ht="259.2">
-      <c r="A10" s="165"/>
+    <row r="10" spans="1:11" s="82" customFormat="1" ht="261">
+      <c r="A10" s="166"/>
       <c r="B10" s="86" t="s">
         <v>920</v>
       </c>
@@ -8648,8 +8670,8 @@
         <v>981</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="187.2">
-      <c r="A11" s="165"/>
+    <row r="11" spans="1:11" ht="188.5">
+      <c r="A11" s="166"/>
       <c r="B11" s="70" t="s">
         <v>921</v>
       </c>
@@ -8678,8 +8700,8 @@
         <v>452</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="144">
-      <c r="A12" s="165"/>
+    <row r="12" spans="1:11" ht="145">
+      <c r="A12" s="166"/>
       <c r="B12" s="70" t="s">
         <v>922</v>
       </c>
@@ -8708,8 +8730,8 @@
         <v>452</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="144">
-      <c r="A13" s="165"/>
+    <row r="13" spans="1:11" ht="145">
+      <c r="A13" s="166"/>
       <c r="B13" s="70" t="s">
         <v>923</v>
       </c>
@@ -8738,8 +8760,8 @@
         <v>452</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="28.8">
-      <c r="A14" s="165"/>
+    <row r="14" spans="1:11" ht="29">
+      <c r="A14" s="166"/>
       <c r="B14" s="70" t="s">
         <v>924</v>
       </c>
@@ -8766,8 +8788,8 @@
         <v>452</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="28.8">
-      <c r="A15" s="165"/>
+    <row r="15" spans="1:11" ht="29">
+      <c r="A15" s="166"/>
       <c r="B15" s="70" t="s">
         <v>925</v>
       </c>
@@ -8794,11 +8816,11 @@
         <v>452</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="43.2">
-      <c r="A16" s="165" t="s">
+    <row r="16" spans="1:11" ht="43.5">
+      <c r="A16" s="166" t="s">
         <v>926</v>
       </c>
-      <c r="B16" s="165"/>
+      <c r="B16" s="166"/>
       <c r="C16" s="70" t="s">
         <v>958</v>
       </c>
@@ -8846,22 +8868,22 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="24.36328125" style="10" customWidth="1"/>
     <col min="4" max="4" width="25" style="10" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="10"/>
+    <col min="5" max="16384" width="8.90625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="90" customFormat="1">
-      <c r="A1" s="160">
+      <c r="A1" s="153">
         <v>2019</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
       <c r="E1" s="84">
         <v>2018</v>
       </c>
@@ -8878,7 +8900,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="50" customFormat="1" ht="28.8">
+    <row r="2" spans="1:10" s="50" customFormat="1" ht="29">
       <c r="A2" s="88" t="s">
         <v>129</v>
       </c>
@@ -8898,7 +8920,7 @@
       <c r="I2" s="83"/>
       <c r="J2" s="51"/>
     </row>
-    <row r="3" spans="1:10" ht="28.8">
+    <row r="3" spans="1:10" ht="29">
       <c r="A3" s="72" t="s">
         <v>994</v>
       </c>
@@ -8917,7 +8939,7 @@
       <c r="H3" s="91"/>
       <c r="I3" s="91"/>
     </row>
-    <row r="4" spans="1:10" ht="87">
+    <row r="4" spans="1:10" ht="87.5">
       <c r="A4" s="72" t="s">
         <v>995</v>
       </c>
@@ -8938,7 +8960,7 @@
       <c r="H4" s="91"/>
       <c r="I4" s="91"/>
     </row>
-    <row r="5" spans="1:10" ht="28.8">
+    <row r="5" spans="1:10" ht="29">
       <c r="A5" s="72" t="s">
         <v>996</v>
       </c>
@@ -8957,7 +8979,7 @@
       <c r="H5" s="91"/>
       <c r="I5" s="91"/>
     </row>
-    <row r="6" spans="1:10" ht="43.2">
+    <row r="6" spans="1:10" ht="43.5">
       <c r="A6" s="72" t="s">
         <v>997</v>
       </c>
@@ -8976,7 +8998,7 @@
       <c r="H6" s="91"/>
       <c r="I6" s="91"/>
     </row>
-    <row r="7" spans="1:10" ht="28.8">
+    <row r="7" spans="1:10" ht="29">
       <c r="A7" s="72" t="s">
         <v>998</v>
       </c>
@@ -8993,7 +9015,7 @@
       <c r="H7" s="91"/>
       <c r="I7" s="91"/>
     </row>
-    <row r="8" spans="1:10" ht="28.8">
+    <row r="8" spans="1:10" ht="29">
       <c r="A8" s="72" t="s">
         <v>999</v>
       </c>
@@ -9010,7 +9032,7 @@
       <c r="H8" s="91"/>
       <c r="I8" s="91"/>
     </row>
-    <row r="9" spans="1:10" ht="28.8">
+    <row r="9" spans="1:10" ht="29">
       <c r="A9" s="72" t="s">
         <v>1000</v>
       </c>
@@ -9029,7 +9051,7 @@
       <c r="H9" s="91"/>
       <c r="I9" s="91"/>
     </row>
-    <row r="10" spans="1:10" ht="57.6">
+    <row r="10" spans="1:10" ht="58">
       <c r="A10" s="72" t="s">
         <v>1001</v>
       </c>
@@ -9048,7 +9070,7 @@
       <c r="H10" s="91"/>
       <c r="I10" s="91"/>
     </row>
-    <row r="11" spans="1:10" ht="57.6">
+    <row r="11" spans="1:10" ht="58">
       <c r="A11" s="72" t="s">
         <v>1002</v>
       </c>
@@ -9067,7 +9089,7 @@
       <c r="H11" s="91"/>
       <c r="I11" s="91"/>
     </row>
-    <row r="12" spans="1:10" ht="57.6">
+    <row r="12" spans="1:10" ht="58">
       <c r="A12" s="72" t="s">
         <v>1003</v>
       </c>
@@ -9086,7 +9108,7 @@
       <c r="H12" s="91"/>
       <c r="I12" s="91"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" ht="29">
       <c r="A13" s="72" t="s">
         <v>991</v>
       </c>
@@ -9120,7 +9142,7 @@
       <c r="H14" s="91"/>
       <c r="I14" s="91"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" ht="29">
       <c r="A15" s="72" t="s">
         <v>993</v>
       </c>
@@ -9154,18 +9176,18 @@
       <selection sqref="A1:I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="4" width="27.21875" customWidth="1"/>
+    <col min="1" max="4" width="27.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="8" customFormat="1">
-      <c r="A1" s="143">
+      <c r="A1" s="144">
         <v>2019</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -9281,21 +9303,21 @@
       <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="6" customWidth="1"/>
-    <col min="2" max="4" width="31.77734375" style="6" customWidth="1"/>
-    <col min="5" max="9" width="29.109375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.77734375" style="6"/>
+    <col min="1" max="1" width="12.36328125" style="6" customWidth="1"/>
+    <col min="2" max="4" width="31.81640625" style="6" customWidth="1"/>
+    <col min="5" max="9" width="29.08984375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.81640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1">
-      <c r="A1" s="143">
+      <c r="A1" s="144">
         <v>2019</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -9331,7 +9353,7 @@
       <c r="H2" s="68"/>
       <c r="I2" s="68"/>
     </row>
-    <row r="3" spans="1:9" ht="86.4">
+    <row r="3" spans="1:9" ht="87">
       <c r="A3" s="69" t="s">
         <v>90</v>
       </c>
@@ -9360,7 +9382,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="158.4">
+    <row r="4" spans="1:9" ht="159.5">
       <c r="A4" s="69" t="s">
         <v>92</v>
       </c>
@@ -9389,7 +9411,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="100.8">
+    <row r="5" spans="1:9" ht="101.5">
       <c r="A5" s="69" t="s">
         <v>95</v>
       </c>
@@ -9418,7 +9440,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="115.2">
+    <row r="6" spans="1:9" ht="116">
       <c r="A6" s="69" t="s">
         <v>98</v>
       </c>
@@ -9447,7 +9469,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="129.6">
+    <row r="7" spans="1:9" ht="130.5">
       <c r="A7" s="69" t="s">
         <v>101</v>
       </c>
@@ -9476,7 +9498,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="144">
+    <row r="8" spans="1:9" ht="145">
       <c r="A8" s="69" t="s">
         <v>103</v>
       </c>
@@ -9505,7 +9527,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="72">
+    <row r="9" spans="1:9" ht="72.5">
       <c r="A9" s="69" t="s">
         <v>105</v>
       </c>
@@ -9526,7 +9548,7 @@
       <c r="H9" s="69"/>
       <c r="I9" s="69"/>
     </row>
-    <row r="10" spans="1:9" ht="129.6">
+    <row r="10" spans="1:9" ht="130.5">
       <c r="A10" s="69" t="s">
         <v>107</v>
       </c>
@@ -9555,7 +9577,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="100.8">
+    <row r="11" spans="1:9" ht="101.5">
       <c r="A11" s="69" t="s">
         <v>108</v>
       </c>
@@ -9584,7 +9606,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="43.2">
+    <row r="12" spans="1:9" ht="43.5">
       <c r="A12" s="69" t="s">
         <v>130</v>
       </c>
@@ -9611,7 +9633,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="43.2">
+    <row r="13" spans="1:9" ht="43.5">
       <c r="A13" s="69" t="s">
         <v>131</v>
       </c>
@@ -9665,7 +9687,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="43.2">
+    <row r="15" spans="1:9" ht="43.5">
       <c r="A15" s="69" t="s">
         <v>133</v>
       </c>
@@ -9692,7 +9714,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="43.2">
+    <row r="16" spans="1:9" ht="43.5">
       <c r="A16" s="69" t="s">
         <v>135</v>
       </c>
@@ -9719,7 +9741,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="57.6">
+    <row r="17" spans="1:9" ht="58">
       <c r="A17" s="69" t="s">
         <v>134</v>
       </c>
@@ -9736,7 +9758,7 @@
       <c r="H17" s="69"/>
       <c r="I17" s="69"/>
     </row>
-    <row r="18" spans="1:9" ht="172.8">
+    <row r="18" spans="1:9" ht="174">
       <c r="A18" s="69" t="s">
         <v>136</v>
       </c>
@@ -9765,7 +9787,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="201.6">
+    <row r="19" spans="1:9" ht="203">
       <c r="A19" s="69" t="s">
         <v>230</v>
       </c>
@@ -9794,7 +9816,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="43.2">
+    <row r="20" spans="1:9" ht="43.5">
       <c r="A20" s="69" t="s">
         <v>239</v>
       </c>
@@ -9811,7 +9833,7 @@
       <c r="H20" s="69"/>
       <c r="I20" s="69"/>
     </row>
-    <row r="21" spans="1:9" ht="57.6">
+    <row r="21" spans="1:9" ht="58">
       <c r="A21" s="69" t="s">
         <v>240</v>
       </c>
@@ -9830,7 +9852,7 @@
       <c r="H21" s="69"/>
       <c r="I21" s="69"/>
     </row>
-    <row r="22" spans="1:9" ht="172.8">
+    <row r="22" spans="1:9" ht="174">
       <c r="A22" s="69" t="s">
         <v>241</v>
       </c>
@@ -9849,7 +9871,7 @@
       <c r="H22" s="69"/>
       <c r="I22" s="69"/>
     </row>
-    <row r="23" spans="1:9" ht="28.8">
+    <row r="23" spans="1:9" ht="29">
       <c r="A23" s="69" t="s">
         <v>244</v>
       </c>
@@ -9868,7 +9890,7 @@
       <c r="H23" s="69"/>
       <c r="I23" s="69"/>
     </row>
-    <row r="24" spans="1:9" ht="100.8">
+    <row r="24" spans="1:9" ht="101.5">
       <c r="A24" s="69" t="s">
         <v>247</v>
       </c>
@@ -9887,7 +9909,7 @@
       <c r="H24" s="69"/>
       <c r="I24" s="69"/>
     </row>
-    <row r="25" spans="1:9" ht="43.2">
+    <row r="25" spans="1:9" ht="43.5">
       <c r="A25" s="69" t="s">
         <v>251</v>
       </c>
@@ -9904,7 +9926,7 @@
       <c r="H25" s="69"/>
       <c r="I25" s="69"/>
     </row>
-    <row r="26" spans="1:9" ht="57.6">
+    <row r="26" spans="1:9" ht="58">
       <c r="A26" s="69" t="s">
         <v>253</v>
       </c>
@@ -9923,7 +9945,7 @@
       <c r="H26" s="69"/>
       <c r="I26" s="69"/>
     </row>
-    <row r="27" spans="1:9" ht="86.4">
+    <row r="27" spans="1:9" ht="87">
       <c r="A27" s="69" t="s">
         <v>256</v>
       </c>
@@ -9942,7 +9964,7 @@
       <c r="H27" s="69"/>
       <c r="I27" s="69"/>
     </row>
-    <row r="28" spans="1:9" ht="129.6">
+    <row r="28" spans="1:9" ht="130.5">
       <c r="A28" s="69" t="s">
         <v>260</v>
       </c>
@@ -9961,7 +9983,7 @@
       <c r="H28" s="69"/>
       <c r="I28" s="69"/>
     </row>
-    <row r="29" spans="1:9" ht="43.2">
+    <row r="29" spans="1:9" ht="43.5">
       <c r="A29" s="69" t="s">
         <v>261</v>
       </c>
@@ -9980,7 +10002,7 @@
       <c r="H29" s="69"/>
       <c r="I29" s="69"/>
     </row>
-    <row r="30" spans="1:9" ht="86.4">
+    <row r="30" spans="1:9" ht="87">
       <c r="A30" s="69" t="s">
         <v>262</v>
       </c>
@@ -9999,7 +10021,7 @@
       <c r="H30" s="69"/>
       <c r="I30" s="69"/>
     </row>
-    <row r="31" spans="1:9" ht="86.4">
+    <row r="31" spans="1:9" ht="87">
       <c r="A31" s="69" t="s">
         <v>263</v>
       </c>
@@ -10018,7 +10040,7 @@
       <c r="H31" s="69"/>
       <c r="I31" s="69"/>
     </row>
-    <row r="32" spans="1:9" ht="115.2">
+    <row r="32" spans="1:9" ht="116">
       <c r="A32" s="69" t="s">
         <v>264</v>
       </c>
@@ -10037,7 +10059,7 @@
       <c r="H32" s="69"/>
       <c r="I32" s="69"/>
     </row>
-    <row r="33" spans="1:9" ht="43.2">
+    <row r="33" spans="1:9" ht="43.5">
       <c r="A33" s="69" t="s">
         <v>268</v>
       </c>
@@ -10054,7 +10076,7 @@
       <c r="H33" s="69"/>
       <c r="I33" s="69"/>
     </row>
-    <row r="34" spans="1:9" ht="57.6">
+    <row r="34" spans="1:9" ht="58">
       <c r="A34" s="69" t="s">
         <v>269</v>
       </c>
@@ -10073,7 +10095,7 @@
       <c r="H34" s="69"/>
       <c r="I34" s="69"/>
     </row>
-    <row r="35" spans="1:9" ht="172.8">
+    <row r="35" spans="1:9" ht="174">
       <c r="A35" s="69" t="s">
         <v>270</v>
       </c>
@@ -10092,7 +10114,7 @@
       <c r="H35" s="69"/>
       <c r="I35" s="69"/>
     </row>
-    <row r="36" spans="1:9" ht="57.6">
+    <row r="36" spans="1:9" ht="58">
       <c r="A36" s="69" t="s">
         <v>280</v>
       </c>
@@ -10132,20 +10154,20 @@
       <selection pane="bottomRight" sqref="A1:I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="2" max="4" width="31.77734375" customWidth="1"/>
-    <col min="5" max="9" width="29.21875" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" customWidth="1"/>
+    <col min="2" max="4" width="31.81640625" customWidth="1"/>
+    <col min="5" max="9" width="29.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="9" customFormat="1">
-      <c r="A1" s="143">
+      <c r="A1" s="144">
         <v>2019</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -10194,7 +10216,7 @@
       <c r="H3" s="71"/>
       <c r="I3" s="71"/>
     </row>
-    <row r="4" spans="1:9" ht="187.2">
+    <row r="4" spans="1:9" ht="188.5">
       <c r="A4" s="69" t="s">
         <v>289</v>
       </c>
@@ -10223,7 +10245,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="6" customFormat="1" ht="28.8">
+    <row r="5" spans="1:9" s="6" customFormat="1" ht="29">
       <c r="A5" s="69" t="s">
         <v>297</v>
       </c>
@@ -10296,7 +10318,7 @@
       <c r="H7" s="69"/>
       <c r="I7" s="69"/>
     </row>
-    <row r="8" spans="1:9" s="6" customFormat="1" ht="172.8">
+    <row r="8" spans="1:9" s="6" customFormat="1" ht="174">
       <c r="A8" s="69" t="s">
         <v>307</v>
       </c>
@@ -10315,7 +10337,7 @@
       <c r="H8" s="69"/>
       <c r="I8" s="69"/>
     </row>
-    <row r="9" spans="1:9" s="6" customFormat="1" ht="216">
+    <row r="9" spans="1:9" s="6" customFormat="1" ht="217.5">
       <c r="A9" s="69" t="s">
         <v>310</v>
       </c>
@@ -10334,7 +10356,7 @@
       <c r="H9" s="69"/>
       <c r="I9" s="69"/>
     </row>
-    <row r="10" spans="1:9" s="6" customFormat="1" ht="57.6">
+    <row r="10" spans="1:9" s="6" customFormat="1" ht="58">
       <c r="A10" s="69" t="s">
         <v>313</v>
       </c>
@@ -10353,7 +10375,7 @@
       <c r="H10" s="69"/>
       <c r="I10" s="69"/>
     </row>
-    <row r="11" spans="1:9" s="6" customFormat="1" ht="230.4">
+    <row r="11" spans="1:9" s="6" customFormat="1" ht="232">
       <c r="A11" s="69" t="s">
         <v>317</v>
       </c>
@@ -10372,7 +10394,7 @@
       <c r="H11" s="69"/>
       <c r="I11" s="69"/>
     </row>
-    <row r="12" spans="1:9" s="6" customFormat="1" ht="230.4">
+    <row r="12" spans="1:9" s="6" customFormat="1" ht="232">
       <c r="A12" s="69" t="s">
         <v>318</v>
       </c>
@@ -10391,7 +10413,7 @@
       <c r="H12" s="69"/>
       <c r="I12" s="69"/>
     </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" ht="201.6">
+    <row r="13" spans="1:9" s="1" customFormat="1" ht="203">
       <c r="A13" s="64" t="s">
         <v>324</v>
       </c>
@@ -10410,7 +10432,7 @@
       <c r="H13" s="64"/>
       <c r="I13" s="64"/>
     </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" ht="57.6">
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="58">
       <c r="A14" s="64" t="s">
         <v>328</v>
       </c>
@@ -10429,7 +10451,7 @@
       <c r="H14" s="64"/>
       <c r="I14" s="64"/>
     </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" ht="201.6">
+    <row r="15" spans="1:9" s="1" customFormat="1" ht="203">
       <c r="A15" s="64" t="s">
         <v>331</v>
       </c>
@@ -10448,7 +10470,7 @@
       <c r="H15" s="64"/>
       <c r="I15" s="64"/>
     </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" ht="28.8">
+    <row r="16" spans="1:9" s="1" customFormat="1" ht="29">
       <c r="A16" s="64" t="s">
         <v>334</v>
       </c>
@@ -10467,7 +10489,7 @@
       <c r="H16" s="64"/>
       <c r="I16" s="64"/>
     </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" ht="28.8">
+    <row r="17" spans="1:9" s="1" customFormat="1" ht="29">
       <c r="A17" s="64" t="s">
         <v>337</v>
       </c>
@@ -10486,7 +10508,7 @@
       <c r="H17" s="64"/>
       <c r="I17" s="64"/>
     </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" ht="100.8">
+    <row r="18" spans="1:9" s="1" customFormat="1" ht="101.5">
       <c r="A18" s="64" t="s">
         <v>340</v>
       </c>
@@ -10505,7 +10527,7 @@
       <c r="H18" s="64"/>
       <c r="I18" s="64"/>
     </row>
-    <row r="19" spans="1:9" s="1" customFormat="1" ht="115.2">
+    <row r="19" spans="1:9" s="1" customFormat="1" ht="116">
       <c r="A19" s="64" t="s">
         <v>343</v>
       </c>
@@ -10534,7 +10556,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="1" customFormat="1" ht="28.8">
+    <row r="20" spans="1:9" s="1" customFormat="1" ht="29">
       <c r="A20" s="64" t="s">
         <v>344</v>
       </c>
@@ -10557,7 +10579,7 @@
       <c r="H20" s="64"/>
       <c r="I20" s="64"/>
     </row>
-    <row r="21" spans="1:9" s="1" customFormat="1" ht="43.2">
+    <row r="21" spans="1:9" s="1" customFormat="1" ht="43.5">
       <c r="A21" s="64" t="s">
         <v>352</v>
       </c>
@@ -10597,7 +10619,7 @@
       <c r="H22" s="64"/>
       <c r="I22" s="64"/>
     </row>
-    <row r="23" spans="1:9" s="1" customFormat="1" ht="172.8">
+    <row r="23" spans="1:9" s="1" customFormat="1" ht="174">
       <c r="A23" s="64" t="s">
         <v>354</v>
       </c>
@@ -10755,21 +10777,21 @@
       <selection pane="bottomRight" sqref="A1:I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="31.77734375" style="2" customWidth="1"/>
-    <col min="3" max="4" width="31.77734375" customWidth="1"/>
-    <col min="5" max="9" width="29.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.81640625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="31.81640625" customWidth="1"/>
+    <col min="5" max="9" width="29.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1">
-      <c r="A1" s="144">
+      <c r="A1" s="145">
         <v>2019</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -10805,7 +10827,7 @@
       <c r="H2" s="75"/>
       <c r="I2" s="75"/>
     </row>
-    <row r="3" spans="1:9" ht="28.8">
+    <row r="3" spans="1:9" ht="29">
       <c r="A3" s="12" t="s">
         <v>44</v>
       </c>
@@ -10839,7 +10861,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="71"/>
     </row>
-    <row r="5" spans="1:9" ht="28.8">
+    <row r="5" spans="1:9" ht="29">
       <c r="A5" s="12" t="s">
         <v>46</v>
       </c>
@@ -10858,7 +10880,7 @@
       <c r="H5" s="12"/>
       <c r="I5" s="71"/>
     </row>
-    <row r="6" spans="1:9" ht="230.4">
+    <row r="6" spans="1:9" ht="232">
       <c r="A6" s="12" t="s">
         <v>47</v>
       </c>
@@ -10877,7 +10899,7 @@
       <c r="H6" s="12"/>
       <c r="I6" s="71"/>
     </row>
-    <row r="7" spans="1:9" ht="100.8">
+    <row r="7" spans="1:9" ht="101.5">
       <c r="A7" s="12" t="s">
         <v>48</v>
       </c>
@@ -10904,7 +10926,7 @@
       </c>
       <c r="I7" s="71"/>
     </row>
-    <row r="8" spans="1:9" ht="100.8">
+    <row r="8" spans="1:9" ht="101.5">
       <c r="A8" s="12" t="s">
         <v>49</v>
       </c>
@@ -10940,7 +10962,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="71"/>
     </row>
-    <row r="10" spans="1:9" ht="43.2">
+    <row r="10" spans="1:9" ht="43.5">
       <c r="A10" s="12" t="s">
         <v>51</v>
       </c>
@@ -10993,7 +11015,7 @@
       <c r="H12" s="12"/>
       <c r="I12" s="71"/>
     </row>
-    <row r="13" spans="1:9" ht="55.2">
+    <row r="13" spans="1:9" ht="56">
       <c r="A13" s="12" t="s">
         <v>54</v>
       </c>
@@ -11010,7 +11032,7 @@
       <c r="H13" s="12"/>
       <c r="I13" s="71"/>
     </row>
-    <row r="14" spans="1:9" ht="115.2">
+    <row r="14" spans="1:9" ht="58">
       <c r="A14" s="12" t="s">
         <v>55</v>
       </c>
@@ -11039,7 +11061,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="172.8">
+    <row r="15" spans="1:9" ht="174">
       <c r="A15" s="12" t="s">
         <v>56</v>
       </c>
@@ -11064,7 +11086,7 @@
       <c r="H15" s="12"/>
       <c r="I15" s="71"/>
     </row>
-    <row r="16" spans="1:9" ht="72">
+    <row r="16" spans="1:9" ht="72.5">
       <c r="A16" s="12" t="s">
         <v>57</v>
       </c>
@@ -11083,7 +11105,7 @@
       <c r="H16" s="12"/>
       <c r="I16" s="71"/>
     </row>
-    <row r="17" spans="1:9" ht="345.6">
+    <row r="17" spans="1:9" ht="174">
       <c r="A17" s="12" t="s">
         <v>58</v>
       </c>
@@ -11104,7 +11126,7 @@
       <c r="H17" s="12"/>
       <c r="I17" s="71"/>
     </row>
-    <row r="18" spans="1:9" ht="72">
+    <row r="18" spans="1:9" ht="72.5">
       <c r="A18" s="12" t="s">
         <v>59</v>
       </c>
@@ -11123,7 +11145,7 @@
       <c r="H18" s="12"/>
       <c r="I18" s="71"/>
     </row>
-    <row r="19" spans="1:9" ht="115.2">
+    <row r="19" spans="1:9" ht="116">
       <c r="A19" s="12" t="s">
         <v>61</v>
       </c>
@@ -11142,7 +11164,7 @@
       <c r="H19" s="12"/>
       <c r="I19" s="71"/>
     </row>
-    <row r="20" spans="1:9" ht="86.4">
+    <row r="20" spans="1:9" ht="87">
       <c r="A20" s="12" t="s">
         <v>60</v>
       </c>
@@ -11161,7 +11183,7 @@
       <c r="H20" s="12"/>
       <c r="I20" s="71"/>
     </row>
-    <row r="21" spans="1:9" ht="86.4">
+    <row r="21" spans="1:9" ht="87">
       <c r="A21" s="12" t="s">
         <v>62</v>
       </c>
@@ -11180,7 +11202,7 @@
       <c r="H21" s="12"/>
       <c r="I21" s="71"/>
     </row>
-    <row r="22" spans="1:9" ht="172.8">
+    <row r="22" spans="1:9" ht="174">
       <c r="A22" s="12" t="s">
         <v>63</v>
       </c>
@@ -11199,7 +11221,7 @@
       <c r="H22" s="12"/>
       <c r="I22" s="71"/>
     </row>
-    <row r="23" spans="1:9" ht="174.45" customHeight="1">
+    <row r="23" spans="1:9" ht="174.5" customHeight="1">
       <c r="A23" s="12" t="s">
         <v>64</v>
       </c>
@@ -11245,7 +11267,7 @@
       <c r="H24" s="12"/>
       <c r="I24" s="71"/>
     </row>
-    <row r="25" spans="1:9" ht="43.2">
+    <row r="25" spans="1:9" ht="43.5">
       <c r="A25" s="12" t="s">
         <v>66</v>
       </c>
@@ -11315,7 +11337,7 @@
       <c r="H28" s="12"/>
       <c r="I28" s="71"/>
     </row>
-    <row r="29" spans="1:9" ht="28.8">
+    <row r="29" spans="1:9" ht="29">
       <c r="A29" s="12" t="s">
         <v>70</v>
       </c>
@@ -11361,7 +11383,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="304.95" customHeight="1">
+    <row r="31" spans="1:9" ht="305" customHeight="1">
       <c r="A31" s="12" t="s">
         <v>72</v>
       </c>
@@ -11410,21 +11432,21 @@
       <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.21875" style="6" customWidth="1"/>
-    <col min="2" max="3" width="17.44140625" style="6" customWidth="1"/>
-    <col min="4" max="9" width="29.109375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.77734375" style="6"/>
+    <col min="1" max="1" width="14.1796875" style="6" customWidth="1"/>
+    <col min="2" max="3" width="17.453125" style="6" customWidth="1"/>
+    <col min="4" max="9" width="29.08984375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.81640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="37" customFormat="1">
-      <c r="A1" s="143">
+      <c r="A1" s="144">
         <v>2019</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -11460,7 +11482,7 @@
       <c r="H2" s="68"/>
       <c r="I2" s="68"/>
     </row>
-    <row r="3" spans="1:9" ht="72">
+    <row r="3" spans="1:9" ht="72.5">
       <c r="A3" s="69" t="s">
         <v>448</v>
       </c>
@@ -11489,7 +11511,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="201.6">
+    <row r="4" spans="1:9" ht="203">
       <c r="A4" s="69" t="s">
         <v>453</v>
       </c>
@@ -11518,7 +11540,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="129.6">
+    <row r="5" spans="1:9" ht="130.5">
       <c r="A5" s="69" t="s">
         <v>457</v>
       </c>
@@ -11547,7 +11569,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="187.2">
+    <row r="6" spans="1:9" ht="188.5">
       <c r="A6" s="69" t="s">
         <v>460</v>
       </c>
@@ -11576,7 +11598,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="100.8">
+    <row r="7" spans="1:9" ht="101.5">
       <c r="A7" s="69" t="s">
         <v>464</v>
       </c>
@@ -11634,7 +11656,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" ht="43.8" customHeight="1">
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="43.75" customHeight="1">
       <c r="A9" s="64" t="s">
         <v>472</v>
       </c>
@@ -11663,7 +11685,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" ht="28.8">
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="29">
       <c r="A10" s="64" t="s">
         <v>475</v>
       </c>
@@ -11719,7 +11741,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" ht="72">
+    <row r="12" spans="1:9" s="1" customFormat="1" ht="72.5">
       <c r="A12" s="64" t="s">
         <v>482</v>
       </c>
@@ -11748,7 +11770,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="57.6">
+    <row r="13" spans="1:9" ht="58">
       <c r="A13" s="69" t="s">
         <v>486</v>
       </c>
@@ -11777,7 +11799,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="115.2">
+    <row r="14" spans="1:9" ht="116">
       <c r="A14" s="69" t="s">
         <v>489</v>
       </c>
@@ -11806,7 +11828,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="100.8">
+    <row r="15" spans="1:9" ht="101.5">
       <c r="A15" s="69" t="s">
         <v>493</v>
       </c>
@@ -11862,7 +11884,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="28.8">
+    <row r="17" spans="1:9" ht="29">
       <c r="A17" s="69" t="s">
         <v>499</v>
       </c>
@@ -11891,7 +11913,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="72">
+    <row r="18" spans="1:9" ht="72.5">
       <c r="A18" s="69" t="s">
         <v>501</v>
       </c>
@@ -11920,7 +11942,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="28.8">
+    <row r="19" spans="1:9" ht="29">
       <c r="A19" s="69" t="s">
         <v>503</v>
       </c>
@@ -11976,7 +11998,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="28.8">
+    <row r="21" spans="1:9" ht="29">
       <c r="A21" s="69" t="s">
         <v>509</v>
       </c>
@@ -12005,7 +12027,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="72">
+    <row r="22" spans="1:9" ht="72.5">
       <c r="A22" s="69" t="s">
         <v>511</v>
       </c>
@@ -12034,7 +12056,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="28.8">
+    <row r="23" spans="1:9" ht="29">
       <c r="A23" s="69" t="s">
         <v>513</v>
       </c>
@@ -12090,7 +12112,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="28.8">
+    <row r="25" spans="1:9" ht="29">
       <c r="A25" s="69" t="s">
         <v>518</v>
       </c>
@@ -12119,7 +12141,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="72">
+    <row r="26" spans="1:9" ht="72.5">
       <c r="A26" s="69" t="s">
         <v>520</v>
       </c>
@@ -12148,7 +12170,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="72">
+    <row r="27" spans="1:9" ht="72.5">
       <c r="A27" s="69" t="s">
         <v>522</v>
       </c>
@@ -12177,7 +12199,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="144">
+    <row r="28" spans="1:9" ht="145">
       <c r="A28" s="69" t="s">
         <v>529</v>
       </c>
@@ -12206,7 +12228,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="28.8">
+    <row r="29" spans="1:9" ht="29">
       <c r="A29" s="69" t="s">
         <v>537</v>
       </c>
@@ -12235,7 +12257,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="57.6">
+    <row r="30" spans="1:9" ht="58">
       <c r="A30" s="69" t="s">
         <v>540</v>
       </c>
@@ -12291,7 +12313,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="28.8">
+    <row r="32" spans="1:9" ht="29">
       <c r="A32" s="69" t="s">
         <v>547</v>
       </c>
@@ -12320,7 +12342,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="72">
+    <row r="33" spans="1:9" ht="72.5">
       <c r="A33" s="69" t="s">
         <v>549</v>
       </c>
@@ -12383,28 +12405,28 @@
       <selection pane="bottomRight" activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="42.109375" style="36" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="11.08984375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="42.08984375" style="36" customWidth="1"/>
+    <col min="4" max="4" width="32.54296875" style="17" customWidth="1"/>
     <col min="5" max="5" width="24" style="6" customWidth="1"/>
     <col min="6" max="6" width="16" style="6" customWidth="1"/>
     <col min="7" max="7" width="24" style="49" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="49" customWidth="1"/>
+    <col min="8" max="8" width="15.36328125" style="49" customWidth="1"/>
     <col min="9" max="9" width="24" style="6" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" style="6" customWidth="1"/>
-    <col min="14" max="16384" width="8.77734375" style="6"/>
+    <col min="10" max="10" width="17.36328125" style="6" customWidth="1"/>
+    <col min="14" max="16384" width="8.81640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="37" customFormat="1">
-      <c r="A1" s="145">
+      <c r="A1" s="146">
         <v>2019</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
       <c r="E1" s="59">
         <v>2018</v>
       </c>
@@ -12434,16 +12456,16 @@
       <c r="D2" s="79" t="s">
         <v>390</v>
       </c>
-      <c r="E2" s="146" t="s">
+      <c r="E2" s="147" t="s">
         <v>551</v>
       </c>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="149"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="106.2" customHeight="1">
+    <row r="3" spans="1:10" ht="106.25" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>552</v>
       </c>
@@ -12473,7 +12495,7 @@
       </c>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" ht="153">
+    <row r="4" spans="1:10" ht="157.5">
       <c r="A4" s="14" t="s">
         <v>557</v>
       </c>
@@ -12503,7 +12525,7 @@
       </c>
       <c r="J4" s="18"/>
     </row>
-    <row r="5" spans="1:10" ht="153">
+    <row r="5" spans="1:10" ht="157.5">
       <c r="A5" s="14" t="s">
         <v>562</v>
       </c>
@@ -12533,7 +12555,7 @@
       </c>
       <c r="J5" s="18"/>
     </row>
-    <row r="6" spans="1:10" ht="255">
+    <row r="6" spans="1:10" ht="252">
       <c r="A6" s="14" t="s">
         <v>565</v>
       </c>
@@ -12593,7 +12615,7 @@
       </c>
       <c r="J7" s="18"/>
     </row>
-    <row r="8" spans="1:10" ht="31.2" customHeight="1">
+    <row r="8" spans="1:10" ht="31.25" customHeight="1">
       <c r="A8" s="14" t="s">
         <v>574</v>
       </c>
@@ -12623,7 +12645,7 @@
       </c>
       <c r="J8" s="18"/>
     </row>
-    <row r="9" spans="1:10" ht="31.2" customHeight="1">
+    <row r="9" spans="1:10" ht="31.25" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>578</v>
       </c>
@@ -12652,7 +12674,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="102">
+    <row r="10" spans="1:10" ht="105">
       <c r="A10" s="14" t="s">
         <v>581</v>
       </c>
@@ -12681,7 +12703,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="91.8">
+    <row r="11" spans="1:10" ht="94.5">
       <c r="A11" s="14" t="s">
         <v>587</v>
       </c>
@@ -12710,7 +12732,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="27.6">
+    <row r="12" spans="1:10" ht="21">
       <c r="A12" s="14" t="s">
         <v>591</v>
       </c>
@@ -12739,7 +12761,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="91.8">
+    <row r="13" spans="1:10" ht="94.5">
       <c r="A13" s="14" t="s">
         <v>594</v>
       </c>
@@ -12768,7 +12790,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="153">
+    <row r="14" spans="1:10" ht="147">
       <c r="A14" s="14" t="s">
         <v>599</v>
       </c>
@@ -12797,7 +12819,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="142.80000000000001">
+    <row r="15" spans="1:10" ht="147">
       <c r="A15" s="19" t="s">
         <v>604</v>
       </c>
@@ -12826,7 +12848,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="224.4">
+    <row r="16" spans="1:10" ht="220.5">
       <c r="A16" s="19" t="s">
         <v>610</v>
       </c>
@@ -12855,7 +12877,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="112.2">
+    <row r="17" spans="1:10" ht="115.5">
       <c r="A17" s="19" t="s">
         <v>616</v>
       </c>
@@ -12884,7 +12906,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="41.4">
+    <row r="18" spans="1:10" ht="39">
       <c r="A18" s="19" t="s">
         <v>622</v>
       </c>
@@ -12911,7 +12933,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="69">
+    <row r="19" spans="1:10" ht="52">
       <c r="A19" s="19" t="s">
         <v>625</v>
       </c>
@@ -12940,7 +12962,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="55.2">
+    <row r="20" spans="1:10" ht="52">
       <c r="A20" s="19" t="s">
         <v>628</v>
       </c>
@@ -12967,7 +12989,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="336.6">
+    <row r="21" spans="1:10" ht="346.5">
       <c r="A21" s="142" t="s">
         <v>1140</v>
       </c>
@@ -12996,7 +13018,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="40.799999999999997">
+    <row r="22" spans="1:10" ht="42">
       <c r="A22" s="25" t="s">
         <v>637</v>
       </c>
@@ -13023,7 +13045,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="40.799999999999997">
+    <row r="23" spans="1:10" ht="42">
       <c r="A23" s="25" t="s">
         <v>641</v>
       </c>
@@ -13052,7 +13074,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="244.8">
+    <row r="24" spans="1:10" ht="252">
       <c r="A24" s="22" t="s">
         <v>645</v>
       </c>
@@ -13111,7 +13133,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="20.399999999999999">
+    <row r="26" spans="1:10" ht="21">
       <c r="A26" s="25" t="s">
         <v>652</v>
       </c>
@@ -13140,7 +13162,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="244.8">
+    <row r="27" spans="1:10" ht="252">
       <c r="A27" s="22" t="s">
         <v>654</v>
       </c>
@@ -13194,7 +13216,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="20.399999999999999">
+    <row r="29" spans="1:10" ht="21">
       <c r="A29" s="25" t="s">
         <v>661</v>
       </c>
@@ -13221,7 +13243,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="100.8">
+    <row r="30" spans="1:10" ht="101.5">
       <c r="A30" s="22" t="s">
         <v>663</v>
       </c>
@@ -13280,7 +13302,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="20.399999999999999">
+    <row r="32" spans="1:10" ht="21">
       <c r="A32" s="25" t="s">
         <v>670</v>
       </c>
@@ -13309,7 +13331,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="41.4">
+    <row r="33" spans="1:9" ht="39">
       <c r="A33" s="22" t="s">
         <v>672</v>
       </c>
@@ -13365,7 +13387,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="20.399999999999999">
+    <row r="35" spans="1:9" ht="21">
       <c r="A35" s="25" t="s">
         <v>677</v>
       </c>
@@ -13394,7 +13416,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="41.4">
+    <row r="36" spans="1:9" ht="39">
       <c r="A36" s="22" t="s">
         <v>679</v>
       </c>
@@ -13423,7 +13445,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="27.6">
+    <row r="37" spans="1:9" ht="26">
       <c r="A37" s="25" t="s">
         <v>682</v>
       </c>
@@ -13450,7 +13472,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="20.399999999999999">
+    <row r="38" spans="1:9" ht="21">
       <c r="A38" s="25" t="s">
         <v>685</v>
       </c>
@@ -13479,7 +13501,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="55.2">
+    <row r="39" spans="1:9" ht="52">
       <c r="A39" s="22" t="s">
         <v>688</v>
       </c>
@@ -13533,7 +13555,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="20.399999999999999">
+    <row r="41" spans="1:9" ht="21">
       <c r="A41" s="25" t="s">
         <v>693</v>
       </c>
@@ -13562,7 +13584,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="41.4">
+    <row r="42" spans="1:9" ht="39">
       <c r="A42" s="22" t="s">
         <v>695</v>
       </c>
@@ -13616,7 +13638,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="20.399999999999999">
+    <row r="44" spans="1:9" ht="21">
       <c r="A44" s="25" t="s">
         <v>698</v>
       </c>
@@ -13645,7 +13667,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="55.2">
+    <row r="45" spans="1:9" ht="52">
       <c r="A45" s="22" t="s">
         <v>699</v>
       </c>
@@ -13672,7 +13694,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="20.399999999999999">
+    <row r="46" spans="1:9" ht="21">
       <c r="A46" s="25" t="s">
         <v>701</v>
       </c>
@@ -13701,7 +13723,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="61.2">
+    <row r="47" spans="1:9" ht="63">
       <c r="A47" s="28" t="s">
         <v>702</v>
       </c>
@@ -13730,7 +13752,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="27.6">
+    <row r="48" spans="1:9" ht="26">
       <c r="A48" s="28" t="s">
         <v>708</v>
       </c>
@@ -13759,7 +13781,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="27.6">
+    <row r="49" spans="1:9" ht="26">
       <c r="A49" s="28" t="s">
         <v>713</v>
       </c>
@@ -13788,7 +13810,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="112.2">
+    <row r="50" spans="1:9" ht="115.5">
       <c r="A50" s="28" t="s">
         <v>718</v>
       </c>
@@ -13817,7 +13839,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="20.399999999999999">
+    <row r="51" spans="1:9" ht="21">
       <c r="A51" s="28" t="s">
         <v>724</v>
       </c>
@@ -13846,7 +13868,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="81.599999999999994">
+    <row r="52" spans="1:9" ht="84">
       <c r="A52" s="28" t="s">
         <v>729</v>
       </c>
@@ -13875,7 +13897,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="112.2">
+    <row r="53" spans="1:9" ht="115.5">
       <c r="A53" s="31" t="s">
         <v>734</v>
       </c>
@@ -13904,7 +13926,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="112.2">
+    <row r="54" spans="1:9" ht="115.5">
       <c r="A54" s="31" t="s">
         <v>739</v>
       </c>
@@ -13933,7 +13955,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="27.6">
+    <row r="55" spans="1:9" ht="26">
       <c r="A55" s="31" t="s">
         <v>744</v>
       </c>
@@ -13960,7 +13982,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="20.399999999999999">
+    <row r="56" spans="1:9" ht="21">
       <c r="A56" s="34" t="s">
         <v>747</v>
       </c>
@@ -14003,42 +14025,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8210A5A2-BF82-48DF-82F0-74E3A1B9E934}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="13.77734375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" style="123" customWidth="1"/>
+    <col min="1" max="2" width="13.81640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="22.90625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="22.90625" style="123" customWidth="1"/>
     <col min="5" max="5" width="48" style="121" customWidth="1"/>
     <col min="6" max="6" width="35" style="138" customWidth="1"/>
-    <col min="7" max="12" width="13.77734375" style="10" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="10"/>
+    <col min="7" max="12" width="13.81640625" style="10" customWidth="1"/>
+    <col min="13" max="16384" width="8.90625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="160">
+      <c r="A1" s="153">
         <v>2019</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-    </row>
-    <row r="2" spans="1:6" ht="72.599999999999994" customHeight="1">
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+    </row>
+    <row r="2" spans="1:6" ht="72.650000000000006" customHeight="1">
       <c r="A2" s="95" t="s">
         <v>129</v>
       </c>
       <c r="B2" s="95" t="s">
         <v>1029</v>
       </c>
-      <c r="C2" s="167" t="s">
+      <c r="C2" s="143" t="s">
         <v>1150</v>
       </c>
-      <c r="D2" s="167" t="s">
+      <c r="D2" s="143" t="s">
         <v>1149</v>
       </c>
       <c r="E2" s="111" t="s">
@@ -14058,7 +14080,7 @@
       <c r="C3" s="99" t="s">
         <v>1108</v>
       </c>
-      <c r="D3" s="149" t="s">
+      <c r="D3" s="155" t="s">
         <v>1025</v>
       </c>
       <c r="E3" s="112" t="s">
@@ -14068,7 +14090,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="43.2">
+    <row r="4" spans="1:6" ht="43.5">
       <c r="A4" s="99" t="s">
         <v>1028</v>
       </c>
@@ -14078,13 +14100,13 @@
       <c r="C4" s="98" t="s">
         <v>1110</v>
       </c>
-      <c r="D4" s="150"/>
+      <c r="D4" s="156"/>
       <c r="E4" s="112" t="s">
         <v>1106</v>
       </c>
       <c r="F4" s="127"/>
     </row>
-    <row r="5" spans="1:6" ht="43.2">
+    <row r="5" spans="1:6" ht="43.5">
       <c r="A5" s="99" t="s">
         <v>675</v>
       </c>
@@ -14094,13 +14116,13 @@
       <c r="C5" s="99" t="s">
         <v>1111</v>
       </c>
-      <c r="D5" s="150"/>
+      <c r="D5" s="156"/>
       <c r="E5" s="112" t="s">
         <v>1105</v>
       </c>
       <c r="F5" s="128"/>
     </row>
-    <row r="6" spans="1:6" ht="57.6">
+    <row r="6" spans="1:6" ht="58">
       <c r="A6" s="98" t="s">
         <v>1026</v>
       </c>
@@ -14110,13 +14132,13 @@
       <c r="C6" s="99" t="s">
         <v>1112</v>
       </c>
-      <c r="D6" s="150"/>
+      <c r="D6" s="156"/>
       <c r="E6" s="112" t="s">
         <v>1107</v>
       </c>
       <c r="F6" s="128"/>
     </row>
-    <row r="7" spans="1:6" ht="28.8">
+    <row r="7" spans="1:6" ht="29">
       <c r="A7" s="100" t="s">
         <v>1092</v>
       </c>
@@ -14126,13 +14148,13 @@
       <c r="C7" s="98" t="s">
         <v>1113</v>
       </c>
-      <c r="D7" s="150"/>
+      <c r="D7" s="156"/>
       <c r="E7" s="112" t="s">
         <v>1096</v>
       </c>
       <c r="F7" s="128"/>
     </row>
-    <row r="8" spans="1:6" ht="43.2">
+    <row r="8" spans="1:6" ht="43.5">
       <c r="A8" s="100" t="s">
         <v>1093</v>
       </c>
@@ -14142,13 +14164,13 @@
       <c r="C8" s="98" t="s">
         <v>1114</v>
       </c>
-      <c r="D8" s="151"/>
+      <c r="D8" s="157"/>
       <c r="E8" s="112" t="s">
         <v>1097</v>
       </c>
       <c r="F8" s="128"/>
     </row>
-    <row r="9" spans="1:6" ht="93">
+    <row r="9" spans="1:6" ht="95.5">
       <c r="A9" s="97" t="s">
         <v>659</v>
       </c>
@@ -14158,7 +14180,7 @@
       <c r="C9" s="97" t="s">
         <v>1115</v>
       </c>
-      <c r="D9" s="161" t="s">
+      <c r="D9" s="154" t="s">
         <v>1031</v>
       </c>
       <c r="E9" s="113" t="s">
@@ -14168,7 +14190,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="57.6">
+    <row r="10" spans="1:6" ht="58">
       <c r="A10" s="97" t="s">
         <v>682</v>
       </c>
@@ -14178,13 +14200,13 @@
       <c r="C10" s="97" t="s">
         <v>1116</v>
       </c>
-      <c r="D10" s="161"/>
+      <c r="D10" s="154"/>
       <c r="E10" s="113" t="s">
         <v>1032</v>
       </c>
       <c r="F10" s="129"/>
     </row>
-    <row r="11" spans="1:6" ht="28.8">
+    <row r="11" spans="1:6" ht="29">
       <c r="A11" s="101" t="s">
         <v>1035</v>
       </c>
@@ -14194,7 +14216,7 @@
       <c r="C11" s="101" t="s">
         <v>1117</v>
       </c>
-      <c r="D11" s="152" t="s">
+      <c r="D11" s="158" t="s">
         <v>1070</v>
       </c>
       <c r="E11" s="114" t="s">
@@ -14202,7 +14224,7 @@
       </c>
       <c r="F11" s="130"/>
     </row>
-    <row r="12" spans="1:6" ht="28.8">
+    <row r="12" spans="1:6" ht="29">
       <c r="A12" s="101" t="s">
         <v>1036</v>
       </c>
@@ -14212,13 +14234,13 @@
       <c r="C12" s="101" t="s">
         <v>1118</v>
       </c>
-      <c r="D12" s="152"/>
+      <c r="D12" s="158"/>
       <c r="E12" s="114" t="s">
         <v>1060</v>
       </c>
       <c r="F12" s="130"/>
     </row>
-    <row r="13" spans="1:6" ht="28.8">
+    <row r="13" spans="1:6">
       <c r="A13" s="101" t="s">
         <v>1037</v>
       </c>
@@ -14228,13 +14250,13 @@
       <c r="C13" s="101" t="s">
         <v>1119</v>
       </c>
-      <c r="D13" s="152"/>
+      <c r="D13" s="158"/>
       <c r="E13" s="114" t="s">
         <v>1058</v>
       </c>
       <c r="F13" s="130"/>
     </row>
-    <row r="14" spans="1:6" ht="28.8">
+    <row r="14" spans="1:6" ht="29">
       <c r="A14" s="101" t="s">
         <v>1038</v>
       </c>
@@ -14244,13 +14266,13 @@
       <c r="C14" s="101" t="s">
         <v>1120</v>
       </c>
-      <c r="D14" s="152"/>
+      <c r="D14" s="158"/>
       <c r="E14" s="114" t="s">
         <v>1059</v>
       </c>
       <c r="F14" s="130"/>
     </row>
-    <row r="15" spans="1:6" ht="28.8">
+    <row r="15" spans="1:6" ht="29">
       <c r="A15" s="101" t="s">
         <v>1027</v>
       </c>
@@ -14260,13 +14282,13 @@
       <c r="C15" s="101" t="s">
         <v>1109</v>
       </c>
-      <c r="D15" s="152"/>
+      <c r="D15" s="158"/>
       <c r="E15" s="114" t="s">
         <v>1061</v>
       </c>
       <c r="F15" s="130"/>
     </row>
-    <row r="16" spans="1:6" ht="43.2">
+    <row r="16" spans="1:6" ht="43.5">
       <c r="A16" s="101" t="s">
         <v>1044</v>
       </c>
@@ -14276,13 +14298,13 @@
       <c r="C16" s="101" t="s">
         <v>1121</v>
       </c>
-      <c r="D16" s="152"/>
+      <c r="D16" s="158"/>
       <c r="E16" s="114" t="s">
         <v>1062</v>
       </c>
       <c r="F16" s="130"/>
     </row>
-    <row r="17" spans="1:6" s="96" customFormat="1" ht="28.8">
+    <row r="17" spans="1:6" s="96" customFormat="1" ht="29">
       <c r="A17" s="108" t="s">
         <v>1045</v>
       </c>
@@ -14292,7 +14314,7 @@
       <c r="C17" s="108" t="s">
         <v>1122</v>
       </c>
-      <c r="D17" s="153" t="s">
+      <c r="D17" s="159" t="s">
         <v>1069</v>
       </c>
       <c r="E17" s="115" t="s">
@@ -14300,7 +14322,7 @@
       </c>
       <c r="F17" s="131"/>
     </row>
-    <row r="18" spans="1:6" s="96" customFormat="1" ht="43.2">
+    <row r="18" spans="1:6" s="96" customFormat="1" ht="43.5">
       <c r="A18" s="108" t="s">
         <v>1046</v>
       </c>
@@ -14310,13 +14332,13 @@
       <c r="C18" s="108" t="s">
         <v>1123</v>
       </c>
-      <c r="D18" s="153"/>
+      <c r="D18" s="159"/>
       <c r="E18" s="115" t="s">
         <v>1099</v>
       </c>
       <c r="F18" s="131"/>
     </row>
-    <row r="19" spans="1:6" s="96" customFormat="1" ht="57.6">
+    <row r="19" spans="1:6" s="96" customFormat="1" ht="43.5">
       <c r="A19" s="140" t="s">
         <v>1050</v>
       </c>
@@ -14334,7 +14356,7 @@
       </c>
       <c r="F19" s="132"/>
     </row>
-    <row r="20" spans="1:6" s="96" customFormat="1" ht="28.8">
+    <row r="20" spans="1:6" s="96" customFormat="1" ht="29">
       <c r="A20" s="109" t="s">
         <v>1052</v>
       </c>
@@ -14344,7 +14366,7 @@
       <c r="C20" s="109" t="s">
         <v>1125</v>
       </c>
-      <c r="D20" s="154" t="s">
+      <c r="D20" s="160" t="s">
         <v>1067</v>
       </c>
       <c r="E20" s="116" t="s">
@@ -14352,7 +14374,7 @@
       </c>
       <c r="F20" s="133"/>
     </row>
-    <row r="21" spans="1:6" s="96" customFormat="1" ht="28.8">
+    <row r="21" spans="1:6" s="96" customFormat="1" ht="29">
       <c r="A21" s="109" t="s">
         <v>1054</v>
       </c>
@@ -14362,13 +14384,13 @@
       <c r="C21" s="109" t="s">
         <v>1126</v>
       </c>
-      <c r="D21" s="155"/>
+      <c r="D21" s="161"/>
       <c r="E21" s="116" t="s">
         <v>1064</v>
       </c>
       <c r="F21" s="133"/>
     </row>
-    <row r="22" spans="1:6" s="96" customFormat="1" ht="28.8">
+    <row r="22" spans="1:6" s="96" customFormat="1" ht="29">
       <c r="A22" s="109" t="s">
         <v>1055</v>
       </c>
@@ -14378,13 +14400,13 @@
       <c r="C22" s="109" t="s">
         <v>1127</v>
       </c>
-      <c r="D22" s="155"/>
+      <c r="D22" s="161"/>
       <c r="E22" s="116" t="s">
         <v>1065</v>
       </c>
       <c r="F22" s="133"/>
     </row>
-    <row r="23" spans="1:6" s="96" customFormat="1" ht="28.8">
+    <row r="23" spans="1:6" s="96" customFormat="1" ht="29">
       <c r="A23" s="109" t="s">
         <v>1056</v>
       </c>
@@ -14394,13 +14416,13 @@
       <c r="C23" s="109" t="s">
         <v>1128</v>
       </c>
-      <c r="D23" s="156"/>
+      <c r="D23" s="162"/>
       <c r="E23" s="116" t="s">
         <v>1066</v>
       </c>
       <c r="F23" s="133"/>
     </row>
-    <row r="24" spans="1:6" s="96" customFormat="1" ht="115.2">
+    <row r="24" spans="1:6" s="96" customFormat="1" ht="87">
       <c r="A24" s="105" t="s">
         <v>1076</v>
       </c>
@@ -14418,7 +14440,7 @@
       </c>
       <c r="F24" s="134"/>
     </row>
-    <row r="25" spans="1:6" s="96" customFormat="1" ht="28.8">
+    <row r="25" spans="1:6" s="96" customFormat="1" ht="29">
       <c r="A25" s="110" t="s">
         <v>1077</v>
       </c>
@@ -14428,7 +14450,7 @@
       <c r="C25" s="110" t="s">
         <v>1130</v>
       </c>
-      <c r="D25" s="157" t="s">
+      <c r="D25" s="150" t="s">
         <v>1084</v>
       </c>
       <c r="E25" s="118" t="s">
@@ -14436,7 +14458,7 @@
       </c>
       <c r="F25" s="135"/>
     </row>
-    <row r="26" spans="1:6" s="96" customFormat="1" ht="28.8">
+    <row r="26" spans="1:6" s="96" customFormat="1" ht="29">
       <c r="A26" s="110" t="s">
         <v>1053</v>
       </c>
@@ -14446,13 +14468,13 @@
       <c r="C26" s="110" t="s">
         <v>1131</v>
       </c>
-      <c r="D26" s="157"/>
+      <c r="D26" s="150"/>
       <c r="E26" s="118" t="s">
         <v>1083</v>
       </c>
       <c r="F26" s="135"/>
     </row>
-    <row r="27" spans="1:6" s="96" customFormat="1" ht="86.4">
+    <row r="27" spans="1:6" s="96" customFormat="1" ht="72.5">
       <c r="A27" s="107" t="s">
         <v>1080</v>
       </c>
@@ -14470,7 +14492,7 @@
       </c>
       <c r="F27" s="136"/>
     </row>
-    <row r="28" spans="1:6" s="96" customFormat="1" ht="43.2">
+    <row r="28" spans="1:6" s="96" customFormat="1" ht="43.5">
       <c r="A28" s="124" t="s">
         <v>1087</v>
       </c>
@@ -14480,7 +14502,7 @@
       <c r="C28" s="124" t="s">
         <v>1133</v>
       </c>
-      <c r="D28" s="158" t="s">
+      <c r="D28" s="151" t="s">
         <v>1091</v>
       </c>
       <c r="E28" s="124" t="s">
@@ -14488,7 +14510,7 @@
       </c>
       <c r="F28" s="137"/>
     </row>
-    <row r="29" spans="1:6" s="96" customFormat="1" ht="57.6">
+    <row r="29" spans="1:6" s="96" customFormat="1" ht="58">
       <c r="A29" s="124" t="s">
         <v>1089</v>
       </c>
@@ -14498,7 +14520,7 @@
       <c r="C29" s="124" t="s">
         <v>1129</v>
       </c>
-      <c r="D29" s="159"/>
+      <c r="D29" s="152"/>
       <c r="E29" s="124" t="s">
         <v>1103</v>
       </c>
@@ -14543,13 +14565,13 @@
   </sheetPr>
   <dimension ref="D1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="4" max="6" width="19.44140625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="19.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:6">
@@ -14563,7 +14585,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="2" spans="4:6" ht="409.6">
+    <row r="2" spans="4:6" ht="409.5">
       <c r="D2" s="96" t="s">
         <v>908</v>
       </c>
@@ -14574,14 +14596,14 @@
         <v>910</v>
       </c>
     </row>
-    <row r="3" spans="4:6" ht="259.2">
+    <row r="3" spans="4:6" ht="261">
       <c r="D3" s="96" t="s">
         <v>911</v>
       </c>
       <c r="E3" s="96"/>
       <c r="F3" s="96"/>
     </row>
-    <row r="4" spans="4:6" ht="72">
+    <row r="4" spans="4:6" ht="72.5">
       <c r="D4" s="125" t="s">
         <v>912</v>
       </c>
@@ -14654,21 +14676,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D97C45C73161C540AAAEC0BB7C04B14C" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="eaac3f66d04ba47d8e7bacccdec8bc8e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="69ca14ff-5d6d-4eb8-91d9-74d4bb4de445" xmlns:ns4="72d74521-8c27-4702-99f8-167624e069b6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e42dd572579043e93d80e2ef1a203961" ns3:_="" ns4:_="">
     <xsd:import namespace="69ca14ff-5d6d-4eb8-91d9-74d4bb4de445"/>
@@ -14891,10 +14898,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D82FA49E-E684-481F-999C-85E775CBBA65}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BD029C1-9A00-4A77-A4BC-41F5C7C058C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="69ca14ff-5d6d-4eb8-91d9-74d4bb4de445"/>
+    <ds:schemaRef ds:uri="72d74521-8c27-4702-99f8-167624e069b6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14917,20 +14950,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BD029C1-9A00-4A77-A4BC-41F5C7C058C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D82FA49E-E684-481F-999C-85E775CBBA65}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="69ca14ff-5d6d-4eb8-91d9-74d4bb4de445"/>
-    <ds:schemaRef ds:uri="72d74521-8c27-4702-99f8-167624e069b6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data_management/management/2. harmonization/ENCOVI harmonization/Encovi_comparability across years 2014-2019_ALL.xlsx
+++ b/data_management/management/2. harmonization/ENCOVI harmonization/Encovi_comparability across years 2014-2019_ALL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb563583\GitHub\VEN\data_management\management\2. harmonization\ENCOVI harmonization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb550905\Github\VEN\data_management\management\2. harmonization\ENCOVI harmonization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A386574-9EBD-456B-92E8-5C28E2EB2767}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105DC12C-C4BF-4473-9E39-A60575A3BCAD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="805" firstSheet="3" activeTab="11" xr2:uid="{C17073D6-622F-4055-BD8D-7FC11D1960F9}"/>
+    <workbookView xWindow="-5064" yWindow="2484" windowWidth="17280" windowHeight="8964" tabRatio="805" firstSheet="2" activeTab="3" xr2:uid="{C17073D6-622F-4055-BD8D-7FC11D1960F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Control_entrevista" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="1153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="1157">
   <si>
     <t>Questions</t>
   </si>
@@ -1463,24 +1463,6 @@
     <t>En cual municipio residia en septiembre de 2018?</t>
   </si>
   <si>
-    <t>Libertador
-Autonomo Alto Orinoco
-Autonomo Atabapo
-Autonomo Atures
-Autonomo Autana
-Autonomo Maroa
-Autonomo Manapiare
-Autonomo Rio Negro
-Anaco
-Aragua
-Fernando de Penalver
-Francisco del Carmen Carvajal
-Francisco de Miranda
-Guanta
-Independencia
-Juan Antonio Sotillo</t>
-  </si>
-  <si>
     <t>s6q7c</t>
   </si>
   <si>
@@ -1633,24 +1615,6 @@
 13.Siria
 14.Líbano
 15.Otro</t>
-  </si>
-  <si>
-    <t>1.Distrito Capital
-2.Amazonas
-3.Anzoategui
-4.Apure
-5.Aragua
-6.Barinas
-7.Bolivar
-8.Carabobo
-9.Cojedes
-10.Delta Amacuro
-11.Falcón
-12.Guárico
-13.Lara
-14.Mérida
-15.Miranda
-16.Monagas</t>
   </si>
   <si>
     <t>1.Nuevo nacimiento
@@ -4880,6 +4844,24 @@
   </si>
   <si>
     <t>No disponible pero lo pregunta</t>
+  </si>
+  <si>
+    <t>Cuántas personas residen actualmente en esta vivienda?</t>
+  </si>
+  <si>
+    <t>Todas las personas que viven en esta vivienda comparten gastos para la compra de comida?</t>
+  </si>
+  <si>
+    <t>Cuántos grupos de personas mantienen gastos separados para la compra de comida?</t>
+  </si>
+  <si>
+    <t>Cuántas personas, contándose a usted, comparten gastos para la compra de comida? Este grupo de personas conforma su HOGAR.</t>
+  </si>
+  <si>
+    <t>1 "Distrito Capital" 2 "Amazonas" 3 "Anzoategui" 4 "Apure" 5 "Aragua" 6 "Barinas" 7 "Bolivar" 8 "Carabobo" 9 "Cojedes" 10 "Delta Amacuro" 11 "Falcón" 12 "Guárico" 13 "Lara" 14 "Mérida" 15 "Miranda" 16 "Monagas"</t>
+  </si>
+  <si>
+    <t>Libertador, Anaco, Juan Antonio Sotillo, Libertad, Piritu, San Jose de Guanipa, Simon Bolivar, Simon Rodriguez, Paez, Romulo Gallegos, San Fernando, Bolivar, Camatagua, Girardot, Jose Rafael Revenga, Mario Briceno Iragorry, San Sebastian, Santiago Marino, Francisco Linares Alcantara, Alberto Arvelo Torrealba, Barinas, Cruz Paredes, Sosa, Gran Sabana, Heres, Piar, Guacara, Libertador, Los Guayos, San Diego, San Joaquin, Valencia, Falcon, Colina, Falcon, Leonardo Infante, Las Mercedes, Jose Tadeo Monagas, Jose Felix Ribas, Crespo, Iribarren, Palavecino, Urdaneta, Alberto Adriani, Antonio Pinto Salinas, Arzobispo Chacon, Libertador, Zea, Cristobal Rojas, Guaicaipuro, Ezequiel Zamora, Libertador, Maturin, Maneiro, Marino, Guanare, Guanarito, Turen, Andres Mata, Bermudez, Bolivar, Libertador, Sucre, Valdez, Fernandez Feo, Libertador, San Felipe, Urachiche, Francisco Javier Pulgar, Maracaibo, Rosario de Perija, San Francisco, Santa Rita, Sucre, Vargas</t>
   </si>
 </sst>
 </file>
@@ -5619,81 +5601,81 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6026,18 +6008,18 @@
       <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="4" width="27.1796875" customWidth="1"/>
+    <col min="1" max="4" width="27.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="8" customFormat="1">
-      <c r="A1" s="144">
+      <c r="A1" s="146">
         <v>2019</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -6065,7 +6047,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="67" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E2" s="68"/>
       <c r="F2" s="68"/>
@@ -6073,7 +6055,7 @@
       <c r="H2" s="68"/>
       <c r="I2" s="68"/>
     </row>
-    <row r="3" spans="1:9" ht="232">
+    <row r="3" spans="1:9" ht="230.4">
       <c r="A3" s="69" t="s">
         <v>139</v>
       </c>
@@ -6262,7 +6244,7 @@
       <c r="H13" s="71"/>
       <c r="I13" s="71"/>
     </row>
-    <row r="14" spans="1:9" ht="43.5">
+    <row r="14" spans="1:9" ht="43.2">
       <c r="A14" s="69" t="s">
         <v>159</v>
       </c>
@@ -6298,7 +6280,7 @@
       <c r="H15" s="71"/>
       <c r="I15" s="71"/>
     </row>
-    <row r="16" spans="1:9" ht="29">
+    <row r="16" spans="1:9" ht="28.8">
       <c r="A16" s="69" t="s">
         <v>170</v>
       </c>
@@ -6472,7 +6454,7 @@
       <c r="H27" s="71"/>
       <c r="I27" s="71"/>
     </row>
-    <row r="28" spans="1:9" ht="29">
+    <row r="28" spans="1:9" ht="28.8">
       <c r="A28" s="69" t="s">
         <v>189</v>
       </c>
@@ -6489,7 +6471,7 @@
       <c r="H28" s="71"/>
       <c r="I28" s="71"/>
     </row>
-    <row r="29" spans="1:9" ht="29">
+    <row r="29" spans="1:9" ht="28.8">
       <c r="A29" s="69" t="s">
         <v>191</v>
       </c>
@@ -6619,18 +6601,18 @@
       <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="4" width="31.81640625" customWidth="1"/>
+    <col min="1" max="4" width="31.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="9" customFormat="1">
-      <c r="A1" s="144">
+      <c r="A1" s="146">
         <v>2019</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -6658,7 +6640,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="67" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E2" s="68"/>
       <c r="F2" s="68"/>
@@ -6666,12 +6648,12 @@
       <c r="H2" s="68"/>
       <c r="I2" s="68"/>
     </row>
-    <row r="3" spans="1:9" s="6" customFormat="1" ht="29">
+    <row r="3" spans="1:9" s="6" customFormat="1" ht="28.8">
       <c r="A3" s="12" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>1</v>
@@ -6687,13 +6669,13 @@
     </row>
     <row r="4" spans="1:9" s="6" customFormat="1">
       <c r="A4" s="12" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B4" s="69" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C4" s="69" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D4" s="69"/>
       <c r="E4" s="69"/>
@@ -6702,18 +6684,18 @@
       <c r="H4" s="69"/>
       <c r="I4" s="69"/>
     </row>
-    <row r="5" spans="1:9" s="6" customFormat="1" ht="72.5">
+    <row r="5" spans="1:9" s="6" customFormat="1" ht="72">
       <c r="A5" s="12" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C5" s="69" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D5" s="64" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E5" s="69"/>
       <c r="F5" s="69"/>
@@ -6721,18 +6703,18 @@
       <c r="H5" s="69"/>
       <c r="I5" s="69"/>
     </row>
-    <row r="6" spans="1:9" s="6" customFormat="1" ht="58">
+    <row r="6" spans="1:9" s="6" customFormat="1" ht="57.6">
       <c r="A6" s="69" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B6" s="69" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C6" s="64" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D6" s="64" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E6" s="69"/>
       <c r="F6" s="69"/>
@@ -6740,18 +6722,18 @@
       <c r="H6" s="69"/>
       <c r="I6" s="69"/>
     </row>
-    <row r="7" spans="1:9" s="6" customFormat="1" ht="58">
+    <row r="7" spans="1:9" s="6" customFormat="1" ht="57.6">
       <c r="A7" s="69" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B7" s="69" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C7" s="64" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D7" s="64" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E7" s="69"/>
       <c r="F7" s="69"/>
@@ -6759,18 +6741,18 @@
       <c r="H7" s="69"/>
       <c r="I7" s="69"/>
     </row>
-    <row r="8" spans="1:9" s="6" customFormat="1" ht="58">
+    <row r="8" spans="1:9" s="6" customFormat="1" ht="57.6">
       <c r="A8" s="69" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B8" s="69" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C8" s="64" t="s">
+        <v>419</v>
+      </c>
+      <c r="D8" s="64" t="s">
         <v>421</v>
-      </c>
-      <c r="D8" s="64" t="s">
-        <v>423</v>
       </c>
       <c r="E8" s="69"/>
       <c r="F8" s="69"/>
@@ -6778,18 +6760,18 @@
       <c r="H8" s="69"/>
       <c r="I8" s="69"/>
     </row>
-    <row r="9" spans="1:9" s="6" customFormat="1" ht="58">
+    <row r="9" spans="1:9" s="6" customFormat="1" ht="57.6">
       <c r="A9" s="69" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B9" s="69" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C9" s="64" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D9" s="64" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E9" s="69"/>
       <c r="F9" s="69"/>
@@ -6797,18 +6779,18 @@
       <c r="H9" s="69"/>
       <c r="I9" s="69"/>
     </row>
-    <row r="10" spans="1:9" s="6" customFormat="1" ht="58">
+    <row r="10" spans="1:9" s="6" customFormat="1" ht="57.6">
       <c r="A10" s="69" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C10" s="64" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D10" s="64" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E10" s="69"/>
       <c r="F10" s="69"/>
@@ -6816,18 +6798,18 @@
       <c r="H10" s="69"/>
       <c r="I10" s="69"/>
     </row>
-    <row r="11" spans="1:9" s="6" customFormat="1" ht="145">
+    <row r="11" spans="1:9" s="6" customFormat="1" ht="144">
       <c r="A11" s="69" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B11" s="69" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C11" s="64" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D11" s="64" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E11" s="69"/>
       <c r="F11" s="69"/>
@@ -6863,24 +6845,24 @@
       <selection pane="bottomRight" activeCell="A2" sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.90625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" style="6" customWidth="1"/>
     <col min="2" max="2" width="24" style="6" customWidth="1"/>
-    <col min="3" max="3" width="42.08984375" style="36" customWidth="1"/>
-    <col min="4" max="4" width="32.54296875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="42.109375" style="36" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" style="17" customWidth="1"/>
     <col min="5" max="9" width="24" style="6" customWidth="1"/>
-    <col min="10" max="10" width="17.36328125" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.81640625" style="6"/>
+    <col min="10" max="10" width="17.33203125" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.77734375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="37" customFormat="1">
-      <c r="A1" s="144">
+      <c r="A1" s="146">
         <v>2019</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -6908,301 +6890,301 @@
         <v>0</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>390</v>
-      </c>
-      <c r="E2" s="163" t="s">
+        <v>388</v>
+      </c>
+      <c r="E2" s="165" t="s">
+        <v>865</v>
+      </c>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="51"/>
+    </row>
+    <row r="3" spans="1:10" s="52" customFormat="1" ht="28.8">
+      <c r="A3" s="62" t="s">
+        <v>866</v>
+      </c>
+      <c r="B3" s="62" t="s">
         <v>867</v>
       </c>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="51"/>
-    </row>
-    <row r="3" spans="1:10" s="52" customFormat="1" ht="29">
-      <c r="A3" s="62" t="s">
+      <c r="C3" s="63" t="s">
         <v>868</v>
-      </c>
-      <c r="B3" s="62" t="s">
-        <v>869</v>
-      </c>
-      <c r="C3" s="63" t="s">
-        <v>870</v>
       </c>
       <c r="D3" s="64"/>
       <c r="E3" s="65" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F3" s="65" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G3" s="65" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H3" s="65" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I3" s="65" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="J3" s="54"/>
     </row>
-    <row r="4" spans="1:10" s="52" customFormat="1" ht="29">
+    <row r="4" spans="1:10" s="52" customFormat="1" ht="28.8">
       <c r="A4" s="62" t="s">
+        <v>869</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>870</v>
+      </c>
+      <c r="C4" s="63" t="s">
         <v>871</v>
-      </c>
-      <c r="B4" s="62" t="s">
-        <v>872</v>
-      </c>
-      <c r="C4" s="63" t="s">
-        <v>873</v>
       </c>
       <c r="D4" s="64"/>
       <c r="E4" s="65" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F4" s="65" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G4" s="65" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H4" s="65" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I4" s="65" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="J4" s="54"/>
     </row>
-    <row r="5" spans="1:10" s="52" customFormat="1" ht="31.5">
+    <row r="5" spans="1:10" s="52" customFormat="1" ht="40.799999999999997">
       <c r="A5" s="62" t="s">
+        <v>872</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>873</v>
+      </c>
+      <c r="C5" s="63" t="s">
         <v>874</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="D5" s="64" t="s">
         <v>875</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="E5" s="66" t="s">
         <v>876</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="F5" s="65" t="s">
         <v>877</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="G5" s="65" t="s">
+        <v>450</v>
+      </c>
+      <c r="H5" s="65" t="s">
+        <v>450</v>
+      </c>
+      <c r="I5" s="65" t="s">
+        <v>450</v>
+      </c>
+      <c r="J5" s="54"/>
+    </row>
+    <row r="6" spans="1:10" s="52" customFormat="1" ht="81.599999999999994">
+      <c r="A6" s="62" t="s">
         <v>878</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="B6" s="62" t="s">
         <v>879</v>
       </c>
-      <c r="G5" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="H5" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="I5" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="J5" s="54"/>
-    </row>
-    <row r="6" spans="1:10" s="52" customFormat="1" ht="84">
-      <c r="A6" s="62" t="s">
+      <c r="C6" s="63" t="s">
         <v>880</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="D6" s="64" t="s">
         <v>881</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="E6" s="66" t="s">
         <v>882</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="F6" s="65" t="s">
         <v>883</v>
       </c>
-      <c r="E6" s="66" t="s">
-        <v>884</v>
-      </c>
-      <c r="F6" s="65" t="s">
-        <v>885</v>
-      </c>
       <c r="G6" s="65" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H6" s="65" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I6" s="65" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="J6" s="54"/>
     </row>
     <row r="7" spans="1:10" s="52" customFormat="1">
       <c r="A7" s="62" t="s">
+        <v>884</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>885</v>
+      </c>
+      <c r="C7" s="63" t="s">
         <v>886</v>
-      </c>
-      <c r="B7" s="62" t="s">
-        <v>887</v>
-      </c>
-      <c r="C7" s="63" t="s">
-        <v>888</v>
       </c>
       <c r="D7" s="64"/>
       <c r="E7" s="65" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F7" s="65" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G7" s="65" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H7" s="65" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I7" s="65" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="J7" s="54"/>
     </row>
-    <row r="8" spans="1:10" s="52" customFormat="1" ht="43.5">
+    <row r="8" spans="1:10" s="52" customFormat="1" ht="28.8">
       <c r="A8" s="62" t="s">
+        <v>887</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>888</v>
+      </c>
+      <c r="C8" s="63" t="s">
         <v>889</v>
-      </c>
-      <c r="B8" s="62" t="s">
-        <v>890</v>
-      </c>
-      <c r="C8" s="63" t="s">
-        <v>891</v>
       </c>
       <c r="D8" s="64"/>
       <c r="E8" s="65" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F8" s="65" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G8" s="65" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H8" s="65" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I8" s="65" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="J8" s="54"/>
     </row>
-    <row r="9" spans="1:10" s="52" customFormat="1" ht="58">
+    <row r="9" spans="1:10" s="52" customFormat="1" ht="57.6">
       <c r="A9" s="62" t="s">
+        <v>890</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>891</v>
+      </c>
+      <c r="C9" s="63" t="s">
         <v>892</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="D9" s="64" t="s">
+        <v>483</v>
+      </c>
+      <c r="E9" s="65" t="s">
+        <v>450</v>
+      </c>
+      <c r="F9" s="65" t="s">
+        <v>450</v>
+      </c>
+      <c r="G9" s="65" t="s">
+        <v>450</v>
+      </c>
+      <c r="H9" s="65" t="s">
+        <v>450</v>
+      </c>
+      <c r="I9" s="65" t="s">
+        <v>450</v>
+      </c>
+      <c r="J9" s="54"/>
+    </row>
+    <row r="10" spans="1:10" s="52" customFormat="1" ht="30.6">
+      <c r="A10" s="62" t="s">
         <v>893</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="B10" s="62" t="s">
         <v>894</v>
       </c>
-      <c r="D9" s="64" t="s">
-        <v>485</v>
-      </c>
-      <c r="E9" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="F9" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="G9" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="H9" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="I9" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="J9" s="54"/>
-    </row>
-    <row r="10" spans="1:10" s="52" customFormat="1" ht="31.5">
-      <c r="A10" s="62" t="s">
+      <c r="C10" s="63" t="s">
         <v>895</v>
-      </c>
-      <c r="B10" s="62" t="s">
-        <v>896</v>
-      </c>
-      <c r="C10" s="63" t="s">
-        <v>897</v>
       </c>
       <c r="D10" s="64"/>
       <c r="E10" s="66" t="s">
+        <v>896</v>
+      </c>
+      <c r="F10" s="65" t="s">
+        <v>897</v>
+      </c>
+      <c r="G10" s="65" t="s">
+        <v>450</v>
+      </c>
+      <c r="H10" s="65" t="s">
+        <v>450</v>
+      </c>
+      <c r="I10" s="65" t="s">
+        <v>450</v>
+      </c>
+      <c r="J10" s="54"/>
+    </row>
+    <row r="11" spans="1:10" s="52" customFormat="1" ht="57.6">
+      <c r="A11" s="62" t="s">
         <v>898</v>
       </c>
-      <c r="F10" s="65" t="s">
+      <c r="B11" s="62" t="s">
         <v>899</v>
       </c>
-      <c r="G10" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="H10" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="I10" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="J10" s="54"/>
-    </row>
-    <row r="11" spans="1:10" s="52" customFormat="1" ht="58">
-      <c r="A11" s="62" t="s">
+      <c r="C11" s="63" t="s">
         <v>900</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="D11" s="64" t="s">
+        <v>483</v>
+      </c>
+      <c r="E11" s="66" t="s">
+        <v>896</v>
+      </c>
+      <c r="F11" s="65" t="s">
+        <v>897</v>
+      </c>
+      <c r="G11" s="65" t="s">
+        <v>450</v>
+      </c>
+      <c r="H11" s="65" t="s">
+        <v>450</v>
+      </c>
+      <c r="I11" s="65" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="52" customFormat="1" ht="40.799999999999997">
+      <c r="A12" s="62" t="s">
         <v>901</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="B12" s="62" t="s">
         <v>902</v>
       </c>
-      <c r="D11" s="64" t="s">
-        <v>485</v>
-      </c>
-      <c r="E11" s="66" t="s">
-        <v>898</v>
-      </c>
-      <c r="F11" s="65" t="s">
-        <v>899</v>
-      </c>
-      <c r="G11" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="H11" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="I11" s="65" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="52" customFormat="1" ht="42">
-      <c r="A12" s="62" t="s">
+      <c r="C12" s="63" t="s">
         <v>903</v>
-      </c>
-      <c r="B12" s="62" t="s">
-        <v>904</v>
-      </c>
-      <c r="C12" s="63" t="s">
-        <v>905</v>
       </c>
       <c r="D12" s="66"/>
       <c r="E12" s="66" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="F12" s="65" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="G12" s="65" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H12" s="65" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I12" s="65" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="52" customFormat="1">
@@ -7641,28 +7623,28 @@
   </sheetPr>
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="33.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.81640625" customWidth="1"/>
-    <col min="4" max="4" width="25.90625" customWidth="1"/>
-    <col min="5" max="5" width="24.08984375" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="11" customFormat="1">
-      <c r="A1" s="144">
+      <c r="A1" s="146">
         <v>2019</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -7690,7 +7672,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="67" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E2" s="68"/>
       <c r="F2" s="68"/>
@@ -7700,126 +7682,126 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="69" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B3" s="69"/>
       <c r="C3" s="69" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D3" s="69"/>
       <c r="E3" s="71" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="F3" s="71"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-    </row>
-    <row r="4" spans="1:9" ht="29">
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+    </row>
+    <row r="4" spans="1:9" ht="28.8">
       <c r="A4" s="69" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B4" s="69"/>
       <c r="C4" s="69" t="s">
+        <v>752</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>753</v>
+      </c>
+      <c r="E4" s="69" t="s">
         <v>754</v>
       </c>
-      <c r="D4" s="64" t="s">
-        <v>755</v>
-      </c>
-      <c r="E4" s="69" t="s">
-        <v>756</v>
-      </c>
       <c r="F4" s="71" t="s">
-        <v>756</v>
-      </c>
-      <c r="G4" s="168"/>
-      <c r="H4" s="168"/>
-      <c r="I4" s="168"/>
+        <v>754</v>
+      </c>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="144"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="69" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B5" s="69"/>
       <c r="C5" s="69" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D5" s="69"/>
       <c r="E5" s="71" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F5" s="71" t="s">
-        <v>756</v>
-      </c>
-      <c r="G5" s="168"/>
-      <c r="H5" s="168"/>
-      <c r="I5" s="168"/>
+        <v>754</v>
+      </c>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
     </row>
     <row r="6" spans="1:9" ht="87" customHeight="1">
       <c r="A6" s="69" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B6" s="69"/>
       <c r="C6" s="64" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D6" s="69"/>
       <c r="E6" s="69" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F6" s="71" t="s">
-        <v>1152</v>
-      </c>
-      <c r="G6" s="168"/>
-      <c r="H6" s="168"/>
-      <c r="I6" s="168"/>
-    </row>
-    <row r="7" spans="1:9" ht="29">
+        <v>1150</v>
+      </c>
+      <c r="G6" s="144"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="144"/>
+    </row>
+    <row r="7" spans="1:9" ht="28.8">
       <c r="A7" s="69" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B7" s="69"/>
       <c r="C7" s="64" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D7" s="69"/>
       <c r="E7" s="71" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F7" s="71"/>
-      <c r="G7" s="168"/>
-      <c r="H7" s="168"/>
-      <c r="I7" s="168"/>
-    </row>
-    <row r="8" spans="1:9" ht="29">
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="144"/>
+    </row>
+    <row r="8" spans="1:9" ht="28.8">
       <c r="A8" s="69" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B8" s="69"/>
       <c r="C8" s="69" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D8" s="64" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E8" s="71" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F8" s="71"/>
-      <c r="G8" s="168"/>
-      <c r="H8" s="168"/>
-      <c r="I8" s="168"/>
+      <c r="G8" s="144"/>
+      <c r="H8" s="144"/>
+      <c r="I8" s="144"/>
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" ht="180" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="13" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -7829,344 +7811,344 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="71" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B10" s="71"/>
       <c r="C10" s="71" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D10" s="71"/>
       <c r="E10" s="71"/>
       <c r="F10" s="71"/>
-      <c r="G10" s="168"/>
-      <c r="H10" s="168"/>
-      <c r="I10" s="168"/>
-    </row>
-    <row r="11" spans="1:9" ht="174">
+      <c r="G10" s="144"/>
+      <c r="H10" s="144"/>
+      <c r="I10" s="144"/>
+    </row>
+    <row r="11" spans="1:9" ht="172.8">
       <c r="A11" s="69" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B11" s="69"/>
       <c r="C11" s="64" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D11" s="64" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E11" s="71"/>
       <c r="F11" s="71"/>
-      <c r="G11" s="168"/>
-      <c r="H11" s="168"/>
-      <c r="I11" s="168"/>
-    </row>
-    <row r="12" spans="1:9" ht="203">
+      <c r="G11" s="144"/>
+      <c r="H11" s="144"/>
+      <c r="I11" s="144"/>
+    </row>
+    <row r="12" spans="1:9" ht="201.6">
       <c r="A12" s="69" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B12" s="69"/>
       <c r="C12" s="64" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E12" s="71"/>
       <c r="F12" s="71"/>
-      <c r="G12" s="168"/>
-      <c r="H12" s="168"/>
-      <c r="I12" s="168"/>
-    </row>
-    <row r="13" spans="1:9" ht="43.5">
+      <c r="G12" s="144"/>
+      <c r="H12" s="144"/>
+      <c r="I12" s="144"/>
+    </row>
+    <row r="13" spans="1:9" ht="43.2">
       <c r="A13" s="69" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B13" s="71"/>
       <c r="C13" s="72" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D13" s="71"/>
       <c r="E13" s="71"/>
       <c r="F13" s="71"/>
-      <c r="G13" s="168"/>
-      <c r="H13" s="168"/>
-      <c r="I13" s="168"/>
-    </row>
-    <row r="14" spans="1:9" ht="43.5">
+      <c r="G13" s="144"/>
+      <c r="H13" s="144"/>
+      <c r="I13" s="144"/>
+    </row>
+    <row r="14" spans="1:9" ht="43.2">
       <c r="A14" s="69" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B14" s="71"/>
       <c r="C14" s="72" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D14" s="72" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E14" s="71"/>
       <c r="F14" s="71"/>
-      <c r="G14" s="168"/>
-      <c r="H14" s="168"/>
-      <c r="I14" s="168"/>
-    </row>
-    <row r="15" spans="1:9" ht="43.5">
+      <c r="G14" s="144"/>
+      <c r="H14" s="144"/>
+      <c r="I14" s="144"/>
+    </row>
+    <row r="15" spans="1:9" ht="43.2">
       <c r="A15" s="69" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B15" s="71"/>
       <c r="C15" s="72" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D15" s="71"/>
       <c r="E15" s="71"/>
       <c r="F15" s="71"/>
-      <c r="G15" s="168"/>
-      <c r="H15" s="168"/>
-      <c r="I15" s="168"/>
-    </row>
-    <row r="16" spans="1:9" ht="43.5">
+      <c r="G15" s="144"/>
+      <c r="H15" s="144"/>
+      <c r="I15" s="144"/>
+    </row>
+    <row r="16" spans="1:9" ht="43.2">
       <c r="A16" s="69" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B16" s="71"/>
       <c r="C16" s="72" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D16" s="71"/>
       <c r="E16" s="71"/>
       <c r="F16" s="71"/>
-      <c r="G16" s="168"/>
-      <c r="H16" s="168"/>
-      <c r="I16" s="168"/>
-    </row>
-    <row r="17" spans="1:9" ht="43.5">
+      <c r="G16" s="144"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="144"/>
+    </row>
+    <row r="17" spans="1:9" ht="43.2">
       <c r="A17" s="69" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B17" s="71"/>
       <c r="C17" s="72" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D17" s="71"/>
       <c r="E17" s="71"/>
       <c r="F17" s="71"/>
-      <c r="G17" s="168"/>
-      <c r="H17" s="168"/>
-      <c r="I17" s="168"/>
-    </row>
-    <row r="18" spans="1:9" ht="232">
+      <c r="G17" s="144"/>
+      <c r="H17" s="144"/>
+      <c r="I17" s="144"/>
+    </row>
+    <row r="18" spans="1:9" ht="230.4">
       <c r="A18" s="69" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B18" s="69"/>
       <c r="C18" s="64" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D18" s="64" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E18" s="71"/>
       <c r="F18" s="71"/>
-      <c r="G18" s="168"/>
-      <c r="H18" s="168"/>
-      <c r="I18" s="168"/>
+      <c r="G18" s="144"/>
+      <c r="H18" s="144"/>
+      <c r="I18" s="144"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="71" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B19" s="71"/>
       <c r="C19" s="71" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D19" s="71"/>
       <c r="E19" s="71"/>
       <c r="F19" s="71"/>
-      <c r="G19" s="168"/>
-      <c r="H19" s="168"/>
-      <c r="I19" s="168"/>
+      <c r="G19" s="144"/>
+      <c r="H19" s="144"/>
+      <c r="I19" s="144"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="71" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B20" s="71"/>
       <c r="C20" s="72" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D20" s="71"/>
       <c r="E20" s="71"/>
       <c r="F20" s="71"/>
-      <c r="G20" s="168"/>
-      <c r="H20" s="168"/>
-      <c r="I20" s="168"/>
-    </row>
-    <row r="21" spans="1:9" s="6" customFormat="1" ht="29">
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="144"/>
+    </row>
+    <row r="21" spans="1:9" s="6" customFormat="1" ht="28.8">
       <c r="A21" s="69" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B21" s="69"/>
       <c r="C21" s="69" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D21" s="64" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E21" s="69"/>
       <c r="F21" s="69"/>
-      <c r="G21" s="169"/>
-      <c r="H21" s="169"/>
-      <c r="I21" s="169"/>
-    </row>
-    <row r="22" spans="1:9" ht="87">
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="145"/>
+    </row>
+    <row r="22" spans="1:9" ht="86.4">
       <c r="A22" s="69" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B22" s="69"/>
       <c r="C22" s="64" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D22" s="64" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E22" s="71"/>
       <c r="F22" s="71"/>
-      <c r="G22" s="168"/>
-      <c r="H22" s="168"/>
-      <c r="I22" s="168"/>
-    </row>
-    <row r="23" spans="1:9" ht="188.5">
+      <c r="G22" s="144"/>
+      <c r="H22" s="144"/>
+      <c r="I22" s="144"/>
+    </row>
+    <row r="23" spans="1:9" ht="187.2">
       <c r="A23" s="69" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B23" s="69"/>
       <c r="C23" s="64" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D23" s="64" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E23" s="64" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="F23" s="71"/>
-      <c r="G23" s="168"/>
-      <c r="H23" s="168"/>
-      <c r="I23" s="168"/>
+      <c r="G23" s="144"/>
+      <c r="H23" s="144"/>
+      <c r="I23" s="144"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="71" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B24" s="71"/>
       <c r="C24" s="71" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D24" s="71"/>
       <c r="E24" s="71"/>
       <c r="F24" s="71"/>
-      <c r="G24" s="168"/>
-      <c r="H24" s="168"/>
-      <c r="I24" s="168"/>
-    </row>
-    <row r="25" spans="1:9" s="6" customFormat="1" ht="374.5" customHeight="1">
+      <c r="G24" s="144"/>
+      <c r="H24" s="144"/>
+      <c r="I24" s="144"/>
+    </row>
+    <row r="25" spans="1:9" s="6" customFormat="1" ht="374.55" customHeight="1">
       <c r="A25" s="69" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B25" s="69"/>
       <c r="C25" s="64" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D25" s="64" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E25" s="69"/>
       <c r="F25" s="69"/>
-      <c r="G25" s="169"/>
-      <c r="H25" s="169"/>
-      <c r="I25" s="169"/>
-    </row>
-    <row r="26" spans="1:9" ht="379" customHeight="1">
+      <c r="G25" s="145"/>
+      <c r="H25" s="145"/>
+      <c r="I25" s="145"/>
+    </row>
+    <row r="26" spans="1:9" ht="379.05" customHeight="1">
       <c r="A26" s="64" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B26" s="64"/>
       <c r="C26" s="64" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D26" s="64" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E26" s="71"/>
       <c r="F26" s="71"/>
-      <c r="G26" s="168"/>
-      <c r="H26" s="168"/>
-      <c r="I26" s="168"/>
-    </row>
-    <row r="27" spans="1:9" ht="43.5">
+      <c r="G26" s="144"/>
+      <c r="H26" s="144"/>
+      <c r="I26" s="144"/>
+    </row>
+    <row r="27" spans="1:9" ht="43.2">
       <c r="A27" s="64" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B27" s="71"/>
       <c r="C27" s="72" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D27" s="64" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E27" s="71"/>
       <c r="F27" s="71"/>
-      <c r="G27" s="168"/>
-      <c r="H27" s="168"/>
-      <c r="I27" s="168"/>
-    </row>
-    <row r="28" spans="1:9" ht="29">
+      <c r="G27" s="144"/>
+      <c r="H27" s="144"/>
+      <c r="I27" s="144"/>
+    </row>
+    <row r="28" spans="1:9" ht="28.8">
       <c r="A28" s="64" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B28" s="71"/>
       <c r="C28" s="64" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D28" s="71"/>
       <c r="E28" s="71"/>
       <c r="F28" s="71"/>
-      <c r="G28" s="168"/>
-      <c r="H28" s="168"/>
-      <c r="I28" s="168"/>
-    </row>
-    <row r="29" spans="1:9" ht="174">
+      <c r="G28" s="144"/>
+      <c r="H28" s="144"/>
+      <c r="I28" s="144"/>
+    </row>
+    <row r="29" spans="1:9" ht="172.8">
       <c r="A29" s="64" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B29" s="71"/>
       <c r="C29" s="64" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D29" s="72" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E29" s="71"/>
       <c r="F29" s="71"/>
-      <c r="G29" s="168"/>
-      <c r="H29" s="168"/>
-      <c r="I29" s="168"/>
-    </row>
-    <row r="30" spans="1:9" ht="43.5">
+      <c r="G29" s="144"/>
+      <c r="H29" s="144"/>
+      <c r="I29" s="144"/>
+    </row>
+    <row r="30" spans="1:9" ht="43.2">
       <c r="A30" s="64" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B30" s="71"/>
       <c r="C30" s="72" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D30" s="64" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E30" s="71"/>
       <c r="F30" s="71"/>
-      <c r="G30" s="168"/>
-      <c r="H30" s="168"/>
-      <c r="I30" s="168"/>
+      <c r="G30" s="144"/>
+      <c r="H30" s="144"/>
+      <c r="I30" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8187,10 +8169,10 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="42.81640625" customWidth="1"/>
+    <col min="4" max="4" width="42.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="9" customFormat="1">
@@ -8227,7 +8209,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="67" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E2" s="68"/>
       <c r="F2" s="68"/>
@@ -8237,13 +8219,13 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="71" t="s">
+        <v>436</v>
+      </c>
+      <c r="B3" s="71" t="s">
         <v>438</v>
       </c>
-      <c r="B3" s="71" t="s">
-        <v>440</v>
-      </c>
       <c r="C3" s="71" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D3" s="71"/>
       <c r="E3" s="71"/>
@@ -8251,32 +8233,32 @@
       <c r="G3" s="71"/>
       <c r="H3" s="71"/>
     </row>
-    <row r="4" spans="1:9" ht="409.5">
+    <row r="4" spans="1:9" ht="409.6">
       <c r="A4" s="69" t="s">
+        <v>439</v>
+      </c>
+      <c r="B4" s="69" t="s">
+        <v>443</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>440</v>
+      </c>
+      <c r="D4" s="72" t="s">
         <v>441</v>
-      </c>
-      <c r="B4" s="69" t="s">
-        <v>445</v>
-      </c>
-      <c r="C4" s="64" t="s">
-        <v>442</v>
-      </c>
-      <c r="D4" s="72" t="s">
-        <v>443</v>
       </c>
       <c r="E4" s="71"/>
       <c r="F4" s="71"/>
       <c r="G4" s="71"/>
       <c r="H4" s="71"/>
     </row>
-    <row r="5" spans="1:9" ht="409.5">
+    <row r="5" spans="1:9" ht="409.6">
       <c r="A5" s="71"/>
       <c r="B5" s="71"/>
       <c r="C5" s="64" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D5" s="72" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E5" s="71"/>
       <c r="F5" s="71"/>
@@ -8296,21 +8278,21 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="15.08984375" customWidth="1"/>
-    <col min="3" max="4" width="18.1796875" customWidth="1"/>
+    <col min="1" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="4" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="37" customFormat="1">
-      <c r="A1" s="164">
+      <c r="A1" s="166">
         <v>2019</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="165"/>
-    </row>
-    <row r="2" spans="1:5" s="50" customFormat="1" ht="43.5">
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="167"/>
+    </row>
+    <row r="2" spans="1:5" s="50" customFormat="1" ht="43.2">
       <c r="A2" s="94" t="s">
         <v>129</v>
       </c>
@@ -8321,36 +8303,36 @@
         <v>0</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="E2" s="51"/>
     </row>
-    <row r="3" spans="1:5" ht="58">
+    <row r="3" spans="1:5" ht="57.6">
       <c r="A3" s="71" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B3" s="71" t="s">
         <v>1141</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="C3" s="72" t="s">
         <v>1143</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="D3" s="71" t="s">
         <v>1145</v>
       </c>
-      <c r="D3" s="71" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="58">
+    </row>
+    <row r="4" spans="1:5" ht="57.6">
       <c r="A4" s="71" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B4" s="71" t="s">
         <v>1142</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="C4" s="72" t="s">
         <v>1144</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="D4" s="72" t="s">
         <v>1146</v>
-      </c>
-      <c r="D4" s="72" t="s">
-        <v>1148</v>
       </c>
     </row>
   </sheetData>
@@ -8372,25 +8354,25 @@
       <selection pane="bottomRight" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="22.90625" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" customWidth="1"/>
-    <col min="4" max="4" width="48.90625" style="10" customWidth="1"/>
-    <col min="5" max="6" width="17.54296875" customWidth="1"/>
-    <col min="7" max="7" width="27.90625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="24.54296875" customWidth="1"/>
-    <col min="9" max="10" width="17.54296875" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="48.88671875" style="10" customWidth="1"/>
+    <col min="5" max="6" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="27.88671875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="24.5546875" customWidth="1"/>
+    <col min="9" max="10" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="37" customFormat="1">
-      <c r="A1" s="164">
+      <c r="A1" s="166">
         <v>2019</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="165"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="167"/>
       <c r="F1" s="60">
         <v>2018</v>
       </c>
@@ -8407,11 +8389,11 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="50" customFormat="1" ht="43.5">
-      <c r="A2" s="167" t="s">
+    <row r="2" spans="1:11" s="50" customFormat="1" ht="43.2">
+      <c r="A2" s="169" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="167"/>
+      <c r="B2" s="169"/>
       <c r="C2" s="61" t="s">
         <v>128</v>
       </c>
@@ -8419,7 +8401,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="61" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="F2" s="83"/>
       <c r="G2" s="83"/>
@@ -8428,420 +8410,420 @@
       <c r="J2" s="83"/>
       <c r="K2" s="51"/>
     </row>
-    <row r="3" spans="1:11" ht="72.5">
-      <c r="A3" s="166" t="s">
+    <row r="3" spans="1:11" ht="72">
+      <c r="A3" s="168" t="s">
+        <v>911</v>
+      </c>
+      <c r="B3" s="168"/>
+      <c r="C3" s="71" t="s">
+        <v>925</v>
+      </c>
+      <c r="D3" s="72" t="s">
+        <v>938</v>
+      </c>
+      <c r="E3" s="72" t="s">
+        <v>953</v>
+      </c>
+      <c r="F3" s="72" t="s">
+        <v>954</v>
+      </c>
+      <c r="G3" s="72" t="s">
+        <v>969</v>
+      </c>
+      <c r="H3" s="72" t="s">
+        <v>977</v>
+      </c>
+      <c r="I3" s="87" t="s">
+        <v>978</v>
+      </c>
+      <c r="J3" s="87" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28.8">
+      <c r="A4" s="168" t="s">
+        <v>941</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>912</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>926</v>
+      </c>
+      <c r="D4" s="70" t="s">
+        <v>939</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>953</v>
+      </c>
+      <c r="F4" s="70" t="s">
+        <v>957</v>
+      </c>
+      <c r="G4" s="70" t="s">
+        <v>450</v>
+      </c>
+      <c r="H4" s="70" t="s">
+        <v>450</v>
+      </c>
+      <c r="I4" s="70" t="s">
+        <v>450</v>
+      </c>
+      <c r="J4" s="70" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="115.2">
+      <c r="A5" s="168"/>
+      <c r="B5" s="70" t="s">
         <v>913</v>
       </c>
-      <c r="B3" s="166"/>
-      <c r="C3" s="71" t="s">
+      <c r="C5" s="70" t="s">
         <v>927</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D5" s="70" t="s">
         <v>940</v>
       </c>
-      <c r="E3" s="72" t="s">
-        <v>955</v>
-      </c>
-      <c r="F3" s="72" t="s">
-        <v>956</v>
-      </c>
-      <c r="G3" s="72" t="s">
+      <c r="E5" s="70" t="s">
+        <v>953</v>
+      </c>
+      <c r="F5" s="70" t="s">
+        <v>958</v>
+      </c>
+      <c r="G5" s="70" t="s">
+        <v>970</v>
+      </c>
+      <c r="H5" s="70" t="s">
+        <v>450</v>
+      </c>
+      <c r="I5" s="70" t="s">
+        <v>450</v>
+      </c>
+      <c r="J5" s="70" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="144">
+      <c r="A6" s="168"/>
+      <c r="B6" s="70" t="s">
+        <v>914</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>928</v>
+      </c>
+      <c r="D6" s="70" t="s">
+        <v>942</v>
+      </c>
+      <c r="E6" s="70" t="s">
+        <v>953</v>
+      </c>
+      <c r="F6" s="70" t="s">
+        <v>959</v>
+      </c>
+      <c r="G6" s="70" t="s">
         <v>971</v>
       </c>
-      <c r="H3" s="72" t="s">
+      <c r="H6" s="85" t="s">
+        <v>450</v>
+      </c>
+      <c r="I6" s="85" t="s">
+        <v>450</v>
+      </c>
+      <c r="J6" s="85" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="144">
+      <c r="A7" s="168"/>
+      <c r="B7" s="70" t="s">
+        <v>915</v>
+      </c>
+      <c r="C7" s="70" t="s">
+        <v>929</v>
+      </c>
+      <c r="D7" s="70" t="s">
+        <v>943</v>
+      </c>
+      <c r="E7" s="70" t="s">
+        <v>953</v>
+      </c>
+      <c r="F7" s="70" t="s">
+        <v>960</v>
+      </c>
+      <c r="G7" s="70" t="s">
+        <v>971</v>
+      </c>
+      <c r="H7" s="85" t="s">
+        <v>450</v>
+      </c>
+      <c r="I7" s="85" t="s">
+        <v>450</v>
+      </c>
+      <c r="J7" s="85" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="187.2">
+      <c r="A8" s="168"/>
+      <c r="B8" s="70" t="s">
+        <v>916</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>930</v>
+      </c>
+      <c r="D8" s="70" t="s">
+        <v>944</v>
+      </c>
+      <c r="E8" s="70" t="s">
+        <v>953</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>961</v>
+      </c>
+      <c r="G8" s="70" t="s">
+        <v>974</v>
+      </c>
+      <c r="H8" s="85" t="s">
+        <v>450</v>
+      </c>
+      <c r="I8" s="85" t="s">
+        <v>450</v>
+      </c>
+      <c r="J8" s="85" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="302.39999999999998">
+      <c r="A9" s="168"/>
+      <c r="B9" s="70" t="s">
+        <v>917</v>
+      </c>
+      <c r="C9" s="70" t="s">
+        <v>931</v>
+      </c>
+      <c r="D9" s="70" t="s">
+        <v>945</v>
+      </c>
+      <c r="E9" s="70" t="s">
+        <v>953</v>
+      </c>
+      <c r="F9" s="70" t="s">
+        <v>962</v>
+      </c>
+      <c r="G9" s="70" t="s">
+        <v>972</v>
+      </c>
+      <c r="H9" s="85" t="s">
+        <v>976</v>
+      </c>
+      <c r="I9" s="85" t="s">
         <v>979</v>
       </c>
-      <c r="I3" s="87" t="s">
-        <v>980</v>
-      </c>
-      <c r="J3" s="87" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="29">
-      <c r="A4" s="166" t="s">
-        <v>943</v>
-      </c>
-      <c r="B4" s="70" t="s">
-        <v>914</v>
-      </c>
-      <c r="C4" s="70" t="s">
-        <v>928</v>
-      </c>
-      <c r="D4" s="70" t="s">
-        <v>941</v>
-      </c>
-      <c r="E4" s="70" t="s">
-        <v>955</v>
-      </c>
-      <c r="F4" s="70" t="s">
-        <v>959</v>
-      </c>
-      <c r="G4" s="70" t="s">
-        <v>452</v>
-      </c>
-      <c r="H4" s="70" t="s">
-        <v>452</v>
-      </c>
-      <c r="I4" s="70" t="s">
-        <v>452</v>
-      </c>
-      <c r="J4" s="70" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="116">
-      <c r="A5" s="166"/>
-      <c r="B5" s="70" t="s">
-        <v>915</v>
-      </c>
-      <c r="C5" s="70" t="s">
-        <v>929</v>
-      </c>
-      <c r="D5" s="70" t="s">
-        <v>942</v>
-      </c>
-      <c r="E5" s="70" t="s">
-        <v>955</v>
-      </c>
-      <c r="F5" s="70" t="s">
-        <v>960</v>
-      </c>
-      <c r="G5" s="70" t="s">
-        <v>972</v>
-      </c>
-      <c r="H5" s="70" t="s">
-        <v>452</v>
-      </c>
-      <c r="I5" s="70" t="s">
-        <v>452</v>
-      </c>
-      <c r="J5" s="70" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="145">
-      <c r="A6" s="166"/>
-      <c r="B6" s="70" t="s">
-        <v>916</v>
-      </c>
-      <c r="C6" s="70" t="s">
-        <v>930</v>
-      </c>
-      <c r="D6" s="70" t="s">
-        <v>944</v>
-      </c>
-      <c r="E6" s="70" t="s">
-        <v>955</v>
-      </c>
-      <c r="F6" s="70" t="s">
-        <v>961</v>
-      </c>
-      <c r="G6" s="70" t="s">
+      <c r="J9" s="85" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="82" customFormat="1" ht="259.2">
+      <c r="A10" s="168"/>
+      <c r="B10" s="86" t="s">
+        <v>918</v>
+      </c>
+      <c r="C10" s="86" t="s">
+        <v>932</v>
+      </c>
+      <c r="D10" s="70" t="s">
+        <v>946</v>
+      </c>
+      <c r="E10" s="86" t="s">
+        <v>953</v>
+      </c>
+      <c r="F10" s="86" t="s">
+        <v>963</v>
+      </c>
+      <c r="G10" s="86" t="s">
         <v>973</v>
       </c>
-      <c r="H6" s="85" t="s">
-        <v>452</v>
-      </c>
-      <c r="I6" s="85" t="s">
-        <v>452</v>
-      </c>
-      <c r="J6" s="85" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="145">
-      <c r="A7" s="166"/>
-      <c r="B7" s="70" t="s">
-        <v>917</v>
-      </c>
-      <c r="C7" s="70" t="s">
-        <v>931</v>
-      </c>
-      <c r="D7" s="70" t="s">
-        <v>945</v>
-      </c>
-      <c r="E7" s="70" t="s">
-        <v>955</v>
-      </c>
-      <c r="F7" s="70" t="s">
-        <v>962</v>
-      </c>
-      <c r="G7" s="70" t="s">
-        <v>973</v>
-      </c>
-      <c r="H7" s="85" t="s">
-        <v>452</v>
-      </c>
-      <c r="I7" s="85" t="s">
-        <v>452</v>
-      </c>
-      <c r="J7" s="85" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="188.5">
-      <c r="A8" s="166"/>
-      <c r="B8" s="70" t="s">
-        <v>918</v>
-      </c>
-      <c r="C8" s="70" t="s">
-        <v>932</v>
-      </c>
-      <c r="D8" s="70" t="s">
-        <v>946</v>
-      </c>
-      <c r="E8" s="70" t="s">
-        <v>955</v>
-      </c>
-      <c r="F8" s="70" t="s">
-        <v>963</v>
-      </c>
-      <c r="G8" s="70" t="s">
+      <c r="H10" s="85" t="s">
         <v>976</v>
       </c>
-      <c r="H8" s="85" t="s">
-        <v>452</v>
-      </c>
-      <c r="I8" s="85" t="s">
-        <v>452</v>
-      </c>
-      <c r="J8" s="85" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="304.5">
-      <c r="A9" s="166"/>
-      <c r="B9" s="70" t="s">
+      <c r="I10" s="85" t="s">
+        <v>979</v>
+      </c>
+      <c r="J10" s="85" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="187.2">
+      <c r="A11" s="168"/>
+      <c r="B11" s="70" t="s">
         <v>919</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C11" s="70" t="s">
         <v>933</v>
       </c>
-      <c r="D9" s="70" t="s">
+      <c r="D11" s="70" t="s">
         <v>947</v>
       </c>
-      <c r="E9" s="70" t="s">
-        <v>955</v>
-      </c>
-      <c r="F9" s="70" t="s">
+      <c r="E11" s="70" t="s">
+        <v>953</v>
+      </c>
+      <c r="F11" s="70" t="s">
         <v>964</v>
       </c>
-      <c r="G9" s="70" t="s">
+      <c r="G11" s="70" t="s">
         <v>974</v>
       </c>
-      <c r="H9" s="85" t="s">
-        <v>978</v>
-      </c>
-      <c r="I9" s="85" t="s">
-        <v>981</v>
-      </c>
-      <c r="J9" s="85" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="82" customFormat="1" ht="261">
-      <c r="A10" s="166"/>
-      <c r="B10" s="86" t="s">
+      <c r="H11" s="85" t="s">
+        <v>450</v>
+      </c>
+      <c r="I11" s="85" t="s">
+        <v>450</v>
+      </c>
+      <c r="J11" s="85" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="144">
+      <c r="A12" s="168"/>
+      <c r="B12" s="70" t="s">
         <v>920</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C12" s="70" t="s">
         <v>934</v>
       </c>
-      <c r="D10" s="70" t="s">
+      <c r="D12" s="70" t="s">
         <v>948</v>
       </c>
-      <c r="E10" s="86" t="s">
-        <v>955</v>
-      </c>
-      <c r="F10" s="86" t="s">
+      <c r="E12" s="70" t="s">
+        <v>953</v>
+      </c>
+      <c r="F12" s="70" t="s">
         <v>965</v>
       </c>
-      <c r="G10" s="86" t="s">
+      <c r="G12" s="70" t="s">
+        <v>971</v>
+      </c>
+      <c r="H12" s="85" t="s">
+        <v>450</v>
+      </c>
+      <c r="I12" s="85" t="s">
+        <v>450</v>
+      </c>
+      <c r="J12" s="85" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="144">
+      <c r="A13" s="168"/>
+      <c r="B13" s="70" t="s">
+        <v>921</v>
+      </c>
+      <c r="C13" s="70" t="s">
+        <v>935</v>
+      </c>
+      <c r="D13" s="70" t="s">
+        <v>949</v>
+      </c>
+      <c r="E13" s="70" t="s">
+        <v>953</v>
+      </c>
+      <c r="F13" s="70" t="s">
+        <v>966</v>
+      </c>
+      <c r="G13" s="70" t="s">
         <v>975</v>
       </c>
-      <c r="H10" s="85" t="s">
-        <v>978</v>
-      </c>
-      <c r="I10" s="85" t="s">
-        <v>981</v>
-      </c>
-      <c r="J10" s="85" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="188.5">
-      <c r="A11" s="166"/>
-      <c r="B11" s="70" t="s">
-        <v>921</v>
-      </c>
-      <c r="C11" s="70" t="s">
-        <v>935</v>
-      </c>
-      <c r="D11" s="70" t="s">
-        <v>949</v>
-      </c>
-      <c r="E11" s="70" t="s">
-        <v>955</v>
-      </c>
-      <c r="F11" s="70" t="s">
-        <v>966</v>
-      </c>
-      <c r="G11" s="70" t="s">
-        <v>976</v>
-      </c>
-      <c r="H11" s="85" t="s">
-        <v>452</v>
-      </c>
-      <c r="I11" s="85" t="s">
-        <v>452</v>
-      </c>
-      <c r="J11" s="85" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="145">
-      <c r="A12" s="166"/>
-      <c r="B12" s="70" t="s">
+      <c r="H13" s="85" t="s">
+        <v>450</v>
+      </c>
+      <c r="I13" s="85" t="s">
+        <v>450</v>
+      </c>
+      <c r="J13" s="85" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="28.8">
+      <c r="A14" s="168"/>
+      <c r="B14" s="70" t="s">
         <v>922</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C14" s="70" t="s">
         <v>936</v>
       </c>
-      <c r="D12" s="70" t="s">
+      <c r="D14" s="70" t="s">
         <v>950</v>
       </c>
-      <c r="E12" s="70" t="s">
-        <v>955</v>
-      </c>
-      <c r="F12" s="70" t="s">
+      <c r="E14" s="70" t="s">
+        <v>953</v>
+      </c>
+      <c r="F14" s="70" t="s">
         <v>967</v>
-      </c>
-      <c r="G12" s="70" t="s">
-        <v>973</v>
-      </c>
-      <c r="H12" s="85" t="s">
-        <v>452</v>
-      </c>
-      <c r="I12" s="85" t="s">
-        <v>452</v>
-      </c>
-      <c r="J12" s="85" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="145">
-      <c r="A13" s="166"/>
-      <c r="B13" s="70" t="s">
-        <v>923</v>
-      </c>
-      <c r="C13" s="70" t="s">
-        <v>937</v>
-      </c>
-      <c r="D13" s="70" t="s">
-        <v>951</v>
-      </c>
-      <c r="E13" s="70" t="s">
-        <v>955</v>
-      </c>
-      <c r="F13" s="70" t="s">
-        <v>968</v>
-      </c>
-      <c r="G13" s="70" t="s">
-        <v>977</v>
-      </c>
-      <c r="H13" s="85" t="s">
-        <v>452</v>
-      </c>
-      <c r="I13" s="85" t="s">
-        <v>452</v>
-      </c>
-      <c r="J13" s="85" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="29">
-      <c r="A14" s="166"/>
-      <c r="B14" s="70" t="s">
-        <v>924</v>
-      </c>
-      <c r="C14" s="70" t="s">
-        <v>938</v>
-      </c>
-      <c r="D14" s="70" t="s">
-        <v>952</v>
-      </c>
-      <c r="E14" s="70" t="s">
-        <v>955</v>
-      </c>
-      <c r="F14" s="70" t="s">
-        <v>969</v>
       </c>
       <c r="G14" s="70"/>
       <c r="H14" s="85" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I14" s="85" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="J14" s="85" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="29">
-      <c r="A15" s="166"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="28.8">
+      <c r="A15" s="168"/>
       <c r="B15" s="70" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C15" s="70" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D15" s="70" t="s">
+        <v>951</v>
+      </c>
+      <c r="E15" s="70" t="s">
         <v>953</v>
       </c>
-      <c r="E15" s="70" t="s">
-        <v>955</v>
-      </c>
       <c r="F15" s="70" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="G15" s="70"/>
       <c r="H15" s="85" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I15" s="85" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="J15" s="85" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="43.5">
-      <c r="A16" s="166" t="s">
-        <v>926</v>
-      </c>
-      <c r="B16" s="166"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="43.2">
+      <c r="A16" s="168" t="s">
+        <v>924</v>
+      </c>
+      <c r="B16" s="168"/>
       <c r="C16" s="70" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D16" s="70" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E16" s="70" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="F16" s="70" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G16" s="70"/>
       <c r="H16" s="85" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I16" s="85" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="J16" s="85" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -8868,22 +8850,22 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.453125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="16.1796875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="24.36328125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="10" customWidth="1"/>
     <col min="4" max="4" width="25" style="10" customWidth="1"/>
-    <col min="5" max="16384" width="8.90625" style="10"/>
+    <col min="5" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="90" customFormat="1">
-      <c r="A1" s="153">
+      <c r="A1" s="155">
         <v>2019</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
       <c r="E1" s="84">
         <v>2018</v>
       </c>
@@ -8900,7 +8882,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="50" customFormat="1" ht="29">
+    <row r="2" spans="1:10" s="50" customFormat="1" ht="28.8">
       <c r="A2" s="88" t="s">
         <v>129</v>
       </c>
@@ -8911,7 +8893,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="E2" s="83"/>
       <c r="F2" s="83"/>
@@ -8920,18 +8902,18 @@
       <c r="I2" s="83"/>
       <c r="J2" s="51"/>
     </row>
-    <row r="3" spans="1:10" ht="29">
+    <row r="3" spans="1:10" ht="28.8">
       <c r="A3" s="72" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B3" s="72" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C3" s="72" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D3" s="72" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="E3" s="91"/>
       <c r="F3" s="91"/>
@@ -8939,39 +8921,39 @@
       <c r="H3" s="91"/>
       <c r="I3" s="91"/>
     </row>
-    <row r="4" spans="1:10" ht="87.5">
+    <row r="4" spans="1:10" ht="87">
       <c r="A4" s="72" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B4" s="72" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D4" s="72" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="E4" s="91"/>
       <c r="F4" s="93" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="G4" s="91"/>
       <c r="H4" s="91"/>
       <c r="I4" s="91"/>
     </row>
-    <row r="5" spans="1:10" ht="29">
+    <row r="5" spans="1:10" ht="28.8">
       <c r="A5" s="72" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B5" s="72" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C5" s="72" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="D5" s="72" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E5" s="91"/>
       <c r="F5" s="92"/>
@@ -8979,18 +8961,18 @@
       <c r="H5" s="91"/>
       <c r="I5" s="91"/>
     </row>
-    <row r="6" spans="1:10" ht="43.5">
+    <row r="6" spans="1:10" ht="43.2">
       <c r="A6" s="72" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B6" s="72" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C6" s="72" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="D6" s="72" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="E6" s="91"/>
       <c r="F6" s="91"/>
@@ -8998,15 +8980,15 @@
       <c r="H6" s="91"/>
       <c r="I6" s="91"/>
     </row>
-    <row r="7" spans="1:10" ht="29">
+    <row r="7" spans="1:10" ht="28.8">
       <c r="A7" s="72" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B7" s="72" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C7" s="72" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="D7" s="72"/>
       <c r="E7" s="91"/>
@@ -9015,15 +8997,15 @@
       <c r="H7" s="91"/>
       <c r="I7" s="91"/>
     </row>
-    <row r="8" spans="1:10" ht="29">
+    <row r="8" spans="1:10" ht="28.8">
       <c r="A8" s="72" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B8" s="72" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C8" s="72" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="D8" s="72"/>
       <c r="E8" s="91"/>
@@ -9032,18 +9014,18 @@
       <c r="H8" s="91"/>
       <c r="I8" s="91"/>
     </row>
-    <row r="9" spans="1:10" ht="29">
+    <row r="9" spans="1:10" ht="28.8">
       <c r="A9" s="72" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B9" s="72" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C9" s="72" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="D9" s="72" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E9" s="91"/>
       <c r="F9" s="91"/>
@@ -9051,18 +9033,18 @@
       <c r="H9" s="91"/>
       <c r="I9" s="91"/>
     </row>
-    <row r="10" spans="1:10" ht="58">
+    <row r="10" spans="1:10" ht="57.6">
       <c r="A10" s="72" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B10" s="72" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C10" s="72" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="D10" s="72" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="E10" s="91"/>
       <c r="F10" s="91"/>
@@ -9070,18 +9052,18 @@
       <c r="H10" s="91"/>
       <c r="I10" s="91"/>
     </row>
-    <row r="11" spans="1:10" ht="58">
+    <row r="11" spans="1:10" ht="57.6">
       <c r="A11" s="72" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B11" s="72" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C11" s="72" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="D11" s="72" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="E11" s="91"/>
       <c r="F11" s="91"/>
@@ -9089,18 +9071,18 @@
       <c r="H11" s="91"/>
       <c r="I11" s="91"/>
     </row>
-    <row r="12" spans="1:10" ht="58">
+    <row r="12" spans="1:10" ht="57.6">
       <c r="A12" s="72" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B12" s="72" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="C12" s="72" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="D12" s="72" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="E12" s="91"/>
       <c r="F12" s="91"/>
@@ -9108,15 +9090,15 @@
       <c r="H12" s="91"/>
       <c r="I12" s="91"/>
     </row>
-    <row r="13" spans="1:10" ht="29">
+    <row r="13" spans="1:10">
       <c r="A13" s="72" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B13" s="72" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C13" s="72" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D13" s="72"/>
       <c r="E13" s="91"/>
@@ -9127,13 +9109,13 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="72" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B14" s="72" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C14" s="72" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D14" s="72"/>
       <c r="E14" s="91"/>
@@ -9142,15 +9124,15 @@
       <c r="H14" s="91"/>
       <c r="I14" s="91"/>
     </row>
-    <row r="15" spans="1:10" ht="29">
+    <row r="15" spans="1:10">
       <c r="A15" s="72" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B15" s="72" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C15" s="72" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D15" s="72"/>
       <c r="E15" s="91"/>
@@ -9173,21 +9155,24 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:I6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="4" width="27.1796875" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" customWidth="1"/>
+    <col min="3" max="3" width="38.44140625" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="8" customFormat="1">
-      <c r="A1" s="144">
+      <c r="A1" s="146">
         <v>2019</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -9215,7 +9200,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="67" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E2" s="68"/>
       <c r="F2" s="68"/>
@@ -9223,14 +9208,16 @@
       <c r="H2" s="68"/>
       <c r="I2" s="68"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" ht="28.8">
       <c r="A3" s="71" t="s">
         <v>201</v>
       </c>
       <c r="B3" s="71" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="71"/>
+      <c r="C3" s="72" t="s">
+        <v>1151</v>
+      </c>
       <c r="D3" s="71"/>
       <c r="E3" s="71"/>
       <c r="F3" s="71"/>
@@ -9238,29 +9225,35 @@
       <c r="H3" s="71"/>
       <c r="I3" s="71"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="43.2">
       <c r="A4" s="71" t="s">
         <v>212</v>
       </c>
       <c r="B4" s="71" t="s">
         <v>216</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
+      <c r="C4" s="72" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D4" s="71" t="s">
+        <v>1145</v>
+      </c>
       <c r="E4" s="71"/>
       <c r="F4" s="71"/>
       <c r="G4" s="71"/>
       <c r="H4" s="71"/>
       <c r="I4" s="71"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="28.8">
       <c r="A5" s="71" t="s">
         <v>213</v>
       </c>
       <c r="B5" s="71" t="s">
         <v>217</v>
       </c>
-      <c r="C5" s="71"/>
+      <c r="C5" s="72" t="s">
+        <v>1153</v>
+      </c>
       <c r="D5" s="71"/>
       <c r="E5" s="71"/>
       <c r="F5" s="71"/>
@@ -9268,14 +9261,16 @@
       <c r="H5" s="71"/>
       <c r="I5" s="71"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="57.6">
       <c r="A6" s="71" t="s">
         <v>214</v>
       </c>
       <c r="B6" s="71" t="s">
         <v>218</v>
       </c>
-      <c r="C6" s="71"/>
+      <c r="C6" s="72" t="s">
+        <v>1154</v>
+      </c>
       <c r="D6" s="71"/>
       <c r="E6" s="71"/>
       <c r="F6" s="71"/>
@@ -9303,21 +9298,21 @@
       <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" style="6" customWidth="1"/>
-    <col min="2" max="4" width="31.81640625" style="6" customWidth="1"/>
-    <col min="5" max="9" width="29.08984375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.81640625" style="6"/>
+    <col min="1" max="1" width="12.33203125" style="6" customWidth="1"/>
+    <col min="2" max="4" width="31.77734375" style="6" customWidth="1"/>
+    <col min="5" max="9" width="29.109375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.77734375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1">
-      <c r="A1" s="144">
+      <c r="A1" s="146">
         <v>2019</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -9345,7 +9340,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="67" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E2" s="68"/>
       <c r="F2" s="68"/>
@@ -9353,7 +9348,7 @@
       <c r="H2" s="68"/>
       <c r="I2" s="68"/>
     </row>
-    <row r="3" spans="1:9" ht="87">
+    <row r="3" spans="1:9" ht="86.4">
       <c r="A3" s="69" t="s">
         <v>90</v>
       </c>
@@ -9382,7 +9377,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="159.5">
+    <row r="4" spans="1:9" ht="158.4">
       <c r="A4" s="69" t="s">
         <v>92</v>
       </c>
@@ -9411,7 +9406,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="101.5">
+    <row r="5" spans="1:9" ht="100.8">
       <c r="A5" s="69" t="s">
         <v>95</v>
       </c>
@@ -9440,7 +9435,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="116">
+    <row r="6" spans="1:9" ht="115.2">
       <c r="A6" s="69" t="s">
         <v>98</v>
       </c>
@@ -9469,7 +9464,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="130.5">
+    <row r="7" spans="1:9" ht="129.6">
       <c r="A7" s="69" t="s">
         <v>101</v>
       </c>
@@ -9498,7 +9493,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="145">
+    <row r="8" spans="1:9" ht="144">
       <c r="A8" s="69" t="s">
         <v>103</v>
       </c>
@@ -9527,7 +9522,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="72.5">
+    <row r="9" spans="1:9" ht="72">
       <c r="A9" s="69" t="s">
         <v>105</v>
       </c>
@@ -9548,7 +9543,7 @@
       <c r="H9" s="69"/>
       <c r="I9" s="69"/>
     </row>
-    <row r="10" spans="1:9" ht="130.5">
+    <row r="10" spans="1:9" ht="129.6">
       <c r="A10" s="69" t="s">
         <v>107</v>
       </c>
@@ -9577,7 +9572,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="101.5">
+    <row r="11" spans="1:9" ht="100.8">
       <c r="A11" s="69" t="s">
         <v>108</v>
       </c>
@@ -9606,7 +9601,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="43.5">
+    <row r="12" spans="1:9" ht="43.2">
       <c r="A12" s="69" t="s">
         <v>130</v>
       </c>
@@ -9633,7 +9628,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="43.5">
+    <row r="13" spans="1:9" ht="43.2">
       <c r="A13" s="69" t="s">
         <v>131</v>
       </c>
@@ -9687,7 +9682,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="43.5">
+    <row r="15" spans="1:9" ht="43.2">
       <c r="A15" s="69" t="s">
         <v>133</v>
       </c>
@@ -9714,7 +9709,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="43.5">
+    <row r="16" spans="1:9" ht="43.2">
       <c r="A16" s="69" t="s">
         <v>135</v>
       </c>
@@ -9741,7 +9736,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="58">
+    <row r="17" spans="1:9" ht="57.6">
       <c r="A17" s="69" t="s">
         <v>134</v>
       </c>
@@ -9758,7 +9753,7 @@
       <c r="H17" s="69"/>
       <c r="I17" s="69"/>
     </row>
-    <row r="18" spans="1:9" ht="174">
+    <row r="18" spans="1:9" ht="172.8">
       <c r="A18" s="69" t="s">
         <v>136</v>
       </c>
@@ -9787,7 +9782,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="203">
+    <row r="19" spans="1:9" ht="201.6">
       <c r="A19" s="69" t="s">
         <v>230</v>
       </c>
@@ -9816,7 +9811,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="43.5">
+    <row r="20" spans="1:9" ht="43.2">
       <c r="A20" s="69" t="s">
         <v>239</v>
       </c>
@@ -9833,7 +9828,7 @@
       <c r="H20" s="69"/>
       <c r="I20" s="69"/>
     </row>
-    <row r="21" spans="1:9" ht="58">
+    <row r="21" spans="1:9" ht="57.6">
       <c r="A21" s="69" t="s">
         <v>240</v>
       </c>
@@ -9852,7 +9847,7 @@
       <c r="H21" s="69"/>
       <c r="I21" s="69"/>
     </row>
-    <row r="22" spans="1:9" ht="174">
+    <row r="22" spans="1:9" ht="172.8">
       <c r="A22" s="69" t="s">
         <v>241</v>
       </c>
@@ -9871,7 +9866,7 @@
       <c r="H22" s="69"/>
       <c r="I22" s="69"/>
     </row>
-    <row r="23" spans="1:9" ht="29">
+    <row r="23" spans="1:9" ht="28.8">
       <c r="A23" s="69" t="s">
         <v>244</v>
       </c>
@@ -9890,7 +9885,7 @@
       <c r="H23" s="69"/>
       <c r="I23" s="69"/>
     </row>
-    <row r="24" spans="1:9" ht="101.5">
+    <row r="24" spans="1:9" ht="100.8">
       <c r="A24" s="69" t="s">
         <v>247</v>
       </c>
@@ -9909,7 +9904,7 @@
       <c r="H24" s="69"/>
       <c r="I24" s="69"/>
     </row>
-    <row r="25" spans="1:9" ht="43.5">
+    <row r="25" spans="1:9" ht="43.2">
       <c r="A25" s="69" t="s">
         <v>251</v>
       </c>
@@ -9926,7 +9921,7 @@
       <c r="H25" s="69"/>
       <c r="I25" s="69"/>
     </row>
-    <row r="26" spans="1:9" ht="58">
+    <row r="26" spans="1:9" ht="57.6">
       <c r="A26" s="69" t="s">
         <v>253</v>
       </c>
@@ -9945,7 +9940,7 @@
       <c r="H26" s="69"/>
       <c r="I26" s="69"/>
     </row>
-    <row r="27" spans="1:9" ht="87">
+    <row r="27" spans="1:9" ht="86.4">
       <c r="A27" s="69" t="s">
         <v>256</v>
       </c>
@@ -9964,15 +9959,15 @@
       <c r="H27" s="69"/>
       <c r="I27" s="69"/>
     </row>
-    <row r="28" spans="1:9" ht="130.5">
+    <row r="28" spans="1:9" ht="129.6">
       <c r="A28" s="69" t="s">
         <v>260</v>
       </c>
       <c r="B28" s="64" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C28" s="64" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D28" s="64" t="s">
         <v>265</v>
@@ -9983,7 +9978,7 @@
       <c r="H28" s="69"/>
       <c r="I28" s="69"/>
     </row>
-    <row r="29" spans="1:9" ht="43.5">
+    <row r="29" spans="1:9" ht="43.2">
       <c r="A29" s="69" t="s">
         <v>261</v>
       </c>
@@ -10002,7 +9997,7 @@
       <c r="H29" s="69"/>
       <c r="I29" s="69"/>
     </row>
-    <row r="30" spans="1:9" ht="87">
+    <row r="30" spans="1:9" ht="86.4">
       <c r="A30" s="69" t="s">
         <v>262</v>
       </c>
@@ -10021,7 +10016,7 @@
       <c r="H30" s="69"/>
       <c r="I30" s="69"/>
     </row>
-    <row r="31" spans="1:9" ht="87">
+    <row r="31" spans="1:9" ht="86.4">
       <c r="A31" s="69" t="s">
         <v>263</v>
       </c>
@@ -10040,7 +10035,7 @@
       <c r="H31" s="69"/>
       <c r="I31" s="69"/>
     </row>
-    <row r="32" spans="1:9" ht="116">
+    <row r="32" spans="1:9" ht="115.2">
       <c r="A32" s="69" t="s">
         <v>264</v>
       </c>
@@ -10059,7 +10054,7 @@
       <c r="H32" s="69"/>
       <c r="I32" s="69"/>
     </row>
-    <row r="33" spans="1:9" ht="43.5">
+    <row r="33" spans="1:9" ht="43.2">
       <c r="A33" s="69" t="s">
         <v>268</v>
       </c>
@@ -10076,12 +10071,12 @@
       <c r="H33" s="69"/>
       <c r="I33" s="69"/>
     </row>
-    <row r="34" spans="1:9" ht="58">
+    <row r="34" spans="1:9" ht="57.6">
       <c r="A34" s="69" t="s">
         <v>269</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C34" s="69" t="s">
         <v>242</v>
@@ -10095,12 +10090,12 @@
       <c r="H34" s="69"/>
       <c r="I34" s="69"/>
     </row>
-    <row r="35" spans="1:9" ht="174">
+    <row r="35" spans="1:9" ht="172.8">
       <c r="A35" s="69" t="s">
         <v>270</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C35" s="69" t="s">
         <v>243</v>
@@ -10114,7 +10109,7 @@
       <c r="H35" s="69"/>
       <c r="I35" s="69"/>
     </row>
-    <row r="36" spans="1:9" ht="58">
+    <row r="36" spans="1:9" ht="57.6">
       <c r="A36" s="69" t="s">
         <v>280</v>
       </c>
@@ -10146,28 +10141,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E138E03F-CE08-4653-B066-24D336CB3A4C}">
   <dimension ref="A1:I126"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="E19" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection activeCell="F21" sqref="F21"/>
       <selection pane="topRight" activeCell="F21" sqref="F21"/>
       <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
-      <selection pane="bottomRight" sqref="A1:I24"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" customWidth="1"/>
-    <col min="2" max="4" width="31.81640625" customWidth="1"/>
-    <col min="5" max="9" width="29.1796875" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="4" width="31.77734375" customWidth="1"/>
+    <col min="5" max="9" width="29.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="9" customFormat="1">
-      <c r="A1" s="144">
+      <c r="A1" s="146">
         <v>2019</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -10195,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="67" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E2" s="68"/>
       <c r="F2" s="68"/>
@@ -10216,7 +10211,7 @@
       <c r="H3" s="71"/>
       <c r="I3" s="71"/>
     </row>
-    <row r="4" spans="1:9" ht="188.5">
+    <row r="4" spans="1:9" ht="187.2">
       <c r="A4" s="69" t="s">
         <v>289</v>
       </c>
@@ -10245,7 +10240,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="6" customFormat="1" ht="29">
+    <row r="5" spans="1:9" s="6" customFormat="1" ht="28.8">
       <c r="A5" s="69" t="s">
         <v>297</v>
       </c>
@@ -10318,7 +10313,7 @@
       <c r="H7" s="69"/>
       <c r="I7" s="69"/>
     </row>
-    <row r="8" spans="1:9" s="6" customFormat="1" ht="174">
+    <row r="8" spans="1:9" s="6" customFormat="1" ht="172.8">
       <c r="A8" s="69" t="s">
         <v>307</v>
       </c>
@@ -10337,7 +10332,7 @@
       <c r="H8" s="69"/>
       <c r="I8" s="69"/>
     </row>
-    <row r="9" spans="1:9" s="6" customFormat="1" ht="217.5">
+    <row r="9" spans="1:9" s="6" customFormat="1" ht="216">
       <c r="A9" s="69" t="s">
         <v>310</v>
       </c>
@@ -10348,7 +10343,7 @@
         <v>312</v>
       </c>
       <c r="D9" s="64" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E9" s="69"/>
       <c r="F9" s="69"/>
@@ -10356,7 +10351,7 @@
       <c r="H9" s="69"/>
       <c r="I9" s="69"/>
     </row>
-    <row r="10" spans="1:9" s="6" customFormat="1" ht="58">
+    <row r="10" spans="1:9" s="6" customFormat="1" ht="57.6">
       <c r="A10" s="69" t="s">
         <v>313</v>
       </c>
@@ -10375,7 +10370,7 @@
       <c r="H10" s="69"/>
       <c r="I10" s="69"/>
     </row>
-    <row r="11" spans="1:9" s="6" customFormat="1" ht="232">
+    <row r="11" spans="1:9" s="6" customFormat="1" ht="100.8">
       <c r="A11" s="69" t="s">
         <v>317</v>
       </c>
@@ -10386,7 +10381,7 @@
         <v>320</v>
       </c>
       <c r="D11" s="64" t="s">
-        <v>362</v>
+        <v>1155</v>
       </c>
       <c r="E11" s="69"/>
       <c r="F11" s="69"/>
@@ -10394,7 +10389,7 @@
       <c r="H11" s="69"/>
       <c r="I11" s="69"/>
     </row>
-    <row r="12" spans="1:9" s="6" customFormat="1" ht="232">
+    <row r="12" spans="1:9" s="6" customFormat="1" ht="409.6">
       <c r="A12" s="69" t="s">
         <v>318</v>
       </c>
@@ -10405,7 +10400,7 @@
         <v>322</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>323</v>
+        <v>1156</v>
       </c>
       <c r="E12" s="69"/>
       <c r="F12" s="69"/>
@@ -10413,18 +10408,18 @@
       <c r="H12" s="69"/>
       <c r="I12" s="69"/>
     </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" ht="203">
+    <row r="13" spans="1:9" s="1" customFormat="1" ht="201.6">
       <c r="A13" s="64" t="s">
+        <v>323</v>
+      </c>
+      <c r="B13" s="64" t="s">
         <v>324</v>
       </c>
-      <c r="B13" s="64" t="s">
+      <c r="C13" s="64" t="s">
         <v>325</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="D13" s="64" t="s">
         <v>326</v>
-      </c>
-      <c r="D13" s="64" t="s">
-        <v>327</v>
       </c>
       <c r="E13" s="64"/>
       <c r="F13" s="64"/>
@@ -10432,15 +10427,15 @@
       <c r="H13" s="64"/>
       <c r="I13" s="64"/>
     </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" ht="58">
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="57.6">
       <c r="A14" s="64" t="s">
+        <v>327</v>
+      </c>
+      <c r="B14" s="64" t="s">
         <v>328</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="C14" s="64" t="s">
         <v>329</v>
-      </c>
-      <c r="C14" s="64" t="s">
-        <v>330</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>33</v>
@@ -10451,18 +10446,18 @@
       <c r="H14" s="64"/>
       <c r="I14" s="64"/>
     </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" ht="203">
+    <row r="15" spans="1:9" s="1" customFormat="1" ht="201.6">
       <c r="A15" s="64" t="s">
+        <v>330</v>
+      </c>
+      <c r="B15" s="64" t="s">
         <v>331</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="C15" s="64" t="s">
         <v>332</v>
       </c>
-      <c r="C15" s="64" t="s">
-        <v>333</v>
-      </c>
       <c r="D15" s="64" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E15" s="64"/>
       <c r="F15" s="64"/>
@@ -10470,15 +10465,15 @@
       <c r="H15" s="64"/>
       <c r="I15" s="64"/>
     </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" ht="29">
+    <row r="16" spans="1:9" s="1" customFormat="1" ht="28.8">
       <c r="A16" s="64" t="s">
+        <v>333</v>
+      </c>
+      <c r="B16" s="64" t="s">
+        <v>335</v>
+      </c>
+      <c r="C16" s="64" t="s">
         <v>334</v>
-      </c>
-      <c r="B16" s="64" t="s">
-        <v>336</v>
-      </c>
-      <c r="C16" s="64" t="s">
-        <v>335</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>33</v>
@@ -10489,15 +10484,15 @@
       <c r="H16" s="64"/>
       <c r="I16" s="64"/>
     </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" ht="29">
+    <row r="17" spans="1:9" s="1" customFormat="1" ht="28.8">
       <c r="A17" s="64" t="s">
+        <v>336</v>
+      </c>
+      <c r="B17" s="64" t="s">
+        <v>338</v>
+      </c>
+      <c r="C17" s="64" t="s">
         <v>337</v>
-      </c>
-      <c r="B17" s="64" t="s">
-        <v>339</v>
-      </c>
-      <c r="C17" s="64" t="s">
-        <v>338</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>33</v>
@@ -10508,18 +10503,18 @@
       <c r="H17" s="64"/>
       <c r="I17" s="64"/>
     </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" ht="101.5">
+    <row r="18" spans="1:9" s="1" customFormat="1" ht="100.8">
       <c r="A18" s="64" t="s">
+        <v>339</v>
+      </c>
+      <c r="B18" s="64" t="s">
         <v>340</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="C18" s="64" t="s">
         <v>341</v>
       </c>
-      <c r="C18" s="64" t="s">
-        <v>342</v>
-      </c>
       <c r="D18" s="64" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E18" s="64"/>
       <c r="F18" s="64"/>
@@ -10527,18 +10522,18 @@
       <c r="H18" s="64"/>
       <c r="I18" s="64"/>
     </row>
-    <row r="19" spans="1:9" s="1" customFormat="1" ht="116">
+    <row r="19" spans="1:9" s="1" customFormat="1" ht="115.2">
       <c r="A19" s="64" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B19" s="64" t="s">
+        <v>344</v>
+      </c>
+      <c r="C19" s="64" t="s">
         <v>345</v>
       </c>
-      <c r="C19" s="64" t="s">
-        <v>346</v>
-      </c>
       <c r="D19" s="64" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E19" s="64" t="s">
         <v>293</v>
@@ -10556,15 +10551,15 @@
         <v>293</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="1" customFormat="1" ht="29">
+    <row r="20" spans="1:9" s="1" customFormat="1" ht="28.8">
       <c r="A20" s="64" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B20" s="64" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C20" s="64" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D20" s="64"/>
       <c r="E20" s="64" t="s">
@@ -10579,15 +10574,15 @@
       <c r="H20" s="64"/>
       <c r="I20" s="64"/>
     </row>
-    <row r="21" spans="1:9" s="1" customFormat="1" ht="43.5">
+    <row r="21" spans="1:9" s="1" customFormat="1" ht="43.2">
       <c r="A21" s="64" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B21" s="64" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C21" s="64" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D21" s="64"/>
       <c r="E21" s="64" t="s">
@@ -10604,13 +10599,13 @@
     </row>
     <row r="22" spans="1:9" s="1" customFormat="1">
       <c r="A22" s="64" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B22" s="64" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C22" s="64" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D22" s="64"/>
       <c r="E22" s="64"/>
@@ -10619,15 +10614,15 @@
       <c r="H22" s="64"/>
       <c r="I22" s="64"/>
     </row>
-    <row r="23" spans="1:9" s="1" customFormat="1" ht="174">
+    <row r="23" spans="1:9" s="1" customFormat="1" ht="172.8">
       <c r="A23" s="64" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B23" s="64" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C23" s="64" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D23" s="64" t="s">
         <v>31</v>
@@ -10640,13 +10635,13 @@
     </row>
     <row r="24" spans="1:9" s="1" customFormat="1">
       <c r="A24" s="64" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B24" s="64" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C24" s="64" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D24" s="64"/>
       <c r="E24" s="64"/>
@@ -10777,21 +10772,21 @@
       <selection pane="bottomRight" sqref="A1:I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="31.81640625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="31.81640625" customWidth="1"/>
-    <col min="5" max="9" width="29.08984375" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.77734375" style="2" customWidth="1"/>
+    <col min="3" max="4" width="31.77734375" customWidth="1"/>
+    <col min="5" max="9" width="29.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1">
-      <c r="A1" s="145">
+      <c r="A1" s="147">
         <v>2019</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -10819,7 +10814,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="67" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E2" s="75"/>
       <c r="F2" s="75"/>
@@ -10827,12 +10822,12 @@
       <c r="H2" s="75"/>
       <c r="I2" s="75"/>
     </row>
-    <row r="3" spans="1:9" ht="29">
+    <row r="3" spans="1:9" ht="28.8">
       <c r="A3" s="12" t="s">
         <v>44</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>1</v>
@@ -10861,12 +10856,12 @@
       <c r="H4" s="12"/>
       <c r="I4" s="71"/>
     </row>
-    <row r="5" spans="1:9" ht="29">
+    <row r="5" spans="1:9" ht="28.8">
       <c r="A5" s="12" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>3</v>
@@ -10880,12 +10875,12 @@
       <c r="H5" s="12"/>
       <c r="I5" s="71"/>
     </row>
-    <row r="6" spans="1:9" ht="232">
+    <row r="6" spans="1:9" ht="230.4">
       <c r="A6" s="12" t="s">
         <v>47</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>4</v>
@@ -10899,12 +10894,12 @@
       <c r="H6" s="12"/>
       <c r="I6" s="71"/>
     </row>
-    <row r="7" spans="1:9" ht="101.5">
+    <row r="7" spans="1:9" ht="100.8">
       <c r="A7" s="12" t="s">
         <v>48</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>5</v>
@@ -10913,25 +10908,25 @@
         <v>33</v>
       </c>
       <c r="E7" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="H7" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="G7" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>367</v>
-      </c>
       <c r="I7" s="71"/>
     </row>
-    <row r="8" spans="1:9" ht="101.5">
+    <row r="8" spans="1:9" ht="100.8">
       <c r="A8" s="12" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>6</v>
@@ -10950,7 +10945,7 @@
         <v>50</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C9" s="76" t="s">
         <v>7</v>
@@ -10962,12 +10957,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="71"/>
     </row>
-    <row r="10" spans="1:9" ht="43.5">
+    <row r="10" spans="1:9" ht="43.2">
       <c r="A10" s="12" t="s">
         <v>51</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C10" s="76" t="s">
         <v>8</v>
@@ -10986,7 +10981,7 @@
         <v>52</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C11" s="76" t="s">
         <v>9</v>
@@ -11003,7 +10998,7 @@
         <v>53</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C12" s="76" t="s">
         <v>10</v>
@@ -11015,12 +11010,12 @@
       <c r="H12" s="12"/>
       <c r="I12" s="71"/>
     </row>
-    <row r="13" spans="1:9" ht="56">
+    <row r="13" spans="1:9" ht="55.2">
       <c r="A13" s="12" t="s">
         <v>54</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C13" s="77" t="s">
         <v>11</v>
@@ -11032,12 +11027,12 @@
       <c r="H13" s="12"/>
       <c r="I13" s="71"/>
     </row>
-    <row r="14" spans="1:9" ht="58">
+    <row r="14" spans="1:9" ht="57.6">
       <c r="A14" s="12" t="s">
         <v>55</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C14" s="76" t="s">
         <v>12</v>
@@ -11046,27 +11041,27 @@
         <v>37</v>
       </c>
       <c r="E14" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="G14" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="H14" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="I14" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="G14" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="174">
+    </row>
+    <row r="15" spans="1:9" ht="172.8">
       <c r="A15" s="12" t="s">
         <v>56</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C15" s="77" t="s">
         <v>13</v>
@@ -11081,17 +11076,17 @@
         <v>77</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="71"/>
     </row>
-    <row r="16" spans="1:9" ht="72.5">
+    <row r="16" spans="1:9" ht="72">
       <c r="A16" s="12" t="s">
         <v>57</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>14</v>
@@ -11105,12 +11100,12 @@
       <c r="H16" s="12"/>
       <c r="I16" s="71"/>
     </row>
-    <row r="17" spans="1:9" ht="174">
+    <row r="17" spans="1:9" ht="172.8">
       <c r="A17" s="12" t="s">
         <v>58</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>15</v>
@@ -11121,17 +11116,17 @@
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="13" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="71"/>
     </row>
-    <row r="18" spans="1:9" ht="72.5">
+    <row r="18" spans="1:9" ht="72">
       <c r="A18" s="12" t="s">
         <v>59</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>16</v>
@@ -11145,12 +11140,12 @@
       <c r="H18" s="12"/>
       <c r="I18" s="71"/>
     </row>
-    <row r="19" spans="1:9" ht="116">
+    <row r="19" spans="1:9" ht="115.2">
       <c r="A19" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>17</v>
@@ -11164,12 +11159,12 @@
       <c r="H19" s="12"/>
       <c r="I19" s="71"/>
     </row>
-    <row r="20" spans="1:9" ht="87">
+    <row r="20" spans="1:9" ht="86.4">
       <c r="A20" s="12" t="s">
         <v>60</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>18</v>
@@ -11183,12 +11178,12 @@
       <c r="H20" s="12"/>
       <c r="I20" s="71"/>
     </row>
-    <row r="21" spans="1:9" ht="87">
+    <row r="21" spans="1:9" ht="86.4">
       <c r="A21" s="12" t="s">
         <v>62</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>19</v>
@@ -11202,12 +11197,12 @@
       <c r="H21" s="12"/>
       <c r="I21" s="71"/>
     </row>
-    <row r="22" spans="1:9" ht="174">
+    <row r="22" spans="1:9" ht="172.8">
       <c r="A22" s="12" t="s">
         <v>63</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>20</v>
@@ -11221,12 +11216,12 @@
       <c r="H22" s="12"/>
       <c r="I22" s="71"/>
     </row>
-    <row r="23" spans="1:9" ht="174.5" customHeight="1">
+    <row r="23" spans="1:9" ht="174.45" customHeight="1">
       <c r="A23" s="12" t="s">
         <v>64</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>21</v>
@@ -11255,7 +11250,7 @@
         <v>65</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>22</v>
@@ -11267,12 +11262,12 @@
       <c r="H24" s="12"/>
       <c r="I24" s="71"/>
     </row>
-    <row r="25" spans="1:9" ht="43.5">
+    <row r="25" spans="1:9" ht="43.2">
       <c r="A25" s="12" t="s">
         <v>66</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>23</v>
@@ -11291,7 +11286,7 @@
         <v>67</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>24</v>
@@ -11308,7 +11303,7 @@
         <v>68</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>25</v>
@@ -11325,7 +11320,7 @@
         <v>69</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>26</v>
@@ -11337,12 +11332,12 @@
       <c r="H28" s="12"/>
       <c r="I28" s="71"/>
     </row>
-    <row r="29" spans="1:9" ht="29">
+    <row r="29" spans="1:9" ht="28.8">
       <c r="A29" s="12" t="s">
         <v>70</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>27</v>
@@ -11361,7 +11356,7 @@
         <v>71</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>28</v>
@@ -11383,12 +11378,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="305" customHeight="1">
+    <row r="31" spans="1:9" ht="304.95" customHeight="1">
       <c r="A31" s="12" t="s">
         <v>72</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>29</v>
@@ -11426,27 +11421,27 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" style="6" customWidth="1"/>
-    <col min="2" max="3" width="17.453125" style="6" customWidth="1"/>
-    <col min="4" max="9" width="29.08984375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.81640625" style="6"/>
+    <col min="1" max="1" width="14.21875" style="6" customWidth="1"/>
+    <col min="2" max="3" width="17.44140625" style="6" customWidth="1"/>
+    <col min="4" max="9" width="29.109375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.77734375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="37" customFormat="1">
-      <c r="A1" s="144">
+      <c r="A1" s="146">
         <v>2019</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -11474,7 +11469,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="67" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E2" s="68"/>
       <c r="F2" s="68"/>
@@ -11482,893 +11477,893 @@
       <c r="H2" s="68"/>
       <c r="I2" s="68"/>
     </row>
-    <row r="3" spans="1:9" ht="72.5">
+    <row r="3" spans="1:9" ht="72">
       <c r="A3" s="69" t="s">
+        <v>446</v>
+      </c>
+      <c r="B3" s="69" t="s">
+        <v>447</v>
+      </c>
+      <c r="C3" s="64" t="s">
         <v>448</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="D3" s="64" t="s">
         <v>449</v>
       </c>
-      <c r="C3" s="64" t="s">
-        <v>450</v>
-      </c>
-      <c r="D3" s="64" t="s">
+      <c r="E3" s="69" t="s">
+        <v>450</v>
+      </c>
+      <c r="F3" s="69" t="s">
+        <v>450</v>
+      </c>
+      <c r="G3" s="69" t="s">
+        <v>450</v>
+      </c>
+      <c r="H3" s="69" t="s">
+        <v>450</v>
+      </c>
+      <c r="I3" s="69" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="201.6">
+      <c r="A4" s="69" t="s">
         <v>451</v>
       </c>
-      <c r="E3" s="69" t="s">
+      <c r="B4" s="69" t="s">
         <v>452</v>
       </c>
-      <c r="F3" s="69" t="s">
-        <v>452</v>
-      </c>
-      <c r="G3" s="69" t="s">
-        <v>452</v>
-      </c>
-      <c r="H3" s="69" t="s">
-        <v>452</v>
-      </c>
-      <c r="I3" s="69" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="203">
-      <c r="A4" s="69" t="s">
+      <c r="C4" s="64" t="s">
         <v>453</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="D4" s="64" t="s">
         <v>454</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="E4" s="69" t="s">
+        <v>450</v>
+      </c>
+      <c r="F4" s="69" t="s">
+        <v>450</v>
+      </c>
+      <c r="G4" s="69" t="s">
+        <v>450</v>
+      </c>
+      <c r="H4" s="69" t="s">
+        <v>450</v>
+      </c>
+      <c r="I4" s="69" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="129.6">
+      <c r="A5" s="69" t="s">
         <v>455</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="B5" s="69" t="s">
         <v>456</v>
       </c>
-      <c r="E4" s="69" t="s">
-        <v>452</v>
-      </c>
-      <c r="F4" s="69" t="s">
-        <v>452</v>
-      </c>
-      <c r="G4" s="69" t="s">
-        <v>452</v>
-      </c>
-      <c r="H4" s="69" t="s">
-        <v>452</v>
-      </c>
-      <c r="I4" s="69" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="130.5">
-      <c r="A5" s="69" t="s">
+      <c r="C5" s="64" t="s">
         <v>457</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="D5" s="64" t="s">
+        <v>449</v>
+      </c>
+      <c r="E5" s="69" t="s">
+        <v>450</v>
+      </c>
+      <c r="F5" s="69" t="s">
+        <v>450</v>
+      </c>
+      <c r="G5" s="69" t="s">
+        <v>450</v>
+      </c>
+      <c r="H5" s="69" t="s">
+        <v>450</v>
+      </c>
+      <c r="I5" s="69" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="187.2">
+      <c r="A6" s="69" t="s">
         <v>458</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="B6" s="69" t="s">
         <v>459</v>
       </c>
-      <c r="D5" s="64" t="s">
-        <v>451</v>
-      </c>
-      <c r="E5" s="69" t="s">
-        <v>452</v>
-      </c>
-      <c r="F5" s="69" t="s">
-        <v>452</v>
-      </c>
-      <c r="G5" s="69" t="s">
-        <v>452</v>
-      </c>
-      <c r="H5" s="69" t="s">
-        <v>452</v>
-      </c>
-      <c r="I5" s="69" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="188.5">
-      <c r="A6" s="69" t="s">
+      <c r="C6" s="64" t="s">
         <v>460</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="D6" s="64" t="s">
         <v>461</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="E6" s="69" t="s">
+        <v>450</v>
+      </c>
+      <c r="F6" s="69" t="s">
+        <v>450</v>
+      </c>
+      <c r="G6" s="69" t="s">
+        <v>450</v>
+      </c>
+      <c r="H6" s="69" t="s">
+        <v>450</v>
+      </c>
+      <c r="I6" s="69" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="100.8">
+      <c r="A7" s="69" t="s">
         <v>462</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="B7" s="69" t="s">
         <v>463</v>
       </c>
-      <c r="E6" s="69" t="s">
-        <v>452</v>
-      </c>
-      <c r="F6" s="69" t="s">
-        <v>452</v>
-      </c>
-      <c r="G6" s="69" t="s">
-        <v>452</v>
-      </c>
-      <c r="H6" s="69" t="s">
-        <v>452</v>
-      </c>
-      <c r="I6" s="69" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="101.5">
-      <c r="A7" s="69" t="s">
+      <c r="C7" s="64" t="s">
         <v>464</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="D7" s="64" t="s">
         <v>465</v>
       </c>
-      <c r="C7" s="64" t="s">
-        <v>466</v>
-      </c>
-      <c r="D7" s="64" t="s">
-        <v>467</v>
-      </c>
       <c r="E7" s="69" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F7" s="69" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G7" s="69" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H7" s="69" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I7" s="69" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A8" s="64" t="s">
+        <v>466</v>
+      </c>
+      <c r="B8" s="69" t="s">
+        <v>467</v>
+      </c>
+      <c r="C8" s="64" t="s">
         <v>468</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="D8" s="64" t="s">
         <v>469</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="E8" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="F8" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="G8" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="H8" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="I8" s="64" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="43.8" customHeight="1">
+      <c r="A9" s="64" t="s">
         <v>470</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="B9" s="64" t="s">
         <v>471</v>
       </c>
-      <c r="E8" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="F8" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="G8" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="H8" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="I8" s="64" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" ht="43.75" customHeight="1">
-      <c r="A9" s="64" t="s">
+      <c r="C9" s="64" t="s">
         <v>472</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="D9" s="64" t="s">
+        <v>449</v>
+      </c>
+      <c r="E9" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="F9" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="G9" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="H9" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="I9" s="64" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="28.8">
+      <c r="A10" s="64" t="s">
         <v>473</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="B10" s="64" t="s">
         <v>474</v>
       </c>
-      <c r="D9" s="64" t="s">
-        <v>451</v>
-      </c>
-      <c r="E9" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="F9" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="G9" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="H9" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="I9" s="64" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" ht="29">
-      <c r="A10" s="64" t="s">
+      <c r="C10" s="64" t="s">
         <v>475</v>
-      </c>
-      <c r="B10" s="64" t="s">
-        <v>476</v>
-      </c>
-      <c r="C10" s="64" t="s">
-        <v>477</v>
       </c>
       <c r="D10" s="64"/>
       <c r="E10" s="64" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F10" s="64" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G10" s="64" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H10" s="64" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I10" s="64" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" ht="14.4" customHeight="1">
       <c r="A11" s="64" t="s">
+        <v>476</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>477</v>
+      </c>
+      <c r="C11" s="64" t="s">
         <v>478</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="D11" s="64" t="s">
         <v>479</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="E11" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="F11" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="G11" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="H11" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="I11" s="64" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" ht="72">
+      <c r="A12" s="64" t="s">
         <v>480</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="B12" s="64" t="s">
         <v>481</v>
       </c>
-      <c r="E11" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="F11" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="G11" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="H11" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="I11" s="64" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" ht="72.5">
-      <c r="A12" s="64" t="s">
+      <c r="C12" s="64" t="s">
         <v>482</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="D12" s="64" t="s">
         <v>483</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="E12" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="F12" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="G12" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="H12" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="I12" s="64" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="57.6">
+      <c r="A13" s="69" t="s">
         <v>484</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="B13" s="69" t="s">
         <v>485</v>
       </c>
-      <c r="E12" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="F12" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="G12" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="H12" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="I12" s="64" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="58">
-      <c r="A13" s="69" t="s">
+      <c r="C13" s="64" t="s">
         <v>486</v>
       </c>
-      <c r="B13" s="69" t="s">
+      <c r="D13" s="64" t="s">
+        <v>449</v>
+      </c>
+      <c r="E13" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="F13" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="G13" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="H13" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="I13" s="64" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="115.2">
+      <c r="A14" s="69" t="s">
         <v>487</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="B14" s="69" t="s">
         <v>488</v>
       </c>
-      <c r="D13" s="64" t="s">
-        <v>451</v>
-      </c>
-      <c r="E13" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="F13" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="G13" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="H13" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="I13" s="64" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="116">
-      <c r="A14" s="69" t="s">
+      <c r="C14" s="64" t="s">
         <v>489</v>
       </c>
-      <c r="B14" s="69" t="s">
+      <c r="D14" s="64" t="s">
         <v>490</v>
       </c>
-      <c r="C14" s="64" t="s">
+      <c r="E14" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="F14" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="G14" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="H14" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="I14" s="64" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="100.8">
+      <c r="A15" s="69" t="s">
         <v>491</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="B15" s="69" t="s">
         <v>492</v>
       </c>
-      <c r="E14" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="F14" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="G14" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="H14" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="I14" s="64" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="101.5">
-      <c r="A15" s="69" t="s">
+      <c r="C15" s="64" t="s">
         <v>493</v>
       </c>
-      <c r="B15" s="69" t="s">
+      <c r="D15" s="64" t="s">
         <v>494</v>
       </c>
-      <c r="C15" s="64" t="s">
-        <v>495</v>
-      </c>
-      <c r="D15" s="64" t="s">
-        <v>496</v>
-      </c>
       <c r="E15" s="64" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F15" s="64" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G15" s="64" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H15" s="64" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I15" s="64" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="69" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B16" s="69" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C16" s="64" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D16" s="64"/>
       <c r="E16" s="64" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F16" s="64" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G16" s="64" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H16" s="64" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I16" s="64" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="29">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="28.8">
       <c r="A17" s="69" t="s">
+        <v>497</v>
+      </c>
+      <c r="B17" s="69" t="s">
+        <v>498</v>
+      </c>
+      <c r="C17" s="64" t="s">
+        <v>478</v>
+      </c>
+      <c r="D17" s="64" t="s">
+        <v>479</v>
+      </c>
+      <c r="E17" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="F17" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="G17" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="H17" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="I17" s="64" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="72">
+      <c r="A18" s="69" t="s">
         <v>499</v>
       </c>
-      <c r="B17" s="69" t="s">
+      <c r="B18" s="64" t="s">
         <v>500</v>
       </c>
-      <c r="C17" s="64" t="s">
-        <v>480</v>
-      </c>
-      <c r="D17" s="64" t="s">
-        <v>481</v>
-      </c>
-      <c r="E17" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="F17" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="G17" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="H17" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="I17" s="64" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="72.5">
-      <c r="A18" s="69" t="s">
+      <c r="C18" s="64" t="s">
+        <v>482</v>
+      </c>
+      <c r="D18" s="64" t="s">
+        <v>483</v>
+      </c>
+      <c r="E18" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="F18" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="G18" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="H18" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="I18" s="64" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="28.8">
+      <c r="A19" s="69" t="s">
         <v>501</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B19" s="69" t="s">
         <v>502</v>
       </c>
-      <c r="C18" s="64" t="s">
-        <v>484</v>
-      </c>
-      <c r="D18" s="64" t="s">
-        <v>485</v>
-      </c>
-      <c r="E18" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="F18" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="G18" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="H18" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="I18" s="64" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="29">
-      <c r="A19" s="69" t="s">
+      <c r="C19" s="69" t="s">
         <v>503</v>
       </c>
-      <c r="B19" s="69" t="s">
-        <v>504</v>
-      </c>
-      <c r="C19" s="69" t="s">
-        <v>505</v>
-      </c>
       <c r="D19" s="64" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E19" s="64" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F19" s="64" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G19" s="64" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H19" s="64" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I19" s="64" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="69" t="s">
+        <v>504</v>
+      </c>
+      <c r="B20" s="69" t="s">
+        <v>505</v>
+      </c>
+      <c r="C20" s="69" t="s">
         <v>506</v>
-      </c>
-      <c r="B20" s="69" t="s">
-        <v>507</v>
-      </c>
-      <c r="C20" s="69" t="s">
-        <v>508</v>
       </c>
       <c r="D20" s="69"/>
       <c r="E20" s="64" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F20" s="64" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G20" s="64" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H20" s="64" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I20" s="64" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="29">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="28.8">
       <c r="A21" s="69" t="s">
+        <v>507</v>
+      </c>
+      <c r="B21" s="69" t="s">
+        <v>508</v>
+      </c>
+      <c r="C21" s="69" t="s">
+        <v>478</v>
+      </c>
+      <c r="D21" s="64" t="s">
+        <v>479</v>
+      </c>
+      <c r="E21" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="F21" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="G21" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="H21" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="I21" s="64" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="72">
+      <c r="A22" s="69" t="s">
         <v>509</v>
       </c>
-      <c r="B21" s="69" t="s">
+      <c r="B22" s="69" t="s">
         <v>510</v>
       </c>
-      <c r="C21" s="69" t="s">
-        <v>480</v>
-      </c>
-      <c r="D21" s="64" t="s">
-        <v>481</v>
-      </c>
-      <c r="E21" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="F21" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="G21" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="H21" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="I21" s="64" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="72.5">
-      <c r="A22" s="69" t="s">
+      <c r="C22" s="69" t="s">
+        <v>482</v>
+      </c>
+      <c r="D22" s="64" t="s">
+        <v>483</v>
+      </c>
+      <c r="E22" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="F22" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="G22" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="H22" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="I22" s="64" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="28.8">
+      <c r="A23" s="69" t="s">
         <v>511</v>
       </c>
-      <c r="B22" s="69" t="s">
+      <c r="B23" s="69" t="s">
         <v>512</v>
       </c>
-      <c r="C22" s="69" t="s">
-        <v>484</v>
-      </c>
-      <c r="D22" s="64" t="s">
-        <v>485</v>
-      </c>
-      <c r="E22" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="F22" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="G22" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="H22" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="I22" s="64" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="29">
-      <c r="A23" s="69" t="s">
+      <c r="C23" s="69" t="s">
         <v>513</v>
       </c>
-      <c r="B23" s="69" t="s">
-        <v>514</v>
-      </c>
-      <c r="C23" s="69" t="s">
-        <v>515</v>
-      </c>
       <c r="D23" s="64" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E23" s="64" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F23" s="64" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G23" s="64" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H23" s="64" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I23" s="64" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="69" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B24" s="69" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C24" s="64" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D24" s="69"/>
       <c r="E24" s="64" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F24" s="64" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G24" s="64" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H24" s="64" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I24" s="64" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="29">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="28.8">
       <c r="A25" s="69" t="s">
+        <v>516</v>
+      </c>
+      <c r="B25" s="69" t="s">
+        <v>517</v>
+      </c>
+      <c r="C25" s="64" t="s">
+        <v>478</v>
+      </c>
+      <c r="D25" s="64" t="s">
+        <v>479</v>
+      </c>
+      <c r="E25" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="F25" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="G25" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="H25" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="I25" s="64" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="72">
+      <c r="A26" s="69" t="s">
         <v>518</v>
       </c>
-      <c r="B25" s="69" t="s">
+      <c r="B26" s="69" t="s">
         <v>519</v>
       </c>
-      <c r="C25" s="64" t="s">
-        <v>480</v>
-      </c>
-      <c r="D25" s="64" t="s">
-        <v>481</v>
-      </c>
-      <c r="E25" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="F25" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="G25" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="H25" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="I25" s="64" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="72.5">
-      <c r="A26" s="69" t="s">
+      <c r="C26" s="64" t="s">
+        <v>482</v>
+      </c>
+      <c r="D26" s="64" t="s">
+        <v>483</v>
+      </c>
+      <c r="E26" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="F26" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="G26" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="H26" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="I26" s="64" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="72">
+      <c r="A27" s="69" t="s">
         <v>520</v>
       </c>
-      <c r="B26" s="69" t="s">
+      <c r="B27" s="69" t="s">
         <v>521</v>
       </c>
-      <c r="C26" s="64" t="s">
-        <v>484</v>
-      </c>
-      <c r="D26" s="64" t="s">
-        <v>485</v>
-      </c>
-      <c r="E26" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="F26" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="G26" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="H26" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="I26" s="64" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="72.5">
-      <c r="A27" s="69" t="s">
+      <c r="C27" s="69" t="s">
         <v>522</v>
       </c>
-      <c r="B27" s="69" t="s">
+      <c r="D27" s="64" t="s">
+        <v>449</v>
+      </c>
+      <c r="E27" s="64" t="s">
         <v>523</v>
       </c>
-      <c r="C27" s="69" t="s">
+      <c r="F27" s="64" t="s">
+        <v>523</v>
+      </c>
+      <c r="G27" s="64" t="s">
         <v>524</v>
       </c>
-      <c r="D27" s="64" t="s">
-        <v>451</v>
-      </c>
-      <c r="E27" s="64" t="s">
+      <c r="H27" s="64" t="s">
         <v>525</v>
       </c>
-      <c r="F27" s="64" t="s">
-        <v>525</v>
-      </c>
-      <c r="G27" s="64" t="s">
+      <c r="I27" s="64" t="s">
         <v>526</v>
       </c>
-      <c r="H27" s="64" t="s">
+    </row>
+    <row r="28" spans="1:9" ht="144">
+      <c r="A28" s="69" t="s">
         <v>527</v>
       </c>
-      <c r="I27" s="64" t="s">
+      <c r="B28" s="69" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="145">
-      <c r="A28" s="69" t="s">
+      <c r="C28" s="69" t="s">
         <v>529</v>
       </c>
-      <c r="B28" s="69" t="s">
+      <c r="D28" s="64" t="s">
         <v>530</v>
       </c>
-      <c r="C28" s="69" t="s">
+      <c r="E28" s="64" t="s">
         <v>531</v>
       </c>
-      <c r="D28" s="64" t="s">
+      <c r="F28" s="64" t="s">
+        <v>531</v>
+      </c>
+      <c r="G28" s="64" t="s">
         <v>532</v>
       </c>
-      <c r="E28" s="64" t="s">
+      <c r="H28" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="F28" s="64" t="s">
-        <v>533</v>
-      </c>
-      <c r="G28" s="64" t="s">
+      <c r="I28" s="64" t="s">
         <v>534</v>
       </c>
-      <c r="H28" s="64" t="s">
+    </row>
+    <row r="29" spans="1:9" ht="28.8">
+      <c r="A29" s="69" t="s">
         <v>535</v>
       </c>
-      <c r="I28" s="64" t="s">
+      <c r="B29" s="69" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="29">
-      <c r="A29" s="69" t="s">
+      <c r="C29" s="69" t="s">
         <v>537</v>
       </c>
-      <c r="B29" s="69" t="s">
+      <c r="D29" s="64" t="s">
+        <v>449</v>
+      </c>
+      <c r="E29" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="F29" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="G29" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="H29" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="I29" s="64" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="57.6">
+      <c r="A30" s="69" t="s">
         <v>538</v>
       </c>
-      <c r="C29" s="69" t="s">
+      <c r="B30" s="69" t="s">
         <v>539</v>
       </c>
-      <c r="D29" s="64" t="s">
-        <v>451</v>
-      </c>
-      <c r="E29" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="F29" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="G29" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="H29" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="I29" s="64" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="58">
-      <c r="A30" s="69" t="s">
+      <c r="C30" s="69" t="s">
         <v>540</v>
       </c>
-      <c r="B30" s="69" t="s">
+      <c r="D30" s="64" t="s">
         <v>541</v>
       </c>
-      <c r="C30" s="69" t="s">
-        <v>542</v>
-      </c>
-      <c r="D30" s="64" t="s">
-        <v>543</v>
-      </c>
       <c r="E30" s="64" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F30" s="64" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G30" s="64" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H30" s="64" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I30" s="64" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="69" t="s">
+        <v>542</v>
+      </c>
+      <c r="B31" s="69" t="s">
+        <v>543</v>
+      </c>
+      <c r="C31" s="69" t="s">
         <v>544</v>
-      </c>
-      <c r="B31" s="69" t="s">
-        <v>545</v>
-      </c>
-      <c r="C31" s="69" t="s">
-        <v>546</v>
       </c>
       <c r="D31" s="69"/>
       <c r="E31" s="64" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F31" s="64" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G31" s="64" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H31" s="64" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I31" s="64" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="29">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="28.8">
       <c r="A32" s="69" t="s">
+        <v>545</v>
+      </c>
+      <c r="B32" s="69" t="s">
+        <v>546</v>
+      </c>
+      <c r="C32" s="69" t="s">
+        <v>478</v>
+      </c>
+      <c r="D32" s="64" t="s">
+        <v>479</v>
+      </c>
+      <c r="E32" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="F32" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="G32" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="H32" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="I32" s="64" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="72">
+      <c r="A33" s="69" t="s">
         <v>547</v>
       </c>
-      <c r="B32" s="69" t="s">
+      <c r="B33" s="69" t="s">
         <v>548</v>
       </c>
-      <c r="C32" s="69" t="s">
-        <v>480</v>
-      </c>
-      <c r="D32" s="64" t="s">
-        <v>481</v>
-      </c>
-      <c r="E32" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="F32" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="G32" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="H32" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="I32" s="64" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="72.5">
-      <c r="A33" s="69" t="s">
-        <v>549</v>
-      </c>
-      <c r="B33" s="69" t="s">
-        <v>550</v>
-      </c>
       <c r="C33" s="69" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D33" s="64" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E33" s="64" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F33" s="64" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G33" s="64" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H33" s="64" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I33" s="64" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -12405,28 +12400,28 @@
       <selection pane="bottomRight" activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.08984375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="42.08984375" style="36" customWidth="1"/>
-    <col min="4" max="4" width="32.54296875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="42.109375" style="36" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" style="17" customWidth="1"/>
     <col min="5" max="5" width="24" style="6" customWidth="1"/>
     <col min="6" max="6" width="16" style="6" customWidth="1"/>
     <col min="7" max="7" width="24" style="49" customWidth="1"/>
-    <col min="8" max="8" width="15.36328125" style="49" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="49" customWidth="1"/>
     <col min="9" max="9" width="24" style="6" customWidth="1"/>
-    <col min="10" max="10" width="17.36328125" style="6" customWidth="1"/>
-    <col min="14" max="16384" width="8.81640625" style="6"/>
+    <col min="10" max="10" width="17.33203125" style="6" customWidth="1"/>
+    <col min="14" max="16384" width="8.77734375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="37" customFormat="1">
-      <c r="A1" s="146">
+      <c r="A1" s="148">
         <v>2019</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
       <c r="E1" s="59">
         <v>2018</v>
       </c>
@@ -12454,1561 +12449,1561 @@
         <v>0</v>
       </c>
       <c r="D2" s="79" t="s">
-        <v>390</v>
-      </c>
-      <c r="E2" s="147" t="s">
+        <v>388</v>
+      </c>
+      <c r="E2" s="149" t="s">
+        <v>549</v>
+      </c>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="106.2" customHeight="1">
+      <c r="A3" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>551</v>
       </c>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" ht="106.25" customHeight="1">
-      <c r="A3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>552</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="D3" s="38" t="s">
+        <v>449</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>553</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="F3" s="16" t="s">
         <v>554</v>
       </c>
-      <c r="D3" s="38" t="s">
-        <v>451</v>
-      </c>
-      <c r="E3" s="16" t="s">
+      <c r="G3" s="16" t="s">
+        <v>816</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>817</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>818</v>
+      </c>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4" spans="1:10" ht="153">
+      <c r="A4" s="14" t="s">
         <v>555</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>556</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="C4" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>558</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>559</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>816</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>817</v>
+      </c>
+      <c r="I4" s="39" t="s">
         <v>818</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="J4" s="18"/>
+    </row>
+    <row r="5" spans="1:10" ht="153">
+      <c r="A5" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>449</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>559</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>816</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>817</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>818</v>
+      </c>
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6" spans="1:10" ht="255">
+      <c r="A6" s="14" t="s">
+        <v>563</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>565</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>566</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>567</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>819</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="G6" s="16" t="s">
         <v>820</v>
       </c>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" ht="157.5">
-      <c r="A4" s="14" t="s">
-        <v>557</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>558</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>559</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>560</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>561</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>556</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>818</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>819</v>
-      </c>
-      <c r="I4" s="39" t="s">
-        <v>820</v>
-      </c>
-      <c r="J4" s="18"/>
-    </row>
-    <row r="5" spans="1:10" ht="157.5">
-      <c r="A5" s="14" t="s">
-        <v>562</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>563</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>564</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>451</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>561</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>556</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>818</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>819</v>
-      </c>
-      <c r="I5" s="39" t="s">
-        <v>820</v>
-      </c>
-      <c r="J5" s="18"/>
-    </row>
-    <row r="6" spans="1:10" ht="252">
-      <c r="A6" s="14" t="s">
-        <v>565</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>566</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>567</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>568</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>569</v>
-      </c>
-      <c r="F6" s="16" t="s">
+      <c r="H6" s="40" t="s">
         <v>821</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="I6" s="39" t="s">
         <v>822</v>
-      </c>
-      <c r="H6" s="40" t="s">
-        <v>823</v>
-      </c>
-      <c r="I6" s="39" t="s">
-        <v>824</v>
       </c>
       <c r="J6" s="18"/>
     </row>
     <row r="7" spans="1:10" ht="96" customHeight="1">
       <c r="A7" s="14" t="s">
+        <v>568</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>569</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>570</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="D7" s="38" t="s">
+        <v>449</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>571</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="F7" s="16" t="s">
+        <v>823</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>824</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>825</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>825</v>
+      </c>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:10" ht="31.2" customHeight="1">
+      <c r="A8" s="14" t="s">
         <v>572</v>
       </c>
-      <c r="D7" s="38" t="s">
-        <v>451</v>
-      </c>
-      <c r="E7" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>573</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="C8" s="15" t="s">
+        <v>574</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>449</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>575</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>816</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>817</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>818</v>
+      </c>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="1:10" ht="31.2" customHeight="1">
+      <c r="A9" s="14" t="s">
+        <v>576</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>577</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>578</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>449</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>575</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>816</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>817</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="102">
+      <c r="A10" s="14" t="s">
+        <v>579</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>581</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>582</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>583</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>584</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>826</v>
+      </c>
+      <c r="H10" s="39" t="s">
+        <v>450</v>
+      </c>
+      <c r="I10" s="39" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="91.8">
+      <c r="A11" s="14" t="s">
+        <v>585</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>587</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>588</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>450</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>450</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>450</v>
+      </c>
+      <c r="H11" s="39" t="s">
+        <v>450</v>
+      </c>
+      <c r="I11" s="39" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="27.6">
+      <c r="A12" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>590</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>449</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>450</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>450</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>450</v>
+      </c>
+      <c r="H12" s="39" t="s">
+        <v>450</v>
+      </c>
+      <c r="I12" s="39" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="91.8">
+      <c r="A13" s="14" t="s">
+        <v>592</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>594</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>595</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>596</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>827</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>828</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="153">
+      <c r="A14" s="14" t="s">
+        <v>597</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>599</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>600</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>601</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>816</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>817</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="142.80000000000001">
+      <c r="A15" s="19" t="s">
+        <v>602</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>603</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>604</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>605</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>606</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>607</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>829</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>830</v>
+      </c>
+      <c r="I15" s="42" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="224.4">
+      <c r="A16" s="19" t="s">
+        <v>608</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>609</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>610</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>611</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>612</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>613</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>832</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>833</v>
+      </c>
+      <c r="I16" s="42" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="112.2">
+      <c r="A17" s="19" t="s">
+        <v>614</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>615</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>616</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>617</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>618</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>619</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>834</v>
+      </c>
+      <c r="H17" s="42" t="s">
+        <v>835</v>
+      </c>
+      <c r="I17" s="42" t="s">
         <v>825</v>
       </c>
-      <c r="G7" s="39" t="s">
-        <v>826</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>827</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>827</v>
-      </c>
-      <c r="J7" s="18"/>
-    </row>
-    <row r="8" spans="1:10" ht="31.25" customHeight="1">
-      <c r="A8" s="14" t="s">
-        <v>574</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>575</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>576</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>451</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>577</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>556</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>818</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>819</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>820</v>
-      </c>
-      <c r="J8" s="18"/>
-    </row>
-    <row r="9" spans="1:10" ht="31.25" customHeight="1">
-      <c r="A9" s="14" t="s">
-        <v>578</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>579</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>580</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>451</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>577</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>556</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>818</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>819</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="105">
-      <c r="A10" s="14" t="s">
-        <v>581</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>582</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>583</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>584</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>585</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>586</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>828</v>
-      </c>
-      <c r="H10" s="39" t="s">
-        <v>452</v>
-      </c>
-      <c r="I10" s="39" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="94.5">
-      <c r="A11" s="14" t="s">
-        <v>587</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>588</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>589</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>590</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>452</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>452</v>
-      </c>
-      <c r="G11" s="39" t="s">
-        <v>452</v>
-      </c>
-      <c r="H11" s="39" t="s">
-        <v>452</v>
-      </c>
-      <c r="I11" s="39" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="21">
-      <c r="A12" s="14" t="s">
-        <v>591</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>593</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>451</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>452</v>
-      </c>
-      <c r="F12" s="39" t="s">
-        <v>452</v>
-      </c>
-      <c r="G12" s="39" t="s">
-        <v>452</v>
-      </c>
-      <c r="H12" s="39" t="s">
-        <v>452</v>
-      </c>
-      <c r="I12" s="39" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="94.5">
-      <c r="A13" s="14" t="s">
-        <v>594</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>595</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>596</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>597</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>598</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>829</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>830</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>452</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="147">
-      <c r="A14" s="14" t="s">
-        <v>599</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>600</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>601</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>602</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>603</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>556</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>818</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>819</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="147">
-      <c r="A15" s="19" t="s">
-        <v>604</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>605</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>606</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>607</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>608</v>
-      </c>
-      <c r="F15" s="42" t="s">
-        <v>609</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>831</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>832</v>
-      </c>
-      <c r="I15" s="42" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="220.5">
-      <c r="A16" s="19" t="s">
-        <v>610</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>611</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>612</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>613</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>614</v>
-      </c>
-      <c r="F16" s="42" t="s">
-        <v>615</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>834</v>
-      </c>
-      <c r="H16" s="42" t="s">
-        <v>835</v>
-      </c>
-      <c r="I16" s="42" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="115.5">
-      <c r="A17" s="19" t="s">
-        <v>616</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>617</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>618</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>619</v>
-      </c>
-      <c r="E17" s="21" t="s">
+    </row>
+    <row r="18" spans="1:10" ht="41.4">
+      <c r="A18" s="19" t="s">
         <v>620</v>
       </c>
-      <c r="F17" s="42" t="s">
+      <c r="B18" s="19" t="s">
         <v>621</v>
       </c>
-      <c r="G17" s="42" t="s">
-        <v>836</v>
-      </c>
-      <c r="H17" s="42" t="s">
-        <v>837</v>
-      </c>
-      <c r="I17" s="42" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="39">
-      <c r="A18" s="19" t="s">
+      <c r="C18" s="20" t="s">
         <v>622</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>623</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>624</v>
       </c>
       <c r="D18" s="41"/>
       <c r="E18" s="42" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F18" s="42" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H18" s="42" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I18" s="42" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="52">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="69">
       <c r="A19" s="19" t="s">
+        <v>623</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>624</v>
+      </c>
+      <c r="C19" s="20" t="s">
         <v>625</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="D19" s="41" t="s">
+        <v>449</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>450</v>
+      </c>
+      <c r="F19" s="42" t="s">
+        <v>450</v>
+      </c>
+      <c r="G19" s="42" t="s">
+        <v>450</v>
+      </c>
+      <c r="H19" s="42" t="s">
+        <v>450</v>
+      </c>
+      <c r="I19" s="42" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="55.2">
+      <c r="A20" s="19" t="s">
         <v>626</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="B20" s="19" t="s">
         <v>627</v>
       </c>
-      <c r="D19" s="41" t="s">
-        <v>451</v>
-      </c>
-      <c r="E19" s="42" t="s">
-        <v>452</v>
-      </c>
-      <c r="F19" s="42" t="s">
-        <v>452</v>
-      </c>
-      <c r="G19" s="42" t="s">
-        <v>452</v>
-      </c>
-      <c r="H19" s="42" t="s">
-        <v>452</v>
-      </c>
-      <c r="I19" s="42" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="52">
-      <c r="A20" s="19" t="s">
+      <c r="C20" s="20" t="s">
         <v>628</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>629</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>630</v>
       </c>
       <c r="D20" s="41"/>
       <c r="E20" s="21" t="s">
+        <v>629</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>630</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>836</v>
+      </c>
+      <c r="H20" s="42" t="s">
+        <v>837</v>
+      </c>
+      <c r="I20" s="42" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="336.6">
+      <c r="A21" s="142" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B21" s="22" t="s">
         <v>631</v>
       </c>
-      <c r="F20" s="42" t="s">
+      <c r="C21" s="23" t="s">
         <v>632</v>
       </c>
-      <c r="G20" s="42" t="s">
+      <c r="D21" s="43" t="s">
+        <v>633</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>634</v>
+      </c>
+      <c r="F21" s="24" t="s">
         <v>838</v>
       </c>
-      <c r="H20" s="42" t="s">
+      <c r="G21" s="44" t="s">
         <v>839</v>
       </c>
-      <c r="I20" s="42" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="346.5">
-      <c r="A21" s="142" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>633</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>634</v>
-      </c>
-      <c r="D21" s="43" t="s">
+      <c r="H21" s="44" t="s">
+        <v>840</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="40.799999999999997">
+      <c r="A22" s="25" t="s">
         <v>635</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="B22" s="22" t="s">
         <v>636</v>
       </c>
-      <c r="F21" s="24" t="s">
-        <v>840</v>
-      </c>
-      <c r="G21" s="44" t="s">
-        <v>841</v>
-      </c>
-      <c r="H21" s="44" t="s">
-        <v>842</v>
-      </c>
-      <c r="I21" s="24" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="42">
-      <c r="A22" s="25" t="s">
+      <c r="C22" s="23" t="s">
         <v>637</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>638</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>639</v>
       </c>
       <c r="D22" s="43"/>
       <c r="E22" s="24" t="s">
+        <v>638</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>842</v>
+      </c>
+      <c r="G22" s="44" t="s">
+        <v>843</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>844</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="40.799999999999997">
+      <c r="A23" s="25" t="s">
+        <v>639</v>
+      </c>
+      <c r="B23" s="22" t="s">
         <v>640</v>
       </c>
-      <c r="F22" s="24" t="s">
-        <v>844</v>
-      </c>
-      <c r="G22" s="44" t="s">
-        <v>845</v>
-      </c>
-      <c r="H22" s="24" t="s">
+      <c r="C23" s="23" t="s">
+        <v>641</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>642</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>638</v>
+      </c>
+      <c r="F23" s="24" t="s">
         <v>846</v>
       </c>
-      <c r="I22" s="24" t="s">
+      <c r="G23" s="24" t="s">
+        <v>846</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>846</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="234.6">
+      <c r="A24" s="22" t="s">
+        <v>643</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>644</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>645</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>646</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>647</v>
+      </c>
+      <c r="F24" s="24" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="42">
-      <c r="A23" s="25" t="s">
-        <v>641</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>642</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>643</v>
-      </c>
-      <c r="D23" s="43" t="s">
-        <v>644</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>640</v>
-      </c>
-      <c r="F23" s="24" t="s">
+      <c r="G24" s="24" t="s">
         <v>848</v>
       </c>
-      <c r="G23" s="24" t="s">
-        <v>848</v>
-      </c>
-      <c r="H23" s="24" t="s">
-        <v>848</v>
-      </c>
-      <c r="I23" s="24" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="252">
-      <c r="A24" s="22" t="s">
-        <v>645</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>646</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>647</v>
-      </c>
-      <c r="D24" s="43" t="s">
-        <v>648</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>649</v>
-      </c>
-      <c r="F24" s="24" t="s">
+      <c r="H24" s="24" t="s">
         <v>849</v>
       </c>
-      <c r="G24" s="24" t="s">
-        <v>850</v>
-      </c>
-      <c r="H24" s="24" t="s">
-        <v>851</v>
-      </c>
       <c r="I24" s="24" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="J24" s="89" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="25" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D25" s="43"/>
       <c r="E25" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F25" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G25" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H25" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I25" s="44" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="21">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="20.399999999999999">
       <c r="A26" s="25" t="s">
+        <v>650</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>651</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>641</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>642</v>
+      </c>
+      <c r="E26" s="44" t="s">
+        <v>450</v>
+      </c>
+      <c r="F26" s="44" t="s">
+        <v>450</v>
+      </c>
+      <c r="G26" s="44" t="s">
+        <v>450</v>
+      </c>
+      <c r="H26" s="44" t="s">
+        <v>450</v>
+      </c>
+      <c r="I26" s="44" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="234.6">
+      <c r="A27" s="22" t="s">
         <v>652</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B27" s="26" t="s">
         <v>653</v>
       </c>
-      <c r="C26" s="23" t="s">
-        <v>643</v>
-      </c>
-      <c r="D26" s="43" t="s">
-        <v>644</v>
-      </c>
-      <c r="E26" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="F26" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="G26" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="H26" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="I26" s="44" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="252">
-      <c r="A27" s="22" t="s">
+      <c r="C27" s="23" t="s">
         <v>654</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="D27" s="43" t="s">
         <v>655</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="E27" s="24" t="s">
         <v>656</v>
       </c>
-      <c r="D27" s="43" t="s">
-        <v>657</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>658</v>
-      </c>
       <c r="F27" s="24" t="s">
+        <v>847</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>850</v>
+      </c>
+      <c r="H27" s="24" t="s">
         <v>849</v>
       </c>
-      <c r="G27" s="24" t="s">
-        <v>852</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>851</v>
-      </c>
       <c r="I27" s="24" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="25" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C28" s="23"/>
       <c r="D28" s="43"/>
       <c r="E28" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F28" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G28" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H28" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I28" s="44" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="21">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="20.399999999999999">
       <c r="A29" s="25" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="43" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E29" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F29" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G29" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H29" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I29" s="44" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="101.5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="100.8">
       <c r="A30" s="22" t="s">
+        <v>661</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>662</v>
+      </c>
+      <c r="C30" s="23" t="s">
         <v>663</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="D30" s="43" t="s">
         <v>664</v>
       </c>
-      <c r="C30" s="23" t="s">
-        <v>665</v>
-      </c>
-      <c r="D30" s="43" t="s">
-        <v>666</v>
-      </c>
       <c r="E30" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F30" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G30" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H30" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I30" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="J30" s="89" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="25" t="s">
+        <v>665</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>666</v>
+      </c>
+      <c r="C31" s="23" t="s">
         <v>667</v>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>668</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>669</v>
       </c>
       <c r="D31" s="43"/>
       <c r="E31" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F31" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G31" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H31" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I31" s="44" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="21">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="20.399999999999999">
       <c r="A32" s="25" t="s">
+        <v>668</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>669</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>641</v>
+      </c>
+      <c r="D32" s="43" t="s">
+        <v>642</v>
+      </c>
+      <c r="E32" s="44" t="s">
+        <v>450</v>
+      </c>
+      <c r="F32" s="44" t="s">
+        <v>450</v>
+      </c>
+      <c r="G32" s="44" t="s">
+        <v>450</v>
+      </c>
+      <c r="H32" s="44" t="s">
+        <v>450</v>
+      </c>
+      <c r="I32" s="44" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="41.4">
+      <c r="A33" s="22" t="s">
         <v>670</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B33" s="22" t="s">
         <v>671</v>
       </c>
-      <c r="C32" s="23" t="s">
-        <v>643</v>
-      </c>
-      <c r="D32" s="43" t="s">
-        <v>644</v>
-      </c>
-      <c r="E32" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="F32" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="G32" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="H32" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="I32" s="44" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="39">
-      <c r="A33" s="22" t="s">
+      <c r="C33" s="23" t="s">
         <v>672</v>
       </c>
-      <c r="B33" s="22" t="s">
-        <v>673</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>674</v>
-      </c>
       <c r="D33" s="43" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E33" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F33" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G33" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H33" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I33" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="25" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D34" s="43"/>
       <c r="E34" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F34" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G34" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H34" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I34" s="44" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="21">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="20.399999999999999">
       <c r="A35" s="25" t="s">
+        <v>675</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>676</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>641</v>
+      </c>
+      <c r="D35" s="43" t="s">
+        <v>642</v>
+      </c>
+      <c r="E35" s="44" t="s">
+        <v>450</v>
+      </c>
+      <c r="F35" s="44" t="s">
+        <v>450</v>
+      </c>
+      <c r="G35" s="44" t="s">
+        <v>450</v>
+      </c>
+      <c r="H35" s="44" t="s">
+        <v>450</v>
+      </c>
+      <c r="I35" s="44" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="41.4">
+      <c r="A36" s="22" t="s">
         <v>677</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B36" s="22" t="s">
         <v>678</v>
       </c>
-      <c r="C35" s="23" t="s">
-        <v>643</v>
-      </c>
-      <c r="D35" s="43" t="s">
-        <v>644</v>
-      </c>
-      <c r="E35" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="F35" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="G35" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="H35" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="I35" s="44" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="39">
-      <c r="A36" s="22" t="s">
+      <c r="C36" s="23" t="s">
         <v>679</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="D36" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="E36" s="44" t="s">
+        <v>450</v>
+      </c>
+      <c r="F36" s="44" t="s">
+        <v>450</v>
+      </c>
+      <c r="G36" s="44" t="s">
+        <v>450</v>
+      </c>
+      <c r="H36" s="44" t="s">
+        <v>450</v>
+      </c>
+      <c r="I36" s="44" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="27.6">
+      <c r="A37" s="25" t="s">
         <v>680</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="B37" s="22" t="s">
         <v>681</v>
       </c>
-      <c r="D36" s="43" t="s">
-        <v>451</v>
-      </c>
-      <c r="E36" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="F36" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="G36" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="H36" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="I36" s="44" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="26">
-      <c r="A37" s="25" t="s">
+      <c r="C37" s="23" t="s">
         <v>682</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>683</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>684</v>
       </c>
       <c r="D37" s="43"/>
       <c r="E37" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F37" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G37" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H37" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I37" s="44" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="21">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="20.399999999999999">
       <c r="A38" s="25" t="s">
+        <v>683</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>684</v>
+      </c>
+      <c r="C38" s="23" t="s">
         <v>685</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="D38" s="43" t="s">
+        <v>642</v>
+      </c>
+      <c r="E38" s="44" t="s">
+        <v>450</v>
+      </c>
+      <c r="F38" s="44" t="s">
+        <v>450</v>
+      </c>
+      <c r="G38" s="44" t="s">
+        <v>450</v>
+      </c>
+      <c r="H38" s="44" t="s">
+        <v>450</v>
+      </c>
+      <c r="I38" s="44" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="55.2">
+      <c r="A39" s="22" t="s">
         <v>686</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="B39" s="22" t="s">
         <v>687</v>
       </c>
-      <c r="D38" s="43" t="s">
-        <v>644</v>
-      </c>
-      <c r="E38" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="F38" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="G38" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="H38" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="I38" s="44" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="52">
-      <c r="A39" s="22" t="s">
+      <c r="C39" s="23" t="s">
         <v>688</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>689</v>
-      </c>
-      <c r="C39" s="23" t="s">
-        <v>690</v>
       </c>
       <c r="D39" s="43"/>
       <c r="E39" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F39" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G39" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H39" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I39" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="25" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D40" s="43"/>
       <c r="E40" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F40" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G40" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H40" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I40" s="44" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="21">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="20.399999999999999">
       <c r="A41" s="25" t="s">
+        <v>691</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>692</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>641</v>
+      </c>
+      <c r="D41" s="43" t="s">
+        <v>642</v>
+      </c>
+      <c r="E41" s="44" t="s">
+        <v>450</v>
+      </c>
+      <c r="F41" s="44" t="s">
+        <v>450</v>
+      </c>
+      <c r="G41" s="44" t="s">
+        <v>450</v>
+      </c>
+      <c r="H41" s="44" t="s">
+        <v>450</v>
+      </c>
+      <c r="I41" s="44" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="41.4">
+      <c r="A42" s="22" t="s">
         <v>693</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B42" s="22" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C42" s="23" t="s">
         <v>694</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>643</v>
-      </c>
-      <c r="D41" s="43" t="s">
-        <v>644</v>
-      </c>
-      <c r="E41" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="F41" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="G41" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="H41" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="I41" s="44" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="39">
-      <c r="A42" s="22" t="s">
-        <v>695</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>696</v>
       </c>
       <c r="D42" s="43"/>
       <c r="E42" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F42" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G42" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H42" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I42" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="25" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D43" s="43"/>
       <c r="E43" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F43" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G43" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H43" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I43" s="44" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="21">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="20.399999999999999">
       <c r="A44" s="25" t="s">
+        <v>696</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>641</v>
+      </c>
+      <c r="D44" s="43" t="s">
+        <v>642</v>
+      </c>
+      <c r="E44" s="44" t="s">
+        <v>450</v>
+      </c>
+      <c r="F44" s="44" t="s">
+        <v>450</v>
+      </c>
+      <c r="G44" s="44" t="s">
+        <v>450</v>
+      </c>
+      <c r="H44" s="44" t="s">
+        <v>450</v>
+      </c>
+      <c r="I44" s="44" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="55.2">
+      <c r="A45" s="22" t="s">
+        <v>697</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C45" s="23" t="s">
         <v>698</v>
-      </c>
-      <c r="B44" s="22" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>643</v>
-      </c>
-      <c r="D44" s="43" t="s">
-        <v>644</v>
-      </c>
-      <c r="E44" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="F44" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="G44" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="H44" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="I44" s="44" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="52">
-      <c r="A45" s="22" t="s">
-        <v>699</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>700</v>
       </c>
       <c r="D45" s="43"/>
       <c r="E45" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F45" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G45" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H45" s="44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I45" s="44" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="21">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="20.399999999999999">
       <c r="A46" s="25" t="s">
+        <v>699</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>641</v>
+      </c>
+      <c r="D46" s="43" t="s">
+        <v>642</v>
+      </c>
+      <c r="E46" s="44" t="s">
+        <v>450</v>
+      </c>
+      <c r="F46" s="44" t="s">
+        <v>450</v>
+      </c>
+      <c r="G46" s="44" t="s">
+        <v>450</v>
+      </c>
+      <c r="H46" s="44" t="s">
+        <v>450</v>
+      </c>
+      <c r="I46" s="44" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="61.2">
+      <c r="A47" s="28" t="s">
+        <v>700</v>
+      </c>
+      <c r="B47" s="28" t="s">
         <v>701</v>
       </c>
-      <c r="B46" s="22" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C46" s="23" t="s">
-        <v>643</v>
-      </c>
-      <c r="D46" s="43" t="s">
-        <v>644</v>
-      </c>
-      <c r="E46" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="F46" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="G46" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="H46" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="I46" s="44" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="63">
-      <c r="A47" s="28" t="s">
+      <c r="C47" s="29" t="s">
         <v>702</v>
       </c>
-      <c r="B47" s="28" t="s">
+      <c r="D47" s="45" t="s">
         <v>703</v>
       </c>
-      <c r="C47" s="29" t="s">
+      <c r="E47" s="30" t="s">
         <v>704</v>
       </c>
-      <c r="D47" s="45" t="s">
+      <c r="F47" s="46" t="s">
         <v>705</v>
       </c>
-      <c r="E47" s="30" t="s">
+      <c r="G47" s="30" t="s">
+        <v>851</v>
+      </c>
+      <c r="H47" s="46" t="s">
+        <v>852</v>
+      </c>
+      <c r="I47" s="46" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="27.6">
+      <c r="A48" s="28" t="s">
         <v>706</v>
       </c>
-      <c r="F47" s="46" t="s">
+      <c r="B48" s="28" t="s">
         <v>707</v>
       </c>
-      <c r="G47" s="30" t="s">
+      <c r="C48" s="29" t="s">
+        <v>708</v>
+      </c>
+      <c r="D48" s="45" t="s">
+        <v>449</v>
+      </c>
+      <c r="E48" s="46" t="s">
+        <v>709</v>
+      </c>
+      <c r="F48" s="46" t="s">
+        <v>710</v>
+      </c>
+      <c r="G48" s="30" t="s">
         <v>853</v>
       </c>
-      <c r="H47" s="46" t="s">
+      <c r="H48" s="46" t="s">
         <v>854</v>
       </c>
-      <c r="I47" s="46" t="s">
+      <c r="I48" s="46" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="26">
-      <c r="A48" s="28" t="s">
-        <v>708</v>
-      </c>
-      <c r="B48" s="28" t="s">
-        <v>709</v>
-      </c>
-      <c r="C48" s="29" t="s">
-        <v>710</v>
-      </c>
-      <c r="D48" s="45" t="s">
-        <v>451</v>
-      </c>
-      <c r="E48" s="46" t="s">
+    <row r="49" spans="1:9" ht="27.6">
+      <c r="A49" s="28" t="s">
         <v>711</v>
       </c>
-      <c r="F48" s="46" t="s">
+      <c r="B49" s="28" t="s">
         <v>712</v>
       </c>
-      <c r="G48" s="30" t="s">
+      <c r="C49" s="29" t="s">
+        <v>713</v>
+      </c>
+      <c r="D49" s="45" t="s">
+        <v>449</v>
+      </c>
+      <c r="E49" s="46" t="s">
+        <v>714</v>
+      </c>
+      <c r="F49" s="46" t="s">
+        <v>715</v>
+      </c>
+      <c r="G49" s="30" t="s">
+        <v>853</v>
+      </c>
+      <c r="H49" s="46" t="s">
         <v>855</v>
       </c>
-      <c r="H48" s="46" t="s">
+      <c r="I49" s="46" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="112.2">
+      <c r="A50" s="28" t="s">
+        <v>716</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>717</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>718</v>
+      </c>
+      <c r="D50" s="45" t="s">
+        <v>719</v>
+      </c>
+      <c r="E50" s="46" t="s">
+        <v>720</v>
+      </c>
+      <c r="F50" s="46" t="s">
+        <v>721</v>
+      </c>
+      <c r="G50" s="30" t="s">
         <v>856</v>
       </c>
-      <c r="I48" s="46" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="26">
-      <c r="A49" s="28" t="s">
-        <v>713</v>
-      </c>
-      <c r="B49" s="28" t="s">
-        <v>714</v>
-      </c>
-      <c r="C49" s="29" t="s">
-        <v>715</v>
-      </c>
-      <c r="D49" s="45" t="s">
-        <v>451</v>
-      </c>
-      <c r="E49" s="46" t="s">
-        <v>716</v>
-      </c>
-      <c r="F49" s="46" t="s">
-        <v>717</v>
-      </c>
-      <c r="G49" s="30" t="s">
-        <v>855</v>
-      </c>
-      <c r="H49" s="46" t="s">
+      <c r="H50" s="46" t="s">
         <v>857</v>
       </c>
-      <c r="I49" s="46" t="s">
+      <c r="I50" s="46" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="115.5">
-      <c r="A50" s="28" t="s">
-        <v>718</v>
-      </c>
-      <c r="B50" s="28" t="s">
-        <v>719</v>
-      </c>
-      <c r="C50" s="29" t="s">
-        <v>720</v>
-      </c>
-      <c r="D50" s="45" t="s">
-        <v>721</v>
-      </c>
-      <c r="E50" s="46" t="s">
+    <row r="51" spans="1:9" ht="20.399999999999999">
+      <c r="A51" s="28" t="s">
         <v>722</v>
       </c>
-      <c r="F50" s="46" t="s">
+      <c r="B51" s="28" t="s">
         <v>723</v>
       </c>
-      <c r="G50" s="30" t="s">
+      <c r="C51" s="29" t="s">
+        <v>724</v>
+      </c>
+      <c r="D51" s="45" t="s">
+        <v>449</v>
+      </c>
+      <c r="E51" s="46" t="s">
+        <v>725</v>
+      </c>
+      <c r="F51" s="46" t="s">
+        <v>726</v>
+      </c>
+      <c r="G51" s="46" t="s">
         <v>858</v>
       </c>
-      <c r="H50" s="46" t="s">
+      <c r="H51" s="30" t="s">
         <v>859</v>
       </c>
-      <c r="I50" s="46" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="21">
-      <c r="A51" s="28" t="s">
-        <v>724</v>
-      </c>
-      <c r="B51" s="28" t="s">
-        <v>725</v>
-      </c>
-      <c r="C51" s="29" t="s">
-        <v>726</v>
-      </c>
-      <c r="D51" s="45" t="s">
-        <v>451</v>
-      </c>
-      <c r="E51" s="46" t="s">
+      <c r="I51" s="46" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="81.599999999999994">
+      <c r="A52" s="28" t="s">
         <v>727</v>
       </c>
-      <c r="F51" s="46" t="s">
+      <c r="B52" s="28" t="s">
         <v>728</v>
       </c>
-      <c r="G51" s="46" t="s">
+      <c r="C52" s="29" t="s">
+        <v>729</v>
+      </c>
+      <c r="D52" s="45" t="s">
         <v>860</v>
       </c>
-      <c r="H51" s="30" t="s">
+      <c r="E52" s="46" t="s">
+        <v>730</v>
+      </c>
+      <c r="F52" s="46" t="s">
+        <v>731</v>
+      </c>
+      <c r="G52" s="46" t="s">
         <v>861</v>
       </c>
-      <c r="I51" s="46" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="84">
-      <c r="A52" s="28" t="s">
-        <v>729</v>
-      </c>
-      <c r="B52" s="28" t="s">
-        <v>730</v>
-      </c>
-      <c r="C52" s="29" t="s">
-        <v>731</v>
-      </c>
-      <c r="D52" s="45" t="s">
+      <c r="H52" s="30" t="s">
         <v>862</v>
       </c>
-      <c r="E52" s="46" t="s">
+      <c r="I52" s="46" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="112.2">
+      <c r="A53" s="31" t="s">
         <v>732</v>
       </c>
-      <c r="F52" s="46" t="s">
+      <c r="B53" s="31" t="s">
         <v>733</v>
       </c>
-      <c r="G52" s="46" t="s">
+      <c r="C53" s="32" t="s">
+        <v>734</v>
+      </c>
+      <c r="D53" s="47" t="s">
+        <v>449</v>
+      </c>
+      <c r="E53" s="33" t="s">
+        <v>735</v>
+      </c>
+      <c r="F53" s="48" t="s">
+        <v>736</v>
+      </c>
+      <c r="G53" s="33" t="s">
         <v>863</v>
       </c>
-      <c r="H52" s="30" t="s">
+      <c r="H53" s="33" t="s">
         <v>864</v>
       </c>
-      <c r="I52" s="46" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="115.5">
-      <c r="A53" s="31" t="s">
-        <v>734</v>
-      </c>
-      <c r="B53" s="31" t="s">
-        <v>735</v>
-      </c>
-      <c r="C53" s="32" t="s">
+      <c r="I53" s="33" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="112.2">
+      <c r="A54" s="31" t="s">
+        <v>737</v>
+      </c>
+      <c r="B54" s="31" t="s">
+        <v>738</v>
+      </c>
+      <c r="C54" s="32" t="s">
+        <v>739</v>
+      </c>
+      <c r="D54" s="47" t="s">
+        <v>740</v>
+      </c>
+      <c r="E54" s="33" t="s">
+        <v>741</v>
+      </c>
+      <c r="F54" s="48" t="s">
         <v>736</v>
       </c>
-      <c r="D53" s="47" t="s">
-        <v>451</v>
-      </c>
-      <c r="E53" s="33" t="s">
-        <v>737</v>
-      </c>
-      <c r="F53" s="48" t="s">
-        <v>738</v>
-      </c>
-      <c r="G53" s="33" t="s">
-        <v>865</v>
-      </c>
-      <c r="H53" s="33" t="s">
-        <v>866</v>
-      </c>
-      <c r="I53" s="33" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="115.5">
-      <c r="A54" s="31" t="s">
-        <v>739</v>
-      </c>
-      <c r="B54" s="31" t="s">
-        <v>740</v>
-      </c>
-      <c r="C54" s="32" t="s">
-        <v>741</v>
-      </c>
-      <c r="D54" s="47" t="s">
+      <c r="G54" s="48" t="s">
+        <v>450</v>
+      </c>
+      <c r="H54" s="48" t="s">
+        <v>450</v>
+      </c>
+      <c r="I54" s="48" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="27.6">
+      <c r="A55" s="31" t="s">
         <v>742</v>
       </c>
-      <c r="E54" s="33" t="s">
+      <c r="B55" s="31" t="s">
         <v>743</v>
       </c>
-      <c r="F54" s="48" t="s">
-        <v>738</v>
-      </c>
-      <c r="G54" s="48" t="s">
-        <v>452</v>
-      </c>
-      <c r="H54" s="48" t="s">
-        <v>452</v>
-      </c>
-      <c r="I54" s="48" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="26">
-      <c r="A55" s="31" t="s">
+      <c r="C55" s="32" t="s">
         <v>744</v>
-      </c>
-      <c r="B55" s="31" t="s">
-        <v>745</v>
-      </c>
-      <c r="C55" s="32" t="s">
-        <v>746</v>
       </c>
       <c r="D55" s="47"/>
       <c r="E55" s="48" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F55" s="48" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G55" s="48" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H55" s="48" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I55" s="48" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="21">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="20.399999999999999">
       <c r="A56" s="34" t="s">
+        <v>745</v>
+      </c>
+      <c r="B56" s="31" t="s">
+        <v>746</v>
+      </c>
+      <c r="C56" s="32" t="s">
         <v>747</v>
       </c>
-      <c r="B56" s="31" t="s">
-        <v>748</v>
-      </c>
-      <c r="C56" s="32" t="s">
-        <v>749</v>
-      </c>
       <c r="D56" s="35" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E56" s="48" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F56" s="48" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G56" s="48" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H56" s="48" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I56" s="48" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -14026,503 +14021,503 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="13.81640625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="22.90625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="22.90625" style="123" customWidth="1"/>
+    <col min="1" max="2" width="13.77734375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" style="123" customWidth="1"/>
     <col min="5" max="5" width="48" style="121" customWidth="1"/>
     <col min="6" max="6" width="35" style="138" customWidth="1"/>
-    <col min="7" max="12" width="13.81640625" style="10" customWidth="1"/>
-    <col min="13" max="16384" width="8.90625" style="10"/>
+    <col min="7" max="12" width="13.77734375" style="10" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="153">
+      <c r="A1" s="155">
         <v>2019</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-    </row>
-    <row r="2" spans="1:6" ht="72.650000000000006" customHeight="1">
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+    </row>
+    <row r="2" spans="1:6" ht="72.599999999999994" customHeight="1">
       <c r="A2" s="95" t="s">
         <v>129</v>
       </c>
       <c r="B2" s="95" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C2" s="143" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="D2" s="143" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="E2" s="111" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="111" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="137.4" customHeight="1">
       <c r="A3" s="139" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B3" s="99" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C3" s="99" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D3" s="157" t="s">
         <v>1023</v>
       </c>
-      <c r="B3" s="99" t="s">
+      <c r="E3" s="112" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F3" s="127" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="43.2">
+      <c r="A4" s="99" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B4" s="98" t="s">
+        <v>450</v>
+      </c>
+      <c r="C4" s="98" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D4" s="158"/>
+      <c r="E4" s="112" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F4" s="127"/>
+    </row>
+    <row r="5" spans="1:6" ht="43.2">
+      <c r="A5" s="99" t="s">
+        <v>673</v>
+      </c>
+      <c r="B5" s="99" t="s">
+        <v>675</v>
+      </c>
+      <c r="C5" s="99" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D5" s="158"/>
+      <c r="E5" s="112" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F5" s="128"/>
+    </row>
+    <row r="6" spans="1:6" ht="57.6">
+      <c r="A6" s="98" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B6" s="99" t="s">
+        <v>691</v>
+      </c>
+      <c r="C6" s="99" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D6" s="158"/>
+      <c r="E6" s="112" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F6" s="128"/>
+    </row>
+    <row r="7" spans="1:6" ht="28.8">
+      <c r="A7" s="100" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B7" s="98" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C7" s="98" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D7" s="158"/>
+      <c r="E7" s="112" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F7" s="128"/>
+    </row>
+    <row r="8" spans="1:6" ht="43.2">
+      <c r="A8" s="100" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B8" s="98" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C8" s="98" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D8" s="159"/>
+      <c r="E8" s="112" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F8" s="128"/>
+    </row>
+    <row r="9" spans="1:6" ht="93">
+      <c r="A9" s="97" t="s">
+        <v>657</v>
+      </c>
+      <c r="B9" s="97" t="s">
+        <v>659</v>
+      </c>
+      <c r="C9" s="97" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D9" s="156" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E9" s="113" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F9" s="129" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="57.6">
+      <c r="A10" s="97" t="s">
+        <v>680</v>
+      </c>
+      <c r="B10" s="97" t="s">
+        <v>683</v>
+      </c>
+      <c r="C10" s="97" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D10" s="156"/>
+      <c r="E10" s="113" t="s">
         <v>1030</v>
       </c>
-      <c r="C3" s="99" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D3" s="155" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E3" s="112" t="s">
-        <v>1104</v>
-      </c>
-      <c r="F3" s="127" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="43.5">
-      <c r="A4" s="99" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B4" s="98" t="s">
-        <v>452</v>
-      </c>
-      <c r="C4" s="98" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D4" s="156"/>
-      <c r="E4" s="112" t="s">
-        <v>1106</v>
-      </c>
-      <c r="F4" s="127"/>
-    </row>
-    <row r="5" spans="1:6" ht="43.5">
-      <c r="A5" s="99" t="s">
-        <v>675</v>
-      </c>
-      <c r="B5" s="99" t="s">
-        <v>677</v>
-      </c>
-      <c r="C5" s="99" t="s">
-        <v>1111</v>
-      </c>
-      <c r="D5" s="156"/>
-      <c r="E5" s="112" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F5" s="128"/>
-    </row>
-    <row r="6" spans="1:6" ht="58">
-      <c r="A6" s="98" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B6" s="99" t="s">
-        <v>693</v>
-      </c>
-      <c r="C6" s="99" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D6" s="156"/>
-      <c r="E6" s="112" t="s">
-        <v>1107</v>
-      </c>
-      <c r="F6" s="128"/>
-    </row>
-    <row r="7" spans="1:6" ht="29">
-      <c r="A7" s="100" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B7" s="98" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C7" s="98" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D7" s="156"/>
-      <c r="E7" s="112" t="s">
-        <v>1096</v>
-      </c>
-      <c r="F7" s="128"/>
-    </row>
-    <row r="8" spans="1:6" ht="43.5">
-      <c r="A8" s="100" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B8" s="98" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C8" s="98" t="s">
-        <v>1114</v>
-      </c>
-      <c r="D8" s="157"/>
-      <c r="E8" s="112" t="s">
-        <v>1097</v>
-      </c>
-      <c r="F8" s="128"/>
-    </row>
-    <row r="9" spans="1:6" ht="95.5">
-      <c r="A9" s="97" t="s">
-        <v>659</v>
-      </c>
-      <c r="B9" s="97" t="s">
-        <v>661</v>
-      </c>
-      <c r="C9" s="97" t="s">
+      <c r="F10" s="129"/>
+    </row>
+    <row r="11" spans="1:6" ht="28.8">
+      <c r="A11" s="101" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B11" s="101" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C11" s="101" t="s">
         <v>1115</v>
       </c>
-      <c r="D9" s="154" t="s">
-        <v>1031</v>
-      </c>
-      <c r="E9" s="113" t="s">
+      <c r="D11" s="160" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E11" s="114" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F11" s="130"/>
+    </row>
+    <row r="12" spans="1:6" ht="28.8">
+      <c r="A12" s="101" t="s">
         <v>1034</v>
       </c>
-      <c r="F9" s="129" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="58">
-      <c r="A10" s="97" t="s">
-        <v>682</v>
-      </c>
-      <c r="B10" s="97" t="s">
-        <v>685</v>
-      </c>
-      <c r="C10" s="97" t="s">
+      <c r="B12" s="101" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C12" s="101" t="s">
         <v>1116</v>
       </c>
-      <c r="D10" s="154"/>
-      <c r="E10" s="113" t="s">
-        <v>1032</v>
-      </c>
-      <c r="F10" s="129"/>
-    </row>
-    <row r="11" spans="1:6" ht="29">
-      <c r="A11" s="101" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B11" s="101" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C11" s="101" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D11" s="158" t="s">
-        <v>1070</v>
-      </c>
-      <c r="E11" s="114" t="s">
-        <v>1057</v>
-      </c>
-      <c r="F11" s="130"/>
-    </row>
-    <row r="12" spans="1:6" ht="29">
-      <c r="A12" s="101" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B12" s="101" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C12" s="101" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D12" s="158"/>
+      <c r="D12" s="160"/>
       <c r="E12" s="114" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="F12" s="130"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="101" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B13" s="101" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C13" s="101" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D13" s="160"/>
+      <c r="E13" s="114" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F13" s="130"/>
+    </row>
+    <row r="14" spans="1:6" ht="28.8">
+      <c r="A14" s="101" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B14" s="101" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C14" s="101" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D14" s="160"/>
+      <c r="E14" s="114" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F14" s="130"/>
+    </row>
+    <row r="15" spans="1:6" ht="28.8">
+      <c r="A15" s="101" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B15" s="101" t="s">
+        <v>450</v>
+      </c>
+      <c r="C15" s="101" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D15" s="160"/>
+      <c r="E15" s="114" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F15" s="130"/>
+    </row>
+    <row r="16" spans="1:6" ht="43.2">
+      <c r="A16" s="101" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B16" s="101" t="s">
         <v>1041</v>
       </c>
-      <c r="C13" s="101" t="s">
+      <c r="C16" s="101" t="s">
         <v>1119</v>
       </c>
-      <c r="D13" s="158"/>
-      <c r="E13" s="114" t="s">
-        <v>1058</v>
-      </c>
-      <c r="F13" s="130"/>
-    </row>
-    <row r="14" spans="1:6" ht="29">
-      <c r="A14" s="101" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B14" s="101" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C14" s="101" t="s">
+      <c r="D16" s="160"/>
+      <c r="E16" s="114" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F16" s="130"/>
+    </row>
+    <row r="17" spans="1:6" s="96" customFormat="1" ht="28.8">
+      <c r="A17" s="108" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B17" s="108" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C17" s="108" t="s">
         <v>1120</v>
       </c>
-      <c r="D14" s="158"/>
-      <c r="E14" s="114" t="s">
-        <v>1059</v>
-      </c>
-      <c r="F14" s="130"/>
-    </row>
-    <row r="15" spans="1:6" ht="29">
-      <c r="A15" s="101" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B15" s="101" t="s">
-        <v>452</v>
-      </c>
-      <c r="C15" s="101" t="s">
-        <v>1109</v>
-      </c>
-      <c r="D15" s="158"/>
-      <c r="E15" s="114" t="s">
+      <c r="D17" s="161" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E17" s="115" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F17" s="131"/>
+    </row>
+    <row r="18" spans="1:6" s="96" customFormat="1" ht="43.2">
+      <c r="A18" s="108" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B18" s="108" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C18" s="108" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D18" s="161"/>
+      <c r="E18" s="115" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F18" s="131"/>
+    </row>
+    <row r="19" spans="1:6" s="96" customFormat="1" ht="43.2">
+      <c r="A19" s="140" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B19" s="141" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C19" s="141" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D19" s="103" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E19" s="102" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F19" s="132"/>
+    </row>
+    <row r="20" spans="1:6" s="96" customFormat="1" ht="28.8">
+      <c r="A20" s="109" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B20" s="109" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C20" s="109" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D20" s="162" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E20" s="116" t="s">
         <v>1061</v>
       </c>
-      <c r="F15" s="130"/>
-    </row>
-    <row r="16" spans="1:6" ht="43.5">
-      <c r="A16" s="101" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B16" s="101" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C16" s="101" t="s">
-        <v>1121</v>
-      </c>
-      <c r="D16" s="158"/>
-      <c r="E16" s="114" t="s">
+      <c r="F20" s="133"/>
+    </row>
+    <row r="21" spans="1:6" s="96" customFormat="1" ht="28.8">
+      <c r="A21" s="109" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B21" s="109" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C21" s="109" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D21" s="163"/>
+      <c r="E21" s="116" t="s">
         <v>1062</v>
       </c>
-      <c r="F16" s="130"/>
-    </row>
-    <row r="17" spans="1:6" s="96" customFormat="1" ht="29">
-      <c r="A17" s="108" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B17" s="108" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C17" s="108" t="s">
-        <v>1122</v>
-      </c>
-      <c r="D17" s="159" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E17" s="115" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F17" s="131"/>
-    </row>
-    <row r="18" spans="1:6" s="96" customFormat="1" ht="43.5">
-      <c r="A18" s="108" t="s">
+      <c r="F21" s="133"/>
+    </row>
+    <row r="22" spans="1:6" s="96" customFormat="1" ht="28.8">
+      <c r="A22" s="109" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B22" s="109" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C22" s="109" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D22" s="163"/>
+      <c r="E22" s="116" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F22" s="133"/>
+    </row>
+    <row r="23" spans="1:6" s="96" customFormat="1" ht="28.8">
+      <c r="A23" s="109" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B23" s="109" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C23" s="109" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D23" s="164"/>
+      <c r="E23" s="116" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F23" s="133"/>
+    </row>
+    <row r="24" spans="1:6" s="96" customFormat="1" ht="86.4">
+      <c r="A24" s="105" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B24" s="105" t="s">
         <v>1046</v>
       </c>
-      <c r="B18" s="108" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C18" s="108" t="s">
-        <v>1123</v>
-      </c>
-      <c r="D18" s="159"/>
-      <c r="E18" s="115" t="s">
+      <c r="C24" s="105" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D24" s="106" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E24" s="117" t="s">
         <v>1099</v>
       </c>
-      <c r="F18" s="131"/>
-    </row>
-    <row r="19" spans="1:6" s="96" customFormat="1" ht="43.5">
-      <c r="A19" s="140" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B19" s="141" t="s">
+      <c r="F24" s="134"/>
+    </row>
+    <row r="25" spans="1:6" s="96" customFormat="1" ht="28.8">
+      <c r="A25" s="110" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B25" s="110" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C25" s="110" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D25" s="152" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E25" s="118" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F25" s="135"/>
+    </row>
+    <row r="26" spans="1:6" s="96" customFormat="1" ht="28.8">
+      <c r="A26" s="110" t="s">
         <v>1051</v>
       </c>
-      <c r="C19" s="141" t="s">
-        <v>1124</v>
-      </c>
-      <c r="D19" s="103" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E19" s="102" t="s">
+      <c r="B26" s="110" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C26" s="110" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D26" s="152"/>
+      <c r="E26" s="118" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F26" s="135"/>
+    </row>
+    <row r="27" spans="1:6" s="96" customFormat="1" ht="72">
+      <c r="A27" s="107" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B27" s="107" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C27" s="107" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D27" s="104" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E27" s="119" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F27" s="136"/>
+    </row>
+    <row r="28" spans="1:6" s="96" customFormat="1" ht="43.2">
+      <c r="A28" s="124" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B28" s="124" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C28" s="124" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D28" s="153" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E28" s="124" t="s">
         <v>1100</v>
       </c>
-      <c r="F19" s="132"/>
-    </row>
-    <row r="20" spans="1:6" s="96" customFormat="1" ht="29">
-      <c r="A20" s="109" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B20" s="109" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C20" s="109" t="s">
-        <v>1125</v>
-      </c>
-      <c r="D20" s="160" t="s">
-        <v>1067</v>
-      </c>
-      <c r="E20" s="116" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F20" s="133"/>
-    </row>
-    <row r="21" spans="1:6" s="96" customFormat="1" ht="29">
-      <c r="A21" s="109" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B21" s="109" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C21" s="109" t="s">
-        <v>1126</v>
-      </c>
-      <c r="D21" s="161"/>
-      <c r="E21" s="116" t="s">
-        <v>1064</v>
-      </c>
-      <c r="F21" s="133"/>
-    </row>
-    <row r="22" spans="1:6" s="96" customFormat="1" ht="29">
-      <c r="A22" s="109" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B22" s="109" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C22" s="109" t="s">
+      <c r="F28" s="137"/>
+    </row>
+    <row r="29" spans="1:6" s="96" customFormat="1" ht="57.6">
+      <c r="A29" s="124" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B29" s="124" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C29" s="124" t="s">
         <v>1127</v>
       </c>
-      <c r="D22" s="161"/>
-      <c r="E22" s="116" t="s">
-        <v>1065</v>
-      </c>
-      <c r="F22" s="133"/>
-    </row>
-    <row r="23" spans="1:6" s="96" customFormat="1" ht="29">
-      <c r="A23" s="109" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B23" s="109" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C23" s="109" t="s">
-        <v>1128</v>
-      </c>
-      <c r="D23" s="162"/>
-      <c r="E23" s="116" t="s">
-        <v>1066</v>
-      </c>
-      <c r="F23" s="133"/>
-    </row>
-    <row r="24" spans="1:6" s="96" customFormat="1" ht="87">
-      <c r="A24" s="105" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B24" s="105" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C24" s="105" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D24" s="106" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E24" s="117" t="s">
+      <c r="D29" s="154"/>
+      <c r="E29" s="124" t="s">
         <v>1101</v>
-      </c>
-      <c r="F24" s="134"/>
-    </row>
-    <row r="25" spans="1:6" s="96" customFormat="1" ht="29">
-      <c r="A25" s="110" t="s">
-        <v>1077</v>
-      </c>
-      <c r="B25" s="110" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C25" s="110" t="s">
-        <v>1130</v>
-      </c>
-      <c r="D25" s="150" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E25" s="118" t="s">
-        <v>1082</v>
-      </c>
-      <c r="F25" s="135"/>
-    </row>
-    <row r="26" spans="1:6" s="96" customFormat="1" ht="29">
-      <c r="A26" s="110" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B26" s="110" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C26" s="110" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D26" s="150"/>
-      <c r="E26" s="118" t="s">
-        <v>1083</v>
-      </c>
-      <c r="F26" s="135"/>
-    </row>
-    <row r="27" spans="1:6" s="96" customFormat="1" ht="72.5">
-      <c r="A27" s="107" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B27" s="107" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C27" s="107" t="s">
-        <v>1132</v>
-      </c>
-      <c r="D27" s="104" t="s">
-        <v>1085</v>
-      </c>
-      <c r="E27" s="119" t="s">
-        <v>1086</v>
-      </c>
-      <c r="F27" s="136"/>
-    </row>
-    <row r="28" spans="1:6" s="96" customFormat="1" ht="43.5">
-      <c r="A28" s="124" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B28" s="124" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C28" s="124" t="s">
-        <v>1133</v>
-      </c>
-      <c r="D28" s="151" t="s">
-        <v>1091</v>
-      </c>
-      <c r="E28" s="124" t="s">
-        <v>1102</v>
-      </c>
-      <c r="F28" s="137"/>
-    </row>
-    <row r="29" spans="1:6" s="96" customFormat="1" ht="58">
-      <c r="A29" s="124" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B29" s="124" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C29" s="124" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D29" s="152"/>
-      <c r="E29" s="124" t="s">
-        <v>1103</v>
       </c>
       <c r="F29" s="137"/>
     </row>
@@ -14569,9 +14564,9 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="6" width="19.453125" style="1" customWidth="1"/>
+    <col min="4" max="6" width="19.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:6">
@@ -14585,27 +14580,27 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="2" spans="4:6" ht="409.5">
+    <row r="2" spans="4:6" ht="409.6">
       <c r="D2" s="96" t="s">
+        <v>906</v>
+      </c>
+      <c r="E2" s="96" t="s">
+        <v>907</v>
+      </c>
+      <c r="F2" s="96" t="s">
         <v>908</v>
       </c>
-      <c r="E2" s="96" t="s">
+    </row>
+    <row r="3" spans="4:6" ht="259.2">
+      <c r="D3" s="96" t="s">
         <v>909</v>
-      </c>
-      <c r="F2" s="96" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="3" spans="4:6" ht="261">
-      <c r="D3" s="96" t="s">
-        <v>911</v>
       </c>
       <c r="E3" s="96"/>
       <c r="F3" s="96"/>
     </row>
-    <row r="4" spans="4:6" ht="72.5">
+    <row r="4" spans="4:6" ht="72">
       <c r="D4" s="125" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E4" s="96"/>
       <c r="F4" s="96"/>
@@ -14676,6 +14671,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D97C45C73161C540AAAEC0BB7C04B14C" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="eaac3f66d04ba47d8e7bacccdec8bc8e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="69ca14ff-5d6d-4eb8-91d9-74d4bb4de445" xmlns:ns4="72d74521-8c27-4702-99f8-167624e069b6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e42dd572579043e93d80e2ef1a203961" ns3:_="" ns4:_="">
     <xsd:import namespace="69ca14ff-5d6d-4eb8-91d9-74d4bb4de445"/>
@@ -14898,22 +14908,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D82FA49E-E684-481F-999C-85E775CBBA65}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4E4CF47-E673-4F26-A959-0B7774EBA194}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="72d74521-8c27-4702-99f8-167624e069b6"/>
+    <ds:schemaRef ds:uri="69ca14ff-5d6d-4eb8-91d9-74d4bb4de445"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BD029C1-9A00-4A77-A4BC-41F5C7C058C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14930,29 +14950,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4E4CF47-E673-4F26-A959-0B7774EBA194}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="69ca14ff-5d6d-4eb8-91d9-74d4bb4de445"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="72d74521-8c27-4702-99f8-167624e069b6"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D82FA49E-E684-481F-999C-85E775CBBA65}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data_management/management/2. harmonization/ENCOVI harmonization/Encovi_comparability across years 2014-2019_ALL.xlsx
+++ b/data_management/management/2. harmonization/ENCOVI harmonization/Encovi_comparability across years 2014-2019_ALL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb563583\GitHub\VEN\data_management\management\2. harmonization\ENCOVI harmonization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A386574-9EBD-456B-92E8-5C28E2EB2767}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C7C124-3036-4E8B-BD61-1B4318544956}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="805" firstSheet="3" activeTab="11" xr2:uid="{C17073D6-622F-4055-BD8D-7FC11D1960F9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="805" activeTab="16" xr2:uid="{C17073D6-622F-4055-BD8D-7FC11D1960F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Control_entrevista" sheetId="4" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="Consumo de alimento" sheetId="21" r:id="rId14"/>
     <sheet name="Seguridad Alimentaria" sheetId="15" r:id="rId15"/>
     <sheet name="Antropometría" sheetId="17" r:id="rId16"/>
+    <sheet name="Programas sociales" sheetId="22" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="1153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="1185">
   <si>
     <t>Questions</t>
   </si>
@@ -4880,6 +4881,201 @@
   </si>
   <si>
     <t>No disponible pero lo pregunta</t>
+  </si>
+  <si>
+    <t>57. EN EL PRESENTE (2018), ¿… RECIBE O ES BENEFICIARIO DE ALGUNA MISIÓN O PROGRAMA SOCIAL?</t>
+  </si>
+  <si>
+    <t>No existe esta pregunta</t>
+  </si>
+  <si>
+    <t>1. Alimentación/Mercal
+2. Barrio Adentro
+3. Milagro
+4. Sonrisa
+5. Robinson
+6. Ribas
+7. Sucre
+8. Saber y Trabajo, Vuelvan Caras y/o Ché Guevara
+9. G. M. Vivienda y/o Barrio Tricolor
+10. Casa Bien Equipada
+11. Madres del Barrio
+12. Hijos de Venezuela
+13. Negra Hipólita
+14. Amor Mayor
+15. Identidad
+16. Otra
+99. NS/NR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59. ¿ALGÚN MIEMBRO DE ESTE HOGAR, INCLUSIVE USTED, SE HA SACADO EL CARNET DE LA PATRIA?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Sí
+2. No. Indique por qué no: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">60. ¿EN ESTE HOGAR HAN ADQUIRIDO LA BOLSA/CAJA DEL CLAP?
+</t>
+  </si>
+  <si>
+    <t>1. Sí
+2. No
+99.NS/NR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61. ¿CON QUÉ FRECUENCIA LES LLEGA LA BOLSA/CAJA DEL CLAP?
+</t>
+  </si>
+  <si>
+    <t>1. Cada dos o tres semanas
+2. Cada mes
+3. Cada dos meses
+4. No hay periodicidad
+99.NS/NR</t>
+  </si>
+  <si>
+    <t>62. EN EL PRESENTE (2017), ¿… RECIBE O ES
+BENEFICIARIO DE ALGUNA MISIÓN
+O PROGRAMA SOCIAL?</t>
+  </si>
+  <si>
+    <t>1. Alimentación/Mercal
+2. Barrio Adentro
+3. Milagro
+4. Sonrisa
+5. Robinson
+6. Ribas
+7. Sucre
+8. Saber y Trabajo, Vuelvan Caras y/o
+Ché Guevara
+9. G. M. Vivienda y/o Barrio Tricolor
+10. Casa Bien Equipada
+11. Madres del Barrio
+12. Hijos de Venezuela
+13. Negra Hipólita
+14. Amor Mayor
+15. Identidad
+16. Otra
+99. NS/NR</t>
+  </si>
+  <si>
+    <t>58. ¿PUEDE IDENTIFICAR CUÁL MISIÓN O PROGRAMA SOCIAL RECIBE ACTUALMENTE? (selecciones hasta tres)</t>
+  </si>
+  <si>
+    <t>66. ¿CON QUÉ FRECUENCIA LES LLEGA LA
+BOLSA/CAJA DEL CLAP?
+1. Cada mes
+2. Cada 2 meses
+3. No hay periodicidad
+99. NS/NR</t>
+  </si>
+  <si>
+    <t>67. ¿LE GUSTARÍA A USTED RECIBIR O SER
+BENEFICIARIO DE ALGUNA MISIÓN O
+PROGRAMA SOCIAL?
+1. Sí
+2. No
+99. NS/NR</t>
+  </si>
+  <si>
+    <t>68. ¿CUÁL MISIÓN O PROGRAMA SOCIAL?</t>
+  </si>
+  <si>
+    <t>69. ¿CONSIDERA USTED QUE LAS MISIONES
+IMPLEMENTADAS POR EL GOBIERNO HAN
+MEJORADO LA CALIDAD DE VIDA DE LOS
+VENEZOLANOS?
+1. Sí, mucho
+2. Sí, algo
+3. No
+4. Todo lo contrario; la han empeorado
+99. NS/NR</t>
+  </si>
+  <si>
+    <t>1.Alimentación/Mercal
+2. Barrio Adentro
+3. Milagro
+4. Sonrisa
+5. Robinson
+6. Ribas
+7. Sucre
+8. Saber y Trabajo / Vuelvan Caras /
+Ché Guevara
+9. G.M. Vivienda / Barrio Tricolor
+10. Casa Bien Equipada
+11. Madres del Barrio
+12. Hijos de Venezuela
+13. Negra Hipólita
+14. Amor Mayor
+15. Identidad
+16. Otra</t>
+  </si>
+  <si>
+    <t>65. ¿POR QUÉ RAZÓN … RECIBE O ES BENEFICIARIO DE ALGUN PROGRAMA SOCIAL?</t>
+  </si>
+  <si>
+    <t>66. ¿POR QUÉ RAZÓN … NO RECIBE O NO ES BENEFICIARIO DE ALGUN PROGRAMA SOCIAL?</t>
+  </si>
+  <si>
+    <t>No existe</t>
+  </si>
+  <si>
+    <t>66. EN LOS PASADOS 5 ANOS (2010-2014) RECIBIO O FUE BENEFICIARIO DE ALGUNA MISION O PROGRAMA SOCIAL?</t>
+  </si>
+  <si>
+    <t>63. EN EL PRESENTE (2016), ¿… RECIBE O ES
+BENEFICIARIO DE ALGUNA MISIÓN
+O PROGRAMA SOCIAL?</t>
+  </si>
+  <si>
+    <t>68. EN EL PRESENTE (2015), ¿… RECIBE O ES
+BENEFICIARIO DE ALGUNA MISIÓN
+O PROGRAMA SOCIAL?</t>
+  </si>
+  <si>
+    <t>70. ¿POR QUÉ RAZÓN … RECIBE O ES BENEFICIARIO DE ALGUN PROGRAMA SOCIAL?</t>
+  </si>
+  <si>
+    <t>71. ¿POR QUÉ RAZÓN … NO RECIBE O NO ES BENEFICIARIO DE ALGUN PROGRAMA SOCIAL?</t>
+  </si>
+  <si>
+    <t>72. ¿LE GUSTARÍA A USTED RECIBIR O SER
+BENEFICIARIO DE ALGUNA MISIÓN O
+PROGRAMA SOCIAL?
+1. Sí
+2. No
+99. NS/NR</t>
+  </si>
+  <si>
+    <t>73. ¿CUÁL MISIÓN O PROGRAMA SOCIAL?</t>
+  </si>
+  <si>
+    <t>74. ¿USTED CONSIDERA QUE PARA SER
+BENEFICIARIO DE LAS MISIONES
+SOCIALES ES NECESARIO SER PARTIDARIO DEL
+ACTUAL GOBIERNO?
+1. Si
+2. No
+99. NS/NR</t>
+  </si>
+  <si>
+    <t>75. EN UNA ESCALA DE 1 AL 10, DONDE 1=MUY EN DESACUERDO Y 10=MUY
+DE ACUERDO, ¿QUÉ TAN DE ACUERDO O EN DESACUERDO ESTÁ USTED
+CON LA FRASE "LOS PROGRAMAS SOCIALES NO DEBERIAN SER PARA LAS
+PERSONAS QUE ADVERSAN AL GOBIERNO"?</t>
+  </si>
+  <si>
+    <t>66. EN LOS PASADOS 5 ANOS (2009-2013) RECIBIO O FUE BENEFICIARIO DE ALGUNA MISION O PROGRAMA SOCIAL?</t>
+  </si>
+  <si>
+    <t>LE PIDE QUE LAS ESCRIBA NO DA LAS OPCIONES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64. ¿SE HA SACADO USTED EL CARNET DE LA PATRIA?
+1. Sí
+2. No. Indique por qué no: </t>
   </si>
 </sst>
 </file>
@@ -4986,7 +5182,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5080,6 +5276,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5194,7 +5396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -5622,79 +5824,90 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6020,7 +6233,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
@@ -6032,12 +6245,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="8" customFormat="1">
-      <c r="A1" s="144">
+      <c r="A1" s="147">
         <v>2019</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -6625,12 +6838,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="9" customFormat="1">
-      <c r="A1" s="144">
+      <c r="A1" s="147">
         <v>2019</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -6875,12 +7088,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="37" customFormat="1">
-      <c r="A1" s="144">
+      <c r="A1" s="147">
         <v>2019</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -6910,13 +7123,13 @@
       <c r="D2" s="61" t="s">
         <v>390</v>
       </c>
-      <c r="E2" s="163" t="s">
+      <c r="E2" s="166" t="s">
         <v>867</v>
       </c>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
       <c r="J2" s="51"/>
     </row>
     <row r="3" spans="1:10" s="52" customFormat="1" ht="29">
@@ -7641,11 +7854,11 @@
   </sheetPr>
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7657,12 +7870,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="11" customFormat="1">
-      <c r="A1" s="144">
+      <c r="A1" s="147">
         <v>2019</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -7711,9 +7924,9 @@
         <v>1151</v>
       </c>
       <c r="F3" s="71"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145"/>
     </row>
     <row r="4" spans="1:9" ht="29">
       <c r="A4" s="69" t="s">
@@ -7732,9 +7945,9 @@
       <c r="F4" s="71" t="s">
         <v>756</v>
       </c>
-      <c r="G4" s="168"/>
-      <c r="H4" s="168"/>
-      <c r="I4" s="168"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="145"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="69" t="s">
@@ -7751,9 +7964,9 @@
       <c r="F5" s="71" t="s">
         <v>756</v>
       </c>
-      <c r="G5" s="168"/>
-      <c r="H5" s="168"/>
-      <c r="I5" s="168"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
     </row>
     <row r="6" spans="1:9" ht="87" customHeight="1">
       <c r="A6" s="69" t="s">
@@ -7770,9 +7983,9 @@
       <c r="F6" s="71" t="s">
         <v>1152</v>
       </c>
-      <c r="G6" s="168"/>
-      <c r="H6" s="168"/>
-      <c r="I6" s="168"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
     </row>
     <row r="7" spans="1:9" ht="29">
       <c r="A7" s="69" t="s">
@@ -7787,9 +8000,9 @@
         <v>756</v>
       </c>
       <c r="F7" s="71"/>
-      <c r="G7" s="168"/>
-      <c r="H7" s="168"/>
-      <c r="I7" s="168"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="145"/>
     </row>
     <row r="8" spans="1:9" ht="29">
       <c r="A8" s="69" t="s">
@@ -7806,9 +8019,9 @@
         <v>756</v>
       </c>
       <c r="F8" s="71"/>
-      <c r="G8" s="168"/>
-      <c r="H8" s="168"/>
-      <c r="I8" s="168"/>
+      <c r="G8" s="145"/>
+      <c r="H8" s="145"/>
+      <c r="I8" s="145"/>
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" ht="180" customHeight="1">
       <c r="A9" s="12" t="s">
@@ -7838,9 +8051,9 @@
       <c r="D10" s="71"/>
       <c r="E10" s="71"/>
       <c r="F10" s="71"/>
-      <c r="G10" s="168"/>
-      <c r="H10" s="168"/>
-      <c r="I10" s="168"/>
+      <c r="G10" s="145"/>
+      <c r="H10" s="145"/>
+      <c r="I10" s="145"/>
     </row>
     <row r="11" spans="1:9" ht="174">
       <c r="A11" s="69" t="s">
@@ -7855,9 +8068,9 @@
       </c>
       <c r="E11" s="71"/>
       <c r="F11" s="71"/>
-      <c r="G11" s="168"/>
-      <c r="H11" s="168"/>
-      <c r="I11" s="168"/>
+      <c r="G11" s="145"/>
+      <c r="H11" s="145"/>
+      <c r="I11" s="145"/>
     </row>
     <row r="12" spans="1:9" ht="203">
       <c r="A12" s="69" t="s">
@@ -7872,9 +8085,9 @@
       </c>
       <c r="E12" s="71"/>
       <c r="F12" s="71"/>
-      <c r="G12" s="168"/>
-      <c r="H12" s="168"/>
-      <c r="I12" s="168"/>
+      <c r="G12" s="145"/>
+      <c r="H12" s="145"/>
+      <c r="I12" s="145"/>
     </row>
     <row r="13" spans="1:9" ht="43.5">
       <c r="A13" s="69" t="s">
@@ -7887,9 +8100,9 @@
       <c r="D13" s="71"/>
       <c r="E13" s="71"/>
       <c r="F13" s="71"/>
-      <c r="G13" s="168"/>
-      <c r="H13" s="168"/>
-      <c r="I13" s="168"/>
+      <c r="G13" s="145"/>
+      <c r="H13" s="145"/>
+      <c r="I13" s="145"/>
     </row>
     <row r="14" spans="1:9" ht="43.5">
       <c r="A14" s="69" t="s">
@@ -7904,9 +8117,9 @@
       </c>
       <c r="E14" s="71"/>
       <c r="F14" s="71"/>
-      <c r="G14" s="168"/>
-      <c r="H14" s="168"/>
-      <c r="I14" s="168"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="145"/>
+      <c r="I14" s="145"/>
     </row>
     <row r="15" spans="1:9" ht="43.5">
       <c r="A15" s="69" t="s">
@@ -7919,9 +8132,9 @@
       <c r="D15" s="71"/>
       <c r="E15" s="71"/>
       <c r="F15" s="71"/>
-      <c r="G15" s="168"/>
-      <c r="H15" s="168"/>
-      <c r="I15" s="168"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="145"/>
+      <c r="I15" s="145"/>
     </row>
     <row r="16" spans="1:9" ht="43.5">
       <c r="A16" s="69" t="s">
@@ -7934,9 +8147,9 @@
       <c r="D16" s="71"/>
       <c r="E16" s="71"/>
       <c r="F16" s="71"/>
-      <c r="G16" s="168"/>
-      <c r="H16" s="168"/>
-      <c r="I16" s="168"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="145"/>
+      <c r="I16" s="145"/>
     </row>
     <row r="17" spans="1:9" ht="43.5">
       <c r="A17" s="69" t="s">
@@ -7949,9 +8162,9 @@
       <c r="D17" s="71"/>
       <c r="E17" s="71"/>
       <c r="F17" s="71"/>
-      <c r="G17" s="168"/>
-      <c r="H17" s="168"/>
-      <c r="I17" s="168"/>
+      <c r="G17" s="145"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="145"/>
     </row>
     <row r="18" spans="1:9" ht="232">
       <c r="A18" s="69" t="s">
@@ -7966,9 +8179,9 @@
       </c>
       <c r="E18" s="71"/>
       <c r="F18" s="71"/>
-      <c r="G18" s="168"/>
-      <c r="H18" s="168"/>
-      <c r="I18" s="168"/>
+      <c r="G18" s="145"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="145"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="71" t="s">
@@ -7981,9 +8194,9 @@
       <c r="D19" s="71"/>
       <c r="E19" s="71"/>
       <c r="F19" s="71"/>
-      <c r="G19" s="168"/>
-      <c r="H19" s="168"/>
-      <c r="I19" s="168"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="145"/>
+      <c r="I19" s="145"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="71" t="s">
@@ -7996,9 +8209,9 @@
       <c r="D20" s="71"/>
       <c r="E20" s="71"/>
       <c r="F20" s="71"/>
-      <c r="G20" s="168"/>
-      <c r="H20" s="168"/>
-      <c r="I20" s="168"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="145"/>
     </row>
     <row r="21" spans="1:9" s="6" customFormat="1" ht="29">
       <c r="A21" s="69" t="s">
@@ -8013,9 +8226,9 @@
       </c>
       <c r="E21" s="69"/>
       <c r="F21" s="69"/>
-      <c r="G21" s="169"/>
-      <c r="H21" s="169"/>
-      <c r="I21" s="169"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="146"/>
     </row>
     <row r="22" spans="1:9" ht="87">
       <c r="A22" s="69" t="s">
@@ -8030,9 +8243,9 @@
       </c>
       <c r="E22" s="71"/>
       <c r="F22" s="71"/>
-      <c r="G22" s="168"/>
-      <c r="H22" s="168"/>
-      <c r="I22" s="168"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="145"/>
     </row>
     <row r="23" spans="1:9" ht="188.5">
       <c r="A23" s="69" t="s">
@@ -8049,9 +8262,9 @@
         <v>1022</v>
       </c>
       <c r="F23" s="71"/>
-      <c r="G23" s="168"/>
-      <c r="H23" s="168"/>
-      <c r="I23" s="168"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="145"/>
+      <c r="I23" s="145"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="71" t="s">
@@ -8064,9 +8277,9 @@
       <c r="D24" s="71"/>
       <c r="E24" s="71"/>
       <c r="F24" s="71"/>
-      <c r="G24" s="168"/>
-      <c r="H24" s="168"/>
-      <c r="I24" s="168"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="145"/>
+      <c r="I24" s="145"/>
     </row>
     <row r="25" spans="1:9" s="6" customFormat="1" ht="374.5" customHeight="1">
       <c r="A25" s="69" t="s">
@@ -8081,9 +8294,9 @@
       </c>
       <c r="E25" s="69"/>
       <c r="F25" s="69"/>
-      <c r="G25" s="169"/>
-      <c r="H25" s="169"/>
-      <c r="I25" s="169"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="146"/>
+      <c r="I25" s="146"/>
     </row>
     <row r="26" spans="1:9" ht="379" customHeight="1">
       <c r="A26" s="64" t="s">
@@ -8098,9 +8311,9 @@
       </c>
       <c r="E26" s="71"/>
       <c r="F26" s="71"/>
-      <c r="G26" s="168"/>
-      <c r="H26" s="168"/>
-      <c r="I26" s="168"/>
+      <c r="G26" s="145"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="145"/>
     </row>
     <row r="27" spans="1:9" ht="43.5">
       <c r="A27" s="64" t="s">
@@ -8115,9 +8328,9 @@
       </c>
       <c r="E27" s="71"/>
       <c r="F27" s="71"/>
-      <c r="G27" s="168"/>
-      <c r="H27" s="168"/>
-      <c r="I27" s="168"/>
+      <c r="G27" s="145"/>
+      <c r="H27" s="145"/>
+      <c r="I27" s="145"/>
     </row>
     <row r="28" spans="1:9" ht="29">
       <c r="A28" s="64" t="s">
@@ -8130,9 +8343,9 @@
       <c r="D28" s="71"/>
       <c r="E28" s="71"/>
       <c r="F28" s="71"/>
-      <c r="G28" s="168"/>
-      <c r="H28" s="168"/>
-      <c r="I28" s="168"/>
+      <c r="G28" s="145"/>
+      <c r="H28" s="145"/>
+      <c r="I28" s="145"/>
     </row>
     <row r="29" spans="1:9" ht="174">
       <c r="A29" s="64" t="s">
@@ -8147,9 +8360,9 @@
       </c>
       <c r="E29" s="71"/>
       <c r="F29" s="71"/>
-      <c r="G29" s="168"/>
-      <c r="H29" s="168"/>
-      <c r="I29" s="168"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="145"/>
     </row>
     <row r="30" spans="1:9" ht="43.5">
       <c r="A30" s="64" t="s">
@@ -8164,9 +8377,9 @@
       </c>
       <c r="E30" s="71"/>
       <c r="F30" s="71"/>
-      <c r="G30" s="168"/>
-      <c r="H30" s="168"/>
-      <c r="I30" s="168"/>
+      <c r="G30" s="145"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="145"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8293,7 +8506,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -8303,12 +8516,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="37" customFormat="1">
-      <c r="A1" s="164">
+      <c r="A1" s="167">
         <v>2019</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="165"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="168"/>
     </row>
     <row r="2" spans="1:5" s="50" customFormat="1" ht="43.5">
       <c r="A2" s="94" t="s">
@@ -8384,13 +8597,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="37" customFormat="1">
-      <c r="A1" s="164">
+      <c r="A1" s="167">
         <v>2019</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="165"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="168"/>
       <c r="F1" s="60">
         <v>2018</v>
       </c>
@@ -8408,10 +8621,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="50" customFormat="1" ht="43.5">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="170" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="167"/>
+      <c r="B2" s="170"/>
       <c r="C2" s="61" t="s">
         <v>128</v>
       </c>
@@ -8429,10 +8642,10 @@
       <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:11" ht="72.5">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="169" t="s">
         <v>913</v>
       </c>
-      <c r="B3" s="166"/>
+      <c r="B3" s="169"/>
       <c r="C3" s="71" t="s">
         <v>927</v>
       </c>
@@ -8459,7 +8672,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="29">
-      <c r="A4" s="166" t="s">
+      <c r="A4" s="169" t="s">
         <v>943</v>
       </c>
       <c r="B4" s="70" t="s">
@@ -8491,7 +8704,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="116">
-      <c r="A5" s="166"/>
+      <c r="A5" s="169"/>
       <c r="B5" s="70" t="s">
         <v>915</v>
       </c>
@@ -8521,7 +8734,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="145">
-      <c r="A6" s="166"/>
+      <c r="A6" s="169"/>
       <c r="B6" s="70" t="s">
         <v>916</v>
       </c>
@@ -8551,7 +8764,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="145">
-      <c r="A7" s="166"/>
+      <c r="A7" s="169"/>
       <c r="B7" s="70" t="s">
         <v>917</v>
       </c>
@@ -8581,7 +8794,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="188.5">
-      <c r="A8" s="166"/>
+      <c r="A8" s="169"/>
       <c r="B8" s="70" t="s">
         <v>918</v>
       </c>
@@ -8611,7 +8824,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="304.5">
-      <c r="A9" s="166"/>
+      <c r="A9" s="169"/>
       <c r="B9" s="70" t="s">
         <v>919</v>
       </c>
@@ -8641,7 +8854,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" s="82" customFormat="1" ht="261">
-      <c r="A10" s="166"/>
+      <c r="A10" s="169"/>
       <c r="B10" s="86" t="s">
         <v>920</v>
       </c>
@@ -8671,7 +8884,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="188.5">
-      <c r="A11" s="166"/>
+      <c r="A11" s="169"/>
       <c r="B11" s="70" t="s">
         <v>921</v>
       </c>
@@ -8701,7 +8914,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="145">
-      <c r="A12" s="166"/>
+      <c r="A12" s="169"/>
       <c r="B12" s="70" t="s">
         <v>922</v>
       </c>
@@ -8731,7 +8944,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="145">
-      <c r="A13" s="166"/>
+      <c r="A13" s="169"/>
       <c r="B13" s="70" t="s">
         <v>923</v>
       </c>
@@ -8761,7 +8974,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="29">
-      <c r="A14" s="166"/>
+      <c r="A14" s="169"/>
       <c r="B14" s="70" t="s">
         <v>924</v>
       </c>
@@ -8789,7 +9002,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="29">
-      <c r="A15" s="166"/>
+      <c r="A15" s="169"/>
       <c r="B15" s="70" t="s">
         <v>925</v>
       </c>
@@ -8817,10 +9030,10 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="43.5">
-      <c r="A16" s="166" t="s">
+      <c r="A16" s="169" t="s">
         <v>926</v>
       </c>
-      <c r="B16" s="166"/>
+      <c r="B16" s="169"/>
       <c r="C16" s="70" t="s">
         <v>958</v>
       </c>
@@ -8878,12 +9091,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="90" customFormat="1">
-      <c r="A1" s="153">
+      <c r="A1" s="156">
         <v>2019</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
       <c r="E1" s="84">
         <v>2018</v>
       </c>
@@ -9165,6 +9378,546 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46732EB0-91BD-41BD-87B2-5DE6488A811C}">
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="33.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" customWidth="1"/>
+    <col min="5" max="5" width="20.81640625" customWidth="1"/>
+    <col min="6" max="6" width="24.08984375" customWidth="1"/>
+    <col min="7" max="7" width="20.453125" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" customWidth="1"/>
+    <col min="9" max="10" width="17.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="37" customFormat="1">
+      <c r="A1" s="147">
+        <v>2019</v>
+      </c>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="144">
+        <v>2018</v>
+      </c>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144">
+        <v>2017</v>
+      </c>
+      <c r="H1" s="144">
+        <v>2016</v>
+      </c>
+      <c r="I1" s="144">
+        <v>2015</v>
+      </c>
+      <c r="J1" s="144">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="7" customFormat="1">
+      <c r="A2" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>750</v>
+      </c>
+      <c r="E2" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="67" t="s">
+        <v>750</v>
+      </c>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+    </row>
+    <row r="3" spans="1:10" ht="76.5" customHeight="1">
+      <c r="A3" s="69"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D3" s="69"/>
+      <c r="E3" s="64" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64" t="s">
+        <v>1162</v>
+      </c>
+      <c r="H3" s="63" t="s">
+        <v>1174</v>
+      </c>
+      <c r="I3" s="63" t="s">
+        <v>1175</v>
+      </c>
+      <c r="J3" s="63" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="333.5">
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F4" s="64" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G4" s="64" t="s">
+        <v>1163</v>
+      </c>
+      <c r="H4" s="63" t="s">
+        <v>1169</v>
+      </c>
+      <c r="I4" s="63" t="s">
+        <v>1169</v>
+      </c>
+      <c r="J4" s="63" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="91.5" customHeight="1">
+      <c r="A5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63" t="s">
+        <v>1173</v>
+      </c>
+      <c r="J5" s="63" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="87">
+      <c r="A6" s="69"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="72" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F6" s="64" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G6" s="64" t="s">
+        <v>1184</v>
+      </c>
+      <c r="H6" s="171" t="s">
+        <v>1172</v>
+      </c>
+      <c r="I6" s="171" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J6" s="171" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="87" customHeight="1">
+      <c r="A7" s="69"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="64" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F7" s="64" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G7" s="69" t="s">
+        <v>756</v>
+      </c>
+      <c r="H7" s="171" t="s">
+        <v>1172</v>
+      </c>
+      <c r="I7" s="171" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J7" s="171" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="116">
+      <c r="A8" s="69"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="64" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F8" s="64" t="s">
+        <v>1161</v>
+      </c>
+      <c r="G8" s="72" t="s">
+        <v>1165</v>
+      </c>
+      <c r="H8" s="171" t="s">
+        <v>1172</v>
+      </c>
+      <c r="I8" s="171" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J8" s="171" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="82" customFormat="1" ht="118" customHeight="1">
+      <c r="A9" s="174"/>
+      <c r="B9" s="174"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="171" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F9" s="171" t="s">
+        <v>1172</v>
+      </c>
+      <c r="G9" s="64" t="s">
+        <v>1166</v>
+      </c>
+      <c r="H9" s="64" t="s">
+        <v>1166</v>
+      </c>
+      <c r="I9" s="64" t="s">
+        <v>1178</v>
+      </c>
+      <c r="J9" s="64" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="2" customFormat="1" ht="30.5" customHeight="1">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="171" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F10" s="171" t="s">
+        <v>1172</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>1167</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>1167</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>1179</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="217.5">
+      <c r="A11" s="71"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="171" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F11" s="171" t="s">
+        <v>1172</v>
+      </c>
+      <c r="G11" s="64" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H11" s="171" t="s">
+        <v>1172</v>
+      </c>
+      <c r="I11" s="171" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J11" s="171" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="87">
+      <c r="A12" s="69"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="172" t="s">
+        <v>1170</v>
+      </c>
+      <c r="I12" s="63" t="s">
+        <v>1176</v>
+      </c>
+      <c r="J12" s="63" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="101.5">
+      <c r="A13" s="69"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="63" t="s">
+        <v>1171</v>
+      </c>
+      <c r="I13" s="63" t="s">
+        <v>1177</v>
+      </c>
+      <c r="J13" s="63" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="159.5">
+      <c r="A14" s="69"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="173"/>
+      <c r="I14" s="63" t="s">
+        <v>1180</v>
+      </c>
+      <c r="J14" s="173"/>
+    </row>
+    <row r="15" spans="1:10" ht="217.5">
+      <c r="A15" s="69"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="173"/>
+      <c r="I15" s="63" t="s">
+        <v>1181</v>
+      </c>
+      <c r="J15" s="173"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="69"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="173"/>
+      <c r="I16" s="173"/>
+      <c r="J16" s="173"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="69"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="173"/>
+      <c r="I17" s="173"/>
+      <c r="J17" s="173"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="69"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="173"/>
+      <c r="I18" s="173"/>
+      <c r="J18" s="173"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="69"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="173"/>
+      <c r="I19" s="173"/>
+      <c r="J19" s="173"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="71"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="173"/>
+      <c r="I20" s="173"/>
+      <c r="J20" s="173"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="71"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="173"/>
+      <c r="I21" s="173"/>
+      <c r="J21" s="173"/>
+    </row>
+    <row r="22" spans="1:10" s="6" customFormat="1">
+      <c r="A22" s="69"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="69"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="173"/>
+      <c r="I23" s="173"/>
+      <c r="J23" s="173"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="69"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="173"/>
+      <c r="I24" s="173"/>
+      <c r="J24" s="173"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="71"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="173"/>
+      <c r="I25" s="173"/>
+      <c r="J25" s="173"/>
+    </row>
+    <row r="26" spans="1:10" s="6" customFormat="1" ht="374.5" customHeight="1">
+      <c r="A26" s="69"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+    </row>
+    <row r="27" spans="1:10" ht="379" customHeight="1">
+      <c r="A27" s="64"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="145"/>
+      <c r="I27" s="145"/>
+      <c r="J27" s="145"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="64"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="145"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="145"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="64"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="145"/>
+      <c r="J29" s="145"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="64"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="145"/>
+      <c r="J30" s="145"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="64"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="145"/>
+      <c r="J31" s="145"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -9182,12 +9935,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="8" customFormat="1">
-      <c r="A1" s="144">
+      <c r="A1" s="147">
         <v>2019</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -9312,12 +10065,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1">
-      <c r="A1" s="144">
+      <c r="A1" s="147">
         <v>2019</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -10162,12 +10915,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="9" customFormat="1">
-      <c r="A1" s="144">
+      <c r="A1" s="147">
         <v>2019</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -10786,12 +11539,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1">
-      <c r="A1" s="145">
+      <c r="A1" s="148">
         <v>2019</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -11441,12 +12194,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="37" customFormat="1">
-      <c r="A1" s="144">
+      <c r="A1" s="147">
         <v>2019</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -12421,12 +13174,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="37" customFormat="1">
-      <c r="A1" s="146">
+      <c r="A1" s="149">
         <v>2019</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
       <c r="E1" s="59">
         <v>2018</v>
       </c>
@@ -12456,13 +13209,13 @@
       <c r="D2" s="79" t="s">
         <v>390</v>
       </c>
-      <c r="E2" s="147" t="s">
+      <c r="E2" s="150" t="s">
         <v>551</v>
       </c>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="149"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="152"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="106.25" customHeight="1">
@@ -14041,14 +14794,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="153">
+      <c r="A1" s="156">
         <v>2019</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
     </row>
     <row r="2" spans="1:6" ht="72.650000000000006" customHeight="1">
       <c r="A2" s="95" t="s">
@@ -14080,7 +14833,7 @@
       <c r="C3" s="99" t="s">
         <v>1108</v>
       </c>
-      <c r="D3" s="155" t="s">
+      <c r="D3" s="158" t="s">
         <v>1025</v>
       </c>
       <c r="E3" s="112" t="s">
@@ -14100,7 +14853,7 @@
       <c r="C4" s="98" t="s">
         <v>1110</v>
       </c>
-      <c r="D4" s="156"/>
+      <c r="D4" s="159"/>
       <c r="E4" s="112" t="s">
         <v>1106</v>
       </c>
@@ -14116,7 +14869,7 @@
       <c r="C5" s="99" t="s">
         <v>1111</v>
       </c>
-      <c r="D5" s="156"/>
+      <c r="D5" s="159"/>
       <c r="E5" s="112" t="s">
         <v>1105</v>
       </c>
@@ -14132,7 +14885,7 @@
       <c r="C6" s="99" t="s">
         <v>1112</v>
       </c>
-      <c r="D6" s="156"/>
+      <c r="D6" s="159"/>
       <c r="E6" s="112" t="s">
         <v>1107</v>
       </c>
@@ -14148,7 +14901,7 @@
       <c r="C7" s="98" t="s">
         <v>1113</v>
       </c>
-      <c r="D7" s="156"/>
+      <c r="D7" s="159"/>
       <c r="E7" s="112" t="s">
         <v>1096</v>
       </c>
@@ -14164,7 +14917,7 @@
       <c r="C8" s="98" t="s">
         <v>1114</v>
       </c>
-      <c r="D8" s="157"/>
+      <c r="D8" s="160"/>
       <c r="E8" s="112" t="s">
         <v>1097</v>
       </c>
@@ -14180,7 +14933,7 @@
       <c r="C9" s="97" t="s">
         <v>1115</v>
       </c>
-      <c r="D9" s="154" t="s">
+      <c r="D9" s="157" t="s">
         <v>1031</v>
       </c>
       <c r="E9" s="113" t="s">
@@ -14200,7 +14953,7 @@
       <c r="C10" s="97" t="s">
         <v>1116</v>
       </c>
-      <c r="D10" s="154"/>
+      <c r="D10" s="157"/>
       <c r="E10" s="113" t="s">
         <v>1032</v>
       </c>
@@ -14216,7 +14969,7 @@
       <c r="C11" s="101" t="s">
         <v>1117</v>
       </c>
-      <c r="D11" s="158" t="s">
+      <c r="D11" s="161" t="s">
         <v>1070</v>
       </c>
       <c r="E11" s="114" t="s">
@@ -14234,7 +14987,7 @@
       <c r="C12" s="101" t="s">
         <v>1118</v>
       </c>
-      <c r="D12" s="158"/>
+      <c r="D12" s="161"/>
       <c r="E12" s="114" t="s">
         <v>1060</v>
       </c>
@@ -14250,7 +15003,7 @@
       <c r="C13" s="101" t="s">
         <v>1119</v>
       </c>
-      <c r="D13" s="158"/>
+      <c r="D13" s="161"/>
       <c r="E13" s="114" t="s">
         <v>1058</v>
       </c>
@@ -14266,7 +15019,7 @@
       <c r="C14" s="101" t="s">
         <v>1120</v>
       </c>
-      <c r="D14" s="158"/>
+      <c r="D14" s="161"/>
       <c r="E14" s="114" t="s">
         <v>1059</v>
       </c>
@@ -14282,7 +15035,7 @@
       <c r="C15" s="101" t="s">
         <v>1109</v>
       </c>
-      <c r="D15" s="158"/>
+      <c r="D15" s="161"/>
       <c r="E15" s="114" t="s">
         <v>1061</v>
       </c>
@@ -14298,7 +15051,7 @@
       <c r="C16" s="101" t="s">
         <v>1121</v>
       </c>
-      <c r="D16" s="158"/>
+      <c r="D16" s="161"/>
       <c r="E16" s="114" t="s">
         <v>1062</v>
       </c>
@@ -14314,7 +15067,7 @@
       <c r="C17" s="108" t="s">
         <v>1122</v>
       </c>
-      <c r="D17" s="159" t="s">
+      <c r="D17" s="162" t="s">
         <v>1069</v>
       </c>
       <c r="E17" s="115" t="s">
@@ -14332,7 +15085,7 @@
       <c r="C18" s="108" t="s">
         <v>1123</v>
       </c>
-      <c r="D18" s="159"/>
+      <c r="D18" s="162"/>
       <c r="E18" s="115" t="s">
         <v>1099</v>
       </c>
@@ -14366,7 +15119,7 @@
       <c r="C20" s="109" t="s">
         <v>1125</v>
       </c>
-      <c r="D20" s="160" t="s">
+      <c r="D20" s="163" t="s">
         <v>1067</v>
       </c>
       <c r="E20" s="116" t="s">
@@ -14384,7 +15137,7 @@
       <c r="C21" s="109" t="s">
         <v>1126</v>
       </c>
-      <c r="D21" s="161"/>
+      <c r="D21" s="164"/>
       <c r="E21" s="116" t="s">
         <v>1064</v>
       </c>
@@ -14400,7 +15153,7 @@
       <c r="C22" s="109" t="s">
         <v>1127</v>
       </c>
-      <c r="D22" s="161"/>
+      <c r="D22" s="164"/>
       <c r="E22" s="116" t="s">
         <v>1065</v>
       </c>
@@ -14416,7 +15169,7 @@
       <c r="C23" s="109" t="s">
         <v>1128</v>
       </c>
-      <c r="D23" s="162"/>
+      <c r="D23" s="165"/>
       <c r="E23" s="116" t="s">
         <v>1066</v>
       </c>
@@ -14450,7 +15203,7 @@
       <c r="C25" s="110" t="s">
         <v>1130</v>
       </c>
-      <c r="D25" s="150" t="s">
+      <c r="D25" s="153" t="s">
         <v>1084</v>
       </c>
       <c r="E25" s="118" t="s">
@@ -14468,7 +15221,7 @@
       <c r="C26" s="110" t="s">
         <v>1131</v>
       </c>
-      <c r="D26" s="150"/>
+      <c r="D26" s="153"/>
       <c r="E26" s="118" t="s">
         <v>1083</v>
       </c>
@@ -14502,7 +15255,7 @@
       <c r="C28" s="124" t="s">
         <v>1133</v>
       </c>
-      <c r="D28" s="151" t="s">
+      <c r="D28" s="154" t="s">
         <v>1091</v>
       </c>
       <c r="E28" s="124" t="s">
@@ -14520,7 +15273,7 @@
       <c r="C29" s="124" t="s">
         <v>1129</v>
       </c>
-      <c r="D29" s="152"/>
+      <c r="D29" s="155"/>
       <c r="E29" s="124" t="s">
         <v>1103</v>
       </c>
@@ -14565,7 +15318,7 @@
   </sheetPr>
   <dimension ref="D1:F16"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -14676,6 +15429,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D97C45C73161C540AAAEC0BB7C04B14C" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="eaac3f66d04ba47d8e7bacccdec8bc8e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="69ca14ff-5d6d-4eb8-91d9-74d4bb4de445" xmlns:ns4="72d74521-8c27-4702-99f8-167624e069b6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e42dd572579043e93d80e2ef1a203961" ns3:_="" ns4:_="">
     <xsd:import namespace="69ca14ff-5d6d-4eb8-91d9-74d4bb4de445"/>
@@ -14898,22 +15666,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D82FA49E-E684-481F-999C-85E775CBBA65}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4E4CF47-E673-4F26-A959-0B7774EBA194}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="72d74521-8c27-4702-99f8-167624e069b6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="69ca14ff-5d6d-4eb8-91d9-74d4bb4de445"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BD029C1-9A00-4A77-A4BC-41F5C7C058C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14930,29 +15708,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4E4CF47-E673-4F26-A959-0B7774EBA194}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="69ca14ff-5d6d-4eb8-91d9-74d4bb4de445"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="72d74521-8c27-4702-99f8-167624e069b6"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D82FA49E-E684-481F-999C-85E775CBBA65}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>